--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="132" yWindow="540" windowWidth="22716" windowHeight="10788"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="512">
   <si>
     <t>ID</t>
   </si>
@@ -406,9 +406,6 @@
     <t>IRCTC_TC_23</t>
   </si>
   <si>
-    <t>div[class='ng-star-inserted']:nth-of-type(1)&gt;div[class*='form-group']:nth-of-type(1)&gt;app-train-avl-enq&gt;div[class='ng-star-inserted']:nth-of-type(1)&gt;div[class*='white-back']:nth-of-type(3)&gt;div[class*='col-xs-']:nth-of-type(1)</t>
-  </si>
-  <si>
     <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//div[contains(@class, 'white-back')]/div[contains(@class, 'col-xs-')][1]</t>
   </si>
   <si>
@@ -481,9 +478,6 @@
     <t>INDORE_NIC_04</t>
   </si>
   <si>
-    <t>div[class='copyRightsText'] p:nth-of-type(2)</t>
-  </si>
-  <si>
     <t>//div[@class='copyRightsText']/p[2]</t>
   </si>
   <si>
@@ -499,15 +493,9 @@
     <t>https://indore.nic.in/en/agriculture/</t>
   </si>
   <si>
-    <t>tr:nth-of-type(1) td[data-th='OFFICER']</t>
-  </si>
-  <si>
     <t>//tr[1]/td[@data-th='OFFICER']</t>
   </si>
   <si>
-    <t>tr td[data-th='OFFICER']</t>
-  </si>
-  <si>
     <t>//tr/td[@data-th='OFFICER']</t>
   </si>
   <si>
@@ -535,18 +523,6 @@
     <t>https://indore.nic.in/en/document-category/master-plan-20-21/</t>
   </si>
   <si>
-    <t>tr:nth-of-type(1) td[data-th='Title '] span[class='bt-content']</t>
-  </si>
-  <si>
-    <t>//tr[1]/td[@data-th='Title ']/span[@class='bt-content']</t>
-  </si>
-  <si>
-    <t>tr td[data-th='Title '] span[class='bt-content']</t>
-  </si>
-  <si>
-    <t>//tr/td[@data-th='Title ']/span[@class='bt-content']</t>
-  </si>
-  <si>
     <t>span:contains(Master Plan 20-21- Studies and Analysis Part – 3)</t>
   </si>
   <si>
@@ -595,15 +571,9 @@
     <t>INDORE_NIC_10</t>
   </si>
   <si>
-    <t>div[id*='post-'] p:nth-of-type(2)</t>
-  </si>
-  <si>
     <t>//div[contains(@id, 'post-')]/p[2]</t>
   </si>
   <si>
-    <t>div[id*='post-'] p</t>
-  </si>
-  <si>
     <t>//div[contains(@id, 'post-')]/p</t>
   </si>
   <si>
@@ -634,9 +604,6 @@
     <t>https://yonobusiness.sbi/</t>
   </si>
   <si>
-    <t>a[rel='external'] img</t>
-  </si>
-  <si>
     <t>//a[@rel='external']/img</t>
   </si>
   <si>
@@ -733,9 +700,6 @@
     <t>YONO_SBI_07</t>
   </si>
   <si>
-    <t>div[class='float-right hidden-xs'] p</t>
-  </si>
-  <si>
     <t>//div[@class='float-right hidden-xs']/p</t>
   </si>
   <si>
@@ -1340,13 +1304,259 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']:nth-of-type(1)&gt;div[class*='form-group']:nth-of-type(1) div[class*='white-back']:nth-of-type(3)&gt;div[class*='col-xs-']:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>div[class='copyRightsText'] &gt; p:nth-of-type(2)</t>
+  </si>
+  <si>
+    <t>tr:nth-of-type(1) &gt; td[data-th='OFFICER']</t>
+  </si>
+  <si>
+    <t>tr &gt; td[data-th='OFFICER']</t>
+  </si>
+  <si>
+    <t>tr:nth-of-type(1) &gt; td[data-th*='Title'] &gt; span[class='bt-content']</t>
+  </si>
+  <si>
+    <t>//tr[1]/td[contains(@data-th, 'Title')]/span[@class='bt-content']</t>
+  </si>
+  <si>
+    <t>tr &gt; td[data-th*='Title'] &gt; span[class='bt-content']</t>
+  </si>
+  <si>
+    <t>//tr/td[contains(@data-th, 'Title')]/span[@class='bt-content']</t>
+  </si>
+  <si>
+    <t>div[id*='post-'] &gt; p:nth-of-type(2)</t>
+  </si>
+  <si>
+    <t>div[id*='post-'] &gt; p</t>
+  </si>
+  <si>
+    <t>a[rel='external'] &gt; img</t>
+  </si>
+  <si>
+    <t>div[class='float-right hidden-xs'] &gt; p</t>
+  </si>
+  <si>
+    <t>JOY_BIRD_06</t>
+  </si>
+  <si>
+    <t>https://joybird.com/</t>
+  </si>
+  <si>
+    <t>svg[class='sc-DJfgX jNGuMj']</t>
+  </si>
+  <si>
+    <t>//*[name()='svg'][@class='sc-DJfgX jNGuMj']</t>
+  </si>
+  <si>
+    <t>iframe[scrolling='no']</t>
+  </si>
+  <si>
+    <t>//iframe[@scrolling='no']</t>
+  </si>
+  <si>
+    <t>Shubham</t>
+  </si>
+  <si>
+    <t>UITRGPV_AC_09</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-']:nth-of-type(1) div[class='footer_col'] ul[class='list-item']&gt;i[class='la la-angle-right']:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//footer//div[contains(@class, 'col-lg-')][1]//ul[@class='list-item']/i[@class='la la-angle-right'][1]</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-'] div[class='footer_col'] ul[class='list-item']&gt;i[class='la la-angle-right']</t>
+  </si>
+  <si>
+    <t>//footer//div[contains(@class, 'col-lg-')]//ul[@class='list-item']/i[@class='la la-angle-right']</t>
+  </si>
+  <si>
+    <t>kapil</t>
+  </si>
+  <si>
+    <t>Demo_QA_04</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/select-menu</t>
+  </si>
+  <si>
+    <t>div[class='row']:nth-of-type(7)&gt;div[class*='col-md-']&gt;div[class*='css-']&gt;div[class*='css-']:nth-of-type(1)&gt;div[class*='css-']:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//div[@class='row'][2]/div[contains(@class, 'col-md-')]/div[contains(@class, 'css-')]/div[contains(@class, 'css-')][1]/div[contains(@class, 'css-')][1]</t>
+  </si>
+  <si>
+    <t>div[class='row']&gt;div[class*='col-md-']&gt;div[class*='css-']&gt;div[class*='css-']&gt;div[class*='css-']</t>
+  </si>
+  <si>
+    <t>//div[@class='row']/div[contains(@class, 'col-md-')]/div[contains(@class, 'css-')]/div[contains(@class, 'css-')]/div[contains(@class, 'css-')]</t>
+  </si>
+  <si>
+    <t>div:contains(Select...)</t>
+  </si>
+  <si>
+    <t>//div[contains(text(), 'Select...')]</t>
+  </si>
+  <si>
+    <t>Demo_QA_05</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/menu#</t>
+  </si>
+  <si>
+    <t>ul[id='nav']&gt;li:nth-of-type(1)&gt;a</t>
+  </si>
+  <si>
+    <t>//ul[@id='nav']/li[1]/a</t>
+  </si>
+  <si>
+    <t>ul[id='nav']&gt;li&gt;a</t>
+  </si>
+  <si>
+    <t>//ul[@id='nav']/li/a</t>
+  </si>
+  <si>
+    <t>a:contains(Main Item 1)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Main Item 1')]</t>
+  </si>
+  <si>
+    <t>Freshers_Jobs_02</t>
+  </si>
+  <si>
+    <t>h4 font[color*='ff'] font</t>
+  </si>
+  <si>
+    <t>//h4[6]/font[contains(@color, 'ff')]/font</t>
+  </si>
+  <si>
+    <t>//h4/font[contains(@color, 'ff')]/font</t>
+  </si>
+  <si>
+    <t>font:contains(Fresher Jobs – FAQs:)</t>
+  </si>
+  <si>
+    <t>//font[contains(text(), 'Fresher Jobs – FAQs:')]</t>
+  </si>
+  <si>
+    <t>Freshers_Jobs_03</t>
+  </si>
+  <si>
+    <t>div[id*='footer']:nth-of-type(1)&gt;div[class='footer-column section']&gt;div[id*='HTML']&gt;div[class='widget-content']</t>
+  </si>
+  <si>
+    <t>//div[@id='footer-column-container']/div[contains(@id, 'footer')][1]//ul/li[1]</t>
+  </si>
+  <si>
+    <t>div[id*='footer']&gt;div[class='footer-column section']&gt;div[id*='HTML']&gt;div[class='widget-content']</t>
+  </si>
+  <si>
+    <t>//div[@id='footer-column-container']/div[contains(@id, 'footer')]//ul/li</t>
+  </si>
+  <si>
+    <t>Free_Jobs_Alert_01</t>
+  </si>
+  <si>
+    <t>https://www.freejobalert.com/government-jobs/</t>
+  </si>
+  <si>
+    <t>input[id*='gsc-i-id']</t>
+  </si>
+  <si>
+    <t>//input[contains(@id, 'gsc-i-id')]</t>
+  </si>
+  <si>
+    <t>Free_Jobs_Alert_02</t>
+  </si>
+  <si>
+    <t>div[class*='gb-grid-column']:nth-of-type(1) ul li:nth-of-type(1) a</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'gb-grid-column')][1]//ul/li[1]/a</t>
+  </si>
+  <si>
+    <t>div[class*='gb-grid-column'] ul li a</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'gb-grid-column')]//ul/li/a</t>
+  </si>
+  <si>
+    <t>a:contains(Latest Notifications)</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(), 'Latest Notifications')])[2]</t>
+  </si>
+  <si>
+    <t>Linkedin_01</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/</t>
+  </si>
+  <si>
+    <t>li[class*='global-nav']:nth-of-type(2) svg[class='mercado-match']</t>
+  </si>
+  <si>
+    <t>//li[contains(@class, 'global-nav')][2]//*[name()='svg'][@class='mercado-match']</t>
+  </si>
+  <si>
+    <t>li[class*='global-nav'] svg[class='mercado-match']</t>
+  </si>
+  <si>
+    <t>//li[contains(@class, 'global-nav')]//*[name()='svg'][@class='mercado-match']</t>
+  </si>
+  <si>
+    <t>Linkedin_02</t>
+  </si>
+  <si>
+    <t>div[class='share-box-feed-entry__top-bar'] &gt; button[class*='artdeco-button']</t>
+  </si>
+  <si>
+    <t>//div[@class='share-box-feed-entry__top-bar']/button[contains(@class, 'artdeco-button')]</t>
+  </si>
+  <si>
+    <t>Linkedin_03</t>
+  </si>
+  <si>
+    <t>div[class*='community-panel-inte']:nth-of-type(1) &gt; ul[class='community-panel-interest-package__section-expanded']&gt;li[class='community-panel-interest-package__entity-item truncate']:nth-of-type(1) span[class*='hashtag-a']:nth-of-type(2)</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'community-panel-inte')][1]/ul[@class='community-panel-interest-package__section-expanded']//li[@class='community-panel-interest-package__entity-item truncate'][1]//span[contains(@class, 'hashtag-a')]//span[contains(@class, 'hashtag-a')]</t>
+  </si>
+  <si>
+    <t>div[class*='community-panel-inte'] &gt; ul[class='community-panel-interest-package__section-expanded']&gt;li[class='community-panel-interest-package__entity-item truncate'] span[class*='hashtag-a']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'community-panel-inte')]/ul[@class='community-panel-interest-package__section-expanded']//li[@class='community-panel-interest-package__entity-item truncate']//span[contains(@class, 'hashtag-a')]//span[contains(@class, 'hashtag-a')]</t>
+  </si>
+  <si>
+    <t>span:contains(jobseekers)</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(), 'jobseekers')])[1]</t>
+  </si>
+  <si>
+    <t>Linkedin_04</t>
+  </si>
+  <si>
+    <t>p[class*='identity-headline']</t>
+  </si>
+  <si>
+    <t>//p[contains(@class, 'identity-headline')]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1383,6 +1593,26 @@
       <color rgb="FF333333"/>
       <name val="Body"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1398,7 +1628,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1406,11 +1636,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1442,8 +1691,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1653,14 +1910,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1007"/>
+  <dimension ref="A1:AA1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1742,22 +1999,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -1793,22 +2050,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -1850,10 +2107,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>24</v>
@@ -1895,22 +2152,22 @@
         <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -1946,16 +2203,16 @@
         <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>32</v>
@@ -2003,16 +2260,16 @@
         <v>39</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>40</v>
@@ -2054,16 +2311,16 @@
         <v>45</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2105,10 +2362,10 @@
         <v>50</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>51</v>
@@ -2156,10 +2413,10 @@
         <v>58</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>59</v>
@@ -2204,13 +2461,13 @@
         <v>64</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>65</v>
@@ -2252,22 +2509,22 @@
         <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>53</v>
@@ -2309,16 +2566,16 @@
         <v>74</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>53</v>
@@ -2360,10 +2617,10 @@
         <v>78</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>79</v>
@@ -2411,10 +2668,10 @@
         <v>85</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>86</v>
@@ -2462,10 +2719,10 @@
         <v>92</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>93</v>
@@ -2513,16 +2770,16 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>88</v>
@@ -2558,22 +2815,22 @@
         <v>102</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>103</v>
@@ -2609,16 +2866,16 @@
         <v>106</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>108</v>
@@ -2653,11 +2910,11 @@
       <c r="B20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>112</v>
@@ -2666,10 +2923,10 @@
         <v>113</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>114</v>
@@ -2711,22 +2968,22 @@
         <v>117</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>118</v>
@@ -2762,22 +3019,22 @@
         <v>120</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>121</v>
@@ -2819,10 +3076,10 @@
         <v>126</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>127</v>
@@ -2857,29 +3114,29 @@
       <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="G24" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>121</v>
@@ -2903,34 +3160,34 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I25" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>121</v>
@@ -2954,34 +3211,34 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>121</v>
@@ -3005,34 +3262,34 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="G27" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>121</v>
@@ -3056,34 +3313,34 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="G28" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>121</v>
@@ -3107,34 +3364,34 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="E29" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="G29" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>121</v>
@@ -3158,34 +3415,34 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="G30" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>121</v>
@@ -3209,34 +3466,34 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>121</v>
@@ -3260,34 +3517,34 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>121</v>
@@ -3311,34 +3568,34 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>188</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>121</v>
@@ -3362,34 +3619,34 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>193</v>
+        <v>438</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>196</v>
+        <v>439</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>198</v>
+        <v>429</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>121</v>
@@ -3413,34 +3670,34 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>121</v>
@@ -3464,34 +3721,34 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>440</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>121</v>
@@ -3515,34 +3772,34 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="3" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>121</v>
@@ -3566,34 +3823,34 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="J38" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>121</v>
@@ -3617,34 +3874,34 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>121</v>
@@ -3668,34 +3925,34 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>121</v>
@@ -3719,34 +3976,34 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>121</v>
@@ -3770,34 +4027,34 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>239</v>
+        <v>195</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>121</v>
@@ -3821,34 +4078,34 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>121</v>
@@ -3872,34 +4129,34 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>121</v>
@@ -3923,34 +4180,34 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>121</v>
@@ -3974,34 +4231,34 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>121</v>
@@ -4025,34 +4282,34 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>121</v>
@@ -4076,34 +4333,34 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>264</v>
-      </c>
       <c r="G48" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>121</v>
@@ -4125,36 +4382,36 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>121</v>
@@ -4176,87 +4433,79 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27">
-      <c r="A50" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
-    </row>
-    <row r="51" spans="1:27">
+    <row r="50" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A50" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+    </row>
+    <row r="51" spans="1:27" ht="79.2">
       <c r="A51" s="3" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>121</v>
@@ -4280,34 +4529,34 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="3" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>290</v>
+        <v>429</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>291</v>
+        <v>429</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>121</v>
@@ -4331,37 +4580,37 @@
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="3" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>294</v>
-      </c>
       <c r="E53" s="5" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>441</v>
+        <v>121</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -4381,89 +4630,89 @@
       <c r="AA53" s="5"/>
     </row>
     <row r="54" spans="1:27">
-      <c r="A54" s="5" t="s">
-        <v>299</v>
+      <c r="A54" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
+        <v>429</v>
+      </c>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="5" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>441</v>
+        <v>290</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4484,37 +4733,37 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="5" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>318</v>
+        <v>298</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>429</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>121</v>
+        <v>295</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
@@ -4535,34 +4784,34 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="5" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>121</v>
@@ -4586,37 +4835,37 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="5" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
@@ -4637,37 +4886,37 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="5" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>441</v>
+        <v>320</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>441</v>
+        <v>321</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>441</v>
+        <v>322</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>441</v>
+        <v>323</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -4688,37 +4937,37 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="5" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>441</v>
+        <v>326</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>121</v>
+        <v>295</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -4739,37 +4988,37 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="5" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>347</v>
+        <v>429</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>429</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
@@ -4790,37 +5039,37 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="5" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>351</v>
+        <v>334</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>429</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>354</v>
+        <v>429</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>429</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>121</v>
+        <v>295</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -4841,34 +5090,34 @@
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="5" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>121</v>
@@ -4892,34 +5141,34 @@
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="5" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="D64" s="5" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>121</v>
@@ -4942,144 +5191,144 @@
       <c r="AA64" s="9"/>
     </row>
     <row r="65" spans="1:27">
-      <c r="A65" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>441</v>
+      <c r="A65" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="6"/>
-      <c r="Z65" s="6"/>
-      <c r="AA65" s="6"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>376</v>
+        <v>357</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L66" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="9"/>
-      <c r="AA66" s="9"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="3" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L67" s="9"/>
+      <c r="L67" s="5" t="s">
+        <v>365</v>
+      </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
@@ -5098,34 +5347,34 @@
     </row>
     <row r="68" spans="1:27">
       <c r="A68" s="3" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>387</v>
-      </c>
       <c r="G68" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>389</v>
+        <v>429</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>429</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>121</v>
@@ -5149,92 +5398,90 @@
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="3" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>441</v>
+        <v>358</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="6"/>
-      <c r="W69" s="6"/>
-      <c r="X69" s="6"/>
-      <c r="Y69" s="6"/>
-      <c r="Z69" s="6"/>
-      <c r="AA69" s="6"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
     </row>
     <row r="70" spans="1:27">
       <c r="A70" s="3" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>397</v>
+        <v>358</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L70" s="3" t="s">
-        <v>398</v>
-      </c>
+      <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
@@ -5252,86 +5499,88 @@
       <c r="AA70" s="6"/>
     </row>
     <row r="71" spans="1:27">
-      <c r="A71" s="5" t="s">
-        <v>399</v>
+      <c r="A71" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>402</v>
+        <v>358</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>405</v>
+        <v>429</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
-      <c r="Z71" s="9"/>
-      <c r="AA71" s="9"/>
+      <c r="L71" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
+      <c r="AA71" s="6"/>
     </row>
     <row r="72" spans="1:27">
       <c r="A72" s="5" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>58</v>
+        <v>391</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>121</v>
@@ -5353,36 +5602,36 @@
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" ht="106.2" thickBot="1">
       <c r="A73" s="5" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>417</v>
+        <v>58</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>121</v>
@@ -5404,87 +5653,81 @@
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
     </row>
-    <row r="74" spans="1:27">
-      <c r="A74" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="K74" s="5" t="s">
+    <row r="74" spans="1:27" ht="106.2" thickBot="1">
+      <c r="A74" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
-      <c r="Y74" s="9"/>
-      <c r="Z74" s="9"/>
-      <c r="AA74" s="9"/>
-    </row>
-    <row r="75" spans="1:27">
+      <c r="L74" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="11"/>
+      <c r="AA74" s="11"/>
+    </row>
+    <row r="75" spans="1:27" ht="118.8">
       <c r="A75" s="5" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>441</v>
-      </c>
       <c r="H75" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>121</v>
@@ -5508,34 +5751,34 @@
     </row>
     <row r="76" spans="1:27">
       <c r="A76" s="5" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>121</v>
@@ -5557,355 +5800,557 @@
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
     </row>
-    <row r="77" spans="1:27">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-      <c r="U77" s="6"/>
-      <c r="V77" s="6"/>
-      <c r="W77" s="6"/>
-      <c r="X77" s="6"/>
-      <c r="Y77" s="6"/>
-      <c r="Z77" s="6"/>
-      <c r="AA77" s="6"/>
-    </row>
-    <row r="78" spans="1:27">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="6"/>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="6"/>
-      <c r="AA78" s="6"/>
-    </row>
-    <row r="79" spans="1:27">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-      <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
-      <c r="AA79" s="6"/>
-    </row>
-    <row r="80" spans="1:27">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
-      <c r="U80" s="6"/>
-      <c r="V80" s="6"/>
-      <c r="W80" s="6"/>
-      <c r="X80" s="6"/>
-      <c r="Y80" s="6"/>
-      <c r="Z80" s="6"/>
-      <c r="AA80" s="6"/>
-    </row>
-    <row r="81" spans="1:27">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="6"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="6"/>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
-      <c r="AA81" s="6"/>
-    </row>
-    <row r="82" spans="1:27">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="6"/>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
-      <c r="AA82" s="6"/>
-    </row>
-    <row r="83" spans="1:27">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
-      <c r="V83" s="6"/>
-      <c r="W83" s="6"/>
-      <c r="X83" s="6"/>
-      <c r="Y83" s="6"/>
-      <c r="Z83" s="6"/>
-      <c r="AA83" s="6"/>
-    </row>
-    <row r="84" spans="1:27">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="6"/>
-      <c r="V84" s="6"/>
-      <c r="W84" s="6"/>
-      <c r="X84" s="6"/>
-      <c r="Y84" s="6"/>
-      <c r="Z84" s="6"/>
-      <c r="AA84" s="6"/>
-    </row>
-    <row r="85" spans="1:27">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="6"/>
-      <c r="V85" s="6"/>
-      <c r="W85" s="6"/>
-      <c r="X85" s="6"/>
-      <c r="Y85" s="6"/>
-      <c r="Z85" s="6"/>
-      <c r="AA85" s="6"/>
-    </row>
-    <row r="86" spans="1:27">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-      <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
-      <c r="Z86" s="6"/>
-      <c r="AA86" s="6"/>
-    </row>
-    <row r="87" spans="1:27">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="6"/>
-      <c r="W87" s="6"/>
-      <c r="X87" s="6"/>
-      <c r="Y87" s="6"/>
-      <c r="Z87" s="6"/>
-      <c r="AA87" s="6"/>
-    </row>
-    <row r="88" spans="1:27">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
-      <c r="U88" s="6"/>
-      <c r="V88" s="6"/>
-      <c r="W88" s="6"/>
-      <c r="X88" s="6"/>
-      <c r="Y88" s="6"/>
-      <c r="Z88" s="6"/>
-      <c r="AA88" s="6"/>
-    </row>
-    <row r="89" spans="1:27">
+    <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A77" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+    </row>
+    <row r="78" spans="1:27" ht="145.80000000000001" thickBot="1">
+      <c r="A78" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="11"/>
+      <c r="AA78" s="11"/>
+    </row>
+    <row r="79" spans="1:27" ht="27" thickBot="1">
+      <c r="A79" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="11"/>
+      <c r="AA79" s="11"/>
+    </row>
+    <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
+      <c r="A80" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+      <c r="Y80" s="9"/>
+      <c r="Z80" s="9"/>
+      <c r="AA80" s="9"/>
+    </row>
+    <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A81" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="11"/>
+      <c r="AA81" s="11"/>
+    </row>
+    <row r="82" spans="1:27" ht="79.8" thickBot="1">
+      <c r="A82" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="11"/>
+      <c r="W82" s="11"/>
+      <c r="X82" s="11"/>
+      <c r="Y82" s="11"/>
+      <c r="Z82" s="11"/>
+      <c r="AA82" s="11"/>
+    </row>
+    <row r="83" spans="1:27" ht="27" thickBot="1">
+      <c r="A83" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="11"/>
+      <c r="V83" s="11"/>
+      <c r="W83" s="11"/>
+      <c r="X83" s="11"/>
+      <c r="Y83" s="11"/>
+      <c r="Z83" s="11"/>
+      <c r="AA83" s="11"/>
+    </row>
+    <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
+      <c r="A84" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
+      <c r="Y84" s="11"/>
+      <c r="Z84" s="11"/>
+      <c r="AA84" s="11"/>
+    </row>
+    <row r="85" spans="1:27" ht="79.8" thickBot="1">
+      <c r="A85" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+      <c r="V85" s="11"/>
+      <c r="W85" s="11"/>
+      <c r="X85" s="11"/>
+      <c r="Y85" s="11"/>
+      <c r="Z85" s="11"/>
+      <c r="AA85" s="11"/>
+    </row>
+    <row r="86" spans="1:27" ht="93" thickBot="1">
+      <c r="A86" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="11"/>
+      <c r="AA86" s="11"/>
+    </row>
+    <row r="87" spans="1:27" ht="277.8" thickBot="1">
+      <c r="A87" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="11"/>
+      <c r="AA87" s="11"/>
+    </row>
+    <row r="88" spans="1:27" ht="27" thickBot="1">
+      <c r="A88" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="11"/>
+      <c r="W88" s="11"/>
+      <c r="X88" s="11"/>
+      <c r="Y88" s="11"/>
+      <c r="Z88" s="11"/>
+      <c r="AA88" s="11"/>
+    </row>
+    <row r="89" spans="1:27" ht="13.2">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -32555,6 +33000,93 @@
       <c r="Y1007" s="6"/>
       <c r="Z1007" s="6"/>
       <c r="AA1007" s="6"/>
+    </row>
+    <row r="1008" spans="1:27">
+      <c r="A1008" s="6"/>
+      <c r="B1008" s="6"/>
+      <c r="C1008" s="6"/>
+      <c r="D1008" s="6"/>
+      <c r="E1008" s="6"/>
+      <c r="F1008" s="6"/>
+      <c r="G1008" s="6"/>
+      <c r="H1008" s="6"/>
+      <c r="I1008" s="6"/>
+      <c r="J1008" s="6"/>
+      <c r="K1008" s="6"/>
+      <c r="L1008" s="6"/>
+      <c r="M1008" s="6"/>
+      <c r="N1008" s="6"/>
+      <c r="O1008" s="6"/>
+      <c r="P1008" s="6"/>
+      <c r="Q1008" s="6"/>
+      <c r="R1008" s="6"/>
+      <c r="S1008" s="6"/>
+      <c r="T1008" s="6"/>
+      <c r="U1008" s="6"/>
+      <c r="V1008" s="6"/>
+      <c r="W1008" s="6"/>
+      <c r="X1008" s="6"/>
+      <c r="Y1008" s="6"/>
+      <c r="Z1008" s="6"/>
+      <c r="AA1008" s="6"/>
+    </row>
+    <row r="1009" spans="1:27">
+      <c r="A1009" s="6"/>
+      <c r="B1009" s="6"/>
+      <c r="C1009" s="6"/>
+      <c r="D1009" s="6"/>
+      <c r="E1009" s="6"/>
+      <c r="F1009" s="6"/>
+      <c r="G1009" s="6"/>
+      <c r="H1009" s="6"/>
+      <c r="I1009" s="6"/>
+      <c r="J1009" s="6"/>
+      <c r="K1009" s="6"/>
+      <c r="L1009" s="6"/>
+      <c r="M1009" s="6"/>
+      <c r="N1009" s="6"/>
+      <c r="O1009" s="6"/>
+      <c r="P1009" s="6"/>
+      <c r="Q1009" s="6"/>
+      <c r="R1009" s="6"/>
+      <c r="S1009" s="6"/>
+      <c r="T1009" s="6"/>
+      <c r="U1009" s="6"/>
+      <c r="V1009" s="6"/>
+      <c r="W1009" s="6"/>
+      <c r="X1009" s="6"/>
+      <c r="Y1009" s="6"/>
+      <c r="Z1009" s="6"/>
+      <c r="AA1009" s="6"/>
+    </row>
+    <row r="1010" spans="1:27">
+      <c r="A1010" s="6"/>
+      <c r="B1010" s="6"/>
+      <c r="C1010" s="6"/>
+      <c r="D1010" s="6"/>
+      <c r="E1010" s="6"/>
+      <c r="F1010" s="6"/>
+      <c r="G1010" s="6"/>
+      <c r="H1010" s="6"/>
+      <c r="I1010" s="6"/>
+      <c r="J1010" s="6"/>
+      <c r="K1010" s="6"/>
+      <c r="L1010" s="6"/>
+      <c r="M1010" s="6"/>
+      <c r="N1010" s="6"/>
+      <c r="O1010" s="6"/>
+      <c r="P1010" s="6"/>
+      <c r="Q1010" s="6"/>
+      <c r="R1010" s="6"/>
+      <c r="S1010" s="6"/>
+      <c r="T1010" s="6"/>
+      <c r="U1010" s="6"/>
+      <c r="V1010" s="6"/>
+      <c r="W1010" s="6"/>
+      <c r="X1010" s="6"/>
+      <c r="Y1010" s="6"/>
+      <c r="Z1010" s="6"/>
+      <c r="AA1010" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -32606,35 +33138,47 @@
     <hyperlink ref="B47" r:id="rId46"/>
     <hyperlink ref="B48" r:id="rId47"/>
     <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B51" r:id="rId50"/>
-    <hyperlink ref="B52" r:id="rId51"/>
-    <hyperlink ref="B53" r:id="rId52"/>
-    <hyperlink ref="B54" r:id="rId53" location="SanitationMethods"/>
-    <hyperlink ref="B55" r:id="rId54" location="SanitationMethods"/>
-    <hyperlink ref="B56" r:id="rId55"/>
-    <hyperlink ref="B57" r:id="rId56"/>
-    <hyperlink ref="B58" r:id="rId57"/>
-    <hyperlink ref="B59" r:id="rId58"/>
-    <hyperlink ref="B60" r:id="rId59"/>
-    <hyperlink ref="B61" r:id="rId60"/>
-    <hyperlink ref="B62" r:id="rId61"/>
-    <hyperlink ref="B63" r:id="rId62"/>
-    <hyperlink ref="B64" r:id="rId63"/>
-    <hyperlink ref="B65" r:id="rId64"/>
-    <hyperlink ref="B66" r:id="rId65"/>
-    <hyperlink ref="B67" r:id="rId66"/>
-    <hyperlink ref="B68" r:id="rId67"/>
-    <hyperlink ref="B69" r:id="rId68"/>
-    <hyperlink ref="B70" r:id="rId69"/>
-    <hyperlink ref="B71" r:id="rId70"/>
-    <hyperlink ref="B72" r:id="rId71"/>
-    <hyperlink ref="B73" r:id="rId72"/>
-    <hyperlink ref="B74" r:id="rId73"/>
-    <hyperlink ref="B75" r:id="rId74"/>
-    <hyperlink ref="B76" r:id="rId75"/>
+    <hyperlink ref="B51" r:id="rId49"/>
+    <hyperlink ref="B52" r:id="rId50"/>
+    <hyperlink ref="B53" r:id="rId51"/>
+    <hyperlink ref="B54" r:id="rId52"/>
+    <hyperlink ref="B55" r:id="rId53" location="SanitationMethods"/>
+    <hyperlink ref="B56" r:id="rId54" location="SanitationMethods"/>
+    <hyperlink ref="B57" r:id="rId55"/>
+    <hyperlink ref="B58" r:id="rId56"/>
+    <hyperlink ref="B59" r:id="rId57"/>
+    <hyperlink ref="B60" r:id="rId58"/>
+    <hyperlink ref="B61" r:id="rId59"/>
+    <hyperlink ref="B62" r:id="rId60"/>
+    <hyperlink ref="B63" r:id="rId61"/>
+    <hyperlink ref="B64" r:id="rId62"/>
+    <hyperlink ref="B65" r:id="rId63"/>
+    <hyperlink ref="B66" r:id="rId64"/>
+    <hyperlink ref="B67" r:id="rId65"/>
+    <hyperlink ref="B68" r:id="rId66"/>
+    <hyperlink ref="B69" r:id="rId67"/>
+    <hyperlink ref="B70" r:id="rId68"/>
+    <hyperlink ref="B71" r:id="rId69"/>
+    <hyperlink ref="B72" r:id="rId70"/>
+    <hyperlink ref="B73" r:id="rId71"/>
+    <hyperlink ref="B75" r:id="rId72"/>
+    <hyperlink ref="B76" r:id="rId73"/>
+    <hyperlink ref="B77" r:id="rId74"/>
+    <hyperlink ref="B80" r:id="rId75"/>
+    <hyperlink ref="B50" r:id="rId76"/>
+    <hyperlink ref="B74" r:id="rId77"/>
+    <hyperlink ref="B78" r:id="rId78"/>
+    <hyperlink ref="B79" r:id="rId79" display="https://demoqa.com/menu"/>
+    <hyperlink ref="B81" r:id="rId80"/>
+    <hyperlink ref="B82" r:id="rId81"/>
+    <hyperlink ref="B83" r:id="rId82"/>
+    <hyperlink ref="B84" r:id="rId83"/>
+    <hyperlink ref="B85" r:id="rId84"/>
+    <hyperlink ref="B86" r:id="rId85"/>
+    <hyperlink ref="B87" r:id="rId86"/>
+    <hyperlink ref="B88" r:id="rId87"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId76"/>
+  <pageSetup orientation="portrait" r:id="rId88"/>
 </worksheet>
 </file>
--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -646,15 +646,9 @@
     <t>YONO_SBI_06</t>
   </si>
   <si>
-    <t>li:nth-of-type(1) a[routerlinkactive='active']</t>
-  </si>
-  <si>
     <t>//li[1]/a[@routerlinkactive='active']</t>
   </si>
   <si>
-    <t>li a[routerlinkactive='active']</t>
-  </si>
-  <si>
     <t>//li/a[@routerlinkactive='active']</t>
   </si>
   <si>
@@ -1544,6 +1538,12 @@
   </si>
   <si>
     <t>//input[@id='captchaAnswer']</t>
+  </si>
+  <si>
+    <t>li:nth-of-type(1) &gt; a[routerlinkactive='active']</t>
+  </si>
+  <si>
+    <t>li &gt; a[routerlinkactive='active']</t>
   </si>
 </sst>
 </file>
@@ -1910,8 +1910,8 @@
   </sheetPr>
   <dimension ref="A1:AA1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1993,22 +1993,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -2044,22 +2044,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -2101,10 +2101,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>24</v>
@@ -2146,22 +2146,22 @@
         <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -2197,16 +2197,16 @@
         <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>32</v>
@@ -2254,16 +2254,16 @@
         <v>39</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>40</v>
@@ -2305,16 +2305,16 @@
         <v>45</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2356,10 +2356,10 @@
         <v>50</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>51</v>
@@ -2407,10 +2407,10 @@
         <v>58</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>59</v>
@@ -2455,13 +2455,13 @@
         <v>64</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>65</v>
@@ -2503,22 +2503,22 @@
         <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>53</v>
@@ -2560,16 +2560,16 @@
         <v>74</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>53</v>
@@ -2611,10 +2611,10 @@
         <v>78</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>79</v>
@@ -2662,10 +2662,10 @@
         <v>85</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>86</v>
@@ -2713,10 +2713,10 @@
         <v>92</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>93</v>
@@ -2764,16 +2764,16 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>88</v>
@@ -2809,22 +2809,22 @@
         <v>102</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>103</v>
@@ -2860,16 +2860,16 @@
         <v>106</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>108</v>
@@ -2908,7 +2908,7 @@
         <v>111</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>112</v>
@@ -2917,10 +2917,10 @@
         <v>113</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>114</v>
@@ -2962,22 +2962,22 @@
         <v>117</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>118</v>
@@ -3013,22 +3013,22 @@
         <v>120</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>121</v>
@@ -3070,10 +3070,10 @@
         <v>126</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>127</v>
@@ -3109,7 +3109,7 @@
         <v>35</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>130</v>
@@ -3121,16 +3121,16 @@
         <v>132</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>121</v>
@@ -3160,22 +3160,22 @@
         <v>134</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>135</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>136</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>137</v>
@@ -3211,22 +3211,22 @@
         <v>134</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>502</v>
-      </c>
       <c r="G26" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>140</v>
@@ -3262,7 +3262,7 @@
         <v>134</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>143</v>
@@ -3274,16 +3274,16 @@
         <v>145</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>121</v>
@@ -3313,7 +3313,7 @@
         <v>134</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>147</v>
@@ -3325,16 +3325,16 @@
         <v>149</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>121</v>
@@ -3364,28 +3364,28 @@
         <v>151</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>152</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>153</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>121</v>
@@ -3415,28 +3415,28 @@
         <v>155</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>121</v>
@@ -3466,22 +3466,22 @@
         <v>157</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="F31" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>424</v>
-      </c>
       <c r="G31" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>158</v>
@@ -3529,10 +3529,10 @@
         <v>165</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>166</v>
@@ -3574,16 +3574,16 @@
         <v>170</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>171</v>
@@ -3619,22 +3619,22 @@
         <v>161</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>174</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>175</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>176</v>
@@ -3682,10 +3682,10 @@
         <v>165</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>181</v>
@@ -3721,28 +3721,28 @@
         <v>184</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>185</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>121</v>
@@ -3778,16 +3778,16 @@
         <v>188</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>189</v>
@@ -3829,16 +3829,16 @@
         <v>193</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>194</v>
@@ -3886,10 +3886,10 @@
         <v>200</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>201</v>
@@ -3937,16 +3937,16 @@
         <v>208</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>121</v>
@@ -3975,29 +3975,29 @@
       <c r="B41" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="G41" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I41" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="J41" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>121</v>
@@ -4021,34 +4021,34 @@
     </row>
     <row r="42" spans="1:27" ht="105.6">
       <c r="A42" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J42" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>121</v>
@@ -4072,34 +4072,34 @@
     </row>
     <row r="43" spans="1:27" ht="52.8">
       <c r="A43" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="E43" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>121</v>
@@ -4123,34 +4123,34 @@
     </row>
     <row r="44" spans="1:27" ht="26.4">
       <c r="A44" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>121</v>
@@ -4174,34 +4174,34 @@
     </row>
     <row r="45" spans="1:27" ht="26.4">
       <c r="A45" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="D45" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>121</v>
@@ -4225,34 +4225,34 @@
     </row>
     <row r="46" spans="1:27" ht="52.8">
       <c r="A46" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="E46" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>121</v>
@@ -4276,34 +4276,34 @@
     </row>
     <row r="47" spans="1:27" ht="39.6">
       <c r="A47" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="E47" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>121</v>
@@ -4327,34 +4327,34 @@
     </row>
     <row r="48" spans="1:27" ht="118.8">
       <c r="A48" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="G48" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I48" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="J48" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>121</v>
@@ -4378,34 +4378,34 @@
     </row>
     <row r="49" spans="1:27" ht="79.8" thickBot="1">
       <c r="A49" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="G49" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I49" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="J49" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>121</v>
@@ -4429,30 +4429,30 @@
     </row>
     <row r="50" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A50" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="D50" s="11" t="s">
         <v>430</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>432</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4472,34 +4472,34 @@
     </row>
     <row r="51" spans="1:27" ht="79.2">
       <c r="A51" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="D51" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="G51" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>121</v>
@@ -4523,34 +4523,34 @@
     </row>
     <row r="52" spans="1:27" ht="52.8">
       <c r="A52" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C52" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="G52" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>121</v>
@@ -4574,34 +4574,34 @@
     </row>
     <row r="53" spans="1:27" ht="39.6">
       <c r="A53" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="G53" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="J53" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>121</v>
@@ -4625,37 +4625,37 @@
     </row>
     <row r="54" spans="1:27" ht="264">
       <c r="A54" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="G54" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="J54" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>273</v>
-      </c>
       <c r="K54" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -4676,37 +4676,37 @@
     </row>
     <row r="55" spans="1:27" ht="158.4">
       <c r="A55" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="D55" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="G55" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="J55" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I55" s="5" t="s">
+      <c r="K55" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4727,37 +4727,37 @@
     </row>
     <row r="56" spans="1:27" ht="158.4">
       <c r="A56" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C56" s="5" t="s">
+      <c r="E56" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="J56" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>287</v>
-      </c>
       <c r="K56" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
@@ -4778,34 +4778,34 @@
     </row>
     <row r="57" spans="1:27" ht="26.4">
       <c r="A57" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="D57" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="G57" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="J57" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>121</v>
@@ -4829,34 +4829,34 @@
     </row>
     <row r="58" spans="1:27" ht="26.4">
       <c r="A58" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="F58" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="G58" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="J58" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>121</v>
@@ -4880,37 +4880,37 @@
     </row>
     <row r="59" spans="1:27" ht="52.8">
       <c r="A59" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="D59" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="F59" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="G59" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="J59" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>310</v>
-      </c>
       <c r="K59" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -4931,37 +4931,37 @@
     </row>
     <row r="60" spans="1:27" ht="26.4">
       <c r="A60" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>313</v>
-      </c>
       <c r="E60" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -4982,34 +4982,34 @@
     </row>
     <row r="61" spans="1:27" ht="26.4">
       <c r="A61" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="D61" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>317</v>
-      </c>
       <c r="E61" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>121</v>
@@ -5033,37 +5033,37 @@
     </row>
     <row r="62" spans="1:27" ht="39.6">
       <c r="A62" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="D62" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="E62" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>322</v>
-      </c>
       <c r="G62" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -5084,34 +5084,34 @@
     </row>
     <row r="63" spans="1:27" ht="52.8">
       <c r="A63" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C63" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="G63" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="J63" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>121</v>
@@ -5135,34 +5135,34 @@
     </row>
     <row r="64" spans="1:27" ht="52.8">
       <c r="A64" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="F64" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="G64" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I64" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="J64" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>121</v>
@@ -5186,34 +5186,34 @@
     </row>
     <row r="65" spans="1:27" ht="52.8">
       <c r="A65" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C65" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="F65" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="G65" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="J65" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>121</v>
@@ -5237,34 +5237,34 @@
     </row>
     <row r="66" spans="1:27" ht="13.2">
       <c r="A66" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="D66" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>121</v>
@@ -5288,40 +5288,40 @@
     </row>
     <row r="67" spans="1:27" ht="92.4">
       <c r="A67" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C67" s="5" t="s">
+      <c r="E67" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="F67" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>351</v>
-      </c>
       <c r="G67" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -5341,34 +5341,34 @@
     </row>
     <row r="68" spans="1:27" ht="79.2">
       <c r="A68" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C68" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="F68" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>357</v>
-      </c>
       <c r="G68" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>121</v>
@@ -5392,34 +5392,34 @@
     </row>
     <row r="69" spans="1:27" ht="79.2">
       <c r="A69" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C69" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="G69" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>121</v>
@@ -5443,34 +5443,34 @@
     </row>
     <row r="70" spans="1:27" ht="13.2">
       <c r="A70" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="E70" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>121</v>
@@ -5494,40 +5494,40 @@
     </row>
     <row r="71" spans="1:27" ht="66">
       <c r="A71" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C71" s="10" t="s">
+      <c r="E71" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="F71" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="G71" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -5547,34 +5547,34 @@
     </row>
     <row r="72" spans="1:27" ht="66">
       <c r="A72" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C72" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="F72" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="G72" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="J72" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>380</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>121</v>
@@ -5598,34 +5598,34 @@
     </row>
     <row r="73" spans="1:27" ht="106.2" thickBot="1">
       <c r="A73" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C73" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>382</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>121</v>
@@ -5649,22 +5649,22 @@
     </row>
     <row r="74" spans="1:27" ht="106.2" thickBot="1">
       <c r="A74" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="C74" s="11" t="s">
+      <c r="E74" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="F74" s="11" t="s">
         <v>438</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>440</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -5674,7 +5674,7 @@
         <v>121</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5694,34 +5694,34 @@
     </row>
     <row r="75" spans="1:27" ht="118.8">
       <c r="A75" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="D75" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="F75" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="G75" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I75" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="J75" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>121</v>
@@ -5745,34 +5745,34 @@
     </row>
     <row r="76" spans="1:27" ht="39.6">
       <c r="A76" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="D76" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="F76" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="G76" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="J76" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>121</v>
@@ -5796,34 +5796,34 @@
     </row>
     <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A77" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="C77" s="5" t="s">
+      <c r="E77" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="J77" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>407</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>121</v>
@@ -5847,36 +5847,36 @@
     </row>
     <row r="78" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A78" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="D78" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="E78" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="F78" s="11" t="s">
         <v>445</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>447</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5896,36 +5896,36 @@
     </row>
     <row r="79" spans="1:27" ht="27" thickBot="1">
       <c r="A79" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="D79" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="E79" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="F79" s="11" t="s">
         <v>453</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>455</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K79" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -5945,34 +5945,34 @@
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A80" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="D80" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="F80" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="G80" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="I80" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="J80" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>415</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>121</v>
@@ -5996,34 +5996,34 @@
     </row>
     <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A81" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="D81" s="13" t="s">
         <v>458</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>460</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K81" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -6043,22 +6043,22 @@
     </row>
     <row r="82" spans="1:27" ht="79.8" thickBot="1">
       <c r="A82" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="C82" s="11" t="s">
+      <c r="E82" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="F82" s="11" t="s">
         <v>466</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>468</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -6068,7 +6068,7 @@
         <v>121</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -6088,16 +6088,16 @@
     </row>
     <row r="83" spans="1:27" ht="27" thickBot="1">
       <c r="A83" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="D83" s="13" t="s">
         <v>470</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>472</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -6106,10 +6106,10 @@
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6129,36 +6129,36 @@
     </row>
     <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A84" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="C84" s="11" t="s">
+      <c r="E84" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="F84" s="11" t="s">
         <v>475</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>477</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -6178,22 +6178,22 @@
     </row>
     <row r="85" spans="1:27" ht="79.8" thickBot="1">
       <c r="A85" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="D85" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="E85" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="F85" s="11" t="s">
         <v>483</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>485</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -6201,7 +6201,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -6221,16 +6221,16 @@
     </row>
     <row r="86" spans="1:27" ht="93" thickBot="1">
       <c r="A86" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>486</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>488</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -6240,7 +6240,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -6260,34 +6260,34 @@
     </row>
     <row r="87" spans="1:27" ht="277.8" thickBot="1">
       <c r="A87" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="C87" s="11" t="s">
+      <c r="E87" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="F87" s="11" t="s">
         <v>491</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>493</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K87" s="11"/>
       <c r="L87" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -6307,16 +6307,16 @@
     </row>
     <row r="88" spans="1:27" ht="27" thickBot="1">
       <c r="A88" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="D88" s="13" t="s">
         <v>496</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>498</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -6326,7 +6326,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="461">
   <si>
     <t>ID</t>
   </si>
@@ -1348,27 +1348,9 @@
     <t>https://joybird.com/</t>
   </si>
   <si>
-    <t>svg[class='sc-DJfgX jNGuMj']</t>
-  </si>
-  <si>
-    <t>//*[name()='svg'][@class='sc-DJfgX jNGuMj']</t>
-  </si>
-  <si>
-    <t>iframe[scrolling='no']</t>
-  </si>
-  <si>
-    <t>//iframe[@scrolling='no']</t>
-  </si>
-  <si>
     <t>//*[name()='svg'][@title='Search']</t>
   </si>
   <si>
-    <t>li[class*='items-center']:nth-of-type(1) &gt; a[class*='group'] &gt; span</t>
-  </si>
-  <si>
-    <t>//li[contains(@class, 'items-center')][1]/a[contains(@class, 'group')]/span</t>
-  </si>
-  <si>
     <t>https://consumer.dev.nest.joybird.com/customer-photos/</t>
   </si>
   <si>
@@ -1382,6 +1364,39 @@
   </si>
   <si>
     <t>(//span[contains(text(), 'Living Room')])[1]</t>
+  </si>
+  <si>
+    <t>button[class*='group']:nth-of-type(5) &gt; span[class*='leading-']</t>
+  </si>
+  <si>
+    <t>//button[contains(@class, 'group')][5]/span[contains(@class, 'leading-')]</t>
+  </si>
+  <si>
+    <t>button[class*='group'] &gt; span[class*='leading-']</t>
+  </si>
+  <si>
+    <t>//button[contains(@class, 'group')]/span[contains(@class, 'leading-')]</t>
+  </si>
+  <si>
+    <t>span:contains(Free Design Services*)</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'Free Design Services*')]</t>
+  </si>
+  <si>
+    <t>ul[class*='flex-row']:nth-of-type(1)&gt;li[class*='items-center']:nth-of-type(2) span</t>
+  </si>
+  <si>
+    <t>//div[@data-xc='DesktopTopNav']/ul[contains(@class, 'flex-row')][1]/li[contains(@class, 'items-center')][2]//span</t>
+  </si>
+  <si>
+    <t>ul[class*='flex-row']&gt;li[class*='items-center'] span</t>
+  </si>
+  <si>
+    <t>span:contains(Showrooms)</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(), 'Showrooms')])[1]</t>
   </si>
 </sst>
 </file>
@@ -1744,8 +1759,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5694,7 +5709,7 @@
         <v>249</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
@@ -5765,7 +5780,7 @@
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
     </row>
-    <row r="80" spans="1:27" ht="93" thickBot="1">
+    <row r="80" spans="1:27" ht="119.4" thickBot="1">
       <c r="A80" s="12" t="s">
         <v>256</v>
       </c>
@@ -5773,13 +5788,13 @@
         <v>248</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>260</v>
@@ -5787,10 +5802,10 @@
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
       <c r="I80" s="12" t="s">
-        <v>261</v>
+        <v>459</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>262</v>
+        <v>460</v>
       </c>
       <c r="K80" s="12" t="s">
         <v>117</v>
@@ -5819,19 +5834,19 @@
         <v>263</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
@@ -5863,7 +5878,7 @@
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
     </row>
-    <row r="82" spans="1:27" ht="40.200000000000003" thickBot="1">
+    <row r="82" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A82" s="12" t="s">
         <v>442</v>
       </c>
@@ -5871,18 +5886,22 @@
         <v>443</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
+        <v>451</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>453</v>
+      </c>
       <c r="G82" s="12" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -1759,8 +1759,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -1396,7 +1396,7 @@
     <t>span:contains(Showrooms)</t>
   </si>
   <si>
-    <t>(//span[contains(text(), 'Showrooms')])[1]</t>
+    <t>//span[contains(text(), 'Showrooms')]</t>
   </si>
 </sst>
 </file>
@@ -1759,8 +1759,9 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1768,7 +1769,7 @@
     <col min="1" max="1" width="17.21875" customWidth="1"/>
     <col min="2" max="2" width="39.77734375" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="18.88671875" customWidth="1"/>
@@ -5780,7 +5781,7 @@
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
     </row>
-    <row r="80" spans="1:27" ht="119.4" thickBot="1">
+    <row r="80" spans="1:27" ht="93" thickBot="1">
       <c r="A80" s="12" t="s">
         <v>256</v>
       </c>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="132" yWindow="540" windowWidth="22716" windowHeight="10788"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="507">
   <si>
     <t>ID</t>
   </si>
@@ -700,12 +700,6 @@
     <t>JOY_BIRD_02</t>
   </si>
   <si>
-    <t>a[data-xc='wishlist'] svg[class]</t>
-  </si>
-  <si>
-    <t>//a[@data-xc='wishlist']/*[name()='svg'][@class]</t>
-  </si>
-  <si>
     <t>JOY_BIRD_03</t>
   </si>
   <si>
@@ -718,45 +712,12 @@
     <t>JOY_BIRD_04</t>
   </si>
   <si>
-    <t>ul[class*='flex-row']:nth-of-type(2) li[class*='items-center']:nth-of-type(1) span</t>
-  </si>
-  <si>
-    <t>//div[@data-xc='DesktopTopNav']/ul[contains(@class, 'flex-row')][2]/li[contains(@class, 'items-center')][1]//span</t>
-  </si>
-  <si>
-    <t>ul[class*='flex-row'] li[class*='items-center'] span</t>
-  </si>
-  <si>
     <t>//div[@data-xc='DesktopTopNav']/ul[contains(@class, 'flex-row')]/li[contains(@class, 'items-center')]//span</t>
   </si>
   <si>
-    <t>span:contains(Hi, Cucumber_Test)</t>
-  </si>
-  <si>
-    <t>//span[contains(text(), 'Hi, Cucumber_Test')]</t>
-  </si>
-  <si>
     <t>JOY_BIRD_05</t>
   </si>
   <si>
-    <t>div[class*='mx-auto']&gt;div[class*='flex']:nth-of-type(1)&gt;div[class*='flex']:nth-of-type(2)&gt;a:nth-of-type(2)</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'mx-auto')]/div[contains(@class, 'flex')][1]//a[2]</t>
-  </si>
-  <si>
-    <t>div[class*='mx-auto']&gt;div[class*='flex']&gt;div[class*='flex']&gt;a</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'mx-auto')]/div[contains(@class, 'flex')]//a</t>
-  </si>
-  <si>
-    <t>a:contains(Privacy Notice)</t>
-  </si>
-  <si>
-    <t>//a[contains(text(), 'Privacy Notice')]</t>
-  </si>
-  <si>
     <t>ABHI_VYAKTI_01</t>
   </si>
   <si>
@@ -1303,12 +1264,6 @@
     <t>https://joybird.com/</t>
   </si>
   <si>
-    <t>svg[class='sc-DJfgX jNGuMj']</t>
-  </si>
-  <si>
-    <t>//*[name()='svg'][@class='sc-DJfgX jNGuMj']</t>
-  </si>
-  <si>
     <t>iframe[scrolling='no']</t>
   </si>
   <si>
@@ -1544,12 +1499,48 @@
   </si>
   <si>
     <t>li &gt; a[routerlinkactive='active']</t>
+  </si>
+  <si>
+    <t>//*[name()='svg'][@title='Search']</t>
+  </si>
+  <si>
+    <t>a[data-xc='living-room'] &gt; span[class*='items-center']</t>
+  </si>
+  <si>
+    <t>//a[@data-xc='living-room']/span[contains(@class, 'items-center')]</t>
+  </si>
+  <si>
+    <t>span:contains(Living Room)</t>
+  </si>
+  <si>
+    <t>ul[class*='flex-row']:nth-of-type(1)&gt;li[class*='items-center']:nth-of-type(2) span</t>
+  </si>
+  <si>
+    <t>ul[class*='flex-row']&gt;li[class*='items-center'] span</t>
+  </si>
+  <si>
+    <t>span:contains(Showrooms)</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'Showrooms')]</t>
+  </si>
+  <si>
+    <t>//div[@data-xc='DesktopTopNav']/ul[contains(@class, 'flex-row')][1]/li[contains(@class, 'items-center')][2]//span</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(), 'Living Room')])[1]</t>
+  </si>
+  <si>
+    <t>//button[contains(@class, 'group')][5]/span[contains(@class, 'leading-')]</t>
+  </si>
+  <si>
+    <t>button[class*='group']:nth-of-type(5) &gt; span[class*='leading-']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="10"/>
@@ -1904,14 +1895,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1993,22 +1985,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -2044,22 +2036,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -2101,10 +2093,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>24</v>
@@ -2146,22 +2138,22 @@
         <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -2197,16 +2189,16 @@
         <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>32</v>
@@ -2254,16 +2246,16 @@
         <v>39</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>40</v>
@@ -2305,16 +2297,16 @@
         <v>45</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2356,10 +2348,10 @@
         <v>50</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>51</v>
@@ -2407,10 +2399,10 @@
         <v>58</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>59</v>
@@ -2455,13 +2447,13 @@
         <v>64</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>65</v>
@@ -2503,22 +2495,22 @@
         <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>53</v>
@@ -2560,16 +2552,16 @@
         <v>74</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>53</v>
@@ -2611,10 +2603,10 @@
         <v>78</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>79</v>
@@ -2662,10 +2654,10 @@
         <v>85</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>86</v>
@@ -2713,10 +2705,10 @@
         <v>92</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>93</v>
@@ -2764,16 +2756,16 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>88</v>
@@ -2809,22 +2801,22 @@
         <v>102</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>103</v>
@@ -2860,16 +2852,16 @@
         <v>106</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>108</v>
@@ -2908,7 +2900,7 @@
         <v>111</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>112</v>
@@ -2917,10 +2909,10 @@
         <v>113</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>114</v>
@@ -2962,22 +2954,22 @@
         <v>117</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>118</v>
@@ -3013,22 +3005,22 @@
         <v>120</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>121</v>
@@ -3070,10 +3062,10 @@
         <v>126</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>127</v>
@@ -3109,7 +3101,7 @@
         <v>35</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>130</v>
@@ -3121,16 +3113,16 @@
         <v>132</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>121</v>
@@ -3160,22 +3152,22 @@
         <v>134</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>135</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>136</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>137</v>
@@ -3211,22 +3203,22 @@
         <v>134</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>140</v>
@@ -3262,7 +3254,7 @@
         <v>134</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>143</v>
@@ -3274,16 +3266,16 @@
         <v>145</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>121</v>
@@ -3313,7 +3305,7 @@
         <v>134</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>147</v>
@@ -3325,16 +3317,16 @@
         <v>149</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>121</v>
@@ -3364,28 +3356,28 @@
         <v>151</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>152</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>153</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>121</v>
@@ -3415,28 +3407,28 @@
         <v>155</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>121</v>
@@ -3466,22 +3458,22 @@
         <v>157</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>158</v>
@@ -3529,10 +3521,10 @@
         <v>165</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>166</v>
@@ -3574,16 +3566,16 @@
         <v>170</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>171</v>
@@ -3619,22 +3611,22 @@
         <v>161</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>174</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>175</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>176</v>
@@ -3682,10 +3674,10 @@
         <v>165</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>181</v>
@@ -3721,28 +3713,28 @@
         <v>184</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>185</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>121</v>
@@ -3778,16 +3770,16 @@
         <v>188</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>189</v>
@@ -3829,16 +3821,16 @@
         <v>193</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>194</v>
@@ -3886,10 +3878,10 @@
         <v>200</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>201</v>
@@ -3937,16 +3929,16 @@
         <v>208</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>121</v>
@@ -3976,22 +3968,22 @@
         <v>184</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>211</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>212</v>
@@ -4027,22 +4019,22 @@
         <v>184</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>215</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>216</v>
@@ -4084,22 +4076,22 @@
         <v>221</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>121</v>
@@ -4129,28 +4121,28 @@
         <v>223</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>121</v>
@@ -4186,22 +4178,22 @@
         <v>226</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>121</v>
@@ -4223,7 +4215,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" ht="52.8">
+    <row r="46" spans="1:27" ht="39.6">
       <c r="A46" s="3" t="s">
         <v>227</v>
       </c>
@@ -4231,28 +4223,28 @@
         <v>225</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>229</v>
+        <v>495</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>121</v>
@@ -4276,34 +4268,34 @@
     </row>
     <row r="47" spans="1:27" ht="39.6">
       <c r="A47" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>225</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>121</v>
@@ -4327,34 +4319,34 @@
     </row>
     <row r="48" spans="1:27" ht="118.8">
       <c r="A48" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>225</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>234</v>
+        <v>499</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>235</v>
+        <v>503</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>236</v>
+        <v>500</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>238</v>
+        <v>501</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>239</v>
+        <v>502</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>121</v>
@@ -4376,36 +4368,32 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27" ht="79.8" thickBot="1">
+    <row r="49" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>225</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>241</v>
+        <v>496</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>244</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
       <c r="G49" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>245</v>
+        <v>498</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>246</v>
+        <v>504</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>121</v>
@@ -4427,32 +4415,32 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27" ht="40.200000000000003" thickBot="1">
+    <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A50" s="11" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>429</v>
+        <v>506</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>430</v>
+        <v>505</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4472,34 +4460,34 @@
     </row>
     <row r="51" spans="1:27" ht="79.2">
       <c r="A51" s="3" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>121</v>
@@ -4523,34 +4511,34 @@
     </row>
     <row r="52" spans="1:27" ht="52.8">
       <c r="A52" s="3" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>121</v>
@@ -4574,34 +4562,34 @@
     </row>
     <row r="53" spans="1:27" ht="39.6">
       <c r="A53" s="3" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>261</v>
-      </c>
       <c r="F53" s="5" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>121</v>
@@ -4625,37 +4613,37 @@
     </row>
     <row r="54" spans="1:27" ht="264">
       <c r="A54" s="3" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -4676,37 +4664,37 @@
     </row>
     <row r="55" spans="1:27" ht="158.4">
       <c r="A55" s="5" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4727,37 +4715,37 @@
     </row>
     <row r="56" spans="1:27" ht="158.4">
       <c r="A56" s="5" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
@@ -4778,34 +4766,34 @@
     </row>
     <row r="57" spans="1:27" ht="26.4">
       <c r="A57" s="5" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>121</v>
@@ -4829,34 +4817,34 @@
     </row>
     <row r="58" spans="1:27" ht="26.4">
       <c r="A58" s="5" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="J58" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>121</v>
@@ -4880,37 +4868,37 @@
     </row>
     <row r="59" spans="1:27" ht="52.8">
       <c r="A59" s="5" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -4931,37 +4919,37 @@
     </row>
     <row r="60" spans="1:27" ht="26.4">
       <c r="A60" s="5" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -4982,34 +4970,34 @@
     </row>
     <row r="61" spans="1:27" ht="26.4">
       <c r="A61" s="5" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>121</v>
@@ -5033,37 +5021,37 @@
     </row>
     <row r="62" spans="1:27" ht="39.6">
       <c r="A62" s="5" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -5084,34 +5072,34 @@
     </row>
     <row r="63" spans="1:27" ht="52.8">
       <c r="A63" s="5" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>121</v>
@@ -5135,34 +5123,34 @@
     </row>
     <row r="64" spans="1:27" ht="52.8">
       <c r="A64" s="5" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>330</v>
-      </c>
       <c r="E64" s="5" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>121</v>
@@ -5186,34 +5174,34 @@
     </row>
     <row r="65" spans="1:27" ht="52.8">
       <c r="A65" s="5" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>121</v>
@@ -5237,34 +5225,34 @@
     </row>
     <row r="66" spans="1:27" ht="13.2">
       <c r="A66" s="3" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>121</v>
@@ -5288,40 +5276,40 @@
     </row>
     <row r="67" spans="1:27" ht="92.4">
       <c r="A67" s="3" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -5341,34 +5329,34 @@
     </row>
     <row r="68" spans="1:27" ht="79.2">
       <c r="A68" s="3" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>121</v>
@@ -5392,34 +5380,34 @@
     </row>
     <row r="69" spans="1:27" ht="79.2">
       <c r="A69" s="3" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>121</v>
@@ -5443,34 +5431,34 @@
     </row>
     <row r="70" spans="1:27" ht="13.2">
       <c r="A70" s="3" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>121</v>
@@ -5494,40 +5482,40 @@
     </row>
     <row r="71" spans="1:27" ht="66">
       <c r="A71" s="3" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -5547,34 +5535,34 @@
     </row>
     <row r="72" spans="1:27" ht="66">
       <c r="A72" s="5" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>121</v>
@@ -5598,34 +5586,34 @@
     </row>
     <row r="73" spans="1:27" ht="106.2" thickBot="1">
       <c r="A73" s="5" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>121</v>
@@ -5649,22 +5637,22 @@
     </row>
     <row r="74" spans="1:27" ht="106.2" thickBot="1">
       <c r="A74" s="11" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -5674,7 +5662,7 @@
         <v>121</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5694,34 +5682,34 @@
     </row>
     <row r="75" spans="1:27" ht="118.8">
       <c r="A75" s="5" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>121</v>
@@ -5745,34 +5733,34 @@
     </row>
     <row r="76" spans="1:27" ht="39.6">
       <c r="A76" s="5" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>121</v>
@@ -5796,34 +5784,34 @@
     </row>
     <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A77" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>414</v>
-      </c>
       <c r="F77" s="5" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>121</v>
@@ -5847,36 +5835,36 @@
     </row>
     <row r="78" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A78" s="11" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5896,36 +5884,36 @@
     </row>
     <row r="79" spans="1:27" ht="27" thickBot="1">
       <c r="A79" s="11" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="K79" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -5945,34 +5933,34 @@
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A80" s="5" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>121</v>
@@ -5996,34 +5984,34 @@
     </row>
     <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A81" s="11" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="13" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="K81" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -6043,22 +6031,22 @@
     </row>
     <row r="82" spans="1:27" ht="79.8" thickBot="1">
       <c r="A82" s="11" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -6068,7 +6056,7 @@
         <v>121</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -6088,16 +6076,16 @@
     </row>
     <row r="83" spans="1:27" ht="27" thickBot="1">
       <c r="A83" s="11" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -6106,10 +6094,10 @@
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6129,36 +6117,36 @@
     </row>
     <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A84" s="11" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -6178,22 +6166,22 @@
     </row>
     <row r="85" spans="1:27" ht="79.8" thickBot="1">
       <c r="A85" s="11" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -6201,7 +6189,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -6221,16 +6209,16 @@
     </row>
     <row r="86" spans="1:27" ht="93" thickBot="1">
       <c r="A86" s="11" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -6240,7 +6228,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -6260,34 +6248,34 @@
     </row>
     <row r="87" spans="1:27" ht="277.8" thickBot="1">
       <c r="A87" s="11" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="K87" s="11"/>
       <c r="L87" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -6307,16 +6295,16 @@
     </row>
     <row r="88" spans="1:27" ht="27" thickBot="1">
       <c r="A88" s="11" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -6326,7 +6314,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="132" yWindow="540" windowWidth="22716" windowHeight="10788"/>
@@ -409,9 +409,6 @@
     <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//div[contains(@class, 'white-back')]/div[contains(@class, 'col-xs-')][1]</t>
   </si>
   <si>
-    <t>div[class='ng-star-inserted']&gt;div[class*='form-group']&gt;app-train-avl-enq&gt;div[class='ng-star-inserted']&gt;div[class*='white-back']&gt;div[class*='col-xs-']</t>
-  </si>
-  <si>
     <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//div[contains(@class, 'white-back')]/div[contains(@class, 'col-xs-')]</t>
   </si>
   <si>
@@ -460,9 +457,6 @@
     <t>//div[@class='copyRightsText']/p[2]</t>
   </si>
   <si>
-    <t>div[class='copyRightsText'] p</t>
-  </si>
-  <si>
     <t>//div[@class='copyRightsText']/p</t>
   </si>
   <si>
@@ -1535,12 +1529,18 @@
   </si>
   <si>
     <t>button[class*='group']:nth-of-type(5) &gt; span[class*='leading-']</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']&gt;div[class*='form-group'] div[class*='white-back']&gt;div[class*='col-xs-']</t>
+  </si>
+  <si>
+    <t>div[class='copyRightsText'] &gt; p</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="9">
     <font>
       <sz val="10"/>
@@ -1895,15 +1895,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1985,22 +1985,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -2036,22 +2036,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -2093,10 +2093,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>24</v>
@@ -2138,22 +2138,22 @@
         <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -2189,16 +2189,16 @@
         <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>32</v>
@@ -2246,16 +2246,16 @@
         <v>39</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>40</v>
@@ -2297,16 +2297,16 @@
         <v>45</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2348,10 +2348,10 @@
         <v>50</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>51</v>
@@ -2399,10 +2399,10 @@
         <v>58</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>59</v>
@@ -2447,13 +2447,13 @@
         <v>64</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>65</v>
@@ -2495,22 +2495,22 @@
         <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>53</v>
@@ -2552,16 +2552,16 @@
         <v>74</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>53</v>
@@ -2603,10 +2603,10 @@
         <v>78</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>79</v>
@@ -2654,10 +2654,10 @@
         <v>85</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>86</v>
@@ -2705,10 +2705,10 @@
         <v>92</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>93</v>
@@ -2756,16 +2756,16 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>88</v>
@@ -2801,22 +2801,22 @@
         <v>102</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>103</v>
@@ -2852,16 +2852,16 @@
         <v>106</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>108</v>
@@ -2900,7 +2900,7 @@
         <v>111</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>112</v>
@@ -2909,10 +2909,10 @@
         <v>113</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>114</v>
@@ -2954,22 +2954,22 @@
         <v>117</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>118</v>
@@ -3005,22 +3005,22 @@
         <v>120</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>121</v>
@@ -3062,10 +3062,10 @@
         <v>126</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>127</v>
@@ -3101,28 +3101,28 @@
         <v>35</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="D24" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="G24" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>121</v>
@@ -3146,34 +3146,34 @@
     </row>
     <row r="25" spans="1:27" ht="66">
       <c r="A25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="G25" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I25" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>121</v>
@@ -3197,34 +3197,34 @@
     </row>
     <row r="26" spans="1:27" ht="66">
       <c r="A26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>121</v>
@@ -3248,34 +3248,34 @@
     </row>
     <row r="27" spans="1:27" ht="66">
       <c r="A27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="J27" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>401</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>121</v>
@@ -3299,34 +3299,34 @@
     </row>
     <row r="28" spans="1:27" ht="39.6">
       <c r="A28" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="G28" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>121</v>
@@ -3350,34 +3350,34 @@
     </row>
     <row r="29" spans="1:27" ht="26.4">
       <c r="A29" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="E29" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>153</v>
-      </c>
       <c r="G29" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>121</v>
@@ -3401,34 +3401,34 @@
     </row>
     <row r="30" spans="1:27" ht="13.2">
       <c r="A30" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>121</v>
@@ -3452,34 +3452,34 @@
     </row>
     <row r="31" spans="1:27" ht="66">
       <c r="A31" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="J31" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>121</v>
@@ -3503,34 +3503,34 @@
     </row>
     <row r="32" spans="1:27" ht="92.4">
       <c r="A32" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="G32" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>121</v>
@@ -3554,34 +3554,34 @@
     </row>
     <row r="33" spans="1:27" ht="39.6">
       <c r="A33" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="E33" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>121</v>
@@ -3605,34 +3605,34 @@
     </row>
     <row r="34" spans="1:27" ht="66">
       <c r="A34" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="G34" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>121</v>
@@ -3656,34 +3656,34 @@
     </row>
     <row r="35" spans="1:27" ht="92.4">
       <c r="A35" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="E35" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="J35" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>121</v>
@@ -3707,34 +3707,34 @@
     </row>
     <row r="36" spans="1:27" ht="26.4">
       <c r="A36" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="E36" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>121</v>
@@ -3758,34 +3758,34 @@
     </row>
     <row r="37" spans="1:27" ht="79.2">
       <c r="A37" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="E37" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>121</v>
@@ -3809,34 +3809,34 @@
     </row>
     <row r="38" spans="1:27" ht="66">
       <c r="A38" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="E38" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="J38" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>121</v>
@@ -3860,34 +3860,34 @@
     </row>
     <row r="39" spans="1:27" ht="26.4">
       <c r="A39" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="G39" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="J39" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>121</v>
@@ -3911,34 +3911,34 @@
     </row>
     <row r="40" spans="1:27" ht="66">
       <c r="A40" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="G40" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>121</v>
@@ -3962,34 +3962,34 @@
     </row>
     <row r="41" spans="1:27" ht="39.6">
       <c r="A41" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="G41" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I41" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="F41" s="9" t="s">
+      <c r="J41" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>121</v>
@@ -4013,34 +4013,34 @@
     </row>
     <row r="42" spans="1:27" ht="105.6">
       <c r="A42" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="J42" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>121</v>
@@ -4064,34 +4064,34 @@
     </row>
     <row r="43" spans="1:27" ht="52.8">
       <c r="A43" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="E43" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>121</v>
@@ -4115,34 +4115,34 @@
     </row>
     <row r="44" spans="1:27" ht="26.4">
       <c r="A44" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>121</v>
@@ -4166,34 +4166,34 @@
     </row>
     <row r="45" spans="1:27" ht="26.4">
       <c r="A45" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="D45" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>121</v>
@@ -4217,34 +4217,34 @@
     </row>
     <row r="46" spans="1:27" ht="39.6">
       <c r="A46" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>121</v>
@@ -4268,34 +4268,34 @@
     </row>
     <row r="47" spans="1:27" ht="39.6">
       <c r="A47" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="E47" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>121</v>
@@ -4319,34 +4319,34 @@
     </row>
     <row r="48" spans="1:27" ht="118.8">
       <c r="A48" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I48" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="J48" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>121</v>
@@ -4370,30 +4370,30 @@
     </row>
     <row r="49" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>121</v>
@@ -4417,30 +4417,30 @@
     </row>
     <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A50" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4460,34 +4460,34 @@
     </row>
     <row r="51" spans="1:27" ht="79.2">
       <c r="A51" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="D51" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="G51" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>121</v>
@@ -4511,34 +4511,34 @@
     </row>
     <row r="52" spans="1:27" ht="52.8">
       <c r="A52" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C52" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>244</v>
-      </c>
       <c r="G52" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>121</v>
@@ -4562,34 +4562,34 @@
     </row>
     <row r="53" spans="1:27" ht="39.6">
       <c r="A53" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="G53" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="J53" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>121</v>
@@ -4613,37 +4613,37 @@
     </row>
     <row r="54" spans="1:27" ht="264">
       <c r="A54" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="G54" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="J54" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="K54" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -4664,37 +4664,37 @@
     </row>
     <row r="55" spans="1:27" ht="158.4">
       <c r="A55" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="D55" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="G55" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="J55" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I55" s="5" t="s">
+      <c r="K55" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4715,37 +4715,37 @@
     </row>
     <row r="56" spans="1:27" ht="158.4">
       <c r="A56" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C56" s="5" t="s">
+      <c r="E56" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="J56" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>272</v>
-      </c>
       <c r="K56" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
@@ -4766,34 +4766,34 @@
     </row>
     <row r="57" spans="1:27" ht="26.4">
       <c r="A57" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="D57" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="G57" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="J57" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>121</v>
@@ -4817,34 +4817,34 @@
     </row>
     <row r="58" spans="1:27" ht="26.4">
       <c r="A58" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="F58" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="G58" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="J58" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>121</v>
@@ -4868,37 +4868,37 @@
     </row>
     <row r="59" spans="1:27" ht="52.8">
       <c r="A59" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="D59" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="F59" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="G59" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="J59" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>295</v>
-      </c>
       <c r="K59" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -4919,37 +4919,37 @@
     </row>
     <row r="60" spans="1:27" ht="26.4">
       <c r="A60" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>298</v>
-      </c>
       <c r="E60" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -4970,34 +4970,34 @@
     </row>
     <row r="61" spans="1:27" ht="26.4">
       <c r="A61" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="D61" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>302</v>
-      </c>
       <c r="E61" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>121</v>
@@ -5021,37 +5021,37 @@
     </row>
     <row r="62" spans="1:27" ht="39.6">
       <c r="A62" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="D62" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="E62" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>307</v>
-      </c>
       <c r="G62" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -5072,34 +5072,34 @@
     </row>
     <row r="63" spans="1:27" ht="52.8">
       <c r="A63" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C63" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="G63" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="J63" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>121</v>
@@ -5123,34 +5123,34 @@
     </row>
     <row r="64" spans="1:27" ht="52.8">
       <c r="A64" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="F64" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="G64" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I64" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="J64" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>321</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>121</v>
@@ -5174,34 +5174,34 @@
     </row>
     <row r="65" spans="1:27" ht="52.8">
       <c r="A65" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C65" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="F65" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="G65" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="J65" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>328</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>121</v>
@@ -5225,34 +5225,34 @@
     </row>
     <row r="66" spans="1:27" ht="13.2">
       <c r="A66" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="D66" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>121</v>
@@ -5276,40 +5276,40 @@
     </row>
     <row r="67" spans="1:27" ht="92.4">
       <c r="A67" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C67" s="5" t="s">
+      <c r="E67" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="F67" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="G67" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -5329,34 +5329,34 @@
     </row>
     <row r="68" spans="1:27" ht="79.2">
       <c r="A68" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C68" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="F68" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="G68" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>121</v>
@@ -5380,34 +5380,34 @@
     </row>
     <row r="69" spans="1:27" ht="79.2">
       <c r="A69" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C69" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="G69" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>349</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>121</v>
@@ -5431,34 +5431,34 @@
     </row>
     <row r="70" spans="1:27" ht="13.2">
       <c r="A70" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="E70" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>121</v>
@@ -5482,40 +5482,40 @@
     </row>
     <row r="71" spans="1:27" ht="66">
       <c r="A71" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C71" s="10" t="s">
+      <c r="E71" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="F71" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>357</v>
-      </c>
       <c r="G71" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -5535,34 +5535,34 @@
     </row>
     <row r="72" spans="1:27" ht="66">
       <c r="A72" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C72" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="F72" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="G72" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="J72" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>365</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>121</v>
@@ -5586,34 +5586,34 @@
     </row>
     <row r="73" spans="1:27" ht="106.2" thickBot="1">
       <c r="A73" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C73" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>369</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>121</v>
@@ -5637,22 +5637,22 @@
     </row>
     <row r="74" spans="1:27" ht="106.2" thickBot="1">
       <c r="A74" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="C74" s="11" t="s">
+      <c r="E74" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="F74" s="11" t="s">
         <v>421</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>423</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -5662,7 +5662,7 @@
         <v>121</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5682,34 +5682,34 @@
     </row>
     <row r="75" spans="1:27" ht="118.8">
       <c r="A75" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="D75" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="F75" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="G75" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I75" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="J75" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>121</v>
@@ -5733,34 +5733,34 @@
     </row>
     <row r="76" spans="1:27" ht="39.6">
       <c r="A76" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="D76" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="F76" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="G76" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="J76" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>121</v>
@@ -5784,34 +5784,34 @@
     </row>
     <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A77" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C77" s="5" t="s">
+      <c r="E77" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="J77" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>392</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>121</v>
@@ -5835,36 +5835,36 @@
     </row>
     <row r="78" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A78" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="D78" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="E78" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="F78" s="11" t="s">
         <v>428</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>430</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5884,36 +5884,36 @@
     </row>
     <row r="79" spans="1:27" ht="27" thickBot="1">
       <c r="A79" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="D79" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="E79" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="F79" s="11" t="s">
         <v>436</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>438</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K79" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -5933,34 +5933,34 @@
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A80" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="D80" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="F80" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="G80" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I80" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="J80" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>400</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>121</v>
@@ -5984,34 +5984,34 @@
     </row>
     <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A81" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D81" s="13" t="s">
         <v>441</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>443</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K81" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -6031,22 +6031,22 @@
     </row>
     <row r="82" spans="1:27" ht="79.8" thickBot="1">
       <c r="A82" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="C82" s="11" t="s">
+      <c r="E82" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="F82" s="11" t="s">
         <v>449</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>451</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -6056,7 +6056,7 @@
         <v>121</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -6076,16 +6076,16 @@
     </row>
     <row r="83" spans="1:27" ht="27" thickBot="1">
       <c r="A83" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="D83" s="13" t="s">
         <v>453</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>455</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -6094,10 +6094,10 @@
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6117,36 +6117,36 @@
     </row>
     <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A84" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="C84" s="11" t="s">
+      <c r="E84" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="F84" s="11" t="s">
         <v>458</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>460</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -6166,22 +6166,22 @@
     </row>
     <row r="85" spans="1:27" ht="79.8" thickBot="1">
       <c r="A85" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="D85" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="E85" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="F85" s="11" t="s">
         <v>466</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>468</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -6189,7 +6189,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -6209,16 +6209,16 @@
     </row>
     <row r="86" spans="1:27" ht="93" thickBot="1">
       <c r="A86" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>469</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>471</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -6228,7 +6228,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -6248,34 +6248,34 @@
     </row>
     <row r="87" spans="1:27" ht="277.8" thickBot="1">
       <c r="A87" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="C87" s="11" t="s">
+      <c r="E87" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="F87" s="11" t="s">
         <v>474</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>476</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K87" s="11"/>
       <c r="L87" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -6295,16 +6295,16 @@
     </row>
     <row r="88" spans="1:27" ht="27" thickBot="1">
       <c r="A88" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D88" s="13" t="s">
         <v>479</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>481</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -6314,7 +6314,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -739,30 +739,12 @@
     <t>ABHI_VYAKTI_02</t>
   </si>
   <si>
-    <t>div[class*='col-lg-']:nth-of-type(1) div[class='box-border']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-lg-')][1]/div[@class='box-border']</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-'] div[class='box-border']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-lg-')]/div[@class='box-border']</t>
-  </si>
-  <si>
     <t>ABHI_VYAKTI_03</t>
   </si>
   <si>
-    <t>div[class*='col-md-']:nth-of-type(4)&gt;a:nth-of-type(1)</t>
-  </si>
-  <si>
     <t>//div[contains(@class, 'col-md-')][4]/a[1]</t>
   </si>
   <si>
-    <t>div[class*='col-md-']&gt;a</t>
-  </si>
-  <si>
     <t>//div[contains(@class, 'col-md-')]/a</t>
   </si>
   <si>
@@ -1535,6 +1517,24 @@
   </si>
   <si>
     <t>button[class*='group']:nth-of-type(5) &gt; span[class*='leading-']</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-']:nth-of-type(1) img[alt='garba mahotsav']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-lg-')][1]//img[@alt='garba mahotsav']</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-'] img[alt='garba mahotsav']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-lg-')]//img[@alt='garba mahotsav']</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-']:nth-of-type(4) &gt; a:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-'] &gt; a</t>
   </si>
 </sst>
 </file>
@@ -1902,8 +1902,8 @@
   <dimension ref="A1:AA1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1985,22 +1985,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -2036,22 +2036,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -2093,10 +2093,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>24</v>
@@ -2138,22 +2138,22 @@
         <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -2189,16 +2189,16 @@
         <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>32</v>
@@ -2246,16 +2246,16 @@
         <v>39</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>40</v>
@@ -2297,16 +2297,16 @@
         <v>45</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2348,10 +2348,10 @@
         <v>50</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>51</v>
@@ -2399,10 +2399,10 @@
         <v>58</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>59</v>
@@ -2447,13 +2447,13 @@
         <v>64</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>65</v>
@@ -2495,22 +2495,22 @@
         <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>53</v>
@@ -2552,16 +2552,16 @@
         <v>74</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>53</v>
@@ -2603,10 +2603,10 @@
         <v>78</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>79</v>
@@ -2654,10 +2654,10 @@
         <v>85</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>86</v>
@@ -2705,10 +2705,10 @@
         <v>92</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>93</v>
@@ -2756,16 +2756,16 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>88</v>
@@ -2801,22 +2801,22 @@
         <v>102</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>103</v>
@@ -2852,16 +2852,16 @@
         <v>106</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>108</v>
@@ -2900,7 +2900,7 @@
         <v>111</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>112</v>
@@ -2909,10 +2909,10 @@
         <v>113</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>114</v>
@@ -2954,22 +2954,22 @@
         <v>117</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>118</v>
@@ -3005,22 +3005,22 @@
         <v>120</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>121</v>
@@ -3062,10 +3062,10 @@
         <v>126</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>127</v>
@@ -3101,7 +3101,7 @@
         <v>35</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>130</v>
@@ -3113,16 +3113,16 @@
         <v>132</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>121</v>
@@ -3152,22 +3152,22 @@
         <v>134</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>135</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>136</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>137</v>
@@ -3203,22 +3203,22 @@
         <v>134</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>140</v>
@@ -3254,7 +3254,7 @@
         <v>134</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>143</v>
@@ -3266,16 +3266,16 @@
         <v>145</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>121</v>
@@ -3305,7 +3305,7 @@
         <v>134</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>147</v>
@@ -3317,16 +3317,16 @@
         <v>149</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>121</v>
@@ -3356,28 +3356,28 @@
         <v>151</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>152</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>153</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>121</v>
@@ -3407,28 +3407,28 @@
         <v>155</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>121</v>
@@ -3458,22 +3458,22 @@
         <v>157</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>158</v>
@@ -3521,10 +3521,10 @@
         <v>165</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>166</v>
@@ -3566,16 +3566,16 @@
         <v>170</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>171</v>
@@ -3611,22 +3611,22 @@
         <v>161</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>174</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>175</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>176</v>
@@ -3674,10 +3674,10 @@
         <v>165</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>181</v>
@@ -3713,28 +3713,28 @@
         <v>184</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>185</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>121</v>
@@ -3770,16 +3770,16 @@
         <v>188</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>189</v>
@@ -3821,16 +3821,16 @@
         <v>193</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>194</v>
@@ -3878,10 +3878,10 @@
         <v>200</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>201</v>
@@ -3929,16 +3929,16 @@
         <v>208</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>121</v>
@@ -3968,22 +3968,22 @@
         <v>184</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>211</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>212</v>
@@ -4019,22 +4019,22 @@
         <v>184</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>215</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>216</v>
@@ -4076,22 +4076,22 @@
         <v>221</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>121</v>
@@ -4121,28 +4121,28 @@
         <v>223</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>121</v>
@@ -4178,22 +4178,22 @@
         <v>226</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>121</v>
@@ -4226,25 +4226,25 @@
         <v>226</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>121</v>
@@ -4280,22 +4280,22 @@
         <v>230</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>121</v>
@@ -4325,28 +4325,28 @@
         <v>225</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>232</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>121</v>
@@ -4376,24 +4376,24 @@
         <v>225</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I49" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="J49" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>504</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>121</v>
@@ -4417,30 +4417,30 @@
     </row>
     <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A50" s="11" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4478,16 +4478,16 @@
         <v>239</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>121</v>
@@ -4509,7 +4509,7 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
     </row>
-    <row r="52" spans="1:27" ht="52.8">
+    <row r="52" spans="1:27" ht="66">
       <c r="A52" s="3" t="s">
         <v>240</v>
       </c>
@@ -4517,28 +4517,28 @@
         <v>235</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>241</v>
+        <v>501</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>242</v>
+        <v>502</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>243</v>
+        <v>503</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>244</v>
+        <v>504</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>121</v>
@@ -4562,34 +4562,34 @@
     </row>
     <row r="53" spans="1:27" ht="39.6">
       <c r="A53" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>235</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>246</v>
+        <v>505</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>248</v>
+        <v>506</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>121</v>
@@ -4613,37 +4613,37 @@
     </row>
     <row r="54" spans="1:27" ht="264">
       <c r="A54" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>235</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -4664,37 +4664,37 @@
     </row>
     <row r="55" spans="1:27" ht="158.4">
       <c r="A55" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="J55" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="K55" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4715,37 +4715,37 @@
     </row>
     <row r="56" spans="1:27" ht="158.4">
       <c r="A56" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
@@ -4766,34 +4766,34 @@
     </row>
     <row r="57" spans="1:27" ht="26.4">
       <c r="A57" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="J57" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>121</v>
@@ -4817,34 +4817,34 @@
     </row>
     <row r="58" spans="1:27" ht="26.4">
       <c r="A58" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="J58" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>121</v>
@@ -4868,37 +4868,37 @@
     </row>
     <row r="59" spans="1:27" ht="52.8">
       <c r="A59" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="J59" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>295</v>
-      </c>
       <c r="K59" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -4919,37 +4919,37 @@
     </row>
     <row r="60" spans="1:27" ht="26.4">
       <c r="A60" s="5" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -4970,34 +4970,34 @@
     </row>
     <row r="61" spans="1:27" ht="26.4">
       <c r="A61" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>121</v>
@@ -5021,37 +5021,37 @@
     </row>
     <row r="62" spans="1:27" ht="39.6">
       <c r="A62" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -5072,34 +5072,34 @@
     </row>
     <row r="63" spans="1:27" ht="52.8">
       <c r="A63" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="J63" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>121</v>
@@ -5123,34 +5123,34 @@
     </row>
     <row r="64" spans="1:27" ht="52.8">
       <c r="A64" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="J64" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>321</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>121</v>
@@ -5174,34 +5174,34 @@
     </row>
     <row r="65" spans="1:27" ht="52.8">
       <c r="A65" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="J65" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>328</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>121</v>
@@ -5225,34 +5225,34 @@
     </row>
     <row r="66" spans="1:27" ht="13.2">
       <c r="A66" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>121</v>
@@ -5276,40 +5276,40 @@
     </row>
     <row r="67" spans="1:27" ht="92.4">
       <c r="A67" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="G67" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -5329,34 +5329,34 @@
     </row>
     <row r="68" spans="1:27" ht="79.2">
       <c r="A68" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>121</v>
@@ -5380,34 +5380,34 @@
     </row>
     <row r="69" spans="1:27" ht="79.2">
       <c r="A69" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="J69" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>349</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>121</v>
@@ -5431,34 +5431,34 @@
     </row>
     <row r="70" spans="1:27" ht="13.2">
       <c r="A70" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>121</v>
@@ -5482,40 +5482,40 @@
     </row>
     <row r="71" spans="1:27" ht="66">
       <c r="A71" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -5535,34 +5535,34 @@
     </row>
     <row r="72" spans="1:27" ht="66">
       <c r="A72" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="J72" s="5" t="s">
         <v>359</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>365</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>121</v>
@@ -5586,34 +5586,34 @@
     </row>
     <row r="73" spans="1:27" ht="106.2" thickBot="1">
       <c r="A73" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>121</v>
@@ -5637,22 +5637,22 @@
     </row>
     <row r="74" spans="1:27" ht="106.2" thickBot="1">
       <c r="A74" s="11" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -5662,7 +5662,7 @@
         <v>121</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5682,34 +5682,34 @@
     </row>
     <row r="75" spans="1:27" ht="118.8">
       <c r="A75" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I75" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="J75" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>121</v>
@@ -5733,34 +5733,34 @@
     </row>
     <row r="76" spans="1:27" ht="39.6">
       <c r="A76" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="J76" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>121</v>
@@ -5784,34 +5784,34 @@
     </row>
     <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A77" s="5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>121</v>
@@ -5835,36 +5835,36 @@
     </row>
     <row r="78" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A78" s="11" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5884,36 +5884,36 @@
     </row>
     <row r="79" spans="1:27" ht="27" thickBot="1">
       <c r="A79" s="11" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="K79" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -5933,34 +5933,34 @@
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A80" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I80" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="J80" s="5" t="s">
         <v>394</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>400</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>121</v>
@@ -5984,34 +5984,34 @@
     </row>
     <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A81" s="11" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="13" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="K81" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -6031,22 +6031,22 @@
     </row>
     <row r="82" spans="1:27" ht="79.8" thickBot="1">
       <c r="A82" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -6056,7 +6056,7 @@
         <v>121</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -6076,16 +6076,16 @@
     </row>
     <row r="83" spans="1:27" ht="27" thickBot="1">
       <c r="A83" s="11" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -6094,10 +6094,10 @@
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6117,36 +6117,36 @@
     </row>
     <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A84" s="11" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B84" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>459</v>
-      </c>
       <c r="F84" s="11" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -6166,22 +6166,22 @@
     </row>
     <row r="85" spans="1:27" ht="79.8" thickBot="1">
       <c r="A85" s="11" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -6189,7 +6189,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -6209,16 +6209,16 @@
     </row>
     <row r="86" spans="1:27" ht="93" thickBot="1">
       <c r="A86" s="11" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B86" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="C86" s="11" t="s">
-        <v>470</v>
-      </c>
       <c r="D86" s="11" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -6228,7 +6228,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -6248,34 +6248,34 @@
     </row>
     <row r="87" spans="1:27" ht="277.8" thickBot="1">
       <c r="A87" s="11" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="K87" s="11"/>
       <c r="L87" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -6295,16 +6295,16 @@
     </row>
     <row r="88" spans="1:27" ht="27" thickBot="1">
       <c r="A88" s="11" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -6314,7 +6314,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="508">
   <si>
     <t>ID</t>
   </si>
@@ -385,15 +385,9 @@
     <t>IRCTC_TC_22</t>
   </si>
   <si>
-    <t>div[class*='row']:nth-of-type(1)&gt;span&gt;strong</t>
-  </si>
-  <si>
     <t>//div[contains(@class, 'row')][1]/span/strong</t>
   </si>
   <si>
-    <t>div[class*='row']&gt;span&gt;strong</t>
-  </si>
-  <si>
     <t>//div[contains(@class, 'row')]/span/strong</t>
   </si>
   <si>
@@ -1535,6 +1529,15 @@
   </si>
   <si>
     <t>div[class='copyRightsText'] &gt; p</t>
+  </si>
+  <si>
+    <t>div[class*='row'] &gt; span &gt; strong</t>
+  </si>
+  <si>
+    <t>CSS already unique</t>
+  </si>
+  <si>
+    <t>//span[@class='fa fa-angle-up ng-star-inserted']</t>
   </si>
 </sst>
 </file>
@@ -1902,8 +1905,8 @@
   <dimension ref="A1:AA1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1985,22 +1988,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -2036,22 +2039,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -2093,10 +2096,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>24</v>
@@ -2138,22 +2141,22 @@
         <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -2189,16 +2192,16 @@
         <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>32</v>
@@ -2246,16 +2249,16 @@
         <v>39</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>40</v>
@@ -2297,16 +2300,16 @@
         <v>45</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2348,10 +2351,10 @@
         <v>50</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>51</v>
@@ -2399,10 +2402,10 @@
         <v>58</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>59</v>
@@ -2447,13 +2450,13 @@
         <v>64</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>65</v>
@@ -2495,22 +2498,22 @@
         <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>53</v>
@@ -2552,16 +2555,16 @@
         <v>74</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>53</v>
@@ -2603,10 +2606,10 @@
         <v>78</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>79</v>
@@ -2654,10 +2657,10 @@
         <v>85</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>86</v>
@@ -2705,10 +2708,10 @@
         <v>92</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>93</v>
@@ -2756,16 +2759,16 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>88</v>
@@ -2801,22 +2804,22 @@
         <v>102</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>103</v>
@@ -2852,16 +2855,16 @@
         <v>106</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>108</v>
@@ -2900,7 +2903,7 @@
         <v>111</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>112</v>
@@ -2909,10 +2912,10 @@
         <v>113</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>114</v>
@@ -2954,22 +2957,22 @@
         <v>117</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>118</v>
@@ -2991,36 +2994,36 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" ht="39.6">
+    <row r="22" spans="1:27" ht="52.8">
       <c r="A22" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>120</v>
+      <c r="D22" s="9" t="s">
+        <v>507</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>121</v>
@@ -3049,29 +3052,29 @@
       <c r="B23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="G23" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>121</v>
@@ -3095,34 +3098,34 @@
     </row>
     <row r="24" spans="1:27" ht="145.19999999999999">
       <c r="A24" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>121</v>
@@ -3146,34 +3149,34 @@
     </row>
     <row r="25" spans="1:27" ht="66">
       <c r="A25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="E25" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="G25" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="J25" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>121</v>
@@ -3197,34 +3200,34 @@
     </row>
     <row r="26" spans="1:27" ht="66">
       <c r="A26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>121</v>
@@ -3248,34 +3251,34 @@
     </row>
     <row r="27" spans="1:27" ht="66">
       <c r="A27" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="J27" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>121</v>
@@ -3299,34 +3302,34 @@
     </row>
     <row r="28" spans="1:27" ht="39.6">
       <c r="A28" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="G28" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>121</v>
@@ -3350,34 +3353,34 @@
     </row>
     <row r="29" spans="1:27" ht="26.4">
       <c r="A29" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="E29" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>151</v>
-      </c>
       <c r="G29" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>121</v>
@@ -3401,34 +3404,34 @@
     </row>
     <row r="30" spans="1:27" ht="13.2">
       <c r="A30" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>121</v>
@@ -3452,34 +3455,34 @@
     </row>
     <row r="31" spans="1:27" ht="66">
       <c r="A31" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="J31" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>121</v>
@@ -3503,34 +3506,34 @@
     </row>
     <row r="32" spans="1:27" ht="92.4">
       <c r="A32" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="G32" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>121</v>
@@ -3554,34 +3557,34 @@
     </row>
     <row r="33" spans="1:27" ht="39.6">
       <c r="A33" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="E33" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>121</v>
@@ -3605,34 +3608,34 @@
     </row>
     <row r="34" spans="1:27" ht="66">
       <c r="A34" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="G34" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>121</v>
@@ -3656,34 +3659,34 @@
     </row>
     <row r="35" spans="1:27" ht="92.4">
       <c r="A35" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="E35" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="J35" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>121</v>
@@ -3707,34 +3710,34 @@
     </row>
     <row r="36" spans="1:27" ht="26.4">
       <c r="A36" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="E36" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>121</v>
@@ -3758,34 +3761,34 @@
     </row>
     <row r="37" spans="1:27" ht="79.2">
       <c r="A37" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="E37" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>121</v>
@@ -3809,34 +3812,34 @@
     </row>
     <row r="38" spans="1:27" ht="66">
       <c r="A38" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="E38" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="J38" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>121</v>
@@ -3860,34 +3863,34 @@
     </row>
     <row r="39" spans="1:27" ht="26.4">
       <c r="A39" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="G39" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="J39" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>121</v>
@@ -3911,34 +3914,34 @@
     </row>
     <row r="40" spans="1:27" ht="66">
       <c r="A40" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="G40" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>121</v>
@@ -3962,34 +3965,34 @@
     </row>
     <row r="41" spans="1:27" ht="39.6">
       <c r="A41" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="G41" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I41" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="F41" s="9" t="s">
+      <c r="J41" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>121</v>
@@ -4013,34 +4016,34 @@
     </row>
     <row r="42" spans="1:27" ht="105.6">
       <c r="A42" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="J42" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>121</v>
@@ -4064,34 +4067,34 @@
     </row>
     <row r="43" spans="1:27" ht="52.8">
       <c r="A43" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="E43" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>121</v>
@@ -4115,34 +4118,34 @@
     </row>
     <row r="44" spans="1:27" ht="26.4">
       <c r="A44" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>121</v>
@@ -4166,34 +4169,34 @@
     </row>
     <row r="45" spans="1:27" ht="26.4">
       <c r="A45" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="D45" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>121</v>
@@ -4217,34 +4220,34 @@
     </row>
     <row r="46" spans="1:27" ht="39.6">
       <c r="A46" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>121</v>
@@ -4268,34 +4271,34 @@
     </row>
     <row r="47" spans="1:27" ht="39.6">
       <c r="A47" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="E47" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>121</v>
@@ -4319,34 +4322,34 @@
     </row>
     <row r="48" spans="1:27" ht="118.8">
       <c r="A48" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I48" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="J48" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>121</v>
@@ -4370,30 +4373,30 @@
     </row>
     <row r="49" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>121</v>
@@ -4417,30 +4420,30 @@
     </row>
     <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A50" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4460,34 +4463,34 @@
     </row>
     <row r="51" spans="1:27" ht="79.2">
       <c r="A51" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="D51" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="G51" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>121</v>
@@ -4511,34 +4514,34 @@
     </row>
     <row r="52" spans="1:27" ht="52.8">
       <c r="A52" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C52" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>242</v>
-      </c>
       <c r="G52" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>121</v>
@@ -4562,34 +4565,34 @@
     </row>
     <row r="53" spans="1:27" ht="39.6">
       <c r="A53" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="G53" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="J53" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>121</v>
@@ -4613,37 +4616,37 @@
     </row>
     <row r="54" spans="1:27" ht="264">
       <c r="A54" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="G54" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="J54" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="K54" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -4664,37 +4667,37 @@
     </row>
     <row r="55" spans="1:27" ht="158.4">
       <c r="A55" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="D55" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="G55" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="J55" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I55" s="5" t="s">
+      <c r="K55" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4715,37 +4718,37 @@
     </row>
     <row r="56" spans="1:27" ht="158.4">
       <c r="A56" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C56" s="5" t="s">
+      <c r="E56" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="J56" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="K56" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
@@ -4766,34 +4769,34 @@
     </row>
     <row r="57" spans="1:27" ht="26.4">
       <c r="A57" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="D57" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="G57" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="J57" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>121</v>
@@ -4817,34 +4820,34 @@
     </row>
     <row r="58" spans="1:27" ht="26.4">
       <c r="A58" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="F58" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="G58" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="J58" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>121</v>
@@ -4868,37 +4871,37 @@
     </row>
     <row r="59" spans="1:27" ht="52.8">
       <c r="A59" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="D59" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="F59" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="G59" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="J59" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>293</v>
-      </c>
       <c r="K59" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -4919,37 +4922,37 @@
     </row>
     <row r="60" spans="1:27" ht="26.4">
       <c r="A60" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="E60" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -4970,34 +4973,34 @@
     </row>
     <row r="61" spans="1:27" ht="26.4">
       <c r="A61" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="D61" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>300</v>
-      </c>
       <c r="E61" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>121</v>
@@ -5021,37 +5024,37 @@
     </row>
     <row r="62" spans="1:27" ht="39.6">
       <c r="A62" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="D62" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="E62" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>305</v>
-      </c>
       <c r="G62" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -5072,34 +5075,34 @@
     </row>
     <row r="63" spans="1:27" ht="52.8">
       <c r="A63" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C63" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="G63" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="J63" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>312</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>121</v>
@@ -5123,34 +5126,34 @@
     </row>
     <row r="64" spans="1:27" ht="52.8">
       <c r="A64" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="F64" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="G64" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I64" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="J64" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>121</v>
@@ -5174,34 +5177,34 @@
     </row>
     <row r="65" spans="1:27" ht="52.8">
       <c r="A65" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C65" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="F65" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="G65" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="J65" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>326</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>121</v>
@@ -5225,34 +5228,34 @@
     </row>
     <row r="66" spans="1:27" ht="13.2">
       <c r="A66" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="D66" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>121</v>
@@ -5276,40 +5279,40 @@
     </row>
     <row r="67" spans="1:27" ht="92.4">
       <c r="A67" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C67" s="5" t="s">
+      <c r="E67" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="F67" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="G67" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -5329,34 +5332,34 @@
     </row>
     <row r="68" spans="1:27" ht="79.2">
       <c r="A68" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C68" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="F68" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>340</v>
-      </c>
       <c r="G68" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>121</v>
@@ -5380,34 +5383,34 @@
     </row>
     <row r="69" spans="1:27" ht="79.2">
       <c r="A69" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C69" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="G69" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>345</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>347</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>121</v>
@@ -5431,34 +5434,34 @@
     </row>
     <row r="70" spans="1:27" ht="13.2">
       <c r="A70" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>350</v>
-      </c>
       <c r="E70" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>121</v>
@@ -5482,40 +5485,40 @@
     </row>
     <row r="71" spans="1:27" ht="66">
       <c r="A71" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C71" s="10" t="s">
+      <c r="E71" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="F71" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>355</v>
-      </c>
       <c r="G71" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -5535,34 +5538,34 @@
     </row>
     <row r="72" spans="1:27" ht="66">
       <c r="A72" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C72" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="F72" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="G72" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="J72" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>363</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>121</v>
@@ -5586,34 +5589,34 @@
     </row>
     <row r="73" spans="1:27" ht="106.2" thickBot="1">
       <c r="A73" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C73" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>367</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>121</v>
@@ -5637,22 +5640,22 @@
     </row>
     <row r="74" spans="1:27" ht="106.2" thickBot="1">
       <c r="A74" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="C74" s="11" t="s">
+      <c r="E74" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="F74" s="11" t="s">
         <v>419</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>421</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -5662,7 +5665,7 @@
         <v>121</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5682,34 +5685,34 @@
     </row>
     <row r="75" spans="1:27" ht="118.8">
       <c r="A75" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="D75" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="F75" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="G75" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I75" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="J75" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>121</v>
@@ -5733,34 +5736,34 @@
     </row>
     <row r="76" spans="1:27" ht="39.6">
       <c r="A76" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="D76" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="F76" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="G76" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="J76" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>121</v>
@@ -5784,34 +5787,34 @@
     </row>
     <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A77" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C77" s="5" t="s">
+      <c r="E77" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="J77" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>390</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>121</v>
@@ -5835,36 +5838,36 @@
     </row>
     <row r="78" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A78" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="D78" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="E78" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="F78" s="11" t="s">
         <v>426</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>428</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5884,36 +5887,36 @@
     </row>
     <row r="79" spans="1:27" ht="27" thickBot="1">
       <c r="A79" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="D79" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="E79" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="F79" s="11" t="s">
         <v>434</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>436</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K79" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -5933,34 +5936,34 @@
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A80" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="D80" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="F80" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="G80" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I80" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="J80" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>121</v>
@@ -5984,34 +5987,34 @@
     </row>
     <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A81" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="D81" s="13" t="s">
         <v>439</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>441</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="13" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K81" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -6031,22 +6034,22 @@
     </row>
     <row r="82" spans="1:27" ht="79.8" thickBot="1">
       <c r="A82" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="C82" s="11" t="s">
+      <c r="E82" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="F82" s="11" t="s">
         <v>447</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>449</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -6056,7 +6059,7 @@
         <v>121</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -6076,16 +6079,16 @@
     </row>
     <row r="83" spans="1:27" ht="27" thickBot="1">
       <c r="A83" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="D83" s="13" t="s">
         <v>451</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>453</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -6094,10 +6097,10 @@
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6117,36 +6120,36 @@
     </row>
     <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A84" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="C84" s="11" t="s">
+      <c r="E84" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="F84" s="11" t="s">
         <v>456</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>458</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -6166,22 +6169,22 @@
     </row>
     <row r="85" spans="1:27" ht="79.8" thickBot="1">
       <c r="A85" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="D85" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="E85" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="F85" s="11" t="s">
         <v>464</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>466</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -6189,7 +6192,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -6209,16 +6212,16 @@
     </row>
     <row r="86" spans="1:27" ht="93" thickBot="1">
       <c r="A86" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>467</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>469</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -6228,7 +6231,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -6248,34 +6251,34 @@
     </row>
     <row r="87" spans="1:27" ht="277.8" thickBot="1">
       <c r="A87" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="C87" s="11" t="s">
+      <c r="E87" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="F87" s="11" t="s">
         <v>472</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>474</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K87" s="11"/>
       <c r="L87" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -6295,16 +6298,16 @@
     </row>
     <row r="88" spans="1:27" ht="27" thickBot="1">
       <c r="A88" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="D88" s="13" t="s">
         <v>477</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>479</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -6314,7 +6317,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
@@ -33093,74 +33096,73 @@
     <hyperlink ref="B20" r:id="rId19"/>
     <hyperlink ref="B21" r:id="rId20"/>
     <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42" location="!/"/>
-    <hyperlink ref="B44" r:id="rId43" location="!/createEmandate"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47"/>
-    <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B51" r:id="rId49"/>
-    <hyperlink ref="B52" r:id="rId50"/>
-    <hyperlink ref="B53" r:id="rId51"/>
-    <hyperlink ref="B54" r:id="rId52"/>
-    <hyperlink ref="B55" r:id="rId53" location="SanitationMethods"/>
-    <hyperlink ref="B56" r:id="rId54" location="SanitationMethods"/>
-    <hyperlink ref="B57" r:id="rId55"/>
-    <hyperlink ref="B58" r:id="rId56"/>
-    <hyperlink ref="B59" r:id="rId57"/>
-    <hyperlink ref="B60" r:id="rId58"/>
-    <hyperlink ref="B61" r:id="rId59"/>
-    <hyperlink ref="B62" r:id="rId60"/>
-    <hyperlink ref="B63" r:id="rId61"/>
-    <hyperlink ref="B64" r:id="rId62"/>
-    <hyperlink ref="B65" r:id="rId63"/>
-    <hyperlink ref="B66" r:id="rId64"/>
-    <hyperlink ref="B67" r:id="rId65"/>
-    <hyperlink ref="B68" r:id="rId66"/>
-    <hyperlink ref="B69" r:id="rId67"/>
-    <hyperlink ref="B70" r:id="rId68"/>
-    <hyperlink ref="B71" r:id="rId69"/>
-    <hyperlink ref="B72" r:id="rId70"/>
-    <hyperlink ref="B73" r:id="rId71"/>
-    <hyperlink ref="B75" r:id="rId72"/>
-    <hyperlink ref="B76" r:id="rId73"/>
-    <hyperlink ref="B77" r:id="rId74"/>
-    <hyperlink ref="B80" r:id="rId75"/>
-    <hyperlink ref="B50" r:id="rId76"/>
-    <hyperlink ref="B74" r:id="rId77"/>
-    <hyperlink ref="B78" r:id="rId78"/>
-    <hyperlink ref="B79" r:id="rId79" display="https://demoqa.com/menu"/>
-    <hyperlink ref="B81" r:id="rId80"/>
-    <hyperlink ref="B82" r:id="rId81"/>
-    <hyperlink ref="B83" r:id="rId82"/>
-    <hyperlink ref="B84" r:id="rId83"/>
-    <hyperlink ref="B85" r:id="rId84"/>
-    <hyperlink ref="B86" r:id="rId85"/>
-    <hyperlink ref="B87" r:id="rId86"/>
-    <hyperlink ref="B88" r:id="rId87"/>
+    <hyperlink ref="B24" r:id="rId22"/>
+    <hyperlink ref="B25" r:id="rId23"/>
+    <hyperlink ref="B26" r:id="rId24"/>
+    <hyperlink ref="B27" r:id="rId25"/>
+    <hyperlink ref="B28" r:id="rId26"/>
+    <hyperlink ref="B29" r:id="rId27"/>
+    <hyperlink ref="B30" r:id="rId28"/>
+    <hyperlink ref="B31" r:id="rId29"/>
+    <hyperlink ref="B32" r:id="rId30"/>
+    <hyperlink ref="B33" r:id="rId31"/>
+    <hyperlink ref="B34" r:id="rId32"/>
+    <hyperlink ref="B35" r:id="rId33"/>
+    <hyperlink ref="B36" r:id="rId34"/>
+    <hyperlink ref="B37" r:id="rId35"/>
+    <hyperlink ref="B38" r:id="rId36"/>
+    <hyperlink ref="B39" r:id="rId37"/>
+    <hyperlink ref="B40" r:id="rId38"/>
+    <hyperlink ref="B41" r:id="rId39"/>
+    <hyperlink ref="B42" r:id="rId40"/>
+    <hyperlink ref="B43" r:id="rId41" location="!/"/>
+    <hyperlink ref="B44" r:id="rId42" location="!/createEmandate"/>
+    <hyperlink ref="B45" r:id="rId43"/>
+    <hyperlink ref="B46" r:id="rId44"/>
+    <hyperlink ref="B47" r:id="rId45"/>
+    <hyperlink ref="B48" r:id="rId46"/>
+    <hyperlink ref="B49" r:id="rId47"/>
+    <hyperlink ref="B51" r:id="rId48"/>
+    <hyperlink ref="B52" r:id="rId49"/>
+    <hyperlink ref="B53" r:id="rId50"/>
+    <hyperlink ref="B54" r:id="rId51"/>
+    <hyperlink ref="B55" r:id="rId52" location="SanitationMethods"/>
+    <hyperlink ref="B56" r:id="rId53" location="SanitationMethods"/>
+    <hyperlink ref="B57" r:id="rId54"/>
+    <hyperlink ref="B58" r:id="rId55"/>
+    <hyperlink ref="B59" r:id="rId56"/>
+    <hyperlink ref="B60" r:id="rId57"/>
+    <hyperlink ref="B61" r:id="rId58"/>
+    <hyperlink ref="B62" r:id="rId59"/>
+    <hyperlink ref="B63" r:id="rId60"/>
+    <hyperlink ref="B64" r:id="rId61"/>
+    <hyperlink ref="B65" r:id="rId62"/>
+    <hyperlink ref="B66" r:id="rId63"/>
+    <hyperlink ref="B67" r:id="rId64"/>
+    <hyperlink ref="B68" r:id="rId65"/>
+    <hyperlink ref="B69" r:id="rId66"/>
+    <hyperlink ref="B70" r:id="rId67"/>
+    <hyperlink ref="B71" r:id="rId68"/>
+    <hyperlink ref="B72" r:id="rId69"/>
+    <hyperlink ref="B73" r:id="rId70"/>
+    <hyperlink ref="B75" r:id="rId71"/>
+    <hyperlink ref="B76" r:id="rId72"/>
+    <hyperlink ref="B77" r:id="rId73"/>
+    <hyperlink ref="B80" r:id="rId74"/>
+    <hyperlink ref="B50" r:id="rId75"/>
+    <hyperlink ref="B74" r:id="rId76"/>
+    <hyperlink ref="B78" r:id="rId77"/>
+    <hyperlink ref="B79" r:id="rId78" display="https://demoqa.com/menu"/>
+    <hyperlink ref="B81" r:id="rId79"/>
+    <hyperlink ref="B82" r:id="rId80"/>
+    <hyperlink ref="B83" r:id="rId81"/>
+    <hyperlink ref="B84" r:id="rId82"/>
+    <hyperlink ref="B85" r:id="rId83"/>
+    <hyperlink ref="B86" r:id="rId84"/>
+    <hyperlink ref="B87" r:id="rId85"/>
+    <hyperlink ref="B88" r:id="rId86"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId88"/>
+  <pageSetup orientation="portrait" r:id="rId87"/>
 </worksheet>
 </file>
--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -844,15 +844,9 @@
     <t>EPFO_02</t>
   </si>
   <si>
-    <t>div[id='footer_link'] a:nth-of-type(1)</t>
-  </si>
-  <si>
     <t>//div[@id='footer_link']/a[1]</t>
   </si>
   <si>
-    <t>div[id='footer_link'] a</t>
-  </si>
-  <si>
     <t>//div[@id='footer_link']/a</t>
   </si>
   <si>
@@ -868,15 +862,9 @@
     <t>https://www.epfindia.gov.in/site_en/International_workers.php</t>
   </si>
   <si>
-    <t>div[class='iternl_wrkr'] span[class='nor_letter']:nth-of-type(2)</t>
-  </si>
-  <si>
     <t>//div[@class='iternl_wrkr']/span[@class='nor_letter'][1]</t>
   </si>
   <si>
-    <t>div[class='iternl_wrkr'] span[class='nor_letter']</t>
-  </si>
-  <si>
     <t>//div[@class='iternl_wrkr']/span[@class='nor_letter']</t>
   </si>
   <si>
@@ -1535,6 +1523,18 @@
   </si>
   <si>
     <t>div[class*='col-md-'] &gt; a</t>
+  </si>
+  <si>
+    <t>div[id='footer_link'] &gt; a:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>div[id='footer_link'] &gt; a</t>
+  </si>
+  <si>
+    <t>div[class='iternl_wrkr'] &gt; span[class='nor_letter']:nth-of-type(2)</t>
+  </si>
+  <si>
+    <t>div[class='iternl_wrkr'] &gt; span[class='nor_letter']</t>
   </si>
 </sst>
 </file>
@@ -1901,9 +1901,9 @@
   </sheetPr>
   <dimension ref="A1:AA1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1985,22 +1985,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -2036,22 +2036,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -2093,10 +2093,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>24</v>
@@ -2138,22 +2138,22 @@
         <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -2189,16 +2189,16 @@
         <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>32</v>
@@ -2246,16 +2246,16 @@
         <v>39</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>40</v>
@@ -2297,16 +2297,16 @@
         <v>45</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2348,10 +2348,10 @@
         <v>50</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>51</v>
@@ -2399,10 +2399,10 @@
         <v>58</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>59</v>
@@ -2447,13 +2447,13 @@
         <v>64</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>65</v>
@@ -2495,22 +2495,22 @@
         <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>53</v>
@@ -2552,16 +2552,16 @@
         <v>74</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>53</v>
@@ -2603,10 +2603,10 @@
         <v>78</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>79</v>
@@ -2654,10 +2654,10 @@
         <v>85</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>86</v>
@@ -2705,10 +2705,10 @@
         <v>92</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>93</v>
@@ -2756,16 +2756,16 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>88</v>
@@ -2801,22 +2801,22 @@
         <v>102</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>103</v>
@@ -2852,16 +2852,16 @@
         <v>106</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>108</v>
@@ -2900,7 +2900,7 @@
         <v>111</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>112</v>
@@ -2909,10 +2909,10 @@
         <v>113</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>114</v>
@@ -2954,22 +2954,22 @@
         <v>117</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>118</v>
@@ -3005,22 +3005,22 @@
         <v>120</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>121</v>
@@ -3062,10 +3062,10 @@
         <v>126</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>127</v>
@@ -3101,7 +3101,7 @@
         <v>35</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>130</v>
@@ -3113,16 +3113,16 @@
         <v>132</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>121</v>
@@ -3152,22 +3152,22 @@
         <v>134</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>135</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>136</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>137</v>
@@ -3203,22 +3203,22 @@
         <v>134</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>140</v>
@@ -3254,7 +3254,7 @@
         <v>134</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>143</v>
@@ -3266,16 +3266,16 @@
         <v>145</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>121</v>
@@ -3305,7 +3305,7 @@
         <v>134</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>147</v>
@@ -3317,16 +3317,16 @@
         <v>149</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>121</v>
@@ -3356,28 +3356,28 @@
         <v>151</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>152</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>153</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>121</v>
@@ -3407,28 +3407,28 @@
         <v>155</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>121</v>
@@ -3458,22 +3458,22 @@
         <v>157</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>158</v>
@@ -3521,10 +3521,10 @@
         <v>165</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>166</v>
@@ -3566,16 +3566,16 @@
         <v>170</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>171</v>
@@ -3611,22 +3611,22 @@
         <v>161</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>174</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>175</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>176</v>
@@ -3674,10 +3674,10 @@
         <v>165</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>181</v>
@@ -3713,28 +3713,28 @@
         <v>184</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>185</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>121</v>
@@ -3770,16 +3770,16 @@
         <v>188</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>189</v>
@@ -3821,16 +3821,16 @@
         <v>193</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>194</v>
@@ -3878,10 +3878,10 @@
         <v>200</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>201</v>
@@ -3929,16 +3929,16 @@
         <v>208</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>121</v>
@@ -3968,22 +3968,22 @@
         <v>184</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>211</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>212</v>
@@ -4019,22 +4019,22 @@
         <v>184</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>215</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>216</v>
@@ -4076,22 +4076,22 @@
         <v>221</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>121</v>
@@ -4121,28 +4121,28 @@
         <v>223</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>121</v>
@@ -4178,22 +4178,22 @@
         <v>226</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>121</v>
@@ -4226,25 +4226,25 @@
         <v>226</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>121</v>
@@ -4280,22 +4280,22 @@
         <v>230</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>121</v>
@@ -4325,28 +4325,28 @@
         <v>225</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>497</v>
-      </c>
       <c r="E48" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>232</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>121</v>
@@ -4376,24 +4376,24 @@
         <v>225</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>121</v>
@@ -4417,30 +4417,30 @@
     </row>
     <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A50" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4478,16 +4478,16 @@
         <v>239</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>121</v>
@@ -4517,28 +4517,28 @@
         <v>235</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>121</v>
@@ -4568,22 +4568,22 @@
         <v>235</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>242</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>243</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>244</v>
@@ -4631,10 +4631,10 @@
         <v>250</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>251</v>
@@ -4643,7 +4643,7 @@
         <v>252</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -4682,10 +4682,10 @@
         <v>258</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>259</v>
@@ -4727,16 +4727,16 @@
         <v>264</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>265</v>
@@ -4784,10 +4784,10 @@
         <v>272</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>273</v>
@@ -4823,28 +4823,28 @@
         <v>268</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="G58" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="J58" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>121</v>
@@ -4868,34 +4868,34 @@
     </row>
     <row r="59" spans="1:27" ht="52.8">
       <c r="A59" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="E59" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="G59" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="J59" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>261</v>
@@ -4919,34 +4919,34 @@
     </row>
     <row r="60" spans="1:27" ht="26.4">
       <c r="A60" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>261</v>
@@ -4970,34 +4970,34 @@
     </row>
     <row r="61" spans="1:27" ht="26.4">
       <c r="A61" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>121</v>
@@ -5021,34 +5021,34 @@
     </row>
     <row r="62" spans="1:27" ht="39.6">
       <c r="A62" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>301</v>
-      </c>
       <c r="G62" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>261</v>
@@ -5072,34 +5072,34 @@
     </row>
     <row r="63" spans="1:27" ht="52.8">
       <c r="A63" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C63" s="5" t="s">
+      <c r="G63" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="J63" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>121</v>
@@ -5123,34 +5123,34 @@
     </row>
     <row r="64" spans="1:27" ht="52.8">
       <c r="A64" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="G64" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I64" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="J64" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>121</v>
@@ -5174,34 +5174,34 @@
     </row>
     <row r="65" spans="1:27" ht="52.8">
       <c r="A65" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C65" s="5" t="s">
+      <c r="G65" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="J65" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>121</v>
@@ -5225,34 +5225,34 @@
     </row>
     <row r="66" spans="1:27" ht="13.2">
       <c r="A66" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>121</v>
@@ -5276,40 +5276,40 @@
     </row>
     <row r="67" spans="1:27" ht="92.4">
       <c r="A67" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>330</v>
-      </c>
       <c r="G67" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -5329,34 +5329,34 @@
     </row>
     <row r="68" spans="1:27" ht="79.2">
       <c r="A68" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="G68" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>121</v>
@@ -5380,34 +5380,34 @@
     </row>
     <row r="69" spans="1:27" ht="79.2">
       <c r="A69" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C69" s="5" t="s">
+      <c r="G69" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>121</v>
@@ -5431,34 +5431,34 @@
     </row>
     <row r="70" spans="1:27" ht="13.2">
       <c r="A70" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>121</v>
@@ -5482,40 +5482,40 @@
     </row>
     <row r="71" spans="1:27" ht="66">
       <c r="A71" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>351</v>
-      </c>
       <c r="G71" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -5535,34 +5535,34 @@
     </row>
     <row r="72" spans="1:27" ht="66">
       <c r="A72" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C72" s="5" t="s">
+      <c r="G72" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="J72" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>359</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>121</v>
@@ -5586,34 +5586,34 @@
     </row>
     <row r="73" spans="1:27" ht="106.2" thickBot="1">
       <c r="A73" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>121</v>
@@ -5637,22 +5637,22 @@
     </row>
     <row r="74" spans="1:27" ht="106.2" thickBot="1">
       <c r="A74" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="F74" s="11" t="s">
         <v>413</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>417</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -5662,7 +5662,7 @@
         <v>121</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5682,34 +5682,34 @@
     </row>
     <row r="75" spans="1:27" ht="118.8">
       <c r="A75" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="F75" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="G75" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I75" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="J75" s="5" t="s">
         <v>369</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>373</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>121</v>
@@ -5733,34 +5733,34 @@
     </row>
     <row r="76" spans="1:27" ht="39.6">
       <c r="A76" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="F76" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="G76" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="J76" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>381</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>121</v>
@@ -5784,34 +5784,34 @@
     </row>
     <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A77" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="J77" s="5" t="s">
         <v>382</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>386</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>121</v>
@@ -5835,36 +5835,36 @@
     </row>
     <row r="78" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A78" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="F78" s="11" t="s">
         <v>420</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>424</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5884,36 +5884,36 @@
     </row>
     <row r="79" spans="1:27" ht="27" thickBot="1">
       <c r="A79" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="E79" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="F79" s="11" t="s">
         <v>428</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>432</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K79" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -5933,34 +5933,34 @@
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A80" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="F80" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="G80" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I80" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="J80" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>121</v>
@@ -5984,34 +5984,34 @@
     </row>
     <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A81" s="11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="13" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K81" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -6031,22 +6031,22 @@
     </row>
     <row r="82" spans="1:27" ht="79.8" thickBot="1">
       <c r="A82" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="F82" s="11" t="s">
         <v>441</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>445</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -6056,7 +6056,7 @@
         <v>121</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -6076,16 +6076,16 @@
     </row>
     <row r="83" spans="1:27" ht="27" thickBot="1">
       <c r="A83" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -6097,7 +6097,7 @@
         <v>261</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6117,36 +6117,36 @@
     </row>
     <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A84" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="F84" s="11" t="s">
         <v>450</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>454</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -6166,22 +6166,22 @@
     </row>
     <row r="85" spans="1:27" ht="79.8" thickBot="1">
       <c r="A85" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E85" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="F85" s="11" t="s">
         <v>458</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>462</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -6189,7 +6189,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -6209,16 +6209,16 @@
     </row>
     <row r="86" spans="1:27" ht="93" thickBot="1">
       <c r="A86" s="11" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -6228,7 +6228,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -6248,34 +6248,34 @@
     </row>
     <row r="87" spans="1:27" ht="277.8" thickBot="1">
       <c r="A87" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="F87" s="11" t="s">
         <v>466</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>470</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K87" s="11"/>
       <c r="L87" s="11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -6295,16 +6295,16 @@
     </row>
     <row r="88" spans="1:27" ht="27" thickBot="1">
       <c r="A88" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -6314,7 +6314,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="509">
   <si>
     <t>ID</t>
   </si>
@@ -349,12 +349,6 @@
     <t>IRCTC_TC_19</t>
   </si>
   <si>
-    <t>div[class*='col-lg-']:nth-of-type(3) button[class='btn_Tab']:nth-of-type(1) span[class='footer_headings']</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-'] button[class='btn_Tab'] span[class='footer_headings']</t>
-  </si>
-  <si>
     <t>//div[contains(@class, 'col-lg-')]//button[@class='btn_Tab']/span[@class='footer_headings']</t>
   </si>
   <si>
@@ -1538,6 +1532,15 @@
   </si>
   <si>
     <t>//span[@class='fa fa-angle-up ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-']:nth-of-type(3) button[class='btn_Tab']:nth-of-type(1)&gt;span[class='footer_headings']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-lg-')][3]//button[@class='btn_Tab'][1]/span[@class='footer_headings']</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-'] button[class='btn_Tab']&gt;span[class='footer_headings']</t>
   </si>
 </sst>
 </file>
@@ -1905,8 +1908,8 @@
   <dimension ref="A1:AA1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1988,22 +1991,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -2039,22 +2042,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -2096,10 +2099,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>24</v>
@@ -2141,22 +2144,22 @@
         <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -2192,16 +2195,16 @@
         <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>32</v>
@@ -2249,16 +2252,16 @@
         <v>39</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>40</v>
@@ -2300,16 +2303,16 @@
         <v>45</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2351,10 +2354,10 @@
         <v>50</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>51</v>
@@ -2402,10 +2405,10 @@
         <v>58</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>59</v>
@@ -2450,13 +2453,13 @@
         <v>64</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>65</v>
@@ -2498,22 +2501,22 @@
         <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>53</v>
@@ -2555,16 +2558,16 @@
         <v>74</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>53</v>
@@ -2606,10 +2609,10 @@
         <v>78</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>79</v>
@@ -2657,10 +2660,10 @@
         <v>85</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>86</v>
@@ -2708,10 +2711,10 @@
         <v>92</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>93</v>
@@ -2759,16 +2762,16 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>88</v>
@@ -2804,22 +2807,22 @@
         <v>102</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>103</v>
@@ -2854,17 +2857,17 @@
       <c r="D19" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>397</v>
+      <c r="E19" s="9" t="s">
+        <v>504</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>108</v>
@@ -2892,7 +2895,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" ht="79.2">
+    <row r="20" spans="1:27" ht="92.4">
       <c r="A20" s="5" t="s">
         <v>110</v>
       </c>
@@ -2900,28 +2903,28 @@
         <v>35</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="G20" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>88</v>
@@ -2945,37 +2948,37 @@
     </row>
     <row r="21" spans="1:27" ht="39.6">
       <c r="A21" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -2996,37 +2999,37 @@
     </row>
     <row r="22" spans="1:27" ht="52.8">
       <c r="A22" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -3047,37 +3050,37 @@
     </row>
     <row r="23" spans="1:27" ht="52.8">
       <c r="A23" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="J23" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="K23" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -3098,37 +3101,37 @@
     </row>
     <row r="24" spans="1:27" ht="145.19999999999999">
       <c r="A24" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -3149,37 +3152,37 @@
     </row>
     <row r="25" spans="1:27" ht="66">
       <c r="A25" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="E25" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="G25" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="J25" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="K25" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -3200,37 +3203,37 @@
     </row>
     <row r="26" spans="1:27" ht="66">
       <c r="A26" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="K26" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -3251,37 +3254,37 @@
     </row>
     <row r="27" spans="1:27" ht="66">
       <c r="A27" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="J27" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>142</v>
-      </c>
       <c r="K27" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -3302,37 +3305,37 @@
     </row>
     <row r="28" spans="1:27" ht="39.6">
       <c r="A28" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="G28" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
@@ -3353,37 +3356,37 @@
     </row>
     <row r="29" spans="1:27" ht="26.4">
       <c r="A29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="E29" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="G29" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -3404,37 +3407,37 @@
     </row>
     <row r="30" spans="1:27" ht="13.2">
       <c r="A30" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -3455,37 +3458,37 @@
     </row>
     <row r="31" spans="1:27" ht="66">
       <c r="A31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="J31" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="K31" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -3506,37 +3509,37 @@
     </row>
     <row r="32" spans="1:27" ht="92.4">
       <c r="A32" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="G32" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="K32" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -3557,37 +3560,37 @@
     </row>
     <row r="33" spans="1:27" ht="39.6">
       <c r="A33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="E33" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="K33" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -3608,37 +3611,37 @@
     </row>
     <row r="34" spans="1:27" ht="66">
       <c r="A34" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="G34" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>173</v>
-      </c>
       <c r="K34" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -3659,37 +3662,37 @@
     </row>
     <row r="35" spans="1:27" ht="92.4">
       <c r="A35" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="E35" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="J35" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="K35" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -3710,37 +3713,37 @@
     </row>
     <row r="36" spans="1:27" ht="26.4">
       <c r="A36" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="E36" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -3761,37 +3764,37 @@
     </row>
     <row r="37" spans="1:27" ht="79.2">
       <c r="A37" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="E37" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="K37" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -3812,37 +3815,37 @@
     </row>
     <row r="38" spans="1:27" ht="66">
       <c r="A38" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="E38" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="J38" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="K38" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -3863,37 +3866,37 @@
     </row>
     <row r="39" spans="1:27" ht="26.4">
       <c r="A39" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="G39" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="J39" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="K39" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
@@ -3914,37 +3917,37 @@
     </row>
     <row r="40" spans="1:27" ht="66">
       <c r="A40" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="G40" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -3965,37 +3968,37 @@
     </row>
     <row r="41" spans="1:27" ht="39.6">
       <c r="A41" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="G41" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I41" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="F41" s="9" t="s">
+      <c r="J41" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="K41" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -4016,37 +4019,37 @@
     </row>
     <row r="42" spans="1:27" ht="105.6">
       <c r="A42" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="J42" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="K42" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -4067,37 +4070,37 @@
     </row>
     <row r="43" spans="1:27" ht="52.8">
       <c r="A43" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="E43" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -4118,37 +4121,37 @@
     </row>
     <row r="44" spans="1:27" ht="26.4">
       <c r="A44" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
@@ -4169,37 +4172,37 @@
     </row>
     <row r="45" spans="1:27" ht="26.4">
       <c r="A45" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="D45" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
@@ -4220,37 +4223,37 @@
     </row>
     <row r="46" spans="1:27" ht="39.6">
       <c r="A46" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -4271,37 +4274,37 @@
     </row>
     <row r="47" spans="1:27" ht="39.6">
       <c r="A47" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="E47" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -4322,37 +4325,37 @@
     </row>
     <row r="48" spans="1:27" ht="118.8">
       <c r="A48" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I48" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="J48" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>498</v>
-      </c>
       <c r="K48" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
@@ -4373,33 +4376,33 @@
     </row>
     <row r="49" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -4420,30 +4423,30 @@
     </row>
     <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A50" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4463,37 +4466,37 @@
     </row>
     <row r="51" spans="1:27" ht="79.2">
       <c r="A51" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="D51" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="G51" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -4514,37 +4517,37 @@
     </row>
     <row r="52" spans="1:27" ht="52.8">
       <c r="A52" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C52" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="G52" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -4565,37 +4568,37 @@
     </row>
     <row r="53" spans="1:27" ht="39.6">
       <c r="A53" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="G53" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="J53" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>247</v>
-      </c>
       <c r="K53" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -4616,37 +4619,37 @@
     </row>
     <row r="54" spans="1:27" ht="264">
       <c r="A54" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="G54" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="J54" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="K54" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -4667,37 +4670,37 @@
     </row>
     <row r="55" spans="1:27" ht="158.4">
       <c r="A55" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="D55" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="G55" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="J55" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I55" s="5" t="s">
+      <c r="K55" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4718,37 +4721,37 @@
     </row>
     <row r="56" spans="1:27" ht="158.4">
       <c r="A56" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C56" s="5" t="s">
+      <c r="E56" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="J56" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>268</v>
-      </c>
       <c r="K56" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
@@ -4769,37 +4772,37 @@
     </row>
     <row r="57" spans="1:27" ht="26.4">
       <c r="A57" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="D57" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="G57" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="J57" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G57" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>276</v>
-      </c>
       <c r="K57" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
@@ -4820,37 +4823,37 @@
     </row>
     <row r="58" spans="1:27" ht="26.4">
       <c r="A58" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="F58" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="G58" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="J58" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>283</v>
-      </c>
       <c r="K58" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
@@ -4871,37 +4874,37 @@
     </row>
     <row r="59" spans="1:27" ht="52.8">
       <c r="A59" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="D59" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="F59" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="G59" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="J59" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>291</v>
-      </c>
       <c r="K59" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -4922,37 +4925,37 @@
     </row>
     <row r="60" spans="1:27" ht="26.4">
       <c r="A60" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>294</v>
-      </c>
       <c r="E60" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -4973,37 +4976,37 @@
     </row>
     <row r="61" spans="1:27" ht="26.4">
       <c r="A61" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="D61" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>298</v>
-      </c>
       <c r="E61" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
@@ -5024,37 +5027,37 @@
     </row>
     <row r="62" spans="1:27" ht="39.6">
       <c r="A62" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="D62" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="E62" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>303</v>
-      </c>
       <c r="G62" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -5075,37 +5078,37 @@
     </row>
     <row r="63" spans="1:27" ht="52.8">
       <c r="A63" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C63" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="G63" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="J63" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="G63" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>310</v>
-      </c>
       <c r="K63" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
@@ -5126,37 +5129,37 @@
     </row>
     <row r="64" spans="1:27" ht="52.8">
       <c r="A64" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="F64" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="G64" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I64" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="J64" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>317</v>
-      </c>
       <c r="K64" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
@@ -5177,37 +5180,37 @@
     </row>
     <row r="65" spans="1:27" ht="52.8">
       <c r="A65" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C65" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="F65" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="G65" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="J65" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="G65" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>324</v>
-      </c>
       <c r="K65" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
@@ -5228,37 +5231,37 @@
     </row>
     <row r="66" spans="1:27" ht="13.2">
       <c r="A66" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="D66" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -5279,40 +5282,40 @@
     </row>
     <row r="67" spans="1:27" ht="92.4">
       <c r="A67" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C67" s="5" t="s">
+      <c r="E67" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="F67" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="G67" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L67" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="L67" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -5332,37 +5335,37 @@
     </row>
     <row r="68" spans="1:27" ht="79.2">
       <c r="A68" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C68" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="F68" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>338</v>
-      </c>
       <c r="G68" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
@@ -5383,37 +5386,37 @@
     </row>
     <row r="69" spans="1:27" ht="79.2">
       <c r="A69" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C69" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="G69" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="K69" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
@@ -5434,37 +5437,37 @@
     </row>
     <row r="70" spans="1:27" ht="13.2">
       <c r="A70" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>348</v>
-      </c>
       <c r="E70" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
@@ -5485,40 +5488,40 @@
     </row>
     <row r="71" spans="1:27" ht="66">
       <c r="A71" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C71" s="10" t="s">
+      <c r="E71" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="F71" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="G71" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L71" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -5538,37 +5541,37 @@
     </row>
     <row r="72" spans="1:27" ht="66">
       <c r="A72" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C72" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="F72" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="G72" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="J72" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="G72" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="K72" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
@@ -5589,37 +5592,37 @@
     </row>
     <row r="73" spans="1:27" ht="106.2" thickBot="1">
       <c r="A73" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C73" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>365</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -5640,32 +5643,32 @@
     </row>
     <row r="74" spans="1:27" ht="106.2" thickBot="1">
       <c r="A74" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="C74" s="11" t="s">
+      <c r="E74" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="F74" s="11" t="s">
         <v>417</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>419</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="K74" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5685,37 +5688,37 @@
     </row>
     <row r="75" spans="1:27" ht="118.8">
       <c r="A75" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="D75" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="F75" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="G75" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I75" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="J75" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="G75" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="K75" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5736,37 +5739,37 @@
     </row>
     <row r="76" spans="1:27" ht="39.6">
       <c r="A76" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="D76" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="F76" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="G76" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="J76" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>383</v>
-      </c>
       <c r="K76" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
@@ -5787,37 +5790,37 @@
     </row>
     <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A77" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="C77" s="5" t="s">
+      <c r="E77" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="J77" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>388</v>
-      </c>
       <c r="K77" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
@@ -5838,36 +5841,36 @@
     </row>
     <row r="78" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A78" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="D78" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="E78" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="F78" s="11" t="s">
         <v>424</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>426</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5887,36 +5890,36 @@
     </row>
     <row r="79" spans="1:27" ht="27" thickBot="1">
       <c r="A79" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="D79" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="E79" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="F79" s="11" t="s">
         <v>432</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>434</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -5936,37 +5939,37 @@
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A80" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="D80" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="F80" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="G80" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I80" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="J80" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="G80" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>396</v>
-      </c>
       <c r="K80" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
@@ -5987,34 +5990,34 @@
     </row>
     <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A81" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D81" s="13" t="s">
         <v>437</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>439</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -6034,32 +6037,32 @@
     </row>
     <row r="82" spans="1:27" ht="79.8" thickBot="1">
       <c r="A82" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="C82" s="11" t="s">
+      <c r="E82" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="F82" s="11" t="s">
         <v>445</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>447</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -6079,16 +6082,16 @@
     </row>
     <row r="83" spans="1:27" ht="27" thickBot="1">
       <c r="A83" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="D83" s="13" t="s">
         <v>449</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>451</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -6097,10 +6100,10 @@
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6120,36 +6123,36 @@
     </row>
     <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A84" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="C84" s="11" t="s">
+      <c r="E84" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="F84" s="11" t="s">
         <v>454</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>456</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -6169,22 +6172,22 @@
     </row>
     <row r="85" spans="1:27" ht="79.8" thickBot="1">
       <c r="A85" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="D85" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="E85" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="F85" s="11" t="s">
         <v>462</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>464</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -6192,7 +6195,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -6212,16 +6215,16 @@
     </row>
     <row r="86" spans="1:27" ht="93" thickBot="1">
       <c r="A86" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>465</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>467</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -6231,7 +6234,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -6251,34 +6254,34 @@
     </row>
     <row r="87" spans="1:27" ht="277.8" thickBot="1">
       <c r="A87" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="C87" s="11" t="s">
+      <c r="E87" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="F87" s="11" t="s">
         <v>470</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>472</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K87" s="11"/>
       <c r="L87" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -6298,16 +6301,16 @@
     </row>
     <row r="88" spans="1:27" ht="27" thickBot="1">
       <c r="A88" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D88" s="13" t="s">
         <v>475</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>477</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -6317,7 +6320,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="132" yWindow="540" windowWidth="22716" windowHeight="10788"/>
@@ -850,15 +850,9 @@
     <t>EPFO_02</t>
   </si>
   <si>
-    <t>div[id='footer_link'] a:nth-of-type(1)</t>
-  </si>
-  <si>
     <t>//div[@id='footer_link']/a[1]</t>
   </si>
   <si>
-    <t>div[id='footer_link'] a</t>
-  </si>
-  <si>
     <t>//div[@id='footer_link']/a</t>
   </si>
   <si>
@@ -874,15 +868,9 @@
     <t>https://www.epfindia.gov.in/site_en/International_workers.php</t>
   </si>
   <si>
-    <t>div[class='iternl_wrkr'] span[class='nor_letter']:nth-of-type(2)</t>
-  </si>
-  <si>
     <t>//div[@class='iternl_wrkr']/span[@class='nor_letter'][1]</t>
   </si>
   <si>
-    <t>div[class='iternl_wrkr'] span[class='nor_letter']</t>
-  </si>
-  <si>
     <t>//div[@class='iternl_wrkr']/span[@class='nor_letter']</t>
   </si>
   <si>
@@ -1538,12 +1526,24 @@
   </si>
   <si>
     <t>//span[@class='fa fa-angle-up ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>div[id='footer_link'] &gt; a:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>div[id='footer_link'] &gt; a</t>
+  </si>
+  <si>
+    <t>div[class='iternl_wrkr'] &gt; span[class='nor_letter']:nth-of-type(2)</t>
+  </si>
+  <si>
+    <t>div[class='iternl_wrkr'] &gt; span[class='nor_letter']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="10"/>
@@ -1898,15 +1898,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1988,22 +1988,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -2039,22 +2039,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -2096,10 +2096,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>24</v>
@@ -2141,22 +2141,22 @@
         <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -2192,16 +2192,16 @@
         <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>32</v>
@@ -2249,16 +2249,16 @@
         <v>39</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>40</v>
@@ -2300,16 +2300,16 @@
         <v>45</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2351,10 +2351,10 @@
         <v>50</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>51</v>
@@ -2402,10 +2402,10 @@
         <v>58</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>59</v>
@@ -2450,13 +2450,13 @@
         <v>64</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>65</v>
@@ -2498,22 +2498,22 @@
         <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>53</v>
@@ -2555,16 +2555,16 @@
         <v>74</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>53</v>
@@ -2606,10 +2606,10 @@
         <v>78</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>79</v>
@@ -2657,10 +2657,10 @@
         <v>85</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>86</v>
@@ -2708,10 +2708,10 @@
         <v>92</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>93</v>
@@ -2759,16 +2759,16 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>88</v>
@@ -2804,22 +2804,22 @@
         <v>102</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>103</v>
@@ -2855,16 +2855,16 @@
         <v>106</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>108</v>
@@ -2903,7 +2903,7 @@
         <v>111</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>112</v>
@@ -2912,10 +2912,10 @@
         <v>113</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>114</v>
@@ -2957,22 +2957,22 @@
         <v>117</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>118</v>
@@ -3005,25 +3005,25 @@
         <v>120</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>121</v>
@@ -3053,22 +3053,22 @@
         <v>35</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>123</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>124</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>125</v>
@@ -3104,28 +3104,28 @@
         <v>35</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>128</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>129</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>121</v>
@@ -3155,22 +3155,22 @@
         <v>131</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>132</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>133</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>134</v>
@@ -3206,22 +3206,22 @@
         <v>131</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>137</v>
@@ -3257,22 +3257,22 @@
         <v>131</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>141</v>
@@ -3308,28 +3308,28 @@
         <v>131</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>145</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>121</v>
@@ -3359,28 +3359,28 @@
         <v>147</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>148</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>149</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>121</v>
@@ -3410,28 +3410,28 @@
         <v>151</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>121</v>
@@ -3461,22 +3461,22 @@
         <v>153</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>154</v>
@@ -3524,10 +3524,10 @@
         <v>161</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>162</v>
@@ -3569,16 +3569,16 @@
         <v>166</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>167</v>
@@ -3614,22 +3614,22 @@
         <v>157</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>170</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>171</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>172</v>
@@ -3677,10 +3677,10 @@
         <v>161</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>177</v>
@@ -3716,28 +3716,28 @@
         <v>180</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>181</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>121</v>
@@ -3773,16 +3773,16 @@
         <v>184</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>185</v>
@@ -3824,16 +3824,16 @@
         <v>189</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>190</v>
@@ -3881,10 +3881,10 @@
         <v>196</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>197</v>
@@ -3932,16 +3932,16 @@
         <v>204</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>121</v>
@@ -3971,22 +3971,22 @@
         <v>180</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>206</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>207</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>208</v>
@@ -4022,22 +4022,22 @@
         <v>180</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>212</v>
@@ -4079,22 +4079,22 @@
         <v>217</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>121</v>
@@ -4124,28 +4124,28 @@
         <v>219</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>121</v>
@@ -4181,22 +4181,22 @@
         <v>222</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>121</v>
@@ -4229,25 +4229,25 @@
         <v>222</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>121</v>
@@ -4283,22 +4283,22 @@
         <v>226</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>121</v>
@@ -4328,28 +4328,28 @@
         <v>221</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>499</v>
-      </c>
       <c r="E48" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>228</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>121</v>
@@ -4379,24 +4379,24 @@
         <v>221</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>121</v>
@@ -4420,30 +4420,30 @@
     </row>
     <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A50" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4481,16 +4481,16 @@
         <v>235</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>121</v>
@@ -4532,16 +4532,16 @@
         <v>240</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>121</v>
@@ -4583,10 +4583,10 @@
         <v>245</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>246</v>
@@ -4634,10 +4634,10 @@
         <v>252</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>253</v>
@@ -4646,7 +4646,7 @@
         <v>254</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -4685,10 +4685,10 @@
         <v>260</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>261</v>
@@ -4730,16 +4730,16 @@
         <v>266</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>267</v>
@@ -4787,10 +4787,10 @@
         <v>274</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>275</v>
@@ -4826,28 +4826,28 @@
         <v>270</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="G58" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="J58" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>283</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>121</v>
@@ -4871,34 +4871,34 @@
     </row>
     <row r="59" spans="1:27" ht="52.8">
       <c r="A59" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="E59" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="G59" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="J59" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>263</v>
@@ -4922,34 +4922,34 @@
     </row>
     <row r="60" spans="1:27" ht="26.4">
       <c r="A60" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>263</v>
@@ -4973,34 +4973,34 @@
     </row>
     <row r="61" spans="1:27" ht="26.4">
       <c r="A61" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>121</v>
@@ -5024,34 +5024,34 @@
     </row>
     <row r="62" spans="1:27" ht="39.6">
       <c r="A62" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>303</v>
-      </c>
       <c r="G62" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>263</v>
@@ -5075,34 +5075,34 @@
     </row>
     <row r="63" spans="1:27" ht="52.8">
       <c r="A63" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C63" s="5" t="s">
+      <c r="G63" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="J63" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>121</v>
@@ -5126,34 +5126,34 @@
     </row>
     <row r="64" spans="1:27" ht="52.8">
       <c r="A64" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="G64" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I64" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="J64" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>121</v>
@@ -5177,34 +5177,34 @@
     </row>
     <row r="65" spans="1:27" ht="52.8">
       <c r="A65" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C65" s="5" t="s">
+      <c r="G65" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="J65" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>324</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>121</v>
@@ -5228,34 +5228,34 @@
     </row>
     <row r="66" spans="1:27" ht="13.2">
       <c r="A66" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>121</v>
@@ -5279,40 +5279,40 @@
     </row>
     <row r="67" spans="1:27" ht="92.4">
       <c r="A67" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>332</v>
-      </c>
       <c r="G67" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -5332,34 +5332,34 @@
     </row>
     <row r="68" spans="1:27" ht="79.2">
       <c r="A68" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>338</v>
-      </c>
       <c r="G68" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>121</v>
@@ -5383,34 +5383,34 @@
     </row>
     <row r="69" spans="1:27" ht="79.2">
       <c r="A69" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C69" s="5" t="s">
+      <c r="G69" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>121</v>
@@ -5434,34 +5434,34 @@
     </row>
     <row r="70" spans="1:27" ht="13.2">
       <c r="A70" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>121</v>
@@ -5485,40 +5485,40 @@
     </row>
     <row r="71" spans="1:27" ht="66">
       <c r="A71" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>353</v>
-      </c>
       <c r="G71" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -5538,34 +5538,34 @@
     </row>
     <row r="72" spans="1:27" ht="66">
       <c r="A72" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C72" s="5" t="s">
+      <c r="G72" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="J72" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>121</v>
@@ -5589,34 +5589,34 @@
     </row>
     <row r="73" spans="1:27" ht="106.2" thickBot="1">
       <c r="A73" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>121</v>
@@ -5640,22 +5640,22 @@
     </row>
     <row r="74" spans="1:27" ht="106.2" thickBot="1">
       <c r="A74" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="F74" s="11" t="s">
         <v>415</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>419</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -5665,7 +5665,7 @@
         <v>121</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5685,34 +5685,34 @@
     </row>
     <row r="75" spans="1:27" ht="118.8">
       <c r="A75" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="F75" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="G75" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I75" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="J75" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>121</v>
@@ -5736,34 +5736,34 @@
     </row>
     <row r="76" spans="1:27" ht="39.6">
       <c r="A76" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="F76" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="G76" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="J76" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>383</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>121</v>
@@ -5787,34 +5787,34 @@
     </row>
     <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A77" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="J77" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>121</v>
@@ -5838,36 +5838,36 @@
     </row>
     <row r="78" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A78" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="F78" s="11" t="s">
         <v>422</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>426</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5887,36 +5887,36 @@
     </row>
     <row r="79" spans="1:27" ht="27" thickBot="1">
       <c r="A79" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="E79" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="F79" s="11" t="s">
         <v>430</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>434</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K79" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -5936,34 +5936,34 @@
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A80" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="F80" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="G80" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I80" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="J80" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>396</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>121</v>
@@ -5987,34 +5987,34 @@
     </row>
     <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A81" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="13" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K81" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -6034,22 +6034,22 @@
     </row>
     <row r="82" spans="1:27" ht="79.8" thickBot="1">
       <c r="A82" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="F82" s="11" t="s">
         <v>443</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>447</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -6059,7 +6059,7 @@
         <v>121</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -6079,16 +6079,16 @@
     </row>
     <row r="83" spans="1:27" ht="27" thickBot="1">
       <c r="A83" s="11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -6100,7 +6100,7 @@
         <v>263</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6120,36 +6120,36 @@
     </row>
     <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A84" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="F84" s="11" t="s">
         <v>452</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>456</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -6169,22 +6169,22 @@
     </row>
     <row r="85" spans="1:27" ht="79.8" thickBot="1">
       <c r="A85" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E85" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="F85" s="11" t="s">
         <v>460</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>464</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -6192,7 +6192,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -6212,16 +6212,16 @@
     </row>
     <row r="86" spans="1:27" ht="93" thickBot="1">
       <c r="A86" s="11" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -6231,7 +6231,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -6251,34 +6251,34 @@
     </row>
     <row r="87" spans="1:27" ht="277.8" thickBot="1">
       <c r="A87" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="F87" s="11" t="s">
         <v>468</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>472</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K87" s="11"/>
       <c r="L87" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -6298,16 +6298,16 @@
     </row>
     <row r="88" spans="1:27" ht="27" thickBot="1">
       <c r="A88" s="11" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -6317,7 +6317,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="492">
   <si>
     <t>ID</t>
   </si>
@@ -1120,18 +1120,6 @@
     <t>https://demoqa.com/radio-button</t>
   </si>
   <si>
-    <t>div[class='element-list collapse show'] ul[class='menu-list'] li[class='btn btn-light ']:nth-of-type(1) span[class='text']</t>
-  </si>
-  <si>
-    <t>//div[@class='element-list collapse show']/ul[@class='menu-list']/li[@class='btn btn-light '][1]/span[@class='text']</t>
-  </si>
-  <si>
-    <t>div[class='element-list collapse show'] ul[class='menu-list'] li[class='btn btn-light '] span[class='text']</t>
-  </si>
-  <si>
-    <t>//div[@class='element-list collapse show']/ul[@class='menu-list']/li[@class='btn btn-light ']/span[@class='text']</t>
-  </si>
-  <si>
     <t>span:contains(Text Box)</t>
   </si>
   <si>
@@ -1144,15 +1132,9 @@
     <t>https://demoqa.com/</t>
   </si>
   <si>
-    <t>div[class*='card']:nth-of-type(3) div h5</t>
-  </si>
-  <si>
     <t>//div[contains(@class, 'card')][3]//h5</t>
   </si>
   <si>
-    <t>div[class*='card'] div h5</t>
-  </si>
-  <si>
     <t>//div[contains(@class, 'card')]//h5</t>
   </si>
   <si>
@@ -1183,15 +1165,9 @@
     <t>https://www.indgovtjobs.in/2015/01/fresher-jobs.html</t>
   </si>
   <si>
-    <t>div[class='post-body entry-content'] table:nth-of-type(1) td[valign='top']:nth-of-type(1) b</t>
-  </si>
-  <si>
     <t>//div[@class='post-body entry-content']/table[1]//td[@valign='top'][1]//b</t>
   </si>
   <si>
-    <t>div[class='post-body entry-content'] table td[valign='top'] b</t>
-  </si>
-  <si>
     <t>//div[@class='post-body entry-content']/table//td[@valign='top']//b</t>
   </si>
   <si>
@@ -1279,15 +1255,9 @@
     <t>https://demoqa.com/select-menu</t>
   </si>
   <si>
-    <t>div[class='row']:nth-of-type(7)&gt;div[class*='col-md-']&gt;div[class*='css-']&gt;div[class*='css-']:nth-of-type(1)&gt;div[class*='css-']:nth-of-type(1)</t>
-  </si>
-  <si>
     <t>//div[@class='row'][2]/div[contains(@class, 'col-md-')]/div[contains(@class, 'css-')]/div[contains(@class, 'css-')][1]/div[contains(@class, 'css-')][1]</t>
   </si>
   <si>
-    <t>div[class='row']&gt;div[class*='col-md-']&gt;div[class*='css-']&gt;div[class*='css-']&gt;div[class*='css-']</t>
-  </si>
-  <si>
     <t>//div[@class='row']/div[contains(@class, 'col-md-')]/div[contains(@class, 'css-')]/div[contains(@class, 'css-')]/div[contains(@class, 'css-')]</t>
   </si>
   <si>
@@ -1324,12 +1294,6 @@
     <t>Freshers_Jobs_02</t>
   </si>
   <si>
-    <t>h4 font[color*='ff'] font</t>
-  </si>
-  <si>
-    <t>//h4[6]/font[contains(@color, 'ff')]/font</t>
-  </si>
-  <si>
     <t>//h4/font[contains(@color, 'ff')]/font</t>
   </si>
   <si>
@@ -1342,18 +1306,6 @@
     <t>Freshers_Jobs_03</t>
   </si>
   <si>
-    <t>div[id*='footer']:nth-of-type(1)&gt;div[class='footer-column section']&gt;div[id*='HTML']&gt;div[class='widget-content']</t>
-  </si>
-  <si>
-    <t>//div[@id='footer-column-container']/div[contains(@id, 'footer')][1]//ul/li[1]</t>
-  </si>
-  <si>
-    <t>div[id*='footer']&gt;div[class='footer-column section']&gt;div[id*='HTML']&gt;div[class='widget-content']</t>
-  </si>
-  <si>
-    <t>//div[@id='footer-column-container']/div[contains(@id, 'footer')]//ul/li</t>
-  </si>
-  <si>
     <t>Free_Jobs_Alert_01</t>
   </si>
   <si>
@@ -1369,15 +1321,9 @@
     <t>Free_Jobs_Alert_02</t>
   </si>
   <si>
-    <t>div[class*='gb-grid-column']:nth-of-type(1) ul li:nth-of-type(1) a</t>
-  </si>
-  <si>
     <t>//div[contains(@class, 'gb-grid-column')][1]//ul/li[1]/a</t>
   </si>
   <si>
-    <t>div[class*='gb-grid-column'] ul li a</t>
-  </si>
-  <si>
     <t>//div[contains(@class, 'gb-grid-column')]//ul/li/a</t>
   </si>
   <si>
@@ -1387,63 +1333,6 @@
     <t>(//a[contains(text(), 'Latest Notifications')])[2]</t>
   </si>
   <si>
-    <t>Linkedin_01</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/</t>
-  </si>
-  <si>
-    <t>li[class*='global-nav']:nth-of-type(2) svg[class='mercado-match']</t>
-  </si>
-  <si>
-    <t>//li[contains(@class, 'global-nav')][2]//*[name()='svg'][@class='mercado-match']</t>
-  </si>
-  <si>
-    <t>li[class*='global-nav'] svg[class='mercado-match']</t>
-  </si>
-  <si>
-    <t>//li[contains(@class, 'global-nav')]//*[name()='svg'][@class='mercado-match']</t>
-  </si>
-  <si>
-    <t>Linkedin_02</t>
-  </si>
-  <si>
-    <t>div[class='share-box-feed-entry__top-bar'] &gt; button[class*='artdeco-button']</t>
-  </si>
-  <si>
-    <t>//div[@class='share-box-feed-entry__top-bar']/button[contains(@class, 'artdeco-button')]</t>
-  </si>
-  <si>
-    <t>Linkedin_03</t>
-  </si>
-  <si>
-    <t>div[class*='community-panel-inte']:nth-of-type(1) &gt; ul[class='community-panel-interest-package__section-expanded']&gt;li[class='community-panel-interest-package__entity-item truncate']:nth-of-type(1) span[class*='hashtag-a']:nth-of-type(2)</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'community-panel-inte')][1]/ul[@class='community-panel-interest-package__section-expanded']//li[@class='community-panel-interest-package__entity-item truncate'][1]//span[contains(@class, 'hashtag-a')]//span[contains(@class, 'hashtag-a')]</t>
-  </si>
-  <si>
-    <t>div[class*='community-panel-inte'] &gt; ul[class='community-panel-interest-package__section-expanded']&gt;li[class='community-panel-interest-package__entity-item truncate'] span[class*='hashtag-a']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'community-panel-inte')]/ul[@class='community-panel-interest-package__section-expanded']//li[@class='community-panel-interest-package__entity-item truncate']//span[contains(@class, 'hashtag-a')]//span[contains(@class, 'hashtag-a')]</t>
-  </si>
-  <si>
-    <t>span:contains(jobseekers)</t>
-  </si>
-  <si>
-    <t>(//span[contains(text(), 'jobseekers')])[1]</t>
-  </si>
-  <si>
-    <t>Linkedin_04</t>
-  </si>
-  <si>
-    <t>p[class*='identity-headline']</t>
-  </si>
-  <si>
-    <t>//p[contains(@class, 'identity-headline')]</t>
-  </si>
-  <si>
     <t>ul[id='menu-footer-en']&gt;li[id*='menu-item-']:nth-of-type(1)&gt;a</t>
   </si>
   <si>
@@ -1541,6 +1430,66 @@
   </si>
   <si>
     <t>div[class*='col-lg-'] button[class='btn_Tab']&gt;span[class='footer_headings']</t>
+  </si>
+  <si>
+    <t>div[class='post-body entry-content'] &gt; table:nth-of-type(1) td[valign='top']:nth-of-type(1) b</t>
+  </si>
+  <si>
+    <t>div[class='post-body entry-content'] &gt; table td[valign='top'] b</t>
+  </si>
+  <si>
+    <t>h4 &gt; font[color*='ff'] &gt; font</t>
+  </si>
+  <si>
+    <t>//h4[4]/font[contains(@color, 'ff')]/font</t>
+  </si>
+  <si>
+    <t>div[id*='footer']:nth-of-type(1)&gt;div[class='footer-column section'] ul&gt;li:nth-of-type(1)&gt;a</t>
+  </si>
+  <si>
+    <t>//div[@id='footer-column-container']/div[contains(@id, 'footer')][1]//ul/li[1]/a</t>
+  </si>
+  <si>
+    <t>div[id*='footer']&gt;div[class='footer-column section'] ul&gt;li&gt;a</t>
+  </si>
+  <si>
+    <t>//div[@id='footer-column-container']/div[contains(@id, 'footer')]//ul/li/a</t>
+  </si>
+  <si>
+    <t>a:contains(KVS Recruitment 2024 Notification for 13000+ Teaching, Non Teaching Vacancies)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'KVS Recruitment 2024 Notification for 13000+ Teaching, Non Teaching Vacancies')]</t>
+  </si>
+  <si>
+    <t>div[class*='gb-grid-column']:nth-of-type(1) ul&gt;li:nth-of-type(1)&gt;a</t>
+  </si>
+  <si>
+    <t>div[class*='gb-grid-column'] ul&gt;li&gt;a</t>
+  </si>
+  <si>
+    <t>div[class='element-list collapse show'] &gt; ul[class='menu-list']&gt;li[id*='item-']:nth-of-type(1)&gt;span[class='text']</t>
+  </si>
+  <si>
+    <t>//div[@class='element-list collapse show']/ul[@class='menu-list']/li[contains(@id, 'item-')][1]/span[@class='text']</t>
+  </si>
+  <si>
+    <t>div[class='element-list collapse show'] &gt; ul[class='menu-list']&gt;li[id*='item-']&gt;span[class='text']</t>
+  </si>
+  <si>
+    <t>//div[@class='element-list collapse show']/ul[@class='menu-list']/li[contains(@id, 'item-')]/span[@class='text']</t>
+  </si>
+  <si>
+    <t>div[class*='card']:nth-of-type(3)&gt;div h5</t>
+  </si>
+  <si>
+    <t>div[class*='card']&gt;div h5</t>
+  </si>
+  <si>
+    <t>div[class='row'] &gt; div[class*='col-md-'] &gt; div[class*='css-'] &gt; div[class*='css-']:nth-of-type(1) &gt; div[class*='css-']:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>div[class='row'] &gt; div[class*='col-md-'] &gt; div[class*='css-'] &gt; div[class*='css-'] &gt; div[class*='css-']</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1599,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1689,6 +1638,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1905,11 +1857,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1010"/>
+  <dimension ref="A1:AA1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1991,22 +1943,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -2042,22 +1994,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -2099,10 +2051,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>24</v>
@@ -2144,22 +2096,22 @@
         <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -2195,16 +2147,16 @@
         <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>32</v>
@@ -2252,16 +2204,16 @@
         <v>39</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>40</v>
@@ -2303,16 +2255,16 @@
         <v>45</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2354,10 +2306,10 @@
         <v>50</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>51</v>
@@ -2405,10 +2357,10 @@
         <v>58</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>59</v>
@@ -2453,13 +2405,13 @@
         <v>64</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>65</v>
@@ -2501,22 +2453,22 @@
         <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>53</v>
@@ -2558,16 +2510,16 @@
         <v>74</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>53</v>
@@ -2609,10 +2561,10 @@
         <v>78</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>79</v>
@@ -2660,10 +2612,10 @@
         <v>85</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>86</v>
@@ -2711,10 +2663,10 @@
         <v>92</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>93</v>
@@ -2762,16 +2714,16 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>88</v>
@@ -2807,22 +2759,22 @@
         <v>102</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>103</v>
@@ -2858,16 +2810,16 @@
         <v>106</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>504</v>
+        <v>467</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>108</v>
@@ -2903,22 +2855,22 @@
         <v>35</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>506</v>
+        <v>469</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>507</v>
+        <v>470</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>508</v>
+        <v>471</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>111</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>112</v>
@@ -2960,22 +2912,22 @@
         <v>115</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>116</v>
@@ -3008,25 +2960,25 @@
         <v>118</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>505</v>
+        <v>468</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>119</v>
@@ -3056,22 +3008,22 @@
         <v>35</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>504</v>
+        <v>467</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>122</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>123</v>
@@ -3107,28 +3059,28 @@
         <v>35</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>126</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>127</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>119</v>
@@ -3158,22 +3110,22 @@
         <v>129</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>480</v>
+        <v>443</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>130</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>481</v>
+        <v>444</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>131</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>132</v>
@@ -3209,22 +3161,22 @@
         <v>129</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>478</v>
+        <v>441</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>135</v>
@@ -3260,22 +3212,22 @@
         <v>129</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>482</v>
+        <v>445</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>138</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>139</v>
@@ -3311,28 +3263,28 @@
         <v>129</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>502</v>
+        <v>465</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>143</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>119</v>
@@ -3362,28 +3314,28 @@
         <v>145</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>146</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>147</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>119</v>
@@ -3413,28 +3365,28 @@
         <v>149</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>483</v>
+        <v>446</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>119</v>
@@ -3464,22 +3416,22 @@
         <v>151</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>152</v>
@@ -3527,10 +3479,10 @@
         <v>159</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>160</v>
@@ -3572,16 +3524,16 @@
         <v>164</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>165</v>
@@ -3617,22 +3569,22 @@
         <v>155</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>169</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>170</v>
@@ -3680,10 +3632,10 @@
         <v>159</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>175</v>
@@ -3719,28 +3671,28 @@
         <v>178</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>119</v>
@@ -3776,16 +3728,16 @@
         <v>182</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>183</v>
@@ -3827,16 +3779,16 @@
         <v>187</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>188</v>
@@ -3884,10 +3836,10 @@
         <v>194</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>195</v>
@@ -3935,16 +3887,16 @@
         <v>202</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>119</v>
@@ -3974,22 +3926,22 @@
         <v>178</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>204</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>205</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>206</v>
@@ -4025,22 +3977,22 @@
         <v>178</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>209</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>210</v>
@@ -4082,22 +4034,22 @@
         <v>215</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>119</v>
@@ -4127,28 +4079,28 @@
         <v>217</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>486</v>
+        <v>449</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>119</v>
@@ -4184,22 +4136,22 @@
         <v>220</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>119</v>
@@ -4232,25 +4184,25 @@
         <v>220</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>489</v>
+        <v>452</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>119</v>
@@ -4286,22 +4238,22 @@
         <v>224</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>119</v>
@@ -4331,28 +4283,28 @@
         <v>219</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>493</v>
+        <v>456</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>497</v>
+        <v>460</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>226</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>495</v>
+        <v>458</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>496</v>
+        <v>459</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>119</v>
@@ -4382,24 +4334,24 @@
         <v>219</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>490</v>
+        <v>453</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>491</v>
+        <v>454</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>498</v>
+        <v>461</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>119</v>
@@ -4423,30 +4375,30 @@
     </row>
     <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A50" s="11" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>500</v>
+        <v>463</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4484,16 +4436,16 @@
         <v>233</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>119</v>
@@ -4535,16 +4487,16 @@
         <v>238</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>119</v>
@@ -4586,10 +4538,10 @@
         <v>243</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>244</v>
@@ -4637,10 +4589,10 @@
         <v>250</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>251</v>
@@ -4649,7 +4601,7 @@
         <v>252</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -4688,10 +4640,10 @@
         <v>258</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>259</v>
@@ -4733,16 +4685,16 @@
         <v>264</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>265</v>
@@ -4790,10 +4742,10 @@
         <v>272</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>273</v>
@@ -4841,10 +4793,10 @@
         <v>279</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>280</v>
@@ -4892,10 +4844,10 @@
         <v>287</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>288</v>
@@ -4937,22 +4889,22 @@
         <v>292</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>261</v>
@@ -4988,22 +4940,22 @@
         <v>296</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>119</v>
@@ -5039,22 +4991,22 @@
         <v>300</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>301</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>261</v>
@@ -5096,10 +5048,10 @@
         <v>306</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>307</v>
@@ -5147,10 +5099,10 @@
         <v>313</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>314</v>
@@ -5198,10 +5150,10 @@
         <v>320</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>321</v>
@@ -5243,22 +5195,22 @@
         <v>325</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>119</v>
@@ -5300,16 +5252,16 @@
         <v>330</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>119</v>
@@ -5353,16 +5305,16 @@
         <v>336</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>119</v>
@@ -5404,10 +5356,10 @@
         <v>341</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>342</v>
@@ -5449,22 +5401,22 @@
         <v>346</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>119</v>
@@ -5506,16 +5458,16 @@
         <v>351</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>119</v>
@@ -5559,10 +5511,10 @@
         <v>357</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>358</v>
@@ -5610,10 +5562,10 @@
         <v>58</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>364</v>
@@ -5643,22 +5595,22 @@
     </row>
     <row r="74" spans="1:27" ht="106.2" thickBot="1">
       <c r="A74" s="11" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>324</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -5668,7 +5620,7 @@
         <v>119</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5687,35 +5639,35 @@
       <c r="AA74" s="11"/>
     </row>
     <row r="75" spans="1:27" ht="118.8">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="I75" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="J75" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>373</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>119</v>
@@ -5739,34 +5691,34 @@
     </row>
     <row r="76" spans="1:27" ht="39.6">
       <c r="A76" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="I76" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="J76" s="9" t="s">
         <v>375</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>381</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>119</v>
@@ -5790,34 +5742,34 @@
     </row>
     <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A77" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>383</v>
+      <c r="C77" s="9" t="s">
+        <v>377</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>119</v>
@@ -5841,36 +5793,36 @@
     </row>
     <row r="78" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A78" s="11" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>421</v>
+        <v>490</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>423</v>
+        <v>491</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>119</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5890,36 +5842,36 @@
     </row>
     <row r="79" spans="1:27" ht="27" thickBot="1">
       <c r="A79" s="11" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="K79" s="11" t="s">
         <v>119</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -5938,35 +5890,35 @@
       <c r="AA79" s="11"/>
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>395</v>
-      </c>
       <c r="H80" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>386</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>119</v>
@@ -5990,34 +5942,36 @@
     </row>
     <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A81" s="11" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="E81" s="11"/>
+        <v>475</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>467</v>
+      </c>
       <c r="F81" s="13" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="K81" s="11" t="s">
         <v>119</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -6035,34 +5989,38 @@
       <c r="Z81" s="11"/>
       <c r="AA81" s="11"/>
     </row>
-    <row r="82" spans="1:27" ht="79.8" thickBot="1">
+    <row r="82" spans="1:27" ht="93" thickBot="1">
       <c r="A82" s="11" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
+      <c r="I82" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>481</v>
+      </c>
       <c r="K82" s="11" t="s">
         <v>119</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -6082,16 +6040,16 @@
     </row>
     <row r="83" spans="1:27" ht="27" thickBot="1">
       <c r="A83" s="11" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -6103,7 +6061,7 @@
         <v>261</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6123,36 +6081,36 @@
     </row>
     <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A84" s="11" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>119</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -6170,173 +6128,121 @@
       <c r="Z84" s="11"/>
       <c r="AA84" s="11"/>
     </row>
-    <row r="85" spans="1:27" ht="79.8" thickBot="1">
-      <c r="A85" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="11"/>
-      <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11"/>
-      <c r="U85" s="11"/>
-      <c r="V85" s="11"/>
-      <c r="W85" s="11"/>
-      <c r="X85" s="11"/>
-      <c r="Y85" s="11"/>
-      <c r="Z85" s="11"/>
-      <c r="AA85" s="11"/>
-    </row>
-    <row r="86" spans="1:27" ht="93" thickBot="1">
-      <c r="A86" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11"/>
-      <c r="U86" s="11"/>
-      <c r="V86" s="11"/>
-      <c r="W86" s="11"/>
-      <c r="X86" s="11"/>
-      <c r="Y86" s="11"/>
-      <c r="Z86" s="11"/>
-      <c r="AA86" s="11"/>
-    </row>
-    <row r="87" spans="1:27" ht="277.8" thickBot="1">
-      <c r="A87" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11"/>
-      <c r="U87" s="11"/>
-      <c r="V87" s="11"/>
-      <c r="W87" s="11"/>
-      <c r="X87" s="11"/>
-      <c r="Y87" s="11"/>
-      <c r="Z87" s="11"/>
-      <c r="AA87" s="11"/>
-    </row>
-    <row r="88" spans="1:27" ht="27" thickBot="1">
-      <c r="A88" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11"/>
-      <c r="U88" s="11"/>
-      <c r="V88" s="11"/>
-      <c r="W88" s="11"/>
-      <c r="X88" s="11"/>
-      <c r="Y88" s="11"/>
-      <c r="Z88" s="11"/>
-      <c r="AA88" s="11"/>
+    <row r="85" spans="1:27" ht="13.2">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="6"/>
+    </row>
+    <row r="86" spans="1:27" ht="13.2">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="6"/>
+    </row>
+    <row r="87" spans="1:27" ht="13.2">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="6"/>
+    </row>
+    <row r="88" spans="1:27" ht="13.2">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="6"/>
     </row>
     <row r="89" spans="1:27" ht="13.2">
       <c r="A89" s="6"/>
@@ -32959,122 +32865,6 @@
       <c r="Y1006" s="6"/>
       <c r="Z1006" s="6"/>
       <c r="AA1006" s="6"/>
-    </row>
-    <row r="1007" spans="1:27" ht="13.2">
-      <c r="A1007" s="6"/>
-      <c r="B1007" s="6"/>
-      <c r="C1007" s="6"/>
-      <c r="D1007" s="6"/>
-      <c r="E1007" s="6"/>
-      <c r="F1007" s="6"/>
-      <c r="G1007" s="6"/>
-      <c r="H1007" s="6"/>
-      <c r="I1007" s="6"/>
-      <c r="J1007" s="6"/>
-      <c r="K1007" s="6"/>
-      <c r="L1007" s="6"/>
-      <c r="M1007" s="6"/>
-      <c r="N1007" s="6"/>
-      <c r="O1007" s="6"/>
-      <c r="P1007" s="6"/>
-      <c r="Q1007" s="6"/>
-      <c r="R1007" s="6"/>
-      <c r="S1007" s="6"/>
-      <c r="T1007" s="6"/>
-      <c r="U1007" s="6"/>
-      <c r="V1007" s="6"/>
-      <c r="W1007" s="6"/>
-      <c r="X1007" s="6"/>
-      <c r="Y1007" s="6"/>
-      <c r="Z1007" s="6"/>
-      <c r="AA1007" s="6"/>
-    </row>
-    <row r="1008" spans="1:27" ht="13.2">
-      <c r="A1008" s="6"/>
-      <c r="B1008" s="6"/>
-      <c r="C1008" s="6"/>
-      <c r="D1008" s="6"/>
-      <c r="E1008" s="6"/>
-      <c r="F1008" s="6"/>
-      <c r="G1008" s="6"/>
-      <c r="H1008" s="6"/>
-      <c r="I1008" s="6"/>
-      <c r="J1008" s="6"/>
-      <c r="K1008" s="6"/>
-      <c r="L1008" s="6"/>
-      <c r="M1008" s="6"/>
-      <c r="N1008" s="6"/>
-      <c r="O1008" s="6"/>
-      <c r="P1008" s="6"/>
-      <c r="Q1008" s="6"/>
-      <c r="R1008" s="6"/>
-      <c r="S1008" s="6"/>
-      <c r="T1008" s="6"/>
-      <c r="U1008" s="6"/>
-      <c r="V1008" s="6"/>
-      <c r="W1008" s="6"/>
-      <c r="X1008" s="6"/>
-      <c r="Y1008" s="6"/>
-      <c r="Z1008" s="6"/>
-      <c r="AA1008" s="6"/>
-    </row>
-    <row r="1009" spans="1:27" ht="13.2">
-      <c r="A1009" s="6"/>
-      <c r="B1009" s="6"/>
-      <c r="C1009" s="6"/>
-      <c r="D1009" s="6"/>
-      <c r="E1009" s="6"/>
-      <c r="F1009" s="6"/>
-      <c r="G1009" s="6"/>
-      <c r="H1009" s="6"/>
-      <c r="I1009" s="6"/>
-      <c r="J1009" s="6"/>
-      <c r="K1009" s="6"/>
-      <c r="L1009" s="6"/>
-      <c r="M1009" s="6"/>
-      <c r="N1009" s="6"/>
-      <c r="O1009" s="6"/>
-      <c r="P1009" s="6"/>
-      <c r="Q1009" s="6"/>
-      <c r="R1009" s="6"/>
-      <c r="S1009" s="6"/>
-      <c r="T1009" s="6"/>
-      <c r="U1009" s="6"/>
-      <c r="V1009" s="6"/>
-      <c r="W1009" s="6"/>
-      <c r="X1009" s="6"/>
-      <c r="Y1009" s="6"/>
-      <c r="Z1009" s="6"/>
-      <c r="AA1009" s="6"/>
-    </row>
-    <row r="1010" spans="1:27" ht="13.2">
-      <c r="A1010" s="6"/>
-      <c r="B1010" s="6"/>
-      <c r="C1010" s="6"/>
-      <c r="D1010" s="6"/>
-      <c r="E1010" s="6"/>
-      <c r="F1010" s="6"/>
-      <c r="G1010" s="6"/>
-      <c r="H1010" s="6"/>
-      <c r="I1010" s="6"/>
-      <c r="J1010" s="6"/>
-      <c r="K1010" s="6"/>
-      <c r="L1010" s="6"/>
-      <c r="M1010" s="6"/>
-      <c r="N1010" s="6"/>
-      <c r="O1010" s="6"/>
-      <c r="P1010" s="6"/>
-      <c r="Q1010" s="6"/>
-      <c r="R1010" s="6"/>
-      <c r="S1010" s="6"/>
-      <c r="T1010" s="6"/>
-      <c r="U1010" s="6"/>
-      <c r="V1010" s="6"/>
-      <c r="W1010" s="6"/>
-      <c r="X1010" s="6"/>
-      <c r="Y1010" s="6"/>
-      <c r="Z1010" s="6"/>
-      <c r="AA1010" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -33160,12 +32950,8 @@
     <hyperlink ref="B82" r:id="rId80"/>
     <hyperlink ref="B83" r:id="rId81"/>
     <hyperlink ref="B84" r:id="rId82"/>
-    <hyperlink ref="B85" r:id="rId83"/>
-    <hyperlink ref="B86" r:id="rId84"/>
-    <hyperlink ref="B87" r:id="rId85"/>
-    <hyperlink ref="B88" r:id="rId86"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId87"/>
+  <pageSetup orientation="portrait" r:id="rId83"/>
 </worksheet>
 </file>
--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="132" yWindow="540" windowWidth="22716" windowHeight="10788"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="507">
   <si>
     <t>ID</t>
   </si>
@@ -97,9 +97,6 @@
     <t>IRCTC_TC_04</t>
   </si>
   <si>
-    <t>p-dropdown[id='journeyQuota']&gt;div[class*='ng-tns-c']</t>
-  </si>
-  <si>
     <t>//p-dropdown[@id='journeyQuota']/div[contains(@class, 'ng-tns-c')]</t>
   </si>
   <si>
@@ -142,30 +139,12 @@
     <t>IRCTC_TC_07</t>
   </si>
   <si>
-    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-']:nth-of-type(2) span[class='icn']</t>
-  </si>
-  <si>
-    <t>//form[@class='ng-pristine ng-valid ng-touched']//div[contains(@class, 'col-lg-')][2]/span[@class='icn']</t>
-  </si>
-  <si>
-    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-'] span[class='icn']</t>
-  </si>
-  <si>
-    <t>//form[@class='ng-pristine ng-valid ng-touched']//div[contains(@class, 'col-lg-')]/span[@class='icn']</t>
-  </si>
-  <si>
     <t>IRCTC_TC_08</t>
   </si>
   <si>
-    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-']:nth-of-type(4) div[class*='ui-dropdown-label-container'] span[class*='ng-tns-c']</t>
-  </si>
-  <si>
     <t>//form[@class='ng-pristine ng-valid ng-touched']//div[contains(@class, 'col-lg-')][4]//div[contains(@class, 'ui-dropdown-label-co')]/span[contains(@class, 'ng-tns-c')]</t>
   </si>
   <si>
-    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-'] div[class*='ui-dropdown-label-container'] span[class*='ng-tns-c']</t>
-  </si>
-  <si>
     <t>//form[@class='ng-pristine ng-valid ng-touched']//div[contains(@class, 'col-lg-')]//div[contains(@class, 'ui-dropdown-label-co')]/span[contains(@class, 'ng-tns-c')]</t>
   </si>
   <si>
@@ -229,1318 +208,1339 @@
     <t>IRCTC_TC_12</t>
   </si>
   <si>
+    <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//span[@class='pull-left hidden-xs']</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//span[@class='pull-left hidden-xs']</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_13</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//span[contains(@class, 'col-xs-')]/span</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted'] div[class*='form-group'] span[class*='col-xs-'] span</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//span[contains(@class, 'col-xs-')]/span</t>
+  </si>
+  <si>
+    <t>span:contains(03:10)</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(), '03:10')])[1]</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_14</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']:nth-of-type(1) button[class='btnDefault disable-book train_Search ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//button[@class='btnDefault disable-book train_Search ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted'] button[class='btnDefault disable-book train_Search ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//button[@class='btnDefault disable-book train_Search ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>button:contains(Book Now)</t>
+  </si>
+  <si>
+    <t>(//button[contains(text(), 'Book Now')])[1]</t>
+  </si>
+  <si>
+    <t>Right CLick</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_15</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']:nth-of-type(6) table td[class='ng-star-inserted']:nth-of-type(1) div[class*='col-xs-']</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted'] table td[class='ng-star-inserted'] div[class*='col-xs-']</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted']//table//td[@class='ng-star-inserted']//div[contains(@class, 'col-xs-')]</t>
+  </si>
+  <si>
+    <t>div:contains(Refresh)</t>
+  </si>
+  <si>
+    <t>(//div[contains(text(), 'Refresh')])[1]</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_16</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_17</t>
+  </si>
+  <si>
+    <t>p-slider[class='ng-untouched ng-valid ng-dirty'] span[class*='ui-slider-range']</t>
+  </si>
+  <si>
+    <t>//p-slider[@class='ng-untouched ng-valid ng-dirty']//span[contains(@class, 'ui-slider-range')]</t>
+  </si>
+  <si>
+    <t>For first left  click only after refresing the site</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_18</t>
+  </si>
+  <si>
+    <t>div[class='border-all ng-star-inserted'] p-panel[class*='ng-tns-c'] table[class*='ng-tns-c'] span[class='t-t-O']</t>
+  </si>
+  <si>
+    <t>//div[@class='border-all ng-star-inserted']//p-panel[contains(@class, 'ng-tns-c')][2]//table[contains(@class, 'ng-tns-c')]//span[@class='t-t-O']</t>
+  </si>
+  <si>
+    <t>//div[@class='border-all ng-star-inserted']//p-panel[contains(@class, 'ng-tns-c')]//table[contains(@class, 'ng-tns-c')]//span[@class='t-t-O']</t>
+  </si>
+  <si>
+    <t>span:contains(OTHER)</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(), 'OTHER')])[1]</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_19</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-']:nth-of-type(3) button[class='btn_Tab']:nth-of-type(1) span[class='footer_headings']</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-'] button[class='btn_Tab'] span[class='footer_headings']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-lg-')]//button[@class='btn_Tab']/span[@class='footer_headings']</t>
+  </si>
+  <si>
+    <t>span:contains(IRCTC eWallet)</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(), 'IRCTC eWallet')])[7]</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_20</t>
+  </si>
+  <si>
+    <t>Right-click to locate dynamic behavior</t>
+  </si>
+  <si>
+    <t>first click</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_21</t>
+  </si>
+  <si>
+    <t>span[class='fa fa-angle-up ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>Right Click</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_22</t>
+  </si>
+  <si>
+    <t>div[class*='row']:nth-of-type(1)&gt;span&gt;strong</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'row')][1]/span/strong</t>
+  </si>
+  <si>
+    <t>div[class*='row']&gt;span&gt;strong</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'row')]/span/strong</t>
+  </si>
+  <si>
+    <t>strong:contains(22-Nov-2023 [10:42:14])</t>
+  </si>
+  <si>
+    <t>//strong[contains(text(), '22-Nov-2023 [10:42:14]')]</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_23</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//div[contains(@class, 'white-back')]/div[contains(@class, 'col-xs-')][1]</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//div[contains(@class, 'white-back')]/div[contains(@class, 'col-xs-')]</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_01</t>
+  </si>
+  <si>
+    <t>https://indore.nic.in/en/</t>
+  </si>
+  <si>
+    <t>//ul[@id='menu-header-en']/li[@aria-haspopup='true'][1]/a</t>
+  </si>
+  <si>
+    <t>//ul[@id='menu-header-en']/li[@aria-haspopup='true']/a</t>
+  </si>
+  <si>
+    <t>a:contains(About District)</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(), 'About District')])[1]</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_02</t>
+  </si>
+  <si>
+    <t>a:contains(Website Policies)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Website Policies')]</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_03</t>
+  </si>
+  <si>
+    <t>//a[@title='Election Commission Of India']/div[@class='list-text']</t>
+  </si>
+  <si>
+    <t>div:contains(Election Commission Of India)</t>
+  </si>
+  <si>
+    <t>//div[contains(text(), 'Election Commission Of India')]</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_04</t>
+  </si>
+  <si>
+    <t>//div[@class='copyRightsText']/p[2]</t>
+  </si>
+  <si>
+    <t>//div[@class='copyRightsText']/p</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_05</t>
+  </si>
+  <si>
+    <t>https://indore.nic.in/en/agriculture/</t>
+  </si>
+  <si>
+    <t>//tr[1]/td[@data-th='OFFICER']</t>
+  </si>
+  <si>
+    <t>//tr/td[@data-th='OFFICER']</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_06</t>
+  </si>
+  <si>
+    <t>https://indore.nic.in/en/services/</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_07</t>
+  </si>
+  <si>
+    <t>https://indore.nic.in/en/document-category/master-plan-20-21/</t>
+  </si>
+  <si>
+    <t>span:contains(Master Plan 20-21- Studies and Analysis Part – 3)</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'Master Plan 20-21- Studies and Analysis Part – 3')]</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_08</t>
+  </si>
+  <si>
+    <t>https://indore.nic.in/en/std-pin-codes/</t>
+  </si>
+  <si>
+    <t>table[class*='table']:nth-of-type(1) th[scope='col']:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//div[contains(@id, 'post-')]/table[contains(@class, 'table')][1]//th[@scope='col'][1]</t>
+  </si>
+  <si>
+    <t>table[class*='table'] th[scope='col']</t>
+  </si>
+  <si>
+    <t>//div[contains(@id, 'post-')]/table[contains(@class, 'table')]//th[@scope='col']</t>
+  </si>
+  <si>
+    <t>th:contains(Name)</t>
+  </si>
+  <si>
+    <t>//th[contains(text(), 'Name')]</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_09</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>//h1</t>
+  </si>
+  <si>
+    <t>h1:contains(STD &amp; PIN Codes)</t>
+  </si>
+  <si>
+    <t>//h1[contains(text(), 'STD &amp; PIN Codes')]</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_10</t>
+  </si>
+  <si>
+    <t>//div[contains(@id, 'post-')]/p[2]</t>
+  </si>
+  <si>
+    <t>//div[contains(@id, 'post-')]/p</t>
+  </si>
+  <si>
+    <t>p:contains(POST OFFICE-Head Office: Indore G.P.O.Madhya Pradesh)</t>
+  </si>
+  <si>
+    <t>//p[contains(text(), 'POST OFFICE-Head Office: Indore G.P.O.Madhya Pradesh')]</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_11</t>
+  </si>
+  <si>
+    <t>table[class*='table']:nth-of-type(2) th[scope='col']:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//div[contains(@id, 'post-')]/table[contains(@class, 'table')][2]//th[@scope='col'][1]</t>
+  </si>
+  <si>
+    <t>th:contains(POST OFFICE)</t>
+  </si>
+  <si>
+    <t>//th[contains(text(), 'POST OFFICE')]</t>
+  </si>
+  <si>
+    <t>YONO_SBI_01</t>
+  </si>
+  <si>
+    <t>https://yonobusiness.sbi/</t>
+  </si>
+  <si>
+    <t>//a[@rel='external']/img</t>
+  </si>
+  <si>
+    <t>YONO_SBI_02</t>
+  </si>
+  <si>
+    <t>div[class*='mt-md-']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'mt-md-')]</t>
+  </si>
+  <si>
+    <t>div:contains(An integrated banking solution which can be accessed across devices,)</t>
+  </si>
+  <si>
+    <t>//div[contains(text(), 'An integrated banking solution which can be accessed across devices,')]</t>
+  </si>
+  <si>
+    <t>YONO_SBI_03</t>
+  </si>
+  <si>
+    <t>a[class='btn yn-btn btn-yono-homepage login-btn']</t>
+  </si>
+  <si>
+    <t>//a[@class='btn yn-btn btn-yono-homepage login-btn']</t>
+  </si>
+  <si>
+    <t>a:contains(Login)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Login')]</t>
+  </si>
+  <si>
+    <t>YONO_SBI_04</t>
+  </si>
+  <si>
+    <t>a[class*='btn']:nth-of-type(2)</t>
+  </si>
+  <si>
+    <t>//a[contains(@class, 'btn')][2]</t>
+  </si>
+  <si>
+    <t>a[class*='btn']</t>
+  </si>
+  <si>
+    <t>//a[contains(@class, 'btn')]</t>
+  </si>
+  <si>
+    <t>a:contains(REGISTER)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'REGISTER')]</t>
+  </si>
+  <si>
+    <t>YONO_SBI_05</t>
+  </si>
+  <si>
+    <t>https://yonobusiness.sbi/preonboard/landing/registration</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-']:nth-of-type(1) img[class='onb-img']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-md-')][1]//img[@class='onb-img']</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-'] img[class='onb-img']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-md-')]//img[@class='onb-img']</t>
+  </si>
+  <si>
+    <t>YONO_SBI_06</t>
+  </si>
+  <si>
+    <t>//li[1]/a[@routerlinkactive='active']</t>
+  </si>
+  <si>
+    <t>//li/a[@routerlinkactive='active']</t>
+  </si>
+  <si>
+    <t>a:contains(Privacy Statement)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Privacy Statement')]</t>
+  </si>
+  <si>
+    <t>YONO_SBI_07</t>
+  </si>
+  <si>
+    <t>//div[@class='float-right hidden-xs']/p</t>
+  </si>
+  <si>
+    <t>p:contains(Site best viewed at (1366 * 768)+ resolution in Microsoft Edge 79+, Mozilla 96+, Google Chrome 97+)</t>
+  </si>
+  <si>
+    <t>//p[contains(text(), 'Site best viewed at (1366 * 768)+ resolution in Microsoft Edge 79+, Mozilla 96+, Google Chrome 97+')]</t>
+  </si>
+  <si>
+    <t>YONO_SBI_08</t>
+  </si>
+  <si>
+    <t>https://newcmp.sbi/Emandates/#!/</t>
+  </si>
+  <si>
+    <t>a[class='create-mandate create-emandate']</t>
+  </si>
+  <si>
+    <t>//a[@class='create-mandate create-emandate']</t>
+  </si>
+  <si>
+    <t>YONO_SBI_09</t>
+  </si>
+  <si>
+    <t>https://newcmp.sbi/Emandates/#!/createEmandate</t>
+  </si>
+  <si>
+    <t>JOY_BIRD_01</t>
+  </si>
+  <si>
+    <t>https://consumer.dev.nest.joybird.com/</t>
+  </si>
+  <si>
+    <t>svg[title='Search']</t>
+  </si>
+  <si>
+    <t>JOY_BIRD_02</t>
+  </si>
+  <si>
+    <t>JOY_BIRD_03</t>
+  </si>
+  <si>
+    <t>svg[class*='relative']</t>
+  </si>
+  <si>
+    <t>//*[name()='svg'][contains(@class, 'relative')]</t>
+  </si>
+  <si>
+    <t>JOY_BIRD_04</t>
+  </si>
+  <si>
+    <t>//div[@data-xc='DesktopTopNav']/ul[contains(@class, 'flex-row')]/li[contains(@class, 'items-center')]//span</t>
+  </si>
+  <si>
+    <t>JOY_BIRD_05</t>
+  </si>
+  <si>
+    <t>ABHI_VYAKTI_01</t>
+  </si>
+  <si>
+    <t>https://www.abhivyaktigarbamahotsav.com/</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-']:nth-of-type(3) div[class='video_icon'] img</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-md-')][2]//div[@class='video_icon']//img</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-'] div[class='video_icon'] img</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-md-')]//div[@class='video_icon']//img</t>
+  </si>
+  <si>
+    <t>ABHI_VYAKTI_02</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-']:nth-of-type(1) div[class='box-border']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-lg-')][1]/div[@class='box-border']</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-'] div[class='box-border']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-lg-')]/div[@class='box-border']</t>
+  </si>
+  <si>
+    <t>ABHI_VYAKTI_03</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-']:nth-of-type(4)&gt;a:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-md-')][4]/a[1]</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-']&gt;a</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-md-')]/a</t>
+  </si>
+  <si>
+    <t>a:contains(Privacy Policy)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Privacy Policy')]</t>
+  </si>
+  <si>
+    <t>ABHI_VYAKTI_04</t>
+  </si>
+  <si>
+    <t>div[id='workshops']:nth-of-type(5) p</t>
+  </si>
+  <si>
+    <t>//div[@id='workshops'][1]//p</t>
+  </si>
+  <si>
+    <t>div[id='workshops'] p</t>
+  </si>
+  <si>
+    <t>//div[@id='workshops']//p</t>
+  </si>
+  <si>
+    <t>p:contains(Navratri celebrations all across India, especially in the states of Gujarat are a sight to behold. Through Abhivyakti Garba Mahotsav, Garba festival has gone global covering states of Madhya Pradesh and Rajasthan. Bhopal, Indore and Jaipur are the cities that gets coloured with the vibrant shades of Garba.)</t>
+  </si>
+  <si>
+    <t>//p[contains(text(), 'Navratri celebrations all across India, especially in the states of Gujarat are a sight to behold. Through Abhivyakti Garba Mahotsav, Garba festival has gone global covering states of Madhya Pradesh and Rajasthan. Bhopal, Indore and Jaipur are the cities that gets coloured with the vibrant shades of Garba.')]</t>
+  </si>
+  <si>
+    <t>APOLLO_HOSPITAL_01</t>
+  </si>
+  <si>
+    <t>https://www.apollohospitals.com/indoreapolloconsultleads/?utm_source=paid&amp;utm_medium=cpc&amp;utm_campaign=12302623805&amp;utm_adgroup=120477017191&amp;utm_match_type=b&amp;network=g&amp;ad=547283151982&amp;utm_device=c&amp;utm_term=apollo%20hospital&amp;utm_gclid=CjwKCAjwyNSoBhA9EiwA5aYlb9cudAr0osMrZ-YS7dv5fzoecLoWsyfIRLQ5KgISpscMec5SGd28fxoC4n8QAvD_BwE&amp;gad=1&amp;gclid=CjwKCAjwyNSoBhA9EiwA5aYlb9cudAr0osMrZ-YS7dv5fzoecLoWsyfIRLQ5KgISpscMec5SGd28fxoC4n8QAvD_BwE#SanitationMethods</t>
+  </si>
+  <si>
+    <t>div[class*='col-sm-']:nth-of-type(1) div[class='covid-safe-wrap'] h5[class='acr-txt']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-sm-')][1]/div[@class='covid-safe-wrap']//h5[@class='acr-txt']</t>
+  </si>
+  <si>
+    <t>div[class*='col-sm-'] div[class='covid-safe-wrap'] h5[class='acr-txt']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-sm-')]/div[@class='covid-safe-wrap']//h5[@class='acr-txt']</t>
+  </si>
+  <si>
+    <t>h5:contains(Extra Sanitation Methods)</t>
+  </si>
+  <si>
+    <t>//h5[contains(text(), 'Extra Sanitation Methods')]</t>
+  </si>
+  <si>
+    <t>left Click</t>
+  </si>
+  <si>
+    <t>APOLLO_HOSPITAL_02</t>
+  </si>
+  <si>
+    <t>section[id='Cardiology'] h2</t>
+  </si>
+  <si>
+    <t>//section[@id='Cardiology']//h2</t>
+  </si>
+  <si>
+    <t>h2:contains(Cardiology)</t>
+  </si>
+  <si>
+    <t>//h2[contains(text(), 'Cardiology')]</t>
+  </si>
+  <si>
+    <t>EPFO_01</t>
+  </si>
+  <si>
+    <t>https://www.epfindia.gov.in/site_en/EODB.php</t>
+  </si>
+  <si>
+    <t>span[class='nor_letter']:nth-of-type(2)</t>
+  </si>
+  <si>
+    <t>//span[@class='nor_letter'][1]</t>
+  </si>
+  <si>
+    <t>span[class='nor_letter']</t>
+  </si>
+  <si>
+    <t>//span[@class='nor_letter']</t>
+  </si>
+  <si>
+    <t>span:contains(ase)</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'ase')]</t>
+  </si>
+  <si>
+    <t>EPFO_02</t>
+  </si>
+  <si>
+    <t>div[id='footer_link'] a:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//div[@id='footer_link']/a[1]</t>
+  </si>
+  <si>
+    <t>div[id='footer_link'] a</t>
+  </si>
+  <si>
+    <t>//div[@id='footer_link']/a</t>
+  </si>
+  <si>
+    <t>a:contains(Home)</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(), 'Home')])[2]</t>
+  </si>
+  <si>
+    <t>EPFO_03</t>
+  </si>
+  <si>
+    <t>https://www.epfindia.gov.in/site_en/International_workers.php</t>
+  </si>
+  <si>
+    <t>div[class='iternl_wrkr'] span[class='nor_letter']:nth-of-type(2)</t>
+  </si>
+  <si>
+    <t>//div[@class='iternl_wrkr']/span[@class='nor_letter'][1]</t>
+  </si>
+  <si>
+    <t>div[class='iternl_wrkr'] span[class='nor_letter']</t>
+  </si>
+  <si>
+    <t>//div[@class='iternl_wrkr']/span[@class='nor_letter']</t>
+  </si>
+  <si>
+    <t>span:contains(PERATING)</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'PERATING')]</t>
+  </si>
+  <si>
+    <t>EPFO_04</t>
+  </si>
+  <si>
+    <t>span[id='copyrt']</t>
+  </si>
+  <si>
+    <t>//span[@id='copyrt']</t>
+  </si>
+  <si>
+    <t>JEEVAN_PRAMAAN_01</t>
+  </si>
+  <si>
+    <t>https://jeevanpramaan.gov.in/locator</t>
+  </si>
+  <si>
+    <t>img[alt='Logo']</t>
+  </si>
+  <si>
+    <t>//img[@alt='Logo']</t>
+  </si>
+  <si>
+    <t>JEEVAN_PRAMAAN_02</t>
+  </si>
+  <si>
+    <t>https://jeevanpramaan.gov.in/</t>
+  </si>
+  <si>
+    <t>li[class='year'] i[class='fa fa-pencil']</t>
+  </si>
+  <si>
+    <t>//li[@class='year'][1]/i[@class='fa fa-pencil']</t>
+  </si>
+  <si>
+    <t>//li[@class='year']/i[@class='fa fa-pencil']</t>
+  </si>
+  <si>
+    <t>JEEVAN_PRAMAAN_03</t>
+  </si>
+  <si>
+    <t>ul[class='nav main-nav'] li:nth-of-type(4) a[class='scroll']</t>
+  </si>
+  <si>
+    <t>//ul[@class='nav main-nav']/li[4]/a[@class='scroll']</t>
+  </si>
+  <si>
+    <t>ul[class='nav main-nav'] li a[class='scroll']</t>
+  </si>
+  <si>
+    <t>//ul[@class='nav main-nav']/li/a[@class='scroll']</t>
+  </si>
+  <si>
+    <t>a:contains(Locate a Centre)</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(), 'Locate a Centre')])[1]</t>
+  </si>
+  <si>
+    <t>JEEVAN_PRAMAAN_04</t>
+  </si>
+  <si>
+    <t>p[class='footer-text copyright']:nth-of-type(1) a:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//p[@class='footer-text copyright'][1]/a[1]</t>
+  </si>
+  <si>
+    <t>p[class='footer-text copyright'] a</t>
+  </si>
+  <si>
+    <t>//p[@class='footer-text copyright']/a</t>
+  </si>
+  <si>
+    <t>a:contains(Help)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Help')]</t>
+  </si>
+  <si>
+    <t>JEEVAN_PRAMAAN_05</t>
+  </si>
+  <si>
+    <t>p[class='footer-text copyright']:nth-of-type(4)</t>
+  </si>
+  <si>
+    <t>//p[@class='footer-text copyright'][4]</t>
+  </si>
+  <si>
+    <t>p[class='footer-text copyright']</t>
+  </si>
+  <si>
+    <t>//p[@class='footer-text copyright']</t>
+  </si>
+  <si>
+    <t>p:contains(Last reviewed and updated on 31st Oct, 2023)</t>
+  </si>
+  <si>
+    <t>//p[contains(text(), 'Last reviewed and updated on 31st Oct, 2023')]</t>
+  </si>
+  <si>
+    <t>UITRGPV_AC_01</t>
+  </si>
+  <si>
+    <t>https://www.uitrgpv.ac.in/</t>
+  </si>
+  <si>
+    <t>button[class='btn-close']</t>
+  </si>
+  <si>
+    <t>UITRGPV_AC_02</t>
+  </si>
+  <si>
+    <t>div[class*='owl-item']:nth-of-type(13) div[class='courses_div'] img[class='img-fluid']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'owl-item')][13]//div[@class='courses_div']//img[@class='img-fluid']</t>
+  </si>
+  <si>
+    <t>div[class*='owl-item'] div[class='courses_div'] img[class='img-fluid']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'owl-item')]//div[@class='courses_div']//img[@class='img-fluid']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">civil engineering </t>
+  </si>
+  <si>
+    <t>UITRGPV_AC_03</t>
+  </si>
+  <si>
+    <t>div[class*='owl-item']:nth-of-type(2) img[class*='w-']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'owl-item cloned')][2]//img[contains(@class, 'w-')]</t>
+  </si>
+  <si>
+    <t>div[class*='owl-item'] img[class*='w-']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'owl-item cloned')]//img[contains(@class, 'w-')]</t>
+  </si>
+  <si>
+    <t>UITRGPV_AC_04</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-']:nth-of-type(1)&gt;div[class='ctg_content']&gt;div[class='box_name']:nth-of-type(1)&gt;h4</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-md-')][1]/div[@class='ctg_content']//h4</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-']&gt;div[class='ctg_content']&gt;div[class='box_name']&gt;h4</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-md-')]/div[@class='ctg_content']//h4</t>
+  </si>
+  <si>
+    <t>h4:contains(Miscellaneous)</t>
+  </si>
+  <si>
+    <t>//h4[contains(text(), 'Miscellaneous')]</t>
+  </si>
+  <si>
+    <t>UITRGPV_AC_05</t>
+  </si>
+  <si>
+    <t>a[class='overlay-link play-now ripple']</t>
+  </si>
+  <si>
+    <t>//a[@class='overlay-link play-now ripple']</t>
+  </si>
+  <si>
+    <t>UITRGPV_AC_06</t>
+  </si>
+  <si>
+    <t>div[class*='owl-item']:nth-of-type(10) div[class='facility_box']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'owl-item')][10]//div[@class='facility_box']</t>
+  </si>
+  <si>
+    <t>div[class*='owl-item'] div[class='facility_box']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'owl-item')]//div[@class='facility_box']</t>
+  </si>
+  <si>
+    <t>class room</t>
+  </si>
+  <si>
+    <t>UITRGPV_AC_07</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-']:nth-of-type(2) ul[class='list-item'] li:nth-of-type(1) a</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-lg-')][2]//ul[@class='list-item']/li[1]/a</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-'] ul[class='list-item'] li a</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-lg-')]//ul[@class='list-item']/li/a</t>
+  </si>
+  <si>
+    <t>a:contains(Photo Gallery)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Photo Gallery')]</t>
+  </si>
+  <si>
+    <t>UITRGPV_AC_08</t>
+  </si>
+  <si>
+    <t>tr[class='SelectedItem']:nth-of-type(3) a[id*='UCTabs']</t>
+  </si>
+  <si>
+    <t>//ul[@class='list-item']//table[contains(@id, 'UCTabs')]//tr[@class='SelectedItem']//a[contains(@id, 'UCTabs')]</t>
+  </si>
+  <si>
+    <t>tr[class='SelectedItem'] a[id*='UCTabs']</t>
+  </si>
+  <si>
+    <t>a:contains(Proctorial Order September 2023)</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(), 'Proctorial Order September 2023')])[2]</t>
+  </si>
+  <si>
+    <t>Demo_QA_01</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/radio-button</t>
+  </si>
+  <si>
+    <t>div[class='element-list collapse show'] ul[class='menu-list'] li[class='btn btn-light ']:nth-of-type(1) span[class='text']</t>
+  </si>
+  <si>
+    <t>//div[@class='element-list collapse show']/ul[@class='menu-list']/li[@class='btn btn-light '][1]/span[@class='text']</t>
+  </si>
+  <si>
+    <t>div[class='element-list collapse show'] ul[class='menu-list'] li[class='btn btn-light '] span[class='text']</t>
+  </si>
+  <si>
+    <t>//div[@class='element-list collapse show']/ul[@class='menu-list']/li[@class='btn btn-light ']/span[@class='text']</t>
+  </si>
+  <si>
+    <t>span:contains(Text Box)</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'Text Box')]</t>
+  </si>
+  <si>
+    <t>Demo_QA_02</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/</t>
+  </si>
+  <si>
+    <t>div[class*='card']:nth-of-type(3) div h5</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'card')][3]//h5</t>
+  </si>
+  <si>
+    <t>div[class*='card'] div h5</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'card')]//h5</t>
+  </si>
+  <si>
+    <t>h5:contains(Alerts, Frame &amp; Windows)</t>
+  </si>
+  <si>
+    <t>//h5[contains(text(), 'Alerts, Frame &amp; Windows')]</t>
+  </si>
+  <si>
+    <t>Demo_QA_03</t>
+  </si>
+  <si>
+    <t>div[class*='mb-']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'mb-')]</t>
+  </si>
+  <si>
+    <t>div:contains(Do you like the site?)</t>
+  </si>
+  <si>
+    <t>//div[contains(text(), 'Do you like the site?')]</t>
+  </si>
+  <si>
+    <t>Freshers_Jobs_01</t>
+  </si>
+  <si>
+    <t>https://www.indgovtjobs.in/2015/01/fresher-jobs.html</t>
+  </si>
+  <si>
+    <t>div[class='post-body entry-content'] table:nth-of-type(1) td[valign='top']:nth-of-type(1) b</t>
+  </si>
+  <si>
+    <t>//div[@class='post-body entry-content']/table[1]//td[@valign='top'][1]//b</t>
+  </si>
+  <si>
+    <t>div[class='post-body entry-content'] table td[valign='top'] b</t>
+  </si>
+  <si>
+    <t>//div[@class='post-body entry-content']/table//td[@valign='top']//b</t>
+  </si>
+  <si>
+    <t>b:contains(Job Name - Total Vacancies)</t>
+  </si>
+  <si>
+    <t>//b[contains(text(), 'Job Name - Total Vacancies')]</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']:nth-of-type(1)&gt;div[class*='form-group']:nth-of-type(1) div[class*='white-back']:nth-of-type(3)&gt;div[class*='col-xs-']:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>div[class='copyRightsText'] &gt; p:nth-of-type(2)</t>
+  </si>
+  <si>
+    <t>tr:nth-of-type(1) &gt; td[data-th='OFFICER']</t>
+  </si>
+  <si>
+    <t>tr &gt; td[data-th='OFFICER']</t>
+  </si>
+  <si>
+    <t>tr:nth-of-type(1) &gt; td[data-th*='Title'] &gt; span[class='bt-content']</t>
+  </si>
+  <si>
+    <t>//tr[1]/td[contains(@data-th, 'Title')]/span[@class='bt-content']</t>
+  </si>
+  <si>
+    <t>tr &gt; td[data-th*='Title'] &gt; span[class='bt-content']</t>
+  </si>
+  <si>
+    <t>//tr/td[contains(@data-th, 'Title')]/span[@class='bt-content']</t>
+  </si>
+  <si>
+    <t>div[id*='post-'] &gt; p:nth-of-type(2)</t>
+  </si>
+  <si>
+    <t>div[id*='post-'] &gt; p</t>
+  </si>
+  <si>
+    <t>a[rel='external'] &gt; img</t>
+  </si>
+  <si>
+    <t>div[class='float-right hidden-xs'] &gt; p</t>
+  </si>
+  <si>
+    <t>JOY_BIRD_06</t>
+  </si>
+  <si>
+    <t>https://joybird.com/</t>
+  </si>
+  <si>
+    <t>iframe[scrolling='no']</t>
+  </si>
+  <si>
+    <t>//iframe[@scrolling='no']</t>
+  </si>
+  <si>
+    <t>Shubham</t>
+  </si>
+  <si>
+    <t>UITRGPV_AC_09</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-']:nth-of-type(1) div[class='footer_col'] ul[class='list-item']&gt;i[class='la la-angle-right']:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//footer//div[contains(@class, 'col-lg-')][1]//ul[@class='list-item']/i[@class='la la-angle-right'][1]</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-'] div[class='footer_col'] ul[class='list-item']&gt;i[class='la la-angle-right']</t>
+  </si>
+  <si>
+    <t>//footer//div[contains(@class, 'col-lg-')]//ul[@class='list-item']/i[@class='la la-angle-right']</t>
+  </si>
+  <si>
+    <t>kapil</t>
+  </si>
+  <si>
+    <t>Demo_QA_04</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/select-menu</t>
+  </si>
+  <si>
+    <t>div[class='row']:nth-of-type(7)&gt;div[class*='col-md-']&gt;div[class*='css-']&gt;div[class*='css-']:nth-of-type(1)&gt;div[class*='css-']:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//div[@class='row'][2]/div[contains(@class, 'col-md-')]/div[contains(@class, 'css-')]/div[contains(@class, 'css-')][1]/div[contains(@class, 'css-')][1]</t>
+  </si>
+  <si>
+    <t>div[class='row']&gt;div[class*='col-md-']&gt;div[class*='css-']&gt;div[class*='css-']&gt;div[class*='css-']</t>
+  </si>
+  <si>
+    <t>//div[@class='row']/div[contains(@class, 'col-md-')]/div[contains(@class, 'css-')]/div[contains(@class, 'css-')]/div[contains(@class, 'css-')]</t>
+  </si>
+  <si>
+    <t>div:contains(Select...)</t>
+  </si>
+  <si>
+    <t>//div[contains(text(), 'Select...')]</t>
+  </si>
+  <si>
+    <t>Demo_QA_05</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/menu#</t>
+  </si>
+  <si>
+    <t>ul[id='nav']&gt;li:nth-of-type(1)&gt;a</t>
+  </si>
+  <si>
+    <t>//ul[@id='nav']/li[1]/a</t>
+  </si>
+  <si>
+    <t>ul[id='nav']&gt;li&gt;a</t>
+  </si>
+  <si>
+    <t>//ul[@id='nav']/li/a</t>
+  </si>
+  <si>
+    <t>a:contains(Main Item 1)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Main Item 1')]</t>
+  </si>
+  <si>
+    <t>Freshers_Jobs_02</t>
+  </si>
+  <si>
+    <t>h4 font[color*='ff'] font</t>
+  </si>
+  <si>
+    <t>//h4[6]/font[contains(@color, 'ff')]/font</t>
+  </si>
+  <si>
+    <t>//h4/font[contains(@color, 'ff')]/font</t>
+  </si>
+  <si>
+    <t>font:contains(Fresher Jobs – FAQs:)</t>
+  </si>
+  <si>
+    <t>//font[contains(text(), 'Fresher Jobs – FAQs:')]</t>
+  </si>
+  <si>
+    <t>Freshers_Jobs_03</t>
+  </si>
+  <si>
+    <t>div[id*='footer']:nth-of-type(1)&gt;div[class='footer-column section']&gt;div[id*='HTML']&gt;div[class='widget-content']</t>
+  </si>
+  <si>
+    <t>//div[@id='footer-column-container']/div[contains(@id, 'footer')][1]//ul/li[1]</t>
+  </si>
+  <si>
+    <t>div[id*='footer']&gt;div[class='footer-column section']&gt;div[id*='HTML']&gt;div[class='widget-content']</t>
+  </si>
+  <si>
+    <t>//div[@id='footer-column-container']/div[contains(@id, 'footer')]//ul/li</t>
+  </si>
+  <si>
+    <t>Free_Jobs_Alert_01</t>
+  </si>
+  <si>
+    <t>https://www.freejobalert.com/government-jobs/</t>
+  </si>
+  <si>
+    <t>input[id*='gsc-i-id']</t>
+  </si>
+  <si>
+    <t>//input[contains(@id, 'gsc-i-id')]</t>
+  </si>
+  <si>
+    <t>Free_Jobs_Alert_02</t>
+  </si>
+  <si>
+    <t>div[class*='gb-grid-column']:nth-of-type(1) ul li:nth-of-type(1) a</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'gb-grid-column')][1]//ul/li[1]/a</t>
+  </si>
+  <si>
+    <t>div[class*='gb-grid-column'] ul li a</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'gb-grid-column')]//ul/li/a</t>
+  </si>
+  <si>
+    <t>a:contains(Latest Notifications)</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(), 'Latest Notifications')])[2]</t>
+  </si>
+  <si>
+    <t>Linkedin_01</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/</t>
+  </si>
+  <si>
+    <t>li[class*='global-nav']:nth-of-type(2) svg[class='mercado-match']</t>
+  </si>
+  <si>
+    <t>//li[contains(@class, 'global-nav')][2]//*[name()='svg'][@class='mercado-match']</t>
+  </si>
+  <si>
+    <t>li[class*='global-nav'] svg[class='mercado-match']</t>
+  </si>
+  <si>
+    <t>//li[contains(@class, 'global-nav')]//*[name()='svg'][@class='mercado-match']</t>
+  </si>
+  <si>
+    <t>Linkedin_02</t>
+  </si>
+  <si>
+    <t>div[class='share-box-feed-entry__top-bar'] &gt; button[class*='artdeco-button']</t>
+  </si>
+  <si>
+    <t>//div[@class='share-box-feed-entry__top-bar']/button[contains(@class, 'artdeco-button')]</t>
+  </si>
+  <si>
+    <t>Linkedin_03</t>
+  </si>
+  <si>
+    <t>div[class*='community-panel-inte']:nth-of-type(1) &gt; ul[class='community-panel-interest-package__section-expanded']&gt;li[class='community-panel-interest-package__entity-item truncate']:nth-of-type(1) span[class*='hashtag-a']:nth-of-type(2)</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'community-panel-inte')][1]/ul[@class='community-panel-interest-package__section-expanded']//li[@class='community-panel-interest-package__entity-item truncate'][1]//span[contains(@class, 'hashtag-a')]//span[contains(@class, 'hashtag-a')]</t>
+  </si>
+  <si>
+    <t>div[class*='community-panel-inte'] &gt; ul[class='community-panel-interest-package__section-expanded']&gt;li[class='community-panel-interest-package__entity-item truncate'] span[class*='hashtag-a']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'community-panel-inte')]/ul[@class='community-panel-interest-package__section-expanded']//li[@class='community-panel-interest-package__entity-item truncate']//span[contains(@class, 'hashtag-a')]//span[contains(@class, 'hashtag-a')]</t>
+  </si>
+  <si>
+    <t>span:contains(jobseekers)</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(), 'jobseekers')])[1]</t>
+  </si>
+  <si>
+    <t>Linkedin_04</t>
+  </si>
+  <si>
+    <t>p[class*='identity-headline']</t>
+  </si>
+  <si>
+    <t>//p[contains(@class, 'identity-headline')]</t>
+  </si>
+  <si>
+    <t>ul[id='menu-footer-en']&gt;li[id*='menu-item-']:nth-of-type(1)&gt;a</t>
+  </si>
+  <si>
+    <t>//ul[@id='menu-footer-en']/li[contains(@id, 'menu-item-')][1]/a</t>
+  </si>
+  <si>
+    <t>ul[id='menu-footer-en']&gt;li[id*='menu-item-']&gt;a</t>
+  </si>
+  <si>
+    <t>//ul[@id='menu-footer-en']/li[contains(@id, 'menu-item-')]/a</t>
+  </si>
+  <si>
+    <t>li[aria-haspopup='true']:nth-of-type(2) &gt; a</t>
+  </si>
+  <si>
+    <t>li[aria-haspopup='true'] &gt; a</t>
+  </si>
+  <si>
+    <t>a[title='Election Commission Of India'] &gt; div[class='list-text']</t>
+  </si>
+  <si>
+    <t>a[title='New Tap Connection'] span[class*='icon-supply']</t>
+  </si>
+  <si>
+    <t>//a[@title='New Tap Connection']//span[contains(@class, 'icon-supply')]</t>
+  </si>
+  <si>
+    <t>input[id='captchaAnswer']</t>
+  </si>
+  <si>
+    <t>//input[@id='captchaAnswer']</t>
+  </si>
+  <si>
+    <t>li:nth-of-type(1) &gt; a[routerlinkactive='active']</t>
+  </si>
+  <si>
+    <t>li &gt; a[routerlinkactive='active']</t>
+  </si>
+  <si>
+    <t>//*[name()='svg'][@title='Search']</t>
+  </si>
+  <si>
+    <t>a[data-xc='living-room'] &gt; span[class*='items-center']</t>
+  </si>
+  <si>
+    <t>//a[@data-xc='living-room']/span[contains(@class, 'items-center')]</t>
+  </si>
+  <si>
+    <t>span:contains(Living Room)</t>
+  </si>
+  <si>
+    <t>ul[class*='flex-row']:nth-of-type(1)&gt;li[class*='items-center']:nth-of-type(2) span</t>
+  </si>
+  <si>
+    <t>ul[class*='flex-row']&gt;li[class*='items-center'] span</t>
+  </si>
+  <si>
+    <t>span:contains(Showrooms)</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'Showrooms')]</t>
+  </si>
+  <si>
+    <t>//div[@data-xc='DesktopTopNav']/ul[contains(@class, 'flex-row')][1]/li[contains(@class, 'items-center')][2]//span</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(), 'Living Room')])[1]</t>
+  </si>
+  <si>
+    <t>//button[contains(@class, 'group')][5]/span[contains(@class, 'leading-')]</t>
+  </si>
+  <si>
+    <t>button[class*='group']:nth-of-type(5) &gt; span[class*='leading-']</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']&gt;div[class*='form-group'] div[class*='white-back']&gt;div[class*='col-xs-']</t>
+  </si>
+  <si>
+    <t>div[class='copyRightsText'] &gt; p</t>
+  </si>
+  <si>
+    <t>div[class='border-all ng-star-inserted'] div[class='sliderDiv ng-star-inserted']:nth-of-type(2) span[class*='ui-slider-range']</t>
+  </si>
+  <si>
+    <t>//div[@class='border-all ng-star-inserted']//div[@class='sliderDiv ng-star-inserted'][1]//span[contains(@class, 'ui-slider-range')]</t>
+  </si>
+  <si>
+    <t>div[class='border-all ng-star-inserted'] div[class='sliderDiv ng-star-inserted'] span[class*='ui-slider-range']</t>
+  </si>
+  <si>
+    <t>//div[@class='border-all ng-star-inserted']//div[@class='sliderDiv ng-star-inserted']//span[contains(@class, 'ui-slider-range')]</t>
+  </si>
+  <si>
+    <t>form[class='ng-pristine ng-valid ng-touched'] i[class='fa fa-map-marker']</t>
+  </si>
+  <si>
+    <t>//form[@class='ng-pristine ng-valid ng-touched']//i[@class='fa fa-map-marker']</t>
+  </si>
+  <si>
+    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-']:nth-of-type(4) div[class*='ui-dropdown-label-co']</t>
+  </si>
+  <si>
+    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-'] div[class*='ui-dropdown-label-co']</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']:nth-of-type(1)&gt;div[class*='form-group']:nth-of-type(1) span[class='pull-left hidden-xs']</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']&gt;div[class*='form-group'] span[class='pull-left hidden-xs']</t>
+  </si>
+  <si>
     <t>div[class='ng-star-inserted']:nth-of-type(1) div[class*='form-group'] span[class*='col-xs-'] span</t>
   </si>
   <si>
-    <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//span[@class='pull-left hidden-xs']</t>
-  </si>
-  <si>
-    <t>div[class='ng-star-inserted'] div[class*='form-group'] span[class='pull-left hidden-xs']</t>
-  </si>
-  <si>
-    <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//span[@class='pull-left hidden-xs']</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_13</t>
-  </si>
-  <si>
-    <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//span[contains(@class, 'col-xs-')]/span</t>
-  </si>
-  <si>
-    <t>div[class='ng-star-inserted'] div[class*='form-group'] span[class*='col-xs-'] span</t>
-  </si>
-  <si>
-    <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//span[contains(@class, 'col-xs-')]/span</t>
-  </si>
-  <si>
-    <t>span:contains(03:10)</t>
-  </si>
-  <si>
-    <t>(//span[contains(text(), '03:10')])[1]</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_14</t>
-  </si>
-  <si>
-    <t>div[class='ng-star-inserted']:nth-of-type(1) button[class='btnDefault disable-book train_Search ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//button[@class='btnDefault disable-book train_Search ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>div[class='ng-star-inserted'] button[class='btnDefault disable-book train_Search ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//button[@class='btnDefault disable-book train_Search ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>button:contains(Book Now)</t>
-  </si>
-  <si>
-    <t>(//button[contains(text(), 'Book Now')])[1]</t>
-  </si>
-  <si>
-    <t>Right CLick</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_15</t>
-  </si>
-  <si>
-    <t>div[class='ng-star-inserted']:nth-of-type(6) table td[class='ng-star-inserted']:nth-of-type(1) div[class*='col-xs-']</t>
-  </si>
-  <si>
-    <t>div[class='ng-star-inserted'] table td[class='ng-star-inserted'] div[class*='col-xs-']</t>
-  </si>
-  <si>
-    <t>//div[@class='ng-star-inserted']//table//td[@class='ng-star-inserted']//div[contains(@class, 'col-xs-')]</t>
-  </si>
-  <si>
-    <t>div:contains(Refresh)</t>
-  </si>
-  <si>
-    <t>(//div[contains(text(), 'Refresh')])[1]</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_16</t>
-  </si>
-  <si>
-    <t>div[class='border-all ng-star-inserted'] div[class='sliderDiv ng-star-inserted']:nth-of-type(2)</t>
-  </si>
-  <si>
-    <t>//div[@class='border-all ng-star-inserted']//div[@class='sliderDiv ng-star-inserted'][1]</t>
-  </si>
-  <si>
-    <t>div[class='border-all ng-star-inserted'] div[class='sliderDiv ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>//div[@class='border-all ng-star-inserted']//div[@class='sliderDiv ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_17</t>
-  </si>
-  <si>
-    <t>p-slider[class='ng-untouched ng-valid ng-dirty'] span[class*='ui-slider-range']</t>
-  </si>
-  <si>
-    <t>//p-slider[@class='ng-untouched ng-valid ng-dirty']//span[contains(@class, 'ui-slider-range')]</t>
-  </si>
-  <si>
-    <t>For first left  click only after refresing the site</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_18</t>
-  </si>
-  <si>
-    <t>div[class='border-all ng-star-inserted'] p-panel[class*='ng-tns-c'] table[class*='ng-tns-c'] span[class='t-t-O']</t>
-  </si>
-  <si>
-    <t>//div[@class='border-all ng-star-inserted']//p-panel[contains(@class, 'ng-tns-c')][2]//table[contains(@class, 'ng-tns-c')]//span[@class='t-t-O']</t>
-  </si>
-  <si>
-    <t>//div[@class='border-all ng-star-inserted']//p-panel[contains(@class, 'ng-tns-c')]//table[contains(@class, 'ng-tns-c')]//span[@class='t-t-O']</t>
-  </si>
-  <si>
-    <t>span:contains(OTHER)</t>
-  </si>
-  <si>
-    <t>(//span[contains(text(), 'OTHER')])[1]</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_19</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-']:nth-of-type(3) button[class='btn_Tab']:nth-of-type(1) span[class='footer_headings']</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-'] button[class='btn_Tab'] span[class='footer_headings']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-lg-')]//button[@class='btn_Tab']/span[@class='footer_headings']</t>
-  </si>
-  <si>
-    <t>span:contains(IRCTC eWallet)</t>
-  </si>
-  <si>
-    <t>(//span[contains(text(), 'IRCTC eWallet')])[7]</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_20</t>
-  </si>
-  <si>
-    <t>Right-click to locate dynamic behavior</t>
-  </si>
-  <si>
-    <t>first click</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_21</t>
-  </si>
-  <si>
-    <t>span[class='fa fa-angle-up ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>Right Click</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_22</t>
-  </si>
-  <si>
-    <t>div[class*='row']:nth-of-type(1)&gt;span&gt;strong</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'row')][1]/span/strong</t>
-  </si>
-  <si>
-    <t>div[class*='row']&gt;span&gt;strong</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'row')]/span/strong</t>
-  </si>
-  <si>
-    <t>strong:contains(22-Nov-2023 [10:42:14])</t>
-  </si>
-  <si>
-    <t>//strong[contains(text(), '22-Nov-2023 [10:42:14]')]</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_23</t>
-  </si>
-  <si>
-    <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//div[contains(@class, 'white-back')]/div[contains(@class, 'col-xs-')][1]</t>
-  </si>
-  <si>
-    <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//div[contains(@class, 'white-back')]/div[contains(@class, 'col-xs-')]</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_01</t>
-  </si>
-  <si>
-    <t>https://indore.nic.in/en/</t>
-  </si>
-  <si>
-    <t>//ul[@id='menu-header-en']/li[@aria-haspopup='true'][1]/a</t>
-  </si>
-  <si>
-    <t>//ul[@id='menu-header-en']/li[@aria-haspopup='true']/a</t>
-  </si>
-  <si>
-    <t>a:contains(About District)</t>
-  </si>
-  <si>
-    <t>(//a[contains(text(), 'About District')])[1]</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_02</t>
-  </si>
-  <si>
-    <t>a:contains(Website Policies)</t>
-  </si>
-  <si>
-    <t>//a[contains(text(), 'Website Policies')]</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_03</t>
-  </si>
-  <si>
-    <t>//a[@title='Election Commission Of India']/div[@class='list-text']</t>
-  </si>
-  <si>
-    <t>div:contains(Election Commission Of India)</t>
-  </si>
-  <si>
-    <t>//div[contains(text(), 'Election Commission Of India')]</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_04</t>
-  </si>
-  <si>
-    <t>//div[@class='copyRightsText']/p[2]</t>
-  </si>
-  <si>
-    <t>//div[@class='copyRightsText']/p</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_05</t>
-  </si>
-  <si>
-    <t>https://indore.nic.in/en/agriculture/</t>
-  </si>
-  <si>
-    <t>//tr[1]/td[@data-th='OFFICER']</t>
-  </si>
-  <si>
-    <t>//tr/td[@data-th='OFFICER']</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_06</t>
-  </si>
-  <si>
-    <t>https://indore.nic.in/en/services/</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_07</t>
-  </si>
-  <si>
-    <t>https://indore.nic.in/en/document-category/master-plan-20-21/</t>
-  </si>
-  <si>
-    <t>span:contains(Master Plan 20-21- Studies and Analysis Part – 3)</t>
-  </si>
-  <si>
-    <t>//span[contains(text(), 'Master Plan 20-21- Studies and Analysis Part – 3')]</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_08</t>
-  </si>
-  <si>
-    <t>https://indore.nic.in/en/std-pin-codes/</t>
-  </si>
-  <si>
-    <t>table[class*='table']:nth-of-type(1) th[scope='col']:nth-of-type(1)</t>
-  </si>
-  <si>
-    <t>//div[contains(@id, 'post-')]/table[contains(@class, 'table')][1]//th[@scope='col'][1]</t>
-  </si>
-  <si>
-    <t>table[class*='table'] th[scope='col']</t>
-  </si>
-  <si>
-    <t>//div[contains(@id, 'post-')]/table[contains(@class, 'table')]//th[@scope='col']</t>
-  </si>
-  <si>
-    <t>th:contains(Name)</t>
-  </si>
-  <si>
-    <t>//th[contains(text(), 'Name')]</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_09</t>
-  </si>
-  <si>
-    <t>h1</t>
-  </si>
-  <si>
-    <t>//h1</t>
-  </si>
-  <si>
-    <t>h1:contains(STD &amp; PIN Codes)</t>
-  </si>
-  <si>
-    <t>//h1[contains(text(), 'STD &amp; PIN Codes')]</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_10</t>
-  </si>
-  <si>
-    <t>//div[contains(@id, 'post-')]/p[2]</t>
-  </si>
-  <si>
-    <t>//div[contains(@id, 'post-')]/p</t>
-  </si>
-  <si>
-    <t>p:contains(POST OFFICE-Head Office: Indore G.P.O.Madhya Pradesh)</t>
-  </si>
-  <si>
-    <t>//p[contains(text(), 'POST OFFICE-Head Office: Indore G.P.O.Madhya Pradesh')]</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_11</t>
-  </si>
-  <si>
-    <t>table[class*='table']:nth-of-type(2) th[scope='col']:nth-of-type(1)</t>
-  </si>
-  <si>
-    <t>//div[contains(@id, 'post-')]/table[contains(@class, 'table')][2]//th[@scope='col'][1]</t>
-  </si>
-  <si>
-    <t>th:contains(POST OFFICE)</t>
-  </si>
-  <si>
-    <t>//th[contains(text(), 'POST OFFICE')]</t>
-  </si>
-  <si>
-    <t>YONO_SBI_01</t>
-  </si>
-  <si>
-    <t>https://yonobusiness.sbi/</t>
-  </si>
-  <si>
-    <t>//a[@rel='external']/img</t>
-  </si>
-  <si>
-    <t>YONO_SBI_02</t>
-  </si>
-  <si>
-    <t>div[class*='mt-md-']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'mt-md-')]</t>
-  </si>
-  <si>
-    <t>div:contains(An integrated banking solution which can be accessed across devices,)</t>
-  </si>
-  <si>
-    <t>//div[contains(text(), 'An integrated banking solution which can be accessed across devices,')]</t>
-  </si>
-  <si>
-    <t>YONO_SBI_03</t>
-  </si>
-  <si>
-    <t>a[class='btn yn-btn btn-yono-homepage login-btn']</t>
-  </si>
-  <si>
-    <t>//a[@class='btn yn-btn btn-yono-homepage login-btn']</t>
-  </si>
-  <si>
-    <t>a:contains(Login)</t>
-  </si>
-  <si>
-    <t>//a[contains(text(), 'Login')]</t>
-  </si>
-  <si>
-    <t>YONO_SBI_04</t>
-  </si>
-  <si>
-    <t>a[class*='btn']:nth-of-type(2)</t>
-  </si>
-  <si>
-    <t>//a[contains(@class, 'btn')][2]</t>
-  </si>
-  <si>
-    <t>a[class*='btn']</t>
-  </si>
-  <si>
-    <t>//a[contains(@class, 'btn')]</t>
-  </si>
-  <si>
-    <t>a:contains(REGISTER)</t>
-  </si>
-  <si>
-    <t>//a[contains(text(), 'REGISTER')]</t>
-  </si>
-  <si>
-    <t>YONO_SBI_05</t>
-  </si>
-  <si>
-    <t>https://yonobusiness.sbi/preonboard/landing/registration</t>
-  </si>
-  <si>
-    <t>div[class*='col-md-']:nth-of-type(1) img[class='onb-img']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-md-')][1]//img[@class='onb-img']</t>
-  </si>
-  <si>
-    <t>div[class*='col-md-'] img[class='onb-img']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-md-')]//img[@class='onb-img']</t>
-  </si>
-  <si>
-    <t>YONO_SBI_06</t>
-  </si>
-  <si>
-    <t>//li[1]/a[@routerlinkactive='active']</t>
-  </si>
-  <si>
-    <t>//li/a[@routerlinkactive='active']</t>
-  </si>
-  <si>
-    <t>a:contains(Privacy Statement)</t>
-  </si>
-  <si>
-    <t>//a[contains(text(), 'Privacy Statement')]</t>
-  </si>
-  <si>
-    <t>YONO_SBI_07</t>
-  </si>
-  <si>
-    <t>//div[@class='float-right hidden-xs']/p</t>
-  </si>
-  <si>
-    <t>p:contains(Site best viewed at (1366 * 768)+ resolution in Microsoft Edge 79+, Mozilla 96+, Google Chrome 97+)</t>
-  </si>
-  <si>
-    <t>//p[contains(text(), 'Site best viewed at (1366 * 768)+ resolution in Microsoft Edge 79+, Mozilla 96+, Google Chrome 97+')]</t>
-  </si>
-  <si>
-    <t>YONO_SBI_08</t>
-  </si>
-  <si>
-    <t>https://newcmp.sbi/Emandates/#!/</t>
-  </si>
-  <si>
-    <t>a[class='create-mandate create-emandate']</t>
-  </si>
-  <si>
-    <t>//a[@class='create-mandate create-emandate']</t>
-  </si>
-  <si>
-    <t>YONO_SBI_09</t>
-  </si>
-  <si>
-    <t>https://newcmp.sbi/Emandates/#!/createEmandate</t>
-  </si>
-  <si>
-    <t>JOY_BIRD_01</t>
-  </si>
-  <si>
-    <t>https://consumer.dev.nest.joybird.com/</t>
-  </si>
-  <si>
-    <t>svg[title='Search']</t>
-  </si>
-  <si>
-    <t>JOY_BIRD_02</t>
-  </si>
-  <si>
-    <t>JOY_BIRD_03</t>
-  </si>
-  <si>
-    <t>svg[class*='relative']</t>
-  </si>
-  <si>
-    <t>//*[name()='svg'][contains(@class, 'relative')]</t>
-  </si>
-  <si>
-    <t>JOY_BIRD_04</t>
-  </si>
-  <si>
-    <t>//div[@data-xc='DesktopTopNav']/ul[contains(@class, 'flex-row')]/li[contains(@class, 'items-center')]//span</t>
-  </si>
-  <si>
-    <t>JOY_BIRD_05</t>
-  </si>
-  <si>
-    <t>ABHI_VYAKTI_01</t>
-  </si>
-  <si>
-    <t>https://www.abhivyaktigarbamahotsav.com/</t>
-  </si>
-  <si>
-    <t>div[class*='col-md-']:nth-of-type(3) div[class='video_icon'] img</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-md-')][2]//div[@class='video_icon']//img</t>
-  </si>
-  <si>
-    <t>div[class*='col-md-'] div[class='video_icon'] img</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-md-')]//div[@class='video_icon']//img</t>
-  </si>
-  <si>
-    <t>ABHI_VYAKTI_02</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-']:nth-of-type(1) div[class='box-border']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-lg-')][1]/div[@class='box-border']</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-'] div[class='box-border']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-lg-')]/div[@class='box-border']</t>
-  </si>
-  <si>
-    <t>ABHI_VYAKTI_03</t>
-  </si>
-  <si>
-    <t>div[class*='col-md-']:nth-of-type(4)&gt;a:nth-of-type(1)</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-md-')][4]/a[1]</t>
-  </si>
-  <si>
-    <t>div[class*='col-md-']&gt;a</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-md-')]/a</t>
-  </si>
-  <si>
-    <t>a:contains(Privacy Policy)</t>
-  </si>
-  <si>
-    <t>//a[contains(text(), 'Privacy Policy')]</t>
-  </si>
-  <si>
-    <t>ABHI_VYAKTI_04</t>
-  </si>
-  <si>
-    <t>div[id='workshops']:nth-of-type(5) p</t>
-  </si>
-  <si>
-    <t>//div[@id='workshops'][1]//p</t>
-  </si>
-  <si>
-    <t>div[id='workshops'] p</t>
-  </si>
-  <si>
-    <t>//div[@id='workshops']//p</t>
-  </si>
-  <si>
-    <t>p:contains(Navratri celebrations all across India, especially in the states of Gujarat are a sight to behold. Through Abhivyakti Garba Mahotsav, Garba festival has gone global covering states of Madhya Pradesh and Rajasthan. Bhopal, Indore and Jaipur are the cities that gets coloured with the vibrant shades of Garba.)</t>
-  </si>
-  <si>
-    <t>//p[contains(text(), 'Navratri celebrations all across India, especially in the states of Gujarat are a sight to behold. Through Abhivyakti Garba Mahotsav, Garba festival has gone global covering states of Madhya Pradesh and Rajasthan. Bhopal, Indore and Jaipur are the cities that gets coloured with the vibrant shades of Garba.')]</t>
-  </si>
-  <si>
-    <t>APOLLO_HOSPITAL_01</t>
-  </si>
-  <si>
-    <t>https://www.apollohospitals.com/indoreapolloconsultleads/?utm_source=paid&amp;utm_medium=cpc&amp;utm_campaign=12302623805&amp;utm_adgroup=120477017191&amp;utm_match_type=b&amp;network=g&amp;ad=547283151982&amp;utm_device=c&amp;utm_term=apollo%20hospital&amp;utm_gclid=CjwKCAjwyNSoBhA9EiwA5aYlb9cudAr0osMrZ-YS7dv5fzoecLoWsyfIRLQ5KgISpscMec5SGd28fxoC4n8QAvD_BwE&amp;gad=1&amp;gclid=CjwKCAjwyNSoBhA9EiwA5aYlb9cudAr0osMrZ-YS7dv5fzoecLoWsyfIRLQ5KgISpscMec5SGd28fxoC4n8QAvD_BwE#SanitationMethods</t>
-  </si>
-  <si>
-    <t>div[class*='col-sm-']:nth-of-type(1) div[class='covid-safe-wrap'] h5[class='acr-txt']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-sm-')][1]/div[@class='covid-safe-wrap']//h5[@class='acr-txt']</t>
-  </si>
-  <si>
-    <t>div[class*='col-sm-'] div[class='covid-safe-wrap'] h5[class='acr-txt']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-sm-')]/div[@class='covid-safe-wrap']//h5[@class='acr-txt']</t>
-  </si>
-  <si>
-    <t>h5:contains(Extra Sanitation Methods)</t>
-  </si>
-  <si>
-    <t>//h5[contains(text(), 'Extra Sanitation Methods')]</t>
-  </si>
-  <si>
-    <t>left Click</t>
-  </si>
-  <si>
-    <t>APOLLO_HOSPITAL_02</t>
-  </si>
-  <si>
-    <t>section[id='Cardiology'] h2</t>
-  </si>
-  <si>
-    <t>//section[@id='Cardiology']//h2</t>
-  </si>
-  <si>
-    <t>h2:contains(Cardiology)</t>
-  </si>
-  <si>
-    <t>//h2[contains(text(), 'Cardiology')]</t>
-  </si>
-  <si>
-    <t>EPFO_01</t>
-  </si>
-  <si>
-    <t>https://www.epfindia.gov.in/site_en/EODB.php</t>
-  </si>
-  <si>
-    <t>span[class='nor_letter']:nth-of-type(2)</t>
-  </si>
-  <si>
-    <t>//span[@class='nor_letter'][1]</t>
-  </si>
-  <si>
-    <t>span[class='nor_letter']</t>
-  </si>
-  <si>
-    <t>//span[@class='nor_letter']</t>
-  </si>
-  <si>
-    <t>span:contains(ase)</t>
-  </si>
-  <si>
-    <t>//span[contains(text(), 'ase')]</t>
-  </si>
-  <si>
-    <t>EPFO_02</t>
-  </si>
-  <si>
-    <t>div[id='footer_link'] a:nth-of-type(1)</t>
-  </si>
-  <si>
-    <t>//div[@id='footer_link']/a[1]</t>
-  </si>
-  <si>
-    <t>div[id='footer_link'] a</t>
-  </si>
-  <si>
-    <t>//div[@id='footer_link']/a</t>
-  </si>
-  <si>
-    <t>a:contains(Home)</t>
-  </si>
-  <si>
-    <t>(//a[contains(text(), 'Home')])[2]</t>
-  </si>
-  <si>
-    <t>EPFO_03</t>
-  </si>
-  <si>
-    <t>https://www.epfindia.gov.in/site_en/International_workers.php</t>
-  </si>
-  <si>
-    <t>div[class='iternl_wrkr'] span[class='nor_letter']:nth-of-type(2)</t>
-  </si>
-  <si>
-    <t>//div[@class='iternl_wrkr']/span[@class='nor_letter'][1]</t>
-  </si>
-  <si>
-    <t>div[class='iternl_wrkr'] span[class='nor_letter']</t>
-  </si>
-  <si>
-    <t>//div[@class='iternl_wrkr']/span[@class='nor_letter']</t>
-  </si>
-  <si>
-    <t>span:contains(PERATING)</t>
-  </si>
-  <si>
-    <t>//span[contains(text(), 'PERATING')]</t>
-  </si>
-  <si>
-    <t>EPFO_04</t>
-  </si>
-  <si>
-    <t>span[id='copyrt']</t>
-  </si>
-  <si>
-    <t>//span[@id='copyrt']</t>
-  </si>
-  <si>
-    <t>JEEVAN_PRAMAAN_01</t>
-  </si>
-  <si>
-    <t>https://jeevanpramaan.gov.in/locator</t>
-  </si>
-  <si>
-    <t>img[alt='Logo']</t>
-  </si>
-  <si>
-    <t>//img[@alt='Logo']</t>
-  </si>
-  <si>
-    <t>JEEVAN_PRAMAAN_02</t>
-  </si>
-  <si>
-    <t>https://jeevanpramaan.gov.in/</t>
-  </si>
-  <si>
-    <t>li[class='year'] i[class='fa fa-pencil']</t>
-  </si>
-  <si>
-    <t>//li[@class='year'][1]/i[@class='fa fa-pencil']</t>
-  </si>
-  <si>
-    <t>//li[@class='year']/i[@class='fa fa-pencil']</t>
-  </si>
-  <si>
-    <t>JEEVAN_PRAMAAN_03</t>
-  </si>
-  <si>
-    <t>ul[class='nav main-nav'] li:nth-of-type(4) a[class='scroll']</t>
-  </si>
-  <si>
-    <t>//ul[@class='nav main-nav']/li[4]/a[@class='scroll']</t>
-  </si>
-  <si>
-    <t>ul[class='nav main-nav'] li a[class='scroll']</t>
-  </si>
-  <si>
-    <t>//ul[@class='nav main-nav']/li/a[@class='scroll']</t>
-  </si>
-  <si>
-    <t>a:contains(Locate a Centre)</t>
-  </si>
-  <si>
-    <t>(//a[contains(text(), 'Locate a Centre')])[1]</t>
-  </si>
-  <si>
-    <t>JEEVAN_PRAMAAN_04</t>
-  </si>
-  <si>
-    <t>p[class='footer-text copyright']:nth-of-type(1) a:nth-of-type(1)</t>
-  </si>
-  <si>
-    <t>//p[@class='footer-text copyright'][1]/a[1]</t>
-  </si>
-  <si>
-    <t>p[class='footer-text copyright'] a</t>
-  </si>
-  <si>
-    <t>//p[@class='footer-text copyright']/a</t>
-  </si>
-  <si>
-    <t>a:contains(Help)</t>
-  </si>
-  <si>
-    <t>//a[contains(text(), 'Help')]</t>
-  </si>
-  <si>
-    <t>JEEVAN_PRAMAAN_05</t>
-  </si>
-  <si>
-    <t>p[class='footer-text copyright']:nth-of-type(4)</t>
-  </si>
-  <si>
-    <t>//p[@class='footer-text copyright'][4]</t>
-  </si>
-  <si>
-    <t>p[class='footer-text copyright']</t>
-  </si>
-  <si>
-    <t>//p[@class='footer-text copyright']</t>
-  </si>
-  <si>
-    <t>p:contains(Last reviewed and updated on 31st Oct, 2023)</t>
-  </si>
-  <si>
-    <t>//p[contains(text(), 'Last reviewed and updated on 31st Oct, 2023')]</t>
-  </si>
-  <si>
-    <t>UITRGPV_AC_01</t>
-  </si>
-  <si>
-    <t>https://www.uitrgpv.ac.in/</t>
-  </si>
-  <si>
-    <t>button[class='btn-close']</t>
-  </si>
-  <si>
-    <t>UITRGPV_AC_02</t>
-  </si>
-  <si>
-    <t>div[class*='owl-item']:nth-of-type(13) div[class='courses_div'] img[class='img-fluid']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'owl-item')][13]//div[@class='courses_div']//img[@class='img-fluid']</t>
-  </si>
-  <si>
-    <t>div[class*='owl-item'] div[class='courses_div'] img[class='img-fluid']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'owl-item')]//div[@class='courses_div']//img[@class='img-fluid']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">civil engineering </t>
-  </si>
-  <si>
-    <t>UITRGPV_AC_03</t>
-  </si>
-  <si>
-    <t>div[class*='owl-item']:nth-of-type(2) img[class*='w-']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'owl-item cloned')][2]//img[contains(@class, 'w-')]</t>
-  </si>
-  <si>
-    <t>div[class*='owl-item'] img[class*='w-']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'owl-item cloned')]//img[contains(@class, 'w-')]</t>
-  </si>
-  <si>
-    <t>UITRGPV_AC_04</t>
-  </si>
-  <si>
-    <t>div[class*='col-md-']:nth-of-type(1)&gt;div[class='ctg_content']&gt;div[class='box_name']:nth-of-type(1)&gt;h4</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-md-')][1]/div[@class='ctg_content']//h4</t>
-  </si>
-  <si>
-    <t>div[class*='col-md-']&gt;div[class='ctg_content']&gt;div[class='box_name']&gt;h4</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-md-')]/div[@class='ctg_content']//h4</t>
-  </si>
-  <si>
-    <t>h4:contains(Miscellaneous)</t>
-  </si>
-  <si>
-    <t>//h4[contains(text(), 'Miscellaneous')]</t>
-  </si>
-  <si>
-    <t>UITRGPV_AC_05</t>
-  </si>
-  <si>
-    <t>a[class='overlay-link play-now ripple']</t>
-  </si>
-  <si>
-    <t>//a[@class='overlay-link play-now ripple']</t>
-  </si>
-  <si>
-    <t>UITRGPV_AC_06</t>
-  </si>
-  <si>
-    <t>div[class*='owl-item']:nth-of-type(10) div[class='facility_box']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'owl-item')][10]//div[@class='facility_box']</t>
-  </si>
-  <si>
-    <t>div[class*='owl-item'] div[class='facility_box']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'owl-item')]//div[@class='facility_box']</t>
-  </si>
-  <si>
-    <t>class room</t>
-  </si>
-  <si>
-    <t>UITRGPV_AC_07</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-']:nth-of-type(2) ul[class='list-item'] li:nth-of-type(1) a</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-lg-')][2]//ul[@class='list-item']/li[1]/a</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-'] ul[class='list-item'] li a</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-lg-')]//ul[@class='list-item']/li/a</t>
-  </si>
-  <si>
-    <t>a:contains(Photo Gallery)</t>
-  </si>
-  <si>
-    <t>//a[contains(text(), 'Photo Gallery')]</t>
-  </si>
-  <si>
-    <t>UITRGPV_AC_08</t>
-  </si>
-  <si>
-    <t>tr[class='SelectedItem']:nth-of-type(3) a[id*='UCTabs']</t>
-  </si>
-  <si>
-    <t>//ul[@class='list-item']//table[contains(@id, 'UCTabs')]//tr[@class='SelectedItem']//a[contains(@id, 'UCTabs')]</t>
-  </si>
-  <si>
-    <t>tr[class='SelectedItem'] a[id*='UCTabs']</t>
-  </si>
-  <si>
-    <t>a:contains(Proctorial Order September 2023)</t>
-  </si>
-  <si>
-    <t>(//a[contains(text(), 'Proctorial Order September 2023')])[2]</t>
-  </si>
-  <si>
-    <t>Demo_QA_01</t>
-  </si>
-  <si>
-    <t>https://demoqa.com/radio-button</t>
-  </si>
-  <si>
-    <t>div[class='element-list collapse show'] ul[class='menu-list'] li[class='btn btn-light ']:nth-of-type(1) span[class='text']</t>
-  </si>
-  <si>
-    <t>//div[@class='element-list collapse show']/ul[@class='menu-list']/li[@class='btn btn-light '][1]/span[@class='text']</t>
-  </si>
-  <si>
-    <t>div[class='element-list collapse show'] ul[class='menu-list'] li[class='btn btn-light '] span[class='text']</t>
-  </si>
-  <si>
-    <t>//div[@class='element-list collapse show']/ul[@class='menu-list']/li[@class='btn btn-light ']/span[@class='text']</t>
-  </si>
-  <si>
-    <t>span:contains(Text Box)</t>
-  </si>
-  <si>
-    <t>//span[contains(text(), 'Text Box')]</t>
-  </si>
-  <si>
-    <t>Demo_QA_02</t>
-  </si>
-  <si>
-    <t>https://demoqa.com/</t>
-  </si>
-  <si>
-    <t>div[class*='card']:nth-of-type(3) div h5</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'card')][3]//h5</t>
-  </si>
-  <si>
-    <t>div[class*='card'] div h5</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'card')]//h5</t>
-  </si>
-  <si>
-    <t>h5:contains(Alerts, Frame &amp; Windows)</t>
-  </si>
-  <si>
-    <t>//h5[contains(text(), 'Alerts, Frame &amp; Windows')]</t>
-  </si>
-  <si>
-    <t>Demo_QA_03</t>
-  </si>
-  <si>
-    <t>div[class*='mb-']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'mb-')]</t>
-  </si>
-  <si>
-    <t>div:contains(Do you like the site?)</t>
-  </si>
-  <si>
-    <t>//div[contains(text(), 'Do you like the site?')]</t>
-  </si>
-  <si>
-    <t>Freshers_Jobs_01</t>
-  </si>
-  <si>
-    <t>https://www.indgovtjobs.in/2015/01/fresher-jobs.html</t>
-  </si>
-  <si>
-    <t>div[class='post-body entry-content'] table:nth-of-type(1) td[valign='top']:nth-of-type(1) b</t>
-  </si>
-  <si>
-    <t>//div[@class='post-body entry-content']/table[1]//td[@valign='top'][1]//b</t>
-  </si>
-  <si>
-    <t>div[class='post-body entry-content'] table td[valign='top'] b</t>
-  </si>
-  <si>
-    <t>//div[@class='post-body entry-content']/table//td[@valign='top']//b</t>
-  </si>
-  <si>
-    <t>b:contains(Job Name - Total Vacancies)</t>
-  </si>
-  <si>
-    <t>//b[contains(text(), 'Job Name - Total Vacancies')]</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>div[class='ng-star-inserted']:nth-of-type(1)&gt;div[class*='form-group']:nth-of-type(1) div[class*='white-back']:nth-of-type(3)&gt;div[class*='col-xs-']:nth-of-type(1)</t>
-  </si>
-  <si>
-    <t>div[class='copyRightsText'] &gt; p:nth-of-type(2)</t>
-  </si>
-  <si>
-    <t>tr:nth-of-type(1) &gt; td[data-th='OFFICER']</t>
-  </si>
-  <si>
-    <t>tr &gt; td[data-th='OFFICER']</t>
-  </si>
-  <si>
-    <t>tr:nth-of-type(1) &gt; td[data-th*='Title'] &gt; span[class='bt-content']</t>
-  </si>
-  <si>
-    <t>//tr[1]/td[contains(@data-th, 'Title')]/span[@class='bt-content']</t>
-  </si>
-  <si>
-    <t>tr &gt; td[data-th*='Title'] &gt; span[class='bt-content']</t>
-  </si>
-  <si>
-    <t>//tr/td[contains(@data-th, 'Title')]/span[@class='bt-content']</t>
-  </si>
-  <si>
-    <t>div[id*='post-'] &gt; p:nth-of-type(2)</t>
-  </si>
-  <si>
-    <t>div[id*='post-'] &gt; p</t>
-  </si>
-  <si>
-    <t>a[rel='external'] &gt; img</t>
-  </si>
-  <si>
-    <t>div[class='float-right hidden-xs'] &gt; p</t>
-  </si>
-  <si>
-    <t>JOY_BIRD_06</t>
-  </si>
-  <si>
-    <t>https://joybird.com/</t>
-  </si>
-  <si>
-    <t>iframe[scrolling='no']</t>
-  </si>
-  <si>
-    <t>//iframe[@scrolling='no']</t>
-  </si>
-  <si>
-    <t>Shubham</t>
-  </si>
-  <si>
-    <t>UITRGPV_AC_09</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-']:nth-of-type(1) div[class='footer_col'] ul[class='list-item']&gt;i[class='la la-angle-right']:nth-of-type(1)</t>
-  </si>
-  <si>
-    <t>//footer//div[contains(@class, 'col-lg-')][1]//ul[@class='list-item']/i[@class='la la-angle-right'][1]</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-'] div[class='footer_col'] ul[class='list-item']&gt;i[class='la la-angle-right']</t>
-  </si>
-  <si>
-    <t>//footer//div[contains(@class, 'col-lg-')]//ul[@class='list-item']/i[@class='la la-angle-right']</t>
-  </si>
-  <si>
-    <t>kapil</t>
-  </si>
-  <si>
-    <t>Demo_QA_04</t>
-  </si>
-  <si>
-    <t>https://demoqa.com/select-menu</t>
-  </si>
-  <si>
-    <t>div[class='row']:nth-of-type(7)&gt;div[class*='col-md-']&gt;div[class*='css-']&gt;div[class*='css-']:nth-of-type(1)&gt;div[class*='css-']:nth-of-type(1)</t>
-  </si>
-  <si>
-    <t>//div[@class='row'][2]/div[contains(@class, 'col-md-')]/div[contains(@class, 'css-')]/div[contains(@class, 'css-')][1]/div[contains(@class, 'css-')][1]</t>
-  </si>
-  <si>
-    <t>div[class='row']&gt;div[class*='col-md-']&gt;div[class*='css-']&gt;div[class*='css-']&gt;div[class*='css-']</t>
-  </si>
-  <si>
-    <t>//div[@class='row']/div[contains(@class, 'col-md-')]/div[contains(@class, 'css-')]/div[contains(@class, 'css-')]/div[contains(@class, 'css-')]</t>
-  </si>
-  <si>
-    <t>div:contains(Select...)</t>
-  </si>
-  <si>
-    <t>//div[contains(text(), 'Select...')]</t>
-  </si>
-  <si>
-    <t>Demo_QA_05</t>
-  </si>
-  <si>
-    <t>https://demoqa.com/menu#</t>
-  </si>
-  <si>
-    <t>ul[id='nav']&gt;li:nth-of-type(1)&gt;a</t>
-  </si>
-  <si>
-    <t>//ul[@id='nav']/li[1]/a</t>
-  </si>
-  <si>
-    <t>ul[id='nav']&gt;li&gt;a</t>
-  </si>
-  <si>
-    <t>//ul[@id='nav']/li/a</t>
-  </si>
-  <si>
-    <t>a:contains(Main Item 1)</t>
-  </si>
-  <si>
-    <t>//a[contains(text(), 'Main Item 1')]</t>
-  </si>
-  <si>
-    <t>Freshers_Jobs_02</t>
-  </si>
-  <si>
-    <t>h4 font[color*='ff'] font</t>
-  </si>
-  <si>
-    <t>//h4[6]/font[contains(@color, 'ff')]/font</t>
-  </si>
-  <si>
-    <t>//h4/font[contains(@color, 'ff')]/font</t>
-  </si>
-  <si>
-    <t>font:contains(Fresher Jobs – FAQs:)</t>
-  </si>
-  <si>
-    <t>//font[contains(text(), 'Fresher Jobs – FAQs:')]</t>
-  </si>
-  <si>
-    <t>Freshers_Jobs_03</t>
-  </si>
-  <si>
-    <t>div[id*='footer']:nth-of-type(1)&gt;div[class='footer-column section']&gt;div[id*='HTML']&gt;div[class='widget-content']</t>
-  </si>
-  <si>
-    <t>//div[@id='footer-column-container']/div[contains(@id, 'footer')][1]//ul/li[1]</t>
-  </si>
-  <si>
-    <t>div[id*='footer']&gt;div[class='footer-column section']&gt;div[id*='HTML']&gt;div[class='widget-content']</t>
-  </si>
-  <si>
-    <t>//div[@id='footer-column-container']/div[contains(@id, 'footer')]//ul/li</t>
-  </si>
-  <si>
-    <t>Free_Jobs_Alert_01</t>
-  </si>
-  <si>
-    <t>https://www.freejobalert.com/government-jobs/</t>
-  </si>
-  <si>
-    <t>input[id*='gsc-i-id']</t>
-  </si>
-  <si>
-    <t>//input[contains(@id, 'gsc-i-id')]</t>
-  </si>
-  <si>
-    <t>Free_Jobs_Alert_02</t>
-  </si>
-  <si>
-    <t>div[class*='gb-grid-column']:nth-of-type(1) ul li:nth-of-type(1) a</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'gb-grid-column')][1]//ul/li[1]/a</t>
-  </si>
-  <si>
-    <t>div[class*='gb-grid-column'] ul li a</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'gb-grid-column')]//ul/li/a</t>
-  </si>
-  <si>
-    <t>a:contains(Latest Notifications)</t>
-  </si>
-  <si>
-    <t>(//a[contains(text(), 'Latest Notifications')])[2]</t>
-  </si>
-  <si>
-    <t>Linkedin_01</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/feed/</t>
-  </si>
-  <si>
-    <t>li[class*='global-nav']:nth-of-type(2) svg[class='mercado-match']</t>
-  </si>
-  <si>
-    <t>//li[contains(@class, 'global-nav')][2]//*[name()='svg'][@class='mercado-match']</t>
-  </si>
-  <si>
-    <t>li[class*='global-nav'] svg[class='mercado-match']</t>
-  </si>
-  <si>
-    <t>//li[contains(@class, 'global-nav')]//*[name()='svg'][@class='mercado-match']</t>
-  </si>
-  <si>
-    <t>Linkedin_02</t>
-  </si>
-  <si>
-    <t>div[class='share-box-feed-entry__top-bar'] &gt; button[class*='artdeco-button']</t>
-  </si>
-  <si>
-    <t>//div[@class='share-box-feed-entry__top-bar']/button[contains(@class, 'artdeco-button')]</t>
-  </si>
-  <si>
-    <t>Linkedin_03</t>
-  </si>
-  <si>
-    <t>div[class*='community-panel-inte']:nth-of-type(1) &gt; ul[class='community-panel-interest-package__section-expanded']&gt;li[class='community-panel-interest-package__entity-item truncate']:nth-of-type(1) span[class*='hashtag-a']:nth-of-type(2)</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'community-panel-inte')][1]/ul[@class='community-panel-interest-package__section-expanded']//li[@class='community-panel-interest-package__entity-item truncate'][1]//span[contains(@class, 'hashtag-a')]//span[contains(@class, 'hashtag-a')]</t>
-  </si>
-  <si>
-    <t>div[class*='community-panel-inte'] &gt; ul[class='community-panel-interest-package__section-expanded']&gt;li[class='community-panel-interest-package__entity-item truncate'] span[class*='hashtag-a']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'community-panel-inte')]/ul[@class='community-panel-interest-package__section-expanded']//li[@class='community-panel-interest-package__entity-item truncate']//span[contains(@class, 'hashtag-a')]//span[contains(@class, 'hashtag-a')]</t>
-  </si>
-  <si>
-    <t>span:contains(jobseekers)</t>
-  </si>
-  <si>
-    <t>(//span[contains(text(), 'jobseekers')])[1]</t>
-  </si>
-  <si>
-    <t>Linkedin_04</t>
-  </si>
-  <si>
-    <t>p[class*='identity-headline']</t>
-  </si>
-  <si>
-    <t>//p[contains(@class, 'identity-headline')]</t>
-  </si>
-  <si>
-    <t>ul[id='menu-footer-en']&gt;li[id*='menu-item-']:nth-of-type(1)&gt;a</t>
-  </si>
-  <si>
-    <t>//ul[@id='menu-footer-en']/li[contains(@id, 'menu-item-')][1]/a</t>
-  </si>
-  <si>
-    <t>ul[id='menu-footer-en']&gt;li[id*='menu-item-']&gt;a</t>
-  </si>
-  <si>
-    <t>//ul[@id='menu-footer-en']/li[contains(@id, 'menu-item-')]/a</t>
-  </si>
-  <si>
-    <t>li[aria-haspopup='true']:nth-of-type(2) &gt; a</t>
-  </si>
-  <si>
-    <t>li[aria-haspopup='true'] &gt; a</t>
-  </si>
-  <si>
-    <t>a[title='Election Commission Of India'] &gt; div[class='list-text']</t>
-  </si>
-  <si>
-    <t>a[title='New Tap Connection'] span[class*='icon-supply']</t>
-  </si>
-  <si>
-    <t>//a[@title='New Tap Connection']//span[contains(@class, 'icon-supply')]</t>
-  </si>
-  <si>
-    <t>input[id='captchaAnswer']</t>
-  </si>
-  <si>
-    <t>//input[@id='captchaAnswer']</t>
-  </si>
-  <si>
-    <t>li:nth-of-type(1) &gt; a[routerlinkactive='active']</t>
-  </si>
-  <si>
-    <t>li &gt; a[routerlinkactive='active']</t>
-  </si>
-  <si>
-    <t>//*[name()='svg'][@title='Search']</t>
-  </si>
-  <si>
-    <t>a[data-xc='living-room'] &gt; span[class*='items-center']</t>
-  </si>
-  <si>
-    <t>//a[@data-xc='living-room']/span[contains(@class, 'items-center')]</t>
-  </si>
-  <si>
-    <t>span:contains(Living Room)</t>
-  </si>
-  <si>
-    <t>ul[class*='flex-row']:nth-of-type(1)&gt;li[class*='items-center']:nth-of-type(2) span</t>
-  </si>
-  <si>
-    <t>ul[class*='flex-row']&gt;li[class*='items-center'] span</t>
-  </si>
-  <si>
-    <t>span:contains(Showrooms)</t>
-  </si>
-  <si>
-    <t>//span[contains(text(), 'Showrooms')]</t>
-  </si>
-  <si>
-    <t>//div[@data-xc='DesktopTopNav']/ul[contains(@class, 'flex-row')][1]/li[contains(@class, 'items-center')][2]//span</t>
-  </si>
-  <si>
-    <t>(//span[contains(text(), 'Living Room')])[1]</t>
-  </si>
-  <si>
-    <t>//button[contains(@class, 'group')][5]/span[contains(@class, 'leading-')]</t>
-  </si>
-  <si>
-    <t>button[class*='group']:nth-of-type(5) &gt; span[class*='leading-']</t>
-  </si>
-  <si>
-    <t>div[class='ng-star-inserted']&gt;div[class*='form-group'] div[class*='white-back']&gt;div[class*='col-xs-']</t>
-  </si>
-  <si>
-    <t>div[class='copyRightsText'] &gt; p</t>
+    <t>//div[@class='ng-star-inserted'][6]//table//td[@class='ng-star-inserted'][1]//div[contains(@class, 'col-xs-')]</t>
+  </si>
+  <si>
+    <t>p-dropdown[id='journeyQuota'] &gt; div[class*='ng-tns-c']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="10"/>
@@ -1895,15 +1895,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1985,22 +1985,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -2036,22 +2036,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -2093,10 +2093,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>24</v>
@@ -2132,28 +2132,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -2177,34 +2177,34 @@
     </row>
     <row r="6" spans="1:27" ht="39.6">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>15</v>
@@ -2228,37 +2228,37 @@
     </row>
     <row r="7" spans="1:27" ht="158.4">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -2277,36 +2277,36 @@
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
     </row>
-    <row r="8" spans="1:27" ht="105.6">
+    <row r="8" spans="1:27" ht="79.2">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>498</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>499</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>386</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2330,37 +2330,37 @@
     </row>
     <row r="9" spans="1:27" ht="158.4">
       <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -2381,37 +2381,37 @@
     </row>
     <row r="10" spans="1:27" ht="105.6">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -2432,37 +2432,37 @@
     </row>
     <row r="11" spans="1:27" ht="105.6">
       <c r="A11" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>399</v>
+        <v>57</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -2483,37 +2483,37 @@
     </row>
     <row r="12" spans="1:27" ht="39.6">
       <c r="A12" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -2534,37 +2534,37 @@
     </row>
     <row r="13" spans="1:27" ht="105.6">
       <c r="A13" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>71</v>
+        <v>502</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>73</v>
+        <v>503</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -2585,37 +2585,37 @@
     </row>
     <row r="14" spans="1:27" ht="118.8">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="K14" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -2636,37 +2636,37 @@
     </row>
     <row r="15" spans="1:27" ht="158.4">
       <c r="A15" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -2685,39 +2685,39 @@
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
     </row>
-    <row r="16" spans="1:27" ht="92.4">
+    <row r="16" spans="1:27" ht="105.6">
       <c r="A16" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>91</v>
+        <v>505</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -2736,39 +2736,39 @@
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
     </row>
-    <row r="17" spans="1:27" ht="92.4">
+    <row r="17" spans="1:27" ht="132">
       <c r="A17" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>96</v>
+        <v>494</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>97</v>
+        <v>495</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>98</v>
+        <v>496</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>99</v>
+        <v>497</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -2789,37 +2789,37 @@
     </row>
     <row r="18" spans="1:27" ht="105.6">
       <c r="A18" s="5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -2840,37 +2840,37 @@
     </row>
     <row r="19" spans="1:27" ht="145.19999999999999">
       <c r="A19" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -2891,37 +2891,37 @@
     </row>
     <row r="20" spans="1:27" ht="79.2">
       <c r="A20" s="5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -2942,37 +2942,37 @@
     </row>
     <row r="21" spans="1:27" ht="39.6">
       <c r="A21" s="5" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -2993,37 +2993,37 @@
     </row>
     <row r="22" spans="1:27" ht="39.6">
       <c r="A22" s="5" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -3044,37 +3044,37 @@
     </row>
     <row r="23" spans="1:27" ht="52.8">
       <c r="A23" s="5" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -3095,37 +3095,37 @@
     </row>
     <row r="24" spans="1:27" ht="145.19999999999999">
       <c r="A24" s="5" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -3146,37 +3146,37 @@
     </row>
     <row r="25" spans="1:27" ht="66">
       <c r="A25" s="5" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -3197,37 +3197,37 @@
     </row>
     <row r="26" spans="1:27" ht="66">
       <c r="A26" s="5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -3248,37 +3248,37 @@
     </row>
     <row r="27" spans="1:27" ht="66">
       <c r="A27" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -3299,37 +3299,37 @@
     </row>
     <row r="28" spans="1:27" ht="39.6">
       <c r="A28" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="E28" s="9" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
@@ -3350,37 +3350,37 @@
     </row>
     <row r="29" spans="1:27" ht="26.4">
       <c r="A29" s="5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -3401,37 +3401,37 @@
     </row>
     <row r="30" spans="1:27" ht="13.2">
       <c r="A30" s="5" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -3452,37 +3452,37 @@
     </row>
     <row r="31" spans="1:27" ht="66">
       <c r="A31" s="5" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -3503,37 +3503,37 @@
     </row>
     <row r="32" spans="1:27" ht="92.4">
       <c r="A32" s="5" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -3554,37 +3554,37 @@
     </row>
     <row r="33" spans="1:27" ht="39.6">
       <c r="A33" s="5" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -3603,39 +3603,39 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" ht="66">
+    <row r="34" spans="1:27" ht="79.2">
       <c r="A34" s="5" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="E34" s="5" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -3656,37 +3656,37 @@
     </row>
     <row r="35" spans="1:27" ht="92.4">
       <c r="A35" s="5" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -3707,37 +3707,37 @@
     </row>
     <row r="36" spans="1:27" ht="26.4">
       <c r="A36" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -3758,37 +3758,37 @@
     </row>
     <row r="37" spans="1:27" ht="79.2">
       <c r="A37" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -3809,37 +3809,37 @@
     </row>
     <row r="38" spans="1:27" ht="66">
       <c r="A38" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -3860,37 +3860,37 @@
     </row>
     <row r="39" spans="1:27" ht="26.4">
       <c r="A39" s="3" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="D39" s="5" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
@@ -3911,37 +3911,37 @@
     </row>
     <row r="40" spans="1:27" ht="66">
       <c r="A40" s="3" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -3962,37 +3962,37 @@
     </row>
     <row r="41" spans="1:27" ht="39.6">
       <c r="A41" s="3" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -4013,37 +4013,37 @@
     </row>
     <row r="42" spans="1:27" ht="105.6">
       <c r="A42" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -4064,37 +4064,37 @@
     </row>
     <row r="43" spans="1:27" ht="52.8">
       <c r="A43" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -4115,37 +4115,37 @@
     </row>
     <row r="44" spans="1:27" ht="26.4">
       <c r="A44" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
@@ -4166,37 +4166,37 @@
     </row>
     <row r="45" spans="1:27" ht="26.4">
       <c r="A45" s="3" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
@@ -4217,37 +4217,37 @@
     </row>
     <row r="46" spans="1:27" ht="39.6">
       <c r="A46" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -4268,37 +4268,37 @@
     </row>
     <row r="47" spans="1:27" ht="39.6">
       <c r="A47" s="3" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -4319,37 +4319,37 @@
     </row>
     <row r="48" spans="1:27" ht="118.8">
       <c r="A48" s="3" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
@@ -4370,33 +4370,33 @@
     </row>
     <row r="49" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -4417,30 +4417,30 @@
     </row>
     <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A50" s="11" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4460,37 +4460,37 @@
     </row>
     <row r="51" spans="1:27" ht="79.2">
       <c r="A51" s="3" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -4511,37 +4511,37 @@
     </row>
     <row r="52" spans="1:27" ht="52.8">
       <c r="A52" s="3" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -4562,37 +4562,37 @@
     </row>
     <row r="53" spans="1:27" ht="39.6">
       <c r="A53" s="3" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>246</v>
-      </c>
       <c r="F53" s="5" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -4613,37 +4613,37 @@
     </row>
     <row r="54" spans="1:27" ht="264">
       <c r="A54" s="3" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -4664,37 +4664,37 @@
     </row>
     <row r="55" spans="1:27" ht="158.4">
       <c r="A55" s="5" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4715,37 +4715,37 @@
     </row>
     <row r="56" spans="1:27" ht="158.4">
       <c r="A56" s="5" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
@@ -4766,37 +4766,37 @@
     </row>
     <row r="57" spans="1:27" ht="26.4">
       <c r="A57" s="5" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
@@ -4817,37 +4817,37 @@
     </row>
     <row r="58" spans="1:27" ht="26.4">
       <c r="A58" s="5" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="J58" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>285</v>
-      </c>
       <c r="K58" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
@@ -4868,37 +4868,37 @@
     </row>
     <row r="59" spans="1:27" ht="52.8">
       <c r="A59" s="5" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -4919,37 +4919,37 @@
     </row>
     <row r="60" spans="1:27" ht="26.4">
       <c r="A60" s="5" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -4970,37 +4970,37 @@
     </row>
     <row r="61" spans="1:27" ht="26.4">
       <c r="A61" s="5" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
@@ -5021,37 +5021,37 @@
     </row>
     <row r="62" spans="1:27" ht="39.6">
       <c r="A62" s="5" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -5072,37 +5072,37 @@
     </row>
     <row r="63" spans="1:27" ht="52.8">
       <c r="A63" s="5" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
@@ -5123,37 +5123,37 @@
     </row>
     <row r="64" spans="1:27" ht="52.8">
       <c r="A64" s="5" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>315</v>
-      </c>
       <c r="E64" s="5" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
@@ -5174,37 +5174,37 @@
     </row>
     <row r="65" spans="1:27" ht="52.8">
       <c r="A65" s="5" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
@@ -5225,37 +5225,37 @@
     </row>
     <row r="66" spans="1:27" ht="13.2">
       <c r="A66" s="3" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -5276,40 +5276,40 @@
     </row>
     <row r="67" spans="1:27" ht="92.4">
       <c r="A67" s="3" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -5329,37 +5329,37 @@
     </row>
     <row r="68" spans="1:27" ht="79.2">
       <c r="A68" s="3" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
@@ -5380,37 +5380,37 @@
     </row>
     <row r="69" spans="1:27" ht="79.2">
       <c r="A69" s="3" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
@@ -5431,37 +5431,37 @@
     </row>
     <row r="70" spans="1:27" ht="13.2">
       <c r="A70" s="3" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
@@ -5482,40 +5482,40 @@
     </row>
     <row r="71" spans="1:27" ht="66">
       <c r="A71" s="3" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -5535,37 +5535,37 @@
     </row>
     <row r="72" spans="1:27" ht="66">
       <c r="A72" s="5" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
@@ -5586,37 +5586,37 @@
     </row>
     <row r="73" spans="1:27" ht="106.2" thickBot="1">
       <c r="A73" s="5" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -5637,32 +5637,32 @@
     </row>
     <row r="74" spans="1:27" ht="106.2" thickBot="1">
       <c r="A74" s="11" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="K74" s="11" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5682,37 +5682,37 @@
     </row>
     <row r="75" spans="1:27" ht="118.8">
       <c r="A75" s="5" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5733,37 +5733,37 @@
     </row>
     <row r="76" spans="1:27" ht="39.6">
       <c r="A76" s="5" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
@@ -5784,37 +5784,37 @@
     </row>
     <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A77" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>399</v>
-      </c>
       <c r="F77" s="5" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
@@ -5835,36 +5835,36 @@
     </row>
     <row r="78" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A78" s="11" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5884,36 +5884,36 @@
     </row>
     <row r="79" spans="1:27" ht="27" thickBot="1">
       <c r="A79" s="11" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -5933,37 +5933,37 @@
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A80" s="5" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
@@ -5984,34 +5984,34 @@
     </row>
     <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A81" s="11" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="13" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -6031,32 +6031,32 @@
     </row>
     <row r="82" spans="1:27" ht="79.8" thickBot="1">
       <c r="A82" s="11" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -6076,16 +6076,16 @@
     </row>
     <row r="83" spans="1:27" ht="27" thickBot="1">
       <c r="A83" s="11" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -6094,10 +6094,10 @@
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6117,36 +6117,36 @@
     </row>
     <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A84" s="11" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -6166,22 +6166,22 @@
     </row>
     <row r="85" spans="1:27" ht="79.8" thickBot="1">
       <c r="A85" s="11" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -6189,7 +6189,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -6209,16 +6209,16 @@
     </row>
     <row r="86" spans="1:27" ht="93" thickBot="1">
       <c r="A86" s="11" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -6228,7 +6228,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -6248,34 +6248,34 @@
     </row>
     <row r="87" spans="1:27" ht="277.8" thickBot="1">
       <c r="A87" s="11" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="K87" s="11"/>
       <c r="L87" s="11" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -6295,16 +6295,16 @@
     </row>
     <row r="88" spans="1:27" ht="27" thickBot="1">
       <c r="A88" s="11" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -6314,7 +6314,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
@@ -33068,7 +33068,9 @@
       <c r="X1010" s="6"/>
       <c r="Y1010" s="6"/>
       <c r="Z1010" s="6"/>
-      <c r="AA1010" s="6"/>
+      <c r="AA1010" s="6" t="s">
+        <v>505</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -844,15 +844,9 @@
     <t>EPFO_02</t>
   </si>
   <si>
-    <t>div[id='footer_link'] a:nth-of-type(1)</t>
-  </si>
-  <si>
     <t>//div[@id='footer_link']/a[1]</t>
   </si>
   <si>
-    <t>div[id='footer_link'] a</t>
-  </si>
-  <si>
     <t>//div[@id='footer_link']/a</t>
   </si>
   <si>
@@ -868,15 +862,9 @@
     <t>https://www.epfindia.gov.in/site_en/International_workers.php</t>
   </si>
   <si>
-    <t>div[class='iternl_wrkr'] span[class='nor_letter']:nth-of-type(2)</t>
-  </si>
-  <si>
     <t>//div[@class='iternl_wrkr']/span[@class='nor_letter'][1]</t>
   </si>
   <si>
-    <t>div[class='iternl_wrkr'] span[class='nor_letter']</t>
-  </si>
-  <si>
     <t>//div[@class='iternl_wrkr']/span[@class='nor_letter']</t>
   </si>
   <si>
@@ -1490,6 +1478,18 @@
   </si>
   <si>
     <t>div[class='row'] &gt; div[class*='col-md-'] &gt; div[class*='css-'] &gt; div[class*='css-'] &gt; div[class*='css-']</t>
+  </si>
+  <si>
+    <t>div[id='footer_link'] &gt; a:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>div[id='footer_link'] &gt; a</t>
+  </si>
+  <si>
+    <t>div[class='iternl_wrkr'] &gt; span[class='nor_letter']:nth-of-type(2)</t>
+  </si>
+  <si>
+    <t>div[class='iternl_wrkr'] &gt; span[class='nor_letter']</t>
   </si>
 </sst>
 </file>
@@ -1860,8 +1860,8 @@
   <dimension ref="A1:AA1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1943,22 +1943,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -1994,22 +1994,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -2051,10 +2051,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>24</v>
@@ -2096,22 +2096,22 @@
         <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -2147,16 +2147,16 @@
         <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>32</v>
@@ -2204,16 +2204,16 @@
         <v>39</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>40</v>
@@ -2255,16 +2255,16 @@
         <v>45</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2306,10 +2306,10 @@
         <v>50</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>51</v>
@@ -2357,10 +2357,10 @@
         <v>58</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>59</v>
@@ -2405,13 +2405,13 @@
         <v>64</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>65</v>
@@ -2453,22 +2453,22 @@
         <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>53</v>
@@ -2510,16 +2510,16 @@
         <v>74</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>53</v>
@@ -2561,10 +2561,10 @@
         <v>78</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>79</v>
@@ -2612,10 +2612,10 @@
         <v>85</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>86</v>
@@ -2663,10 +2663,10 @@
         <v>92</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>93</v>
@@ -2714,16 +2714,16 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>88</v>
@@ -2759,22 +2759,22 @@
         <v>102</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>103</v>
@@ -2810,16 +2810,16 @@
         <v>106</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>108</v>
@@ -2855,22 +2855,22 @@
         <v>35</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>111</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>112</v>
@@ -2912,22 +2912,22 @@
         <v>115</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>116</v>
@@ -2960,25 +2960,25 @@
         <v>118</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>119</v>
@@ -3008,22 +3008,22 @@
         <v>35</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>122</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>123</v>
@@ -3059,28 +3059,28 @@
         <v>35</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>126</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>127</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>119</v>
@@ -3110,22 +3110,22 @@
         <v>129</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>130</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>131</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>132</v>
@@ -3161,22 +3161,22 @@
         <v>129</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>135</v>
@@ -3212,22 +3212,22 @@
         <v>129</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>138</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>139</v>
@@ -3263,28 +3263,28 @@
         <v>129</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>143</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>119</v>
@@ -3314,28 +3314,28 @@
         <v>145</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>146</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>147</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>119</v>
@@ -3365,28 +3365,28 @@
         <v>149</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>119</v>
@@ -3416,22 +3416,22 @@
         <v>151</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>152</v>
@@ -3479,10 +3479,10 @@
         <v>159</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>160</v>
@@ -3524,16 +3524,16 @@
         <v>164</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>165</v>
@@ -3569,22 +3569,22 @@
         <v>155</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>169</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>170</v>
@@ -3632,10 +3632,10 @@
         <v>159</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>175</v>
@@ -3671,28 +3671,28 @@
         <v>178</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>119</v>
@@ -3728,16 +3728,16 @@
         <v>182</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>183</v>
@@ -3779,16 +3779,16 @@
         <v>187</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>188</v>
@@ -3836,10 +3836,10 @@
         <v>194</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>195</v>
@@ -3887,16 +3887,16 @@
         <v>202</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>119</v>
@@ -3926,22 +3926,22 @@
         <v>178</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>204</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>205</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>206</v>
@@ -3977,22 +3977,22 @@
         <v>178</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>209</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>210</v>
@@ -4034,22 +4034,22 @@
         <v>215</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>119</v>
@@ -4079,28 +4079,28 @@
         <v>217</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>119</v>
@@ -4136,22 +4136,22 @@
         <v>220</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>119</v>
@@ -4184,25 +4184,25 @@
         <v>220</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>119</v>
@@ -4238,22 +4238,22 @@
         <v>224</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>119</v>
@@ -4283,28 +4283,28 @@
         <v>219</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>460</v>
-      </c>
       <c r="E48" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>226</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>119</v>
@@ -4334,24 +4334,24 @@
         <v>219</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>119</v>
@@ -4375,30 +4375,30 @@
     </row>
     <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A50" s="11" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4436,16 +4436,16 @@
         <v>233</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>119</v>
@@ -4487,16 +4487,16 @@
         <v>238</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>119</v>
@@ -4538,10 +4538,10 @@
         <v>243</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>244</v>
@@ -4589,10 +4589,10 @@
         <v>250</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>251</v>
@@ -4601,7 +4601,7 @@
         <v>252</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -4640,10 +4640,10 @@
         <v>258</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>259</v>
@@ -4685,16 +4685,16 @@
         <v>264</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>265</v>
@@ -4742,10 +4742,10 @@
         <v>272</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>273</v>
@@ -4780,29 +4780,29 @@
       <c r="B58" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="G58" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="J58" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>119</v>
@@ -4826,34 +4826,34 @@
     </row>
     <row r="59" spans="1:27" ht="52.8">
       <c r="A59" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="E59" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="F59" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="G59" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="J59" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>261</v>
@@ -4877,34 +4877,34 @@
     </row>
     <row r="60" spans="1:27" ht="26.4">
       <c r="A60" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>261</v>
@@ -4928,34 +4928,34 @@
     </row>
     <row r="61" spans="1:27" ht="26.4">
       <c r="A61" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>119</v>
@@ -4979,34 +4979,34 @@
     </row>
     <row r="62" spans="1:27" ht="39.6">
       <c r="A62" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>301</v>
-      </c>
       <c r="G62" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>261</v>
@@ -5030,34 +5030,34 @@
     </row>
     <row r="63" spans="1:27" ht="52.8">
       <c r="A63" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C63" s="5" t="s">
+      <c r="G63" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="J63" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>119</v>
@@ -5081,34 +5081,34 @@
     </row>
     <row r="64" spans="1:27" ht="52.8">
       <c r="A64" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="G64" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I64" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="J64" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>119</v>
@@ -5132,34 +5132,34 @@
     </row>
     <row r="65" spans="1:27" ht="52.8">
       <c r="A65" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C65" s="5" t="s">
+      <c r="G65" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="J65" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>119</v>
@@ -5183,34 +5183,34 @@
     </row>
     <row r="66" spans="1:27" ht="13.2">
       <c r="A66" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>119</v>
@@ -5234,40 +5234,40 @@
     </row>
     <row r="67" spans="1:27" ht="92.4">
       <c r="A67" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>330</v>
-      </c>
       <c r="G67" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>119</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -5287,34 +5287,34 @@
     </row>
     <row r="68" spans="1:27" ht="79.2">
       <c r="A68" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="G68" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>119</v>
@@ -5338,34 +5338,34 @@
     </row>
     <row r="69" spans="1:27" ht="79.2">
       <c r="A69" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C69" s="5" t="s">
+      <c r="G69" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>119</v>
@@ -5389,34 +5389,34 @@
     </row>
     <row r="70" spans="1:27" ht="13.2">
       <c r="A70" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>119</v>
@@ -5440,40 +5440,40 @@
     </row>
     <row r="71" spans="1:27" ht="66">
       <c r="A71" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>351</v>
-      </c>
       <c r="G71" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>119</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -5493,34 +5493,34 @@
     </row>
     <row r="72" spans="1:27" ht="66">
       <c r="A72" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C72" s="5" t="s">
+      <c r="G72" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="J72" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>359</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>119</v>
@@ -5544,34 +5544,34 @@
     </row>
     <row r="73" spans="1:27" ht="106.2" thickBot="1">
       <c r="A73" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>119</v>
@@ -5595,22 +5595,22 @@
     </row>
     <row r="74" spans="1:27" ht="106.2" thickBot="1">
       <c r="A74" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="F74" s="11" t="s">
         <v>405</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>409</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -5620,7 +5620,7 @@
         <v>119</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5640,34 +5640,34 @@
     </row>
     <row r="75" spans="1:27" ht="118.8">
       <c r="A75" s="9" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>119</v>
@@ -5691,34 +5691,34 @@
     </row>
     <row r="76" spans="1:27" ht="39.6">
       <c r="A76" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I76" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="J76" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="J76" s="9" t="s">
-        <v>375</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>119</v>
@@ -5742,34 +5742,34 @@
     </row>
     <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A77" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="J77" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>380</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>119</v>
@@ -5793,36 +5793,36 @@
     </row>
     <row r="78" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A78" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>119</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5842,36 +5842,36 @@
     </row>
     <row r="79" spans="1:27" ht="27" thickBot="1">
       <c r="A79" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="E79" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="F79" s="11" t="s">
         <v>418</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>422</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K79" s="11" t="s">
         <v>119</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -5891,34 +5891,34 @@
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A80" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="I80" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="J80" s="9" t="s">
         <v>382</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>386</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>119</v>
@@ -5942,36 +5942,36 @@
     </row>
     <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A81" s="11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K81" s="11" t="s">
         <v>119</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -5991,36 +5991,36 @@
     </row>
     <row r="82" spans="1:27" ht="93" thickBot="1">
       <c r="A82" s="11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>119</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -6040,16 +6040,16 @@
     </row>
     <row r="83" spans="1:27" ht="27" thickBot="1">
       <c r="A83" s="11" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -6061,7 +6061,7 @@
         <v>261</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6081,36 +6081,36 @@
     </row>
     <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A84" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B84" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>435</v>
-      </c>
       <c r="E84" s="11" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>119</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="132" yWindow="540" windowWidth="22716" windowHeight="10788"/>
@@ -97,9 +97,6 @@
     <t>IRCTC_TC_04</t>
   </si>
   <si>
-    <t>p-dropdown[id='journeyQuota']&gt;div[class*='ng-tns-c']</t>
-  </si>
-  <si>
     <t>//p-dropdown[@id='journeyQuota']/div[contains(@class, 'ng-tns-c')]</t>
   </si>
   <si>
@@ -142,30 +139,12 @@
     <t>IRCTC_TC_07</t>
   </si>
   <si>
-    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-']:nth-of-type(2) span[class='icn']</t>
-  </si>
-  <si>
-    <t>//form[@class='ng-pristine ng-valid ng-touched']//div[contains(@class, 'col-lg-')][2]/span[@class='icn']</t>
-  </si>
-  <si>
-    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-'] span[class='icn']</t>
-  </si>
-  <si>
-    <t>//form[@class='ng-pristine ng-valid ng-touched']//div[contains(@class, 'col-lg-')]/span[@class='icn']</t>
-  </si>
-  <si>
     <t>IRCTC_TC_08</t>
   </si>
   <si>
-    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-']:nth-of-type(4) div[class*='ui-dropdown-label-container'] span[class*='ng-tns-c']</t>
-  </si>
-  <si>
     <t>//form[@class='ng-pristine ng-valid ng-touched']//div[contains(@class, 'col-lg-')][4]//div[contains(@class, 'ui-dropdown-label-co')]/span[contains(@class, 'ng-tns-c')]</t>
   </si>
   <si>
-    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-'] div[class*='ui-dropdown-label-container'] span[class*='ng-tns-c']</t>
-  </si>
-  <si>
     <t>//form[@class='ng-pristine ng-valid ng-touched']//div[contains(@class, 'col-lg-')]//div[contains(@class, 'ui-dropdown-label-co')]/span[contains(@class, 'ng-tns-c')]</t>
   </si>
   <si>
@@ -235,9 +214,6 @@
     <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//span[@class='pull-left hidden-xs']</t>
   </si>
   <si>
-    <t>div[class='ng-star-inserted'] div[class*='form-group'] span[class='pull-left hidden-xs']</t>
-  </si>
-  <si>
     <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//span[@class='pull-left hidden-xs']</t>
   </si>
   <si>
@@ -304,18 +280,6 @@
     <t>IRCTC_TC_16</t>
   </si>
   <si>
-    <t>div[class='border-all ng-star-inserted'] div[class='sliderDiv ng-star-inserted']:nth-of-type(2)</t>
-  </si>
-  <si>
-    <t>//div[@class='border-all ng-star-inserted']//div[@class='sliderDiv ng-star-inserted'][1]</t>
-  </si>
-  <si>
-    <t>div[class='border-all ng-star-inserted'] div[class='sliderDiv ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>//div[@class='border-all ng-star-inserted']//div[@class='sliderDiv ng-star-inserted']</t>
-  </si>
-  <si>
     <t>IRCTC_TC_17</t>
   </si>
   <si>
@@ -1490,12 +1454,48 @@
   </si>
   <si>
     <t>div[class='row'] &gt; div[class*='col-md-'] &gt; div[class*='css-'] &gt; div[class*='css-'] &gt; div[class*='css-']</t>
+  </si>
+  <si>
+    <t>p-dropdown[id='journeyQuota'] &gt; div[class*='ng-tns-c']</t>
+  </si>
+  <si>
+    <t>form[class='ng-pristine ng-valid ng-touched'] i[class='fa fa-map-marker']</t>
+  </si>
+  <si>
+    <t>//form[@class='ng-pristine ng-valid ng-touched']//i[@class='fa fa-map-marker']</t>
+  </si>
+  <si>
+    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-']:nth-of-type(4) div[class*='ui-dropdown-label-co']</t>
+  </si>
+  <si>
+    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-'] div[class*='ui-dropdown-label-co']</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']:nth-of-type(1)&gt;div[class*='form-group']:nth-of-type(1) span[class='pull-left hidden-xs']</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']&gt;div[class*='form-group'] span[class='pull-left hidden-xs']</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted'][6]//table//td[@class='ng-star-inserted'][1]//div[contains(@class, 'col-xs-')]</t>
+  </si>
+  <si>
+    <t>div[class='border-all ng-star-inserted'] div[class='sliderDiv ng-star-inserted']:nth-of-type(2) span[class*='ui-slider-range']</t>
+  </si>
+  <si>
+    <t>//div[@class='border-all ng-star-inserted']//div[@class='sliderDiv ng-star-inserted'][1]//span[contains(@class, 'ui-slider-range')]</t>
+  </si>
+  <si>
+    <t>div[class='border-all ng-star-inserted'] div[class='sliderDiv ng-star-inserted'] span[class*='ui-slider-range']</t>
+  </si>
+  <si>
+    <t>//div[@class='border-all ng-star-inserted']//div[@class='sliderDiv ng-star-inserted']//span[contains(@class, 'ui-slider-range')]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="10"/>
@@ -1853,15 +1853,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1943,22 +1943,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -1987,29 +1987,29 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -2041,25 +2041,25 @@
       <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I4" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -2089,29 +2089,29 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -2135,34 +2135,34 @@
     </row>
     <row r="6" spans="1:27" ht="39.6">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>15</v>
@@ -2186,37 +2186,37 @@
     </row>
     <row r="7" spans="1:27" ht="158.4">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -2235,36 +2235,36 @@
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
     </row>
-    <row r="8" spans="1:27" ht="105.6">
+    <row r="8" spans="1:27" ht="79.2">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2288,37 +2288,37 @@
     </row>
     <row r="9" spans="1:27" ht="158.4">
       <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -2339,37 +2339,37 @@
     </row>
     <row r="10" spans="1:27" ht="105.6">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>58</v>
+        <v>34</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>60</v>
+        <v>375</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -2390,37 +2390,37 @@
     </row>
     <row r="11" spans="1:27" ht="105.6">
       <c r="A11" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>387</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>66</v>
+        <v>375</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -2441,37 +2441,37 @@
     </row>
     <row r="12" spans="1:27" ht="39.6">
       <c r="A12" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>69</v>
+        <v>34</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -2492,37 +2492,37 @@
     </row>
     <row r="13" spans="1:27" ht="105.6">
       <c r="A13" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>74</v>
+        <v>34</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -2543,37 +2543,37 @@
     </row>
     <row r="14" spans="1:27" ht="118.8">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>80</v>
+      <c r="J14" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -2594,37 +2594,37 @@
     </row>
     <row r="15" spans="1:27" ht="158.4">
       <c r="A15" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>85</v>
+        <v>34</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>87</v>
+        <v>375</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -2643,39 +2643,39 @@
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
     </row>
-    <row r="16" spans="1:27" ht="92.4">
+    <row r="16" spans="1:27" ht="105.6">
       <c r="A16" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>92</v>
+        <v>34</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>94</v>
+        <v>375</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -2694,39 +2694,39 @@
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
     </row>
-    <row r="17" spans="1:27" ht="92.4">
+    <row r="17" spans="1:27" ht="132">
       <c r="A17" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>99</v>
+        <v>34</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>491</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>375</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -2747,37 +2747,37 @@
     </row>
     <row r="18" spans="1:27" ht="105.6">
       <c r="A18" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>387</v>
+        <v>34</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>375</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>375</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -2798,37 +2798,37 @@
     </row>
     <row r="19" spans="1:27" ht="145.19999999999999">
       <c r="A19" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -2849,37 +2849,37 @@
     </row>
     <row r="20" spans="1:27" ht="92.4">
       <c r="A20" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -2900,37 +2900,37 @@
     </row>
     <row r="21" spans="1:27" ht="39.6">
       <c r="A21" s="5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -2951,37 +2951,37 @@
     </row>
     <row r="22" spans="1:27" ht="52.8">
       <c r="A22" s="5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -3002,37 +3002,37 @@
     </row>
     <row r="23" spans="1:27" ht="52.8">
       <c r="A23" s="5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -3053,37 +3053,37 @@
     </row>
     <row r="24" spans="1:27" ht="145.19999999999999">
       <c r="A24" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -3104,37 +3104,37 @@
     </row>
     <row r="25" spans="1:27" ht="66">
       <c r="A25" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -3155,37 +3155,37 @@
     </row>
     <row r="26" spans="1:27" ht="66">
       <c r="A26" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -3206,37 +3206,37 @@
     </row>
     <row r="27" spans="1:27" ht="66">
       <c r="A27" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -3257,37 +3257,37 @@
     </row>
     <row r="28" spans="1:27" ht="39.6">
       <c r="A28" s="5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
@@ -3308,37 +3308,37 @@
     </row>
     <row r="29" spans="1:27" ht="26.4">
       <c r="A29" s="5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -3359,37 +3359,37 @@
     </row>
     <row r="30" spans="1:27" ht="13.2">
       <c r="A30" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -3410,37 +3410,37 @@
     </row>
     <row r="31" spans="1:27" ht="66">
       <c r="A31" s="5" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -3461,37 +3461,37 @@
     </row>
     <row r="32" spans="1:27" ht="92.4">
       <c r="A32" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -3512,37 +3512,37 @@
     </row>
     <row r="33" spans="1:27" ht="39.6">
       <c r="A33" s="5" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -3563,37 +3563,37 @@
     </row>
     <row r="34" spans="1:27" ht="66">
       <c r="A34" s="5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -3614,37 +3614,37 @@
     </row>
     <row r="35" spans="1:27" ht="92.4">
       <c r="A35" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -3665,37 +3665,37 @@
     </row>
     <row r="36" spans="1:27" ht="26.4">
       <c r="A36" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -3716,37 +3716,37 @@
     </row>
     <row r="37" spans="1:27" ht="79.2">
       <c r="A37" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -3767,37 +3767,37 @@
     </row>
     <row r="38" spans="1:27" ht="66">
       <c r="A38" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -3818,37 +3818,37 @@
     </row>
     <row r="39" spans="1:27" ht="26.4">
       <c r="A39" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
@@ -3869,37 +3869,37 @@
     </row>
     <row r="40" spans="1:27" ht="66">
       <c r="A40" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -3920,37 +3920,37 @@
     </row>
     <row r="41" spans="1:27" ht="39.6">
       <c r="A41" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -3971,37 +3971,37 @@
     </row>
     <row r="42" spans="1:27" ht="105.6">
       <c r="A42" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -4022,37 +4022,37 @@
     </row>
     <row r="43" spans="1:27" ht="52.8">
       <c r="A43" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -4073,37 +4073,37 @@
     </row>
     <row r="44" spans="1:27" ht="26.4">
       <c r="A44" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
@@ -4124,37 +4124,37 @@
     </row>
     <row r="45" spans="1:27" ht="26.4">
       <c r="A45" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
@@ -4175,37 +4175,37 @@
     </row>
     <row r="46" spans="1:27" ht="39.6">
       <c r="A46" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -4226,37 +4226,37 @@
     </row>
     <row r="47" spans="1:27" ht="39.6">
       <c r="A47" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -4277,37 +4277,37 @@
     </row>
     <row r="48" spans="1:27" ht="118.8">
       <c r="A48" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
@@ -4328,33 +4328,33 @@
     </row>
     <row r="49" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -4375,30 +4375,30 @@
     </row>
     <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A50" s="11" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4418,37 +4418,37 @@
     </row>
     <row r="51" spans="1:27" ht="79.2">
       <c r="A51" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -4469,37 +4469,37 @@
     </row>
     <row r="52" spans="1:27" ht="52.8">
       <c r="A52" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -4520,37 +4520,37 @@
     </row>
     <row r="53" spans="1:27" ht="39.6">
       <c r="A53" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="E53" s="5" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -4571,37 +4571,37 @@
     </row>
     <row r="54" spans="1:27" ht="264">
       <c r="A54" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -4622,37 +4622,37 @@
     </row>
     <row r="55" spans="1:27" ht="158.4">
       <c r="A55" s="5" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4673,37 +4673,37 @@
     </row>
     <row r="56" spans="1:27" ht="158.4">
       <c r="A56" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J56" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="K56" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
@@ -4724,37 +4724,37 @@
     </row>
     <row r="57" spans="1:27" ht="26.4">
       <c r="A57" s="5" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
@@ -4775,37 +4775,37 @@
     </row>
     <row r="58" spans="1:27" ht="26.4">
       <c r="A58" s="5" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>280</v>
-      </c>
       <c r="J58" s="5" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
@@ -4826,37 +4826,37 @@
     </row>
     <row r="59" spans="1:27" ht="52.8">
       <c r="A59" s="5" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -4877,37 +4877,37 @@
     </row>
     <row r="60" spans="1:27" ht="26.4">
       <c r="A60" s="5" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -4928,37 +4928,37 @@
     </row>
     <row r="61" spans="1:27" ht="26.4">
       <c r="A61" s="5" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
@@ -4979,37 +4979,37 @@
     </row>
     <row r="62" spans="1:27" ht="39.6">
       <c r="A62" s="5" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -5030,37 +5030,37 @@
     </row>
     <row r="63" spans="1:27" ht="52.8">
       <c r="A63" s="5" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
@@ -5081,37 +5081,37 @@
     </row>
     <row r="64" spans="1:27" ht="52.8">
       <c r="A64" s="5" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>310</v>
-      </c>
       <c r="D64" s="5" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
@@ -5132,37 +5132,37 @@
     </row>
     <row r="65" spans="1:27" ht="52.8">
       <c r="A65" s="5" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
@@ -5183,37 +5183,37 @@
     </row>
     <row r="66" spans="1:27" ht="13.2">
       <c r="A66" s="3" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -5234,40 +5234,40 @@
     </row>
     <row r="67" spans="1:27" ht="92.4">
       <c r="A67" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -5287,37 +5287,37 @@
     </row>
     <row r="68" spans="1:27" ht="79.2">
       <c r="A68" s="3" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>336</v>
-      </c>
       <c r="G68" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
@@ -5338,37 +5338,37 @@
     </row>
     <row r="69" spans="1:27" ht="79.2">
       <c r="A69" s="3" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
@@ -5389,37 +5389,37 @@
     </row>
     <row r="70" spans="1:27" ht="13.2">
       <c r="A70" s="3" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
@@ -5440,40 +5440,40 @@
     </row>
     <row r="71" spans="1:27" ht="66">
       <c r="A71" s="3" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -5493,37 +5493,37 @@
     </row>
     <row r="72" spans="1:27" ht="66">
       <c r="A72" s="5" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
@@ -5544,37 +5544,37 @@
     </row>
     <row r="73" spans="1:27" ht="106.2" thickBot="1">
       <c r="A73" s="5" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -5595,32 +5595,32 @@
     </row>
     <row r="74" spans="1:27" ht="106.2" thickBot="1">
       <c r="A74" s="11" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="K74" s="11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5640,37 +5640,37 @@
     </row>
     <row r="75" spans="1:27" ht="118.8">
       <c r="A75" s="9" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5691,37 +5691,37 @@
     </row>
     <row r="76" spans="1:27" ht="39.6">
       <c r="A76" s="5" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
@@ -5742,37 +5742,37 @@
     </row>
     <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A77" s="5" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B77" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>379</v>
-      </c>
       <c r="J77" s="5" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
@@ -5793,36 +5793,36 @@
     </row>
     <row r="78" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A78" s="11" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5842,36 +5842,36 @@
     </row>
     <row r="79" spans="1:27" ht="27" thickBot="1">
       <c r="A79" s="11" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -5891,37 +5891,37 @@
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A80" s="9" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
@@ -5942,36 +5942,36 @@
     </row>
     <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A81" s="11" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -5991,36 +5991,36 @@
     </row>
     <row r="82" spans="1:27" ht="93" thickBot="1">
       <c r="A82" s="11" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -6040,16 +6040,16 @@
     </row>
     <row r="83" spans="1:27" ht="27" thickBot="1">
       <c r="A83" s="11" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -6058,10 +6058,10 @@
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6081,36 +6081,36 @@
     </row>
     <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A84" s="11" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="132" yWindow="540" windowWidth="22716" windowHeight="10788"/>
@@ -97,9 +97,6 @@
     <t>IRCTC_TC_04</t>
   </si>
   <si>
-    <t>p-dropdown[id='journeyQuota']&gt;div[class*='ng-tns-c']</t>
-  </si>
-  <si>
     <t>//p-dropdown[@id='journeyQuota']/div[contains(@class, 'ng-tns-c')]</t>
   </si>
   <si>
@@ -142,30 +139,12 @@
     <t>IRCTC_TC_07</t>
   </si>
   <si>
-    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-']:nth-of-type(2) span[class='icn']</t>
-  </si>
-  <si>
-    <t>//form[@class='ng-pristine ng-valid ng-touched']//div[contains(@class, 'col-lg-')][2]/span[@class='icn']</t>
-  </si>
-  <si>
-    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-'] span[class='icn']</t>
-  </si>
-  <si>
-    <t>//form[@class='ng-pristine ng-valid ng-touched']//div[contains(@class, 'col-lg-')]/span[@class='icn']</t>
-  </si>
-  <si>
     <t>IRCTC_TC_08</t>
   </si>
   <si>
-    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-']:nth-of-type(4) div[class*='ui-dropdown-label-container'] span[class*='ng-tns-c']</t>
-  </si>
-  <si>
     <t>//form[@class='ng-pristine ng-valid ng-touched']//div[contains(@class, 'col-lg-')][4]//div[contains(@class, 'ui-dropdown-label-co')]/span[contains(@class, 'ng-tns-c')]</t>
   </si>
   <si>
-    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-'] div[class*='ui-dropdown-label-container'] span[class*='ng-tns-c']</t>
-  </si>
-  <si>
     <t>//form[@class='ng-pristine ng-valid ng-touched']//div[contains(@class, 'col-lg-')]//div[contains(@class, 'ui-dropdown-label-co')]/span[contains(@class, 'ng-tns-c')]</t>
   </si>
   <si>
@@ -235,9 +214,6 @@
     <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//span[@class='pull-left hidden-xs']</t>
   </si>
   <si>
-    <t>div[class='ng-star-inserted'] div[class*='form-group'] span[class='pull-left hidden-xs']</t>
-  </si>
-  <si>
     <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//span[@class='pull-left hidden-xs']</t>
   </si>
   <si>
@@ -304,18 +280,6 @@
     <t>IRCTC_TC_16</t>
   </si>
   <si>
-    <t>div[class='border-all ng-star-inserted'] div[class='sliderDiv ng-star-inserted']:nth-of-type(2)</t>
-  </si>
-  <si>
-    <t>//div[@class='border-all ng-star-inserted']//div[@class='sliderDiv ng-star-inserted'][1]</t>
-  </si>
-  <si>
-    <t>div[class='border-all ng-star-inserted'] div[class='sliderDiv ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>//div[@class='border-all ng-star-inserted']//div[@class='sliderDiv ng-star-inserted']</t>
-  </si>
-  <si>
     <t>IRCTC_TC_17</t>
   </si>
   <si>
@@ -1490,12 +1454,48 @@
   </si>
   <si>
     <t>div[class='iternl_wrkr'] &gt; span[class='nor_letter']</t>
+  </si>
+  <si>
+    <t>p-dropdown[id='journeyQuota'] &gt; div[class*='ng-tns-c']</t>
+  </si>
+  <si>
+    <t>form[class='ng-pristine ng-valid ng-touched'] i[class='fa fa-map-marker']</t>
+  </si>
+  <si>
+    <t>//form[@class='ng-pristine ng-valid ng-touched']//i[@class='fa fa-map-marker']</t>
+  </si>
+  <si>
+    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-']:nth-of-type(4) div[class*='ui-dropdown-label-co']</t>
+  </si>
+  <si>
+    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-'] div[class*='ui-dropdown-label-co']</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']:nth-of-type(1)&gt;div[class*='form-group']:nth-of-type(1) span[class='pull-left hidden-xs']</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']&gt;div[class*='form-group'] span[class='pull-left hidden-xs']</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted'][6]//table//td[@class='ng-star-inserted'][1]//div[contains(@class, 'col-xs-')]</t>
+  </si>
+  <si>
+    <t>div[class='border-all ng-star-inserted'] div[class='sliderDiv ng-star-inserted']:nth-of-type(2) span[class*='ui-slider-range']</t>
+  </si>
+  <si>
+    <t>//div[@class='border-all ng-star-inserted']//div[@class='sliderDiv ng-star-inserted'][1]//span[contains(@class, 'ui-slider-range')]</t>
+  </si>
+  <si>
+    <t>div[class='border-all ng-star-inserted'] div[class='sliderDiv ng-star-inserted'] span[class*='ui-slider-range']</t>
+  </si>
+  <si>
+    <t>//div[@class='border-all ng-star-inserted']//div[@class='sliderDiv ng-star-inserted']//span[contains(@class, 'ui-slider-range')]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="10"/>
@@ -1853,15 +1853,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1943,22 +1943,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -1987,29 +1987,29 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -2041,25 +2041,25 @@
       <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I4" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -2089,29 +2089,29 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -2135,34 +2135,34 @@
     </row>
     <row r="6" spans="1:27" ht="39.6">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>15</v>
@@ -2186,37 +2186,37 @@
     </row>
     <row r="7" spans="1:27" ht="158.4">
       <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -2235,36 +2235,36 @@
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
     </row>
-    <row r="8" spans="1:27" ht="105.6">
+    <row r="8" spans="1:27" ht="79.2">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2288,37 +2288,37 @@
     </row>
     <row r="9" spans="1:27" ht="158.4">
       <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -2339,37 +2339,37 @@
     </row>
     <row r="10" spans="1:27" ht="105.6">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>58</v>
+        <v>34</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>60</v>
+        <v>371</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -2390,37 +2390,37 @@
     </row>
     <row r="11" spans="1:27" ht="105.6">
       <c r="A11" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>383</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>66</v>
+        <v>371</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -2441,37 +2441,37 @@
     </row>
     <row r="12" spans="1:27" ht="39.6">
       <c r="A12" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>69</v>
+        <v>34</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -2492,37 +2492,37 @@
     </row>
     <row r="13" spans="1:27" ht="105.6">
       <c r="A13" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>74</v>
+        <v>34</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -2543,37 +2543,37 @@
     </row>
     <row r="14" spans="1:27" ht="118.8">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>80</v>
+      <c r="J14" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -2594,37 +2594,37 @@
     </row>
     <row r="15" spans="1:27" ht="158.4">
       <c r="A15" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>85</v>
+        <v>34</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>87</v>
+        <v>371</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -2643,39 +2643,39 @@
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
     </row>
-    <row r="16" spans="1:27" ht="92.4">
+    <row r="16" spans="1:27" ht="105.6">
       <c r="A16" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>92</v>
+        <v>34</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>94</v>
+        <v>371</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -2694,39 +2694,39 @@
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
     </row>
-    <row r="17" spans="1:27" ht="92.4">
+    <row r="17" spans="1:27" ht="132">
       <c r="A17" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>99</v>
+        <v>34</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>491</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>371</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -2747,37 +2747,37 @@
     </row>
     <row r="18" spans="1:27" ht="105.6">
       <c r="A18" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>383</v>
+        <v>34</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>371</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>371</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -2798,37 +2798,37 @@
     </row>
     <row r="19" spans="1:27" ht="145.19999999999999">
       <c r="A19" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -2849,37 +2849,37 @@
     </row>
     <row r="20" spans="1:27" ht="92.4">
       <c r="A20" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -2900,37 +2900,37 @@
     </row>
     <row r="21" spans="1:27" ht="39.6">
       <c r="A21" s="5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -2951,37 +2951,37 @@
     </row>
     <row r="22" spans="1:27" ht="52.8">
       <c r="A22" s="5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -3002,37 +3002,37 @@
     </row>
     <row r="23" spans="1:27" ht="52.8">
       <c r="A23" s="5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -3053,37 +3053,37 @@
     </row>
     <row r="24" spans="1:27" ht="145.19999999999999">
       <c r="A24" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -3104,37 +3104,37 @@
     </row>
     <row r="25" spans="1:27" ht="66">
       <c r="A25" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -3155,37 +3155,37 @@
     </row>
     <row r="26" spans="1:27" ht="66">
       <c r="A26" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -3206,37 +3206,37 @@
     </row>
     <row r="27" spans="1:27" ht="66">
       <c r="A27" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -3257,37 +3257,37 @@
     </row>
     <row r="28" spans="1:27" ht="39.6">
       <c r="A28" s="5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
@@ -3308,37 +3308,37 @@
     </row>
     <row r="29" spans="1:27" ht="26.4">
       <c r="A29" s="5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -3359,37 +3359,37 @@
     </row>
     <row r="30" spans="1:27" ht="13.2">
       <c r="A30" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -3410,37 +3410,37 @@
     </row>
     <row r="31" spans="1:27" ht="66">
       <c r="A31" s="5" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -3461,37 +3461,37 @@
     </row>
     <row r="32" spans="1:27" ht="92.4">
       <c r="A32" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -3512,37 +3512,37 @@
     </row>
     <row r="33" spans="1:27" ht="39.6">
       <c r="A33" s="5" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -3563,37 +3563,37 @@
     </row>
     <row r="34" spans="1:27" ht="66">
       <c r="A34" s="5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -3614,37 +3614,37 @@
     </row>
     <row r="35" spans="1:27" ht="92.4">
       <c r="A35" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -3665,37 +3665,37 @@
     </row>
     <row r="36" spans="1:27" ht="26.4">
       <c r="A36" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -3716,37 +3716,37 @@
     </row>
     <row r="37" spans="1:27" ht="79.2">
       <c r="A37" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -3767,37 +3767,37 @@
     </row>
     <row r="38" spans="1:27" ht="66">
       <c r="A38" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -3818,37 +3818,37 @@
     </row>
     <row r="39" spans="1:27" ht="26.4">
       <c r="A39" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
@@ -3869,37 +3869,37 @@
     </row>
     <row r="40" spans="1:27" ht="66">
       <c r="A40" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -3920,37 +3920,37 @@
     </row>
     <row r="41" spans="1:27" ht="39.6">
       <c r="A41" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -3971,37 +3971,37 @@
     </row>
     <row r="42" spans="1:27" ht="105.6">
       <c r="A42" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -4022,37 +4022,37 @@
     </row>
     <row r="43" spans="1:27" ht="52.8">
       <c r="A43" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -4073,37 +4073,37 @@
     </row>
     <row r="44" spans="1:27" ht="26.4">
       <c r="A44" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
@@ -4124,37 +4124,37 @@
     </row>
     <row r="45" spans="1:27" ht="26.4">
       <c r="A45" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
@@ -4175,37 +4175,37 @@
     </row>
     <row r="46" spans="1:27" ht="39.6">
       <c r="A46" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -4226,37 +4226,37 @@
     </row>
     <row r="47" spans="1:27" ht="39.6">
       <c r="A47" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -4277,37 +4277,37 @@
     </row>
     <row r="48" spans="1:27" ht="118.8">
       <c r="A48" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
@@ -4328,33 +4328,33 @@
     </row>
     <row r="49" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -4375,30 +4375,30 @@
     </row>
     <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A50" s="11" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4418,37 +4418,37 @@
     </row>
     <row r="51" spans="1:27" ht="79.2">
       <c r="A51" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -4469,37 +4469,37 @@
     </row>
     <row r="52" spans="1:27" ht="52.8">
       <c r="A52" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -4520,37 +4520,37 @@
     </row>
     <row r="53" spans="1:27" ht="39.6">
       <c r="A53" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="E53" s="5" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -4571,37 +4571,37 @@
     </row>
     <row r="54" spans="1:27" ht="264">
       <c r="A54" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -4622,37 +4622,37 @@
     </row>
     <row r="55" spans="1:27" ht="158.4">
       <c r="A55" s="5" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4673,37 +4673,37 @@
     </row>
     <row r="56" spans="1:27" ht="158.4">
       <c r="A56" s="5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J56" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="K56" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
@@ -4724,37 +4724,37 @@
     </row>
     <row r="57" spans="1:27" ht="26.4">
       <c r="A57" s="5" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
@@ -4775,37 +4775,37 @@
     </row>
     <row r="58" spans="1:27" ht="26.4">
       <c r="A58" s="5" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
@@ -4826,37 +4826,37 @@
     </row>
     <row r="59" spans="1:27" ht="52.8">
       <c r="A59" s="5" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -4877,37 +4877,37 @@
     </row>
     <row r="60" spans="1:27" ht="26.4">
       <c r="A60" s="5" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -4928,37 +4928,37 @@
     </row>
     <row r="61" spans="1:27" ht="26.4">
       <c r="A61" s="5" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
@@ -4979,37 +4979,37 @@
     </row>
     <row r="62" spans="1:27" ht="39.6">
       <c r="A62" s="5" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -5030,37 +5030,37 @@
     </row>
     <row r="63" spans="1:27" ht="52.8">
       <c r="A63" s="5" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
@@ -5081,37 +5081,37 @@
     </row>
     <row r="64" spans="1:27" ht="52.8">
       <c r="A64" s="5" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>306</v>
-      </c>
       <c r="D64" s="5" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
@@ -5132,37 +5132,37 @@
     </row>
     <row r="65" spans="1:27" ht="52.8">
       <c r="A65" s="5" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
@@ -5183,37 +5183,37 @@
     </row>
     <row r="66" spans="1:27" ht="13.2">
       <c r="A66" s="3" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -5234,40 +5234,40 @@
     </row>
     <row r="67" spans="1:27" ht="92.4">
       <c r="A67" s="3" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -5287,37 +5287,37 @@
     </row>
     <row r="68" spans="1:27" ht="79.2">
       <c r="A68" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>332</v>
-      </c>
       <c r="G68" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
@@ -5338,37 +5338,37 @@
     </row>
     <row r="69" spans="1:27" ht="79.2">
       <c r="A69" s="3" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
@@ -5389,37 +5389,37 @@
     </row>
     <row r="70" spans="1:27" ht="13.2">
       <c r="A70" s="3" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
@@ -5440,40 +5440,40 @@
     </row>
     <row r="71" spans="1:27" ht="66">
       <c r="A71" s="3" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -5493,37 +5493,37 @@
     </row>
     <row r="72" spans="1:27" ht="66">
       <c r="A72" s="5" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
@@ -5544,37 +5544,37 @@
     </row>
     <row r="73" spans="1:27" ht="106.2" thickBot="1">
       <c r="A73" s="5" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
@@ -5595,32 +5595,32 @@
     </row>
     <row r="74" spans="1:27" ht="106.2" thickBot="1">
       <c r="A74" s="11" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
       <c r="K74" s="11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5640,37 +5640,37 @@
     </row>
     <row r="75" spans="1:27" ht="118.8">
       <c r="A75" s="9" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5691,37 +5691,37 @@
     </row>
     <row r="76" spans="1:27" ht="39.6">
       <c r="A76" s="5" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
@@ -5742,37 +5742,37 @@
     </row>
     <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A77" s="5" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B77" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="J77" s="5" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
@@ -5793,36 +5793,36 @@
     </row>
     <row r="78" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A78" s="11" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5842,36 +5842,36 @@
     </row>
     <row r="79" spans="1:27" ht="27" thickBot="1">
       <c r="A79" s="11" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -5891,37 +5891,37 @@
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A80" s="9" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
@@ -5942,36 +5942,36 @@
     </row>
     <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A81" s="11" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -5991,36 +5991,36 @@
     </row>
     <row r="82" spans="1:27" ht="93" thickBot="1">
       <c r="A82" s="11" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -6040,16 +6040,16 @@
     </row>
     <row r="83" spans="1:27" ht="27" thickBot="1">
       <c r="A83" s="11" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -6058,10 +6058,10 @@
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6081,36 +6081,36 @@
     </row>
     <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A84" s="11" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -742,15 +742,9 @@
     <t>ABHI_VYAKTI_03</t>
   </si>
   <si>
-    <t>div[class*='col-md-']:nth-of-type(4)&gt;a:nth-of-type(1)</t>
-  </si>
-  <si>
     <t>//div[contains(@class, 'col-md-')][4]/a[1]</t>
   </si>
   <si>
-    <t>div[class*='col-md-']&gt;a</t>
-  </si>
-  <si>
     <t>//div[contains(@class, 'col-md-')]/a</t>
   </si>
   <si>
@@ -907,27 +901,12 @@
     <t>https://jeevanpramaan.gov.in/</t>
   </si>
   <si>
-    <t>li[class='year'] i[class='fa fa-pencil']</t>
-  </si>
-  <si>
-    <t>//li[@class='year'][1]/i[@class='fa fa-pencil']</t>
-  </si>
-  <si>
-    <t>//li[@class='year']/i[@class='fa fa-pencil']</t>
-  </si>
-  <si>
     <t>JEEVAN_PRAMAAN_03</t>
   </si>
   <si>
-    <t>ul[class='nav main-nav'] li:nth-of-type(4) a[class='scroll']</t>
-  </si>
-  <si>
     <t>//ul[@class='nav main-nav']/li[4]/a[@class='scroll']</t>
   </si>
   <si>
-    <t>ul[class='nav main-nav'] li a[class='scroll']</t>
-  </si>
-  <si>
     <t>//ul[@class='nav main-nav']/li/a[@class='scroll']</t>
   </si>
   <si>
@@ -1538,6 +1517,27 @@
   </si>
   <si>
     <t>div[class='iternl_wrkr'] &gt; span[class='nor_letter']</t>
+  </si>
+  <si>
+    <t>//li[@class='']/a[@class='scroll']</t>
+  </si>
+  <si>
+    <t>ul[class='nav main-nav']&gt;li&gt;a[class='scroll']</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(), 'Home')])[1]</t>
+  </si>
+  <si>
+    <t>li[class] &gt; a[class='scroll']</t>
+  </si>
+  <si>
+    <t>ul[class='nav main-nav']&gt;li:nth-of-type(4)&gt;a[class='scroll']</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-']:nth-of-type(4) &gt; a:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-'] &gt; a</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1647,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1686,6 +1686,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1905,8 +1908,8 @@
   <dimension ref="A1:AA1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1988,22 +1991,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -2039,22 +2042,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -2096,10 +2099,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>24</v>
@@ -2141,22 +2144,22 @@
         <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -2192,16 +2195,16 @@
         <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>32</v>
@@ -2249,16 +2252,16 @@
         <v>39</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>40</v>
@@ -2300,16 +2303,16 @@
         <v>45</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2351,10 +2354,10 @@
         <v>50</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>51</v>
@@ -2402,10 +2405,10 @@
         <v>58</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>59</v>
@@ -2450,13 +2453,13 @@
         <v>64</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>65</v>
@@ -2498,22 +2501,22 @@
         <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>53</v>
@@ -2555,16 +2558,16 @@
         <v>74</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>53</v>
@@ -2606,10 +2609,10 @@
         <v>78</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>79</v>
@@ -2657,10 +2660,10 @@
         <v>85</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>86</v>
@@ -2708,10 +2711,10 @@
         <v>92</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>93</v>
@@ -2759,16 +2762,16 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>88</v>
@@ -2804,22 +2807,22 @@
         <v>102</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>103</v>
@@ -2855,16 +2858,16 @@
         <v>106</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>108</v>
@@ -2903,7 +2906,7 @@
         <v>111</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>112</v>
@@ -2912,10 +2915,10 @@
         <v>113</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>114</v>
@@ -2957,22 +2960,22 @@
         <v>117</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>118</v>
@@ -3005,25 +3008,25 @@
         <v>120</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>121</v>
@@ -3053,22 +3056,22 @@
         <v>35</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>123</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>124</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>125</v>
@@ -3104,28 +3107,28 @@
         <v>35</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>128</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>129</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>121</v>
@@ -3155,22 +3158,22 @@
         <v>131</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>132</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>133</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>134</v>
@@ -3206,22 +3209,22 @@
         <v>131</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>137</v>
@@ -3257,22 +3260,22 @@
         <v>131</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>141</v>
@@ -3308,28 +3311,28 @@
         <v>131</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>145</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>121</v>
@@ -3359,28 +3362,28 @@
         <v>147</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>148</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>149</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>121</v>
@@ -3410,28 +3413,28 @@
         <v>151</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>121</v>
@@ -3461,22 +3464,22 @@
         <v>153</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>154</v>
@@ -3524,10 +3527,10 @@
         <v>161</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>162</v>
@@ -3569,16 +3572,16 @@
         <v>166</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>167</v>
@@ -3614,22 +3617,22 @@
         <v>157</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>170</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>171</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>172</v>
@@ -3677,10 +3680,10 @@
         <v>161</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>177</v>
@@ -3716,28 +3719,28 @@
         <v>180</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>181</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>121</v>
@@ -3773,16 +3776,16 @@
         <v>184</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>185</v>
@@ -3824,16 +3827,16 @@
         <v>189</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>190</v>
@@ -3881,10 +3884,10 @@
         <v>196</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>197</v>
@@ -3932,16 +3935,16 @@
         <v>204</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>121</v>
@@ -3971,22 +3974,22 @@
         <v>180</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>206</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>207</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>208</v>
@@ -4022,22 +4025,22 @@
         <v>180</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>212</v>
@@ -4079,22 +4082,22 @@
         <v>217</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>121</v>
@@ -4124,28 +4127,28 @@
         <v>219</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>121</v>
@@ -4181,22 +4184,22 @@
         <v>222</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>121</v>
@@ -4229,25 +4232,25 @@
         <v>222</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>121</v>
@@ -4283,22 +4286,22 @@
         <v>226</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>121</v>
@@ -4328,28 +4331,28 @@
         <v>221</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>228</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>121</v>
@@ -4379,24 +4382,24 @@
         <v>221</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>121</v>
@@ -4420,30 +4423,30 @@
     </row>
     <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A50" s="11" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4481,16 +4484,16 @@
         <v>235</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>121</v>
@@ -4516,7 +4519,7 @@
       <c r="A52" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="14" t="s">
         <v>231</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -4532,16 +4535,16 @@
         <v>240</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>121</v>
@@ -4567,32 +4570,32 @@
       <c r="A53" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="14" t="s">
         <v>231</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="G53" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="J53" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>121</v>
@@ -4616,37 +4619,37 @@
     </row>
     <row r="54" spans="1:27" ht="264">
       <c r="A54" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>231</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="G54" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="J54" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="K54" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -4667,37 +4670,37 @@
     </row>
     <row r="55" spans="1:27" ht="158.4">
       <c r="A55" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="D55" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="G55" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="J55" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="I55" s="5" t="s">
+      <c r="K55" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4718,37 +4721,37 @@
     </row>
     <row r="56" spans="1:27" ht="158.4">
       <c r="A56" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C56" s="5" t="s">
+      <c r="E56" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="J56" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>268</v>
-      </c>
       <c r="K56" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
@@ -4769,34 +4772,34 @@
     </row>
     <row r="57" spans="1:27" ht="26.4">
       <c r="A57" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="D57" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="G57" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="J57" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>121</v>
@@ -4820,34 +4823,34 @@
     </row>
     <row r="58" spans="1:27" ht="26.4">
       <c r="A58" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="G58" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="F58" s="5" t="s">
+      <c r="J58" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>121</v>
@@ -4871,37 +4874,37 @@
     </row>
     <row r="59" spans="1:27" ht="52.8">
       <c r="A59" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="E59" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="G59" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="F59" s="5" t="s">
+      <c r="J59" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>287</v>
-      </c>
       <c r="K59" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -4922,37 +4925,37 @@
     </row>
     <row r="60" spans="1:27" ht="26.4">
       <c r="A60" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>290</v>
-      </c>
       <c r="E60" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -4973,34 +4976,34 @@
     </row>
     <row r="61" spans="1:27" ht="26.4">
       <c r="A61" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="D61" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>294</v>
-      </c>
       <c r="E61" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>121</v>
@@ -5024,37 +5027,37 @@
     </row>
     <row r="62" spans="1:27" ht="39.6">
       <c r="A62" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>297</v>
+        <v>504</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>298</v>
+        <v>501</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>393</v>
+        <v>502</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>299</v>
+        <v>58</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>393</v>
+        <v>278</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>393</v>
+        <v>503</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -5075,34 +5078,34 @@
     </row>
     <row r="63" spans="1:27" ht="52.8">
       <c r="A63" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>302</v>
-      </c>
       <c r="E63" s="5" t="s">
-        <v>303</v>
+        <v>502</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>121</v>
@@ -5126,34 +5129,34 @@
     </row>
     <row r="64" spans="1:27" ht="52.8">
       <c r="A64" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>121</v>
@@ -5177,34 +5180,34 @@
     </row>
     <row r="65" spans="1:27" ht="52.8">
       <c r="A65" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>121</v>
@@ -5228,34 +5231,34 @@
     </row>
     <row r="66" spans="1:27" ht="13.2">
       <c r="A66" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>121</v>
@@ -5279,40 +5282,40 @@
     </row>
     <row r="67" spans="1:27" ht="92.4">
       <c r="A67" s="3" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -5332,34 +5335,34 @@
     </row>
     <row r="68" spans="1:27" ht="79.2">
       <c r="A68" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>121</v>
@@ -5383,34 +5386,34 @@
     </row>
     <row r="69" spans="1:27" ht="79.2">
       <c r="A69" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>121</v>
@@ -5434,34 +5437,34 @@
     </row>
     <row r="70" spans="1:27" ht="13.2">
       <c r="A70" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>121</v>
@@ -5485,40 +5488,40 @@
     </row>
     <row r="71" spans="1:27" ht="66">
       <c r="A71" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -5538,34 +5541,34 @@
     </row>
     <row r="72" spans="1:27" ht="66">
       <c r="A72" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>121</v>
@@ -5589,34 +5592,34 @@
     </row>
     <row r="73" spans="1:27" ht="106.2" thickBot="1">
       <c r="A73" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>121</v>
@@ -5640,22 +5643,22 @@
     </row>
     <row r="74" spans="1:27" ht="106.2" thickBot="1">
       <c r="A74" s="11" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -5665,7 +5668,7 @@
         <v>121</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5685,34 +5688,34 @@
     </row>
     <row r="75" spans="1:27" ht="118.8">
       <c r="A75" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="J75" s="5" t="s">
         <v>364</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>371</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>121</v>
@@ -5736,34 +5739,34 @@
     </row>
     <row r="76" spans="1:27" ht="39.6">
       <c r="A76" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="J76" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>121</v>
@@ -5787,34 +5790,34 @@
     </row>
     <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A77" s="5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>121</v>
@@ -5838,36 +5841,36 @@
     </row>
     <row r="78" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A78" s="11" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5887,36 +5890,36 @@
     </row>
     <row r="79" spans="1:27" ht="27" thickBot="1">
       <c r="A79" s="11" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K79" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -5936,34 +5939,34 @@
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A80" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="J80" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>392</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>121</v>
@@ -5987,34 +5990,34 @@
     </row>
     <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A81" s="11" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="13" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="K81" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -6034,22 +6037,22 @@
     </row>
     <row r="82" spans="1:27" ht="79.8" thickBot="1">
       <c r="A82" s="11" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -6059,7 +6062,7 @@
         <v>121</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -6079,16 +6082,16 @@
     </row>
     <row r="83" spans="1:27" ht="27" thickBot="1">
       <c r="A83" s="11" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -6097,10 +6100,10 @@
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6120,36 +6123,36 @@
     </row>
     <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A84" s="11" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B84" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="F84" s="11" t="s">
         <v>445</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>452</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -6169,22 +6172,22 @@
     </row>
     <row r="85" spans="1:27" ht="79.8" thickBot="1">
       <c r="A85" s="11" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -6192,7 +6195,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -6212,16 +6215,16 @@
     </row>
     <row r="86" spans="1:27" ht="93" thickBot="1">
       <c r="A86" s="11" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B86" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>456</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>463</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -6231,7 +6234,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -6251,34 +6254,34 @@
     </row>
     <row r="87" spans="1:27" ht="277.8" thickBot="1">
       <c r="A87" s="11" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="K87" s="11"/>
       <c r="L87" s="11" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -6298,16 +6301,16 @@
     </row>
     <row r="88" spans="1:27" ht="27" thickBot="1">
       <c r="A88" s="11" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -6317,7 +6320,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="132" yWindow="540" windowWidth="22716" windowHeight="10788"/>
@@ -1186,15 +1186,9 @@
     <t>UITRGPV_AC_09</t>
   </si>
   <si>
-    <t>div[class*='col-lg-']:nth-of-type(1) div[class='footer_col'] ul[class='list-item']&gt;i[class='la la-angle-right']:nth-of-type(1)</t>
-  </si>
-  <si>
     <t>//footer//div[contains(@class, 'col-lg-')][1]//ul[@class='list-item']/i[@class='la la-angle-right'][1]</t>
   </si>
   <si>
-    <t>div[class*='col-lg-'] div[class='footer_col'] ul[class='list-item']&gt;i[class='la la-angle-right']</t>
-  </si>
-  <si>
     <t>//footer//div[contains(@class, 'col-lg-')]//ul[@class='list-item']/i[@class='la la-angle-right']</t>
   </si>
   <si>
@@ -1490,12 +1484,18 @@
   </si>
   <si>
     <t>//div[@class='border-all ng-star-inserted']//div[@class='sliderDiv ng-star-inserted']//span[contains(@class, 'ui-slider-range')]</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-']:nth-of-type(1)&gt;div[class='footer_col'] ul[class='list-item']&gt;i[class='la la-angle-right']:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-']&gt;div[class='footer_col'] ul[class='list-item']&gt;i[class='la la-angle-right']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="9">
     <font>
       <sz val="10"/>
@@ -1853,15 +1853,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2090,7 +2090,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>27</v>
@@ -2243,10 +2243,10 @@
         <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>371</v>
@@ -2294,13 +2294,13 @@
         <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>43</v>
@@ -2498,13 +2498,13 @@
         <v>34</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>66</v>
@@ -2654,7 +2654,7 @@
         <v>82</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>83</v>
@@ -2702,16 +2702,16 @@
         <v>34</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>489</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>491</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>371</v>
@@ -2810,7 +2810,7 @@
         <v>94</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>95</v>
@@ -2855,13 +2855,13 @@
         <v>34</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>453</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>455</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>99</v>
@@ -2960,7 +2960,7 @@
         <v>106</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>371</v>
@@ -3008,13 +3008,13 @@
         <v>34</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>110</v>
@@ -3065,7 +3065,7 @@
         <v>114</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>115</v>
@@ -3110,13 +3110,13 @@
         <v>117</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>118</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>119</v>
@@ -3161,16 +3161,16 @@
         <v>117</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>424</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>426</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>371</v>
@@ -3212,7 +3212,7 @@
         <v>117</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>126</v>
@@ -3269,7 +3269,7 @@
         <v>130</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>131</v>
@@ -3365,10 +3365,10 @@
         <v>137</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>371</v>
@@ -3926,13 +3926,13 @@
         <v>166</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>193</v>
@@ -4079,10 +4079,10 @@
         <v>205</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>371</v>
@@ -4184,7 +4184,7 @@
         <v>208</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>371</v>
@@ -4283,13 +4283,13 @@
         <v>207</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>214</v>
@@ -4301,10 +4301,10 @@
         <v>371</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>107</v>
@@ -4334,10 +4334,10 @@
         <v>207</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -4348,10 +4348,10 @@
         <v>371</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>107</v>
@@ -4381,10 +4381,10 @@
         <v>385</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -4781,13 +4781,13 @@
         <v>256</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>264</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>265</v>
@@ -4832,13 +4832,13 @@
         <v>269</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>270</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>271</v>
@@ -5601,16 +5601,16 @@
         <v>308</v>
       </c>
       <c r="C74" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="E74" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="F74" s="11" t="s">
         <v>391</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>393</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -5620,7 +5620,7 @@
         <v>107</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5646,16 +5646,16 @@
         <v>351</v>
       </c>
       <c r="C75" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="E75" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="F75" s="9" t="s">
         <v>469</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>471</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>371</v>
@@ -5697,13 +5697,13 @@
         <v>355</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>356</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>357</v>
@@ -5793,36 +5793,36 @@
     </row>
     <row r="78" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A78" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="E78" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="F78" s="11" t="s">
         <v>396</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>398</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>107</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5842,36 +5842,36 @@
     </row>
     <row r="79" spans="1:27" ht="27" thickBot="1">
       <c r="A79" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="D79" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="E79" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="F79" s="11" t="s">
         <v>404</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>406</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K79" s="11" t="s">
         <v>107</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -5897,13 +5897,13 @@
         <v>366</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>367</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>368</v>
@@ -5942,36 +5942,36 @@
     </row>
     <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A81" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>366</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K81" s="11" t="s">
         <v>107</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -5991,36 +5991,36 @@
     </row>
     <row r="82" spans="1:27" ht="93" thickBot="1">
       <c r="A82" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>366</v>
       </c>
       <c r="C82" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="E82" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="F82" s="11" t="s">
         <v>461</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>463</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>107</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -6040,16 +6040,16 @@
     </row>
     <row r="83" spans="1:27" ht="27" thickBot="1">
       <c r="A83" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="D83" s="13" t="s">
         <v>415</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>417</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -6061,7 +6061,7 @@
         <v>249</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6081,36 +6081,36 @@
     </row>
     <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A84" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="F84" s="11" t="s">
         <v>418</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>420</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>107</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -919,9 +919,6 @@
     <t>JEEVAN_PRAMAAN_04</t>
   </si>
   <si>
-    <t>p[class='footer-text copyright']:nth-of-type(1) a:nth-of-type(1)</t>
-  </si>
-  <si>
     <t>//p[@class='footer-text copyright'][1]/a[1]</t>
   </si>
   <si>
@@ -1538,6 +1535,9 @@
   </si>
   <si>
     <t>div[class*='col-md-'] &gt; a</t>
+  </si>
+  <si>
+    <t>p[class='footer-text copyright']:nth-of-type(1) &gt; a:nth-of-type(1)</t>
   </si>
 </sst>
 </file>
@@ -1908,8 +1908,8 @@
   <dimension ref="A1:AA1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1991,22 +1991,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -2042,22 +2042,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -2099,10 +2099,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>24</v>
@@ -2144,22 +2144,22 @@
         <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -2195,16 +2195,16 @@
         <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>32</v>
@@ -2252,16 +2252,16 @@
         <v>39</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>40</v>
@@ -2303,16 +2303,16 @@
         <v>45</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2354,10 +2354,10 @@
         <v>50</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>51</v>
@@ -2405,10 +2405,10 @@
         <v>58</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>59</v>
@@ -2453,13 +2453,13 @@
         <v>64</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>65</v>
@@ -2501,22 +2501,22 @@
         <v>69</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>53</v>
@@ -2558,16 +2558,16 @@
         <v>74</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>53</v>
@@ -2609,10 +2609,10 @@
         <v>78</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>79</v>
@@ -2660,10 +2660,10 @@
         <v>85</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>86</v>
@@ -2711,10 +2711,10 @@
         <v>92</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>93</v>
@@ -2762,16 +2762,16 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>88</v>
@@ -2807,22 +2807,22 @@
         <v>102</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>103</v>
@@ -2858,16 +2858,16 @@
         <v>106</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>108</v>
@@ -2906,7 +2906,7 @@
         <v>111</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>112</v>
@@ -2915,10 +2915,10 @@
         <v>113</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>114</v>
@@ -2960,22 +2960,22 @@
         <v>117</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>118</v>
@@ -3008,25 +3008,25 @@
         <v>120</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>121</v>
@@ -3056,22 +3056,22 @@
         <v>35</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>123</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>124</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>125</v>
@@ -3107,28 +3107,28 @@
         <v>35</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>128</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>129</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>121</v>
@@ -3158,22 +3158,22 @@
         <v>131</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>132</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>133</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>134</v>
@@ -3209,22 +3209,22 @@
         <v>131</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>470</v>
-      </c>
       <c r="G26" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>137</v>
@@ -3260,22 +3260,22 @@
         <v>131</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>141</v>
@@ -3311,28 +3311,28 @@
         <v>131</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>145</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>121</v>
@@ -3362,28 +3362,28 @@
         <v>147</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>148</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>149</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>121</v>
@@ -3413,28 +3413,28 @@
         <v>151</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>475</v>
-      </c>
       <c r="E30" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>121</v>
@@ -3464,22 +3464,22 @@
         <v>153</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="E31" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="F31" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>394</v>
-      </c>
       <c r="G31" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>154</v>
@@ -3527,10 +3527,10 @@
         <v>161</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>162</v>
@@ -3572,16 +3572,16 @@
         <v>166</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>167</v>
@@ -3617,22 +3617,22 @@
         <v>157</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>170</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>171</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>172</v>
@@ -3680,10 +3680,10 @@
         <v>161</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>177</v>
@@ -3719,28 +3719,28 @@
         <v>180</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>181</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>121</v>
@@ -3776,16 +3776,16 @@
         <v>184</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>185</v>
@@ -3827,16 +3827,16 @@
         <v>189</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>190</v>
@@ -3884,10 +3884,10 @@
         <v>196</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>197</v>
@@ -3935,16 +3935,16 @@
         <v>204</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>121</v>
@@ -3974,22 +3974,22 @@
         <v>180</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>206</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>207</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>208</v>
@@ -4025,22 +4025,22 @@
         <v>180</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>212</v>
@@ -4082,22 +4082,22 @@
         <v>217</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>121</v>
@@ -4127,28 +4127,28 @@
         <v>219</v>
       </c>
       <c r="C44" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>477</v>
-      </c>
       <c r="E44" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>121</v>
@@ -4184,22 +4184,22 @@
         <v>222</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>121</v>
@@ -4232,25 +4232,25 @@
         <v>222</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>121</v>
@@ -4286,22 +4286,22 @@
         <v>226</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>121</v>
@@ -4331,28 +4331,28 @@
         <v>221</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>228</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I48" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="J48" s="5" t="s">
         <v>486</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>487</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>121</v>
@@ -4382,24 +4382,24 @@
         <v>221</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>481</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>482</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>121</v>
@@ -4423,30 +4423,30 @@
     </row>
     <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A50" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>400</v>
-      </c>
       <c r="C50" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="H50" s="11" t="s">
         <v>401</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>402</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4484,16 +4484,16 @@
         <v>235</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>121</v>
@@ -4535,16 +4535,16 @@
         <v>240</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>121</v>
@@ -4574,22 +4574,22 @@
         <v>231</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>242</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>243</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>244</v>
@@ -4637,10 +4637,10 @@
         <v>250</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>251</v>
@@ -4649,7 +4649,7 @@
         <v>252</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -4688,10 +4688,10 @@
         <v>258</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>259</v>
@@ -4733,16 +4733,16 @@
         <v>264</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>265</v>
@@ -4790,10 +4790,10 @@
         <v>272</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>273</v>
@@ -4829,22 +4829,22 @@
         <v>268</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>276</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>277</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>278</v>
@@ -4880,22 +4880,22 @@
         <v>281</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>282</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>283</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>284</v>
@@ -4937,22 +4937,22 @@
         <v>288</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>261</v>
@@ -4988,22 +4988,22 @@
         <v>292</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>121</v>
@@ -5033,28 +5033,28 @@
         <v>294</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D62" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>501</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>502</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>278</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>261</v>
@@ -5084,22 +5084,22 @@
         <v>294</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>296</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>297</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>298</v>
@@ -5135,28 +5135,28 @@
         <v>294</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="F64" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="G64" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I64" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="I64" s="5" t="s">
+      <c r="J64" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>121</v>
@@ -5180,34 +5180,34 @@
     </row>
     <row r="65" spans="1:27" ht="52.8">
       <c r="A65" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>294</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="F65" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="G65" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="G65" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="I65" s="5" t="s">
+      <c r="J65" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>313</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>121</v>
@@ -5231,34 +5231,34 @@
     </row>
     <row r="66" spans="1:27" ht="13.2">
       <c r="A66" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="D66" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>121</v>
@@ -5282,40 +5282,40 @@
     </row>
     <row r="67" spans="1:27" ht="92.4">
       <c r="A67" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C67" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="E67" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="F67" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>321</v>
-      </c>
       <c r="G67" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -5335,34 +5335,34 @@
     </row>
     <row r="68" spans="1:27" ht="79.2">
       <c r="A68" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C68" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="F68" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>327</v>
-      </c>
       <c r="G68" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>121</v>
@@ -5386,34 +5386,34 @@
     </row>
     <row r="69" spans="1:27" ht="79.2">
       <c r="A69" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C69" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="G69" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="I69" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>121</v>
@@ -5437,34 +5437,34 @@
     </row>
     <row r="70" spans="1:27" ht="13.2">
       <c r="A70" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="E70" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>121</v>
@@ -5488,40 +5488,40 @@
     </row>
     <row r="71" spans="1:27" ht="66">
       <c r="A71" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C71" s="10" t="s">
+      <c r="D71" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="E71" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="F71" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="G71" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>121</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -5541,34 +5541,34 @@
     </row>
     <row r="72" spans="1:27" ht="66">
       <c r="A72" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C72" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="F72" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="G72" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="G72" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="I72" s="5" t="s">
+      <c r="J72" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>350</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>121</v>
@@ -5592,34 +5592,34 @@
     </row>
     <row r="73" spans="1:27" ht="106.2" thickBot="1">
       <c r="A73" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>354</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I73" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J73" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>121</v>
@@ -5643,22 +5643,22 @@
     </row>
     <row r="74" spans="1:27" ht="106.2" thickBot="1">
       <c r="A74" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="C74" s="11" t="s">
+      <c r="D74" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="E74" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="F74" s="11" t="s">
         <v>407</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>408</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -5668,7 +5668,7 @@
         <v>121</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5688,34 +5688,34 @@
     </row>
     <row r="75" spans="1:27" ht="118.8">
       <c r="A75" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="C75" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="F75" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="G75" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I75" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="G75" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="I75" s="5" t="s">
+      <c r="J75" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>121</v>
@@ -5739,34 +5739,34 @@
     </row>
     <row r="76" spans="1:27" ht="39.6">
       <c r="A76" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="C76" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="F76" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="G76" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="I76" s="5" t="s">
+      <c r="J76" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>372</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>121</v>
@@ -5790,34 +5790,34 @@
     </row>
     <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A77" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="E77" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="I77" s="5" t="s">
+      <c r="J77" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>121</v>
@@ -5841,36 +5841,36 @@
     </row>
     <row r="78" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A78" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B78" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="C78" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="D78" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="E78" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="F78" s="11" t="s">
         <v>414</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>415</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="J78" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="J78" s="11" t="s">
-        <v>417</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5890,36 +5890,36 @@
     </row>
     <row r="79" spans="1:27" ht="27" thickBot="1">
       <c r="A79" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="C79" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="D79" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="E79" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="F79" s="11" t="s">
         <v>422</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>423</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>424</v>
-      </c>
-      <c r="J79" s="11" t="s">
-        <v>425</v>
       </c>
       <c r="K79" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -5939,34 +5939,34 @@
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A80" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="C80" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="F80" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="G80" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="I80" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="G80" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="I80" s="5" t="s">
+      <c r="J80" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>121</v>
@@ -5990,34 +5990,34 @@
     </row>
     <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A81" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="B81" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="C81" s="11" t="s">
+      <c r="D81" s="13" t="s">
         <v>427</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>428</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="J81" s="11" t="s">
         <v>430</v>
-      </c>
-      <c r="J81" s="11" t="s">
-        <v>431</v>
       </c>
       <c r="K81" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -6037,22 +6037,22 @@
     </row>
     <row r="82" spans="1:27" ht="79.8" thickBot="1">
       <c r="A82" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="C82" s="11" t="s">
+      <c r="D82" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="E82" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="F82" s="11" t="s">
         <v>435</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>436</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -6062,7 +6062,7 @@
         <v>121</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -6082,16 +6082,16 @@
     </row>
     <row r="83" spans="1:27" ht="27" thickBot="1">
       <c r="A83" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="C83" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="D83" s="13" t="s">
         <v>439</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>440</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
@@ -6103,7 +6103,7 @@
         <v>261</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6123,36 +6123,36 @@
     </row>
     <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A84" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="C84" s="11" t="s">
+      <c r="D84" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="E84" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="F84" s="11" t="s">
         <v>444</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>445</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="J84" s="11" t="s">
         <v>446</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>447</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>121</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -6172,22 +6172,22 @@
     </row>
     <row r="85" spans="1:27" ht="79.8" thickBot="1">
       <c r="A85" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="C85" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="D85" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="E85" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="F85" s="11" t="s">
         <v>452</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>453</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -6195,7 +6195,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -6215,16 +6215,16 @@
     </row>
     <row r="86" spans="1:27" ht="93" thickBot="1">
       <c r="A86" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="C86" s="11" t="s">
+      <c r="D86" s="11" t="s">
         <v>455</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>456</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -6234,7 +6234,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -6254,34 +6254,34 @@
     </row>
     <row r="87" spans="1:27" ht="277.8" thickBot="1">
       <c r="A87" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="C87" s="11" t="s">
+      <c r="D87" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="E87" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="F87" s="11" t="s">
         <v>460</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>461</v>
       </c>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>462</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>463</v>
       </c>
       <c r="K87" s="11"/>
       <c r="L87" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -6301,16 +6301,16 @@
     </row>
     <row r="88" spans="1:27" ht="27" thickBot="1">
       <c r="A88" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="B88" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="C88" s="11" t="s">
+      <c r="D88" s="13" t="s">
         <v>465</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>466</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -6320,7 +6320,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="469">
   <si>
     <t>ID</t>
   </si>
@@ -949,36 +949,9 @@
     <t>UITRGPV_AC_02</t>
   </si>
   <si>
-    <t>div[class*='owl-item']:nth-of-type(13) div[class='courses_div'] img[class='img-fluid']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'owl-item')][13]//div[@class='courses_div']//img[@class='img-fluid']</t>
-  </si>
-  <si>
-    <t>div[class*='owl-item'] div[class='courses_div'] img[class='img-fluid']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'owl-item')]//div[@class='courses_div']//img[@class='img-fluid']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">civil engineering </t>
-  </si>
-  <si>
     <t>UITRGPV_AC_03</t>
   </si>
   <si>
-    <t>div[class*='owl-item']:nth-of-type(2) img[class*='w-']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'owl-item cloned')][2]//img[contains(@class, 'w-')]</t>
-  </si>
-  <si>
-    <t>div[class*='owl-item'] img[class*='w-']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'owl-item cloned')]//img[contains(@class, 'w-')]</t>
-  </si>
-  <si>
     <t>UITRGPV_AC_04</t>
   </si>
   <si>
@@ -1009,36 +982,9 @@
     <t>//a[@class='overlay-link play-now ripple']</t>
   </si>
   <si>
-    <t>UITRGPV_AC_06</t>
-  </si>
-  <si>
-    <t>div[class*='owl-item']:nth-of-type(10) div[class='facility_box']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'owl-item')][10]//div[@class='facility_box']</t>
-  </si>
-  <si>
-    <t>div[class*='owl-item'] div[class='facility_box']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'owl-item')]//div[@class='facility_box']</t>
-  </si>
-  <si>
-    <t>class room</t>
-  </si>
-  <si>
-    <t>UITRGPV_AC_07</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-']:nth-of-type(2) ul[class='list-item'] li:nth-of-type(1) a</t>
-  </si>
-  <si>
     <t>//div[contains(@class, 'col-lg-')][2]//ul[@class='list-item']/li[1]/a</t>
   </si>
   <si>
-    <t>div[class*='col-lg-'] ul[class='list-item'] li a</t>
-  </si>
-  <si>
     <t>//div[contains(@class, 'col-lg-')]//ul[@class='list-item']/li/a</t>
   </si>
   <si>
@@ -1048,24 +994,6 @@
     <t>//a[contains(text(), 'Photo Gallery')]</t>
   </si>
   <si>
-    <t>UITRGPV_AC_08</t>
-  </si>
-  <si>
-    <t>tr[class='SelectedItem']:nth-of-type(3) a[id*='UCTabs']</t>
-  </si>
-  <si>
-    <t>//ul[@class='list-item']//table[contains(@id, 'UCTabs')]//tr[@class='SelectedItem']//a[contains(@id, 'UCTabs')]</t>
-  </si>
-  <si>
-    <t>tr[class='SelectedItem'] a[id*='UCTabs']</t>
-  </si>
-  <si>
-    <t>a:contains(Proctorial Order September 2023)</t>
-  </si>
-  <si>
-    <t>(//a[contains(text(), 'Proctorial Order September 2023')])[2]</t>
-  </si>
-  <si>
     <t>Demo_QA_01</t>
   </si>
   <si>
@@ -1183,9 +1111,6 @@
     <t>Shubham</t>
   </si>
   <si>
-    <t>UITRGPV_AC_09</t>
-  </si>
-  <si>
     <t>//footer//div[contains(@class, 'col-lg-')][1]//ul[@class='list-item']/i[@class='la la-angle-right'][1]</t>
   </si>
   <si>
@@ -1490,6 +1415,12 @@
   </si>
   <si>
     <t>div[class*='col-lg-']&gt;div[class='footer_col'] ul[class='list-item']&gt;i[class='la la-angle-right']</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-']:nth-of-type(2) ul[class='list-item']&gt;li:nth-of-type(1)&gt;a</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-'] ul[class='list-item']&gt;li&gt;a</t>
   </si>
 </sst>
 </file>
@@ -1857,11 +1788,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1006"/>
+  <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I75" sqref="I75"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1943,22 +1874,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -1994,22 +1925,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -2051,10 +1982,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>24</v>
@@ -2090,28 +2021,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -2147,16 +2078,16 @@
         <v>30</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>31</v>
@@ -2204,16 +2135,16 @@
         <v>38</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>39</v>
@@ -2243,28 +2174,28 @@
         <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2294,22 +2225,22 @@
         <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>44</v>
@@ -2357,10 +2288,10 @@
         <v>51</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>52</v>
@@ -2408,10 +2339,10 @@
         <v>51</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>58</v>
@@ -2453,22 +2384,22 @@
         <v>62</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>46</v>
@@ -2498,28 +2429,28 @@
         <v>34</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>46</v>
@@ -2561,10 +2492,10 @@
         <v>70</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>71</v>
@@ -2612,10 +2543,10 @@
         <v>77</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>78</v>
@@ -2654,7 +2585,7 @@
         <v>82</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>83</v>
@@ -2663,10 +2594,10 @@
         <v>84</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>85</v>
@@ -2702,28 +2633,28 @@
         <v>34</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>80</v>
@@ -2759,22 +2690,22 @@
         <v>90</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>91</v>
@@ -2810,16 +2741,16 @@
         <v>94</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>95</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>96</v>
@@ -2855,22 +2786,22 @@
         <v>34</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>99</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>100</v>
@@ -2912,22 +2843,22 @@
         <v>103</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>104</v>
@@ -2960,25 +2891,25 @@
         <v>106</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>107</v>
@@ -3008,22 +2939,22 @@
         <v>34</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>110</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>111</v>
@@ -3059,28 +2990,28 @@
         <v>34</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>114</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>115</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>107</v>
@@ -3110,22 +3041,22 @@
         <v>117</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>118</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>119</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>120</v>
@@ -3161,22 +3092,22 @@
         <v>117</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>123</v>
@@ -3212,22 +3143,22 @@
         <v>117</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>126</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>127</v>
@@ -3263,28 +3194,28 @@
         <v>117</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>130</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>131</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>107</v>
@@ -3314,28 +3245,28 @@
         <v>133</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>134</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>135</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>107</v>
@@ -3365,28 +3296,28 @@
         <v>137</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>107</v>
@@ -3416,22 +3347,22 @@
         <v>139</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>140</v>
@@ -3479,10 +3410,10 @@
         <v>147</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>148</v>
@@ -3524,16 +3455,16 @@
         <v>152</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>153</v>
@@ -3569,22 +3500,22 @@
         <v>143</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>156</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>157</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>158</v>
@@ -3632,10 +3563,10 @@
         <v>147</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>163</v>
@@ -3671,28 +3602,28 @@
         <v>166</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>107</v>
@@ -3728,16 +3659,16 @@
         <v>170</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>171</v>
@@ -3779,16 +3710,16 @@
         <v>175</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>176</v>
@@ -3836,10 +3767,10 @@
         <v>182</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>183</v>
@@ -3887,16 +3818,16 @@
         <v>190</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>107</v>
@@ -3926,22 +3857,22 @@
         <v>166</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>193</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>194</v>
@@ -3977,22 +3908,22 @@
         <v>166</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>198</v>
@@ -4034,22 +3965,22 @@
         <v>203</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>107</v>
@@ -4079,28 +4010,28 @@
         <v>205</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>107</v>
@@ -4136,22 +4067,22 @@
         <v>208</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>107</v>
@@ -4184,25 +4115,25 @@
         <v>208</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>107</v>
@@ -4238,22 +4169,22 @@
         <v>212</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>107</v>
@@ -4283,28 +4214,28 @@
         <v>207</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>214</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>107</v>
@@ -4334,24 +4265,24 @@
         <v>207</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>107</v>
@@ -4375,30 +4306,30 @@
     </row>
     <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A50" s="11" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4436,16 +4367,16 @@
         <v>221</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>107</v>
@@ -4487,16 +4418,16 @@
         <v>226</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>107</v>
@@ -4538,10 +4469,10 @@
         <v>231</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>232</v>
@@ -4589,10 +4520,10 @@
         <v>238</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>239</v>
@@ -4601,7 +4532,7 @@
         <v>240</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -4640,10 +4571,10 @@
         <v>246</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>247</v>
@@ -4685,16 +4616,16 @@
         <v>252</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>253</v>
@@ -4742,10 +4673,10 @@
         <v>260</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>261</v>
@@ -4781,22 +4712,22 @@
         <v>256</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>264</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>265</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>266</v>
@@ -4832,22 +4763,22 @@
         <v>269</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>270</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>271</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>272</v>
@@ -4889,22 +4820,22 @@
         <v>276</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>249</v>
@@ -4940,22 +4871,22 @@
         <v>280</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>107</v>
@@ -4991,22 +4922,22 @@
         <v>284</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>285</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>249</v>
@@ -5048,10 +4979,10 @@
         <v>290</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>291</v>
@@ -5099,10 +5030,10 @@
         <v>297</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>298</v>
@@ -5150,10 +5081,10 @@
         <v>304</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>305</v>
@@ -5195,22 +5126,22 @@
         <v>309</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>107</v>
@@ -5232,43 +5163,41 @@
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
     </row>
-    <row r="67" spans="1:27" ht="92.4">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:27" ht="79.2">
+      <c r="A67" s="6" t="s">
         <v>310</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>308</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L67" s="5" t="s">
-        <v>315</v>
-      </c>
+      <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
@@ -5285,87 +5214,87 @@
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
     </row>
-    <row r="68" spans="1:27" ht="79.2">
-      <c r="A68" s="3" t="s">
-        <v>316</v>
+    <row r="68" spans="1:27" ht="13.2">
+      <c r="A68" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="F68" s="5" t="s">
+      <c r="C68" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="D68" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>347</v>
+      </c>
       <c r="G68" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>371</v>
+        <v>347</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
-      <c r="AA68" s="9"/>
-    </row>
-    <row r="69" spans="1:27" ht="79.2">
-      <c r="A69" s="3" t="s">
-        <v>321</v>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
+      <c r="AA68" s="6"/>
+    </row>
+    <row r="69" spans="1:27" ht="66.599999999999994" thickBot="1">
+      <c r="A69" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="E69" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F69" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="G69" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="J69" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>327</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>107</v>
@@ -5387,140 +5316,132 @@
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
     </row>
-    <row r="70" spans="1:27" ht="13.2">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:27" ht="106.2" thickBot="1">
+      <c r="A70" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
+      <c r="W70" s="11"/>
+      <c r="X70" s="11"/>
+      <c r="Y70" s="11"/>
+      <c r="Z70" s="11"/>
+      <c r="AA70" s="11"/>
+    </row>
+    <row r="71" spans="1:27" ht="118.8">
+      <c r="A71" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="I71" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="J71" s="9" t="s">
         <v>329</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
-      <c r="AA70" s="6"/>
-    </row>
-    <row r="71" spans="1:27" ht="66">
-      <c r="A71" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>371</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L71" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="6"/>
-      <c r="W71" s="6"/>
-      <c r="X71" s="6"/>
-      <c r="Y71" s="6"/>
-      <c r="Z71" s="6"/>
-      <c r="AA71" s="6"/>
-    </row>
-    <row r="72" spans="1:27" ht="66">
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+      <c r="AA71" s="9"/>
+    </row>
+    <row r="72" spans="1:27" ht="39.6">
       <c r="A72" s="5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>341</v>
+        <v>331</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>107</v>
@@ -5542,36 +5463,36 @@
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
     </row>
-    <row r="73" spans="1:27" ht="106.2" thickBot="1">
+    <row r="73" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A73" s="5" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>345</v>
+        <v>327</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>337</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>347</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>51</v>
+        <v>347</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>107</v>
@@ -5593,34 +5514,38 @@
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
     </row>
-    <row r="74" spans="1:27" ht="106.2" thickBot="1">
+    <row r="74" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A74" s="11" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>308</v>
+        <v>369</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
+      <c r="I74" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>373</v>
+      </c>
       <c r="K74" s="11" t="s">
         <v>107</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5638,87 +5563,85 @@
       <c r="Z74" s="11"/>
       <c r="AA74" s="11"/>
     </row>
-    <row r="75" spans="1:27" ht="118.8">
-      <c r="A75" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="K75" s="5" t="s">
+    <row r="75" spans="1:27" ht="27" thickBot="1">
+      <c r="A75" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="K75" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
-      <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="9"/>
-      <c r="Y75" s="9"/>
-      <c r="Z75" s="9"/>
-      <c r="AA75" s="9"/>
-    </row>
-    <row r="76" spans="1:27" ht="39.6">
-      <c r="A76" s="5" t="s">
-        <v>354</v>
+      <c r="L75" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="11"/>
+      <c r="AA75" s="11"/>
+    </row>
+    <row r="76" spans="1:27" ht="66.599999999999994" thickBot="1">
+      <c r="A76" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>107</v>
@@ -5741,88 +5664,86 @@
       <c r="AA76" s="9"/>
     </row>
     <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
-      <c r="A77" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="K77" s="5" t="s">
+      <c r="A77" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="K77" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9"/>
-      <c r="Y77" s="9"/>
-      <c r="Z77" s="9"/>
-      <c r="AA77" s="9"/>
-    </row>
-    <row r="78" spans="1:27" ht="145.80000000000001" thickBot="1">
+      <c r="L77" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
+      <c r="AA77" s="11"/>
+    </row>
+    <row r="78" spans="1:27" ht="93" thickBot="1">
       <c r="A78" s="11" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>107</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5842,36 +5763,28 @@
     </row>
     <row r="79" spans="1:27" ht="27" thickBot="1">
       <c r="A79" s="11" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>404</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
-      <c r="I79" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="J79" s="11" t="s">
-        <v>406</v>
-      </c>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
       <c r="K79" s="11" t="s">
-        <v>107</v>
+        <v>249</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -5890,243 +5803,169 @@
       <c r="AA79" s="11"/>
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
-      <c r="A80" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="D80" s="9" t="s">
+      <c r="A80" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L80" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E80" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9"/>
-      <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
-      <c r="X80" s="9"/>
-      <c r="Y80" s="9"/>
-      <c r="Z80" s="9"/>
-      <c r="AA80" s="9"/>
-    </row>
-    <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
-      <c r="A81" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="J81" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="K81" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L81" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="M81" s="11"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="11"/>
-      <c r="R81" s="11"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
-      <c r="U81" s="11"/>
-      <c r="V81" s="11"/>
-      <c r="W81" s="11"/>
-      <c r="X81" s="11"/>
-      <c r="Y81" s="11"/>
-      <c r="Z81" s="11"/>
-      <c r="AA81" s="11"/>
-    </row>
-    <row r="82" spans="1:27" ht="93" thickBot="1">
-      <c r="A82" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="J82" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="K82" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L82" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11"/>
-      <c r="U82" s="11"/>
-      <c r="V82" s="11"/>
-      <c r="W82" s="11"/>
-      <c r="X82" s="11"/>
-      <c r="Y82" s="11"/>
-      <c r="Z82" s="11"/>
-      <c r="AA82" s="11"/>
-    </row>
-    <row r="83" spans="1:27" ht="27" thickBot="1">
-      <c r="A83" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="L83" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="11"/>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11"/>
-      <c r="U83" s="11"/>
-      <c r="V83" s="11"/>
-      <c r="W83" s="11"/>
-      <c r="X83" s="11"/>
-      <c r="Y83" s="11"/>
-      <c r="Z83" s="11"/>
-      <c r="AA83" s="11"/>
-    </row>
-    <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
-      <c r="A84" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="K84" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L84" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="11"/>
-      <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11"/>
-      <c r="U84" s="11"/>
-      <c r="V84" s="11"/>
-      <c r="W84" s="11"/>
-      <c r="X84" s="11"/>
-      <c r="Y84" s="11"/>
-      <c r="Z84" s="11"/>
-      <c r="AA84" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="11"/>
+      <c r="AA80" s="11"/>
+    </row>
+    <row r="81" spans="1:27" ht="13.2">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="6"/>
+    </row>
+    <row r="82" spans="1:27" ht="13.2">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="6"/>
+    </row>
+    <row r="83" spans="1:27" ht="13.2">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="6"/>
+    </row>
+    <row r="84" spans="1:27" ht="13.2">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="6"/>
+      <c r="AA84" s="6"/>
     </row>
     <row r="85" spans="1:27" ht="13.2">
       <c r="A85" s="6"/>
@@ -32749,122 +32588,6 @@
       <c r="Y1002" s="6"/>
       <c r="Z1002" s="6"/>
       <c r="AA1002" s="6"/>
-    </row>
-    <row r="1003" spans="1:27" ht="13.2">
-      <c r="A1003" s="6"/>
-      <c r="B1003" s="6"/>
-      <c r="C1003" s="6"/>
-      <c r="D1003" s="6"/>
-      <c r="E1003" s="6"/>
-      <c r="F1003" s="6"/>
-      <c r="G1003" s="6"/>
-      <c r="H1003" s="6"/>
-      <c r="I1003" s="6"/>
-      <c r="J1003" s="6"/>
-      <c r="K1003" s="6"/>
-      <c r="L1003" s="6"/>
-      <c r="M1003" s="6"/>
-      <c r="N1003" s="6"/>
-      <c r="O1003" s="6"/>
-      <c r="P1003" s="6"/>
-      <c r="Q1003" s="6"/>
-      <c r="R1003" s="6"/>
-      <c r="S1003" s="6"/>
-      <c r="T1003" s="6"/>
-      <c r="U1003" s="6"/>
-      <c r="V1003" s="6"/>
-      <c r="W1003" s="6"/>
-      <c r="X1003" s="6"/>
-      <c r="Y1003" s="6"/>
-      <c r="Z1003" s="6"/>
-      <c r="AA1003" s="6"/>
-    </row>
-    <row r="1004" spans="1:27" ht="13.2">
-      <c r="A1004" s="6"/>
-      <c r="B1004" s="6"/>
-      <c r="C1004" s="6"/>
-      <c r="D1004" s="6"/>
-      <c r="E1004" s="6"/>
-      <c r="F1004" s="6"/>
-      <c r="G1004" s="6"/>
-      <c r="H1004" s="6"/>
-      <c r="I1004" s="6"/>
-      <c r="J1004" s="6"/>
-      <c r="K1004" s="6"/>
-      <c r="L1004" s="6"/>
-      <c r="M1004" s="6"/>
-      <c r="N1004" s="6"/>
-      <c r="O1004" s="6"/>
-      <c r="P1004" s="6"/>
-      <c r="Q1004" s="6"/>
-      <c r="R1004" s="6"/>
-      <c r="S1004" s="6"/>
-      <c r="T1004" s="6"/>
-      <c r="U1004" s="6"/>
-      <c r="V1004" s="6"/>
-      <c r="W1004" s="6"/>
-      <c r="X1004" s="6"/>
-      <c r="Y1004" s="6"/>
-      <c r="Z1004" s="6"/>
-      <c r="AA1004" s="6"/>
-    </row>
-    <row r="1005" spans="1:27" ht="13.2">
-      <c r="A1005" s="6"/>
-      <c r="B1005" s="6"/>
-      <c r="C1005" s="6"/>
-      <c r="D1005" s="6"/>
-      <c r="E1005" s="6"/>
-      <c r="F1005" s="6"/>
-      <c r="G1005" s="6"/>
-      <c r="H1005" s="6"/>
-      <c r="I1005" s="6"/>
-      <c r="J1005" s="6"/>
-      <c r="K1005" s="6"/>
-      <c r="L1005" s="6"/>
-      <c r="M1005" s="6"/>
-      <c r="N1005" s="6"/>
-      <c r="O1005" s="6"/>
-      <c r="P1005" s="6"/>
-      <c r="Q1005" s="6"/>
-      <c r="R1005" s="6"/>
-      <c r="S1005" s="6"/>
-      <c r="T1005" s="6"/>
-      <c r="U1005" s="6"/>
-      <c r="V1005" s="6"/>
-      <c r="W1005" s="6"/>
-      <c r="X1005" s="6"/>
-      <c r="Y1005" s="6"/>
-      <c r="Z1005" s="6"/>
-      <c r="AA1005" s="6"/>
-    </row>
-    <row r="1006" spans="1:27" ht="13.2">
-      <c r="A1006" s="6"/>
-      <c r="B1006" s="6"/>
-      <c r="C1006" s="6"/>
-      <c r="D1006" s="6"/>
-      <c r="E1006" s="6"/>
-      <c r="F1006" s="6"/>
-      <c r="G1006" s="6"/>
-      <c r="H1006" s="6"/>
-      <c r="I1006" s="6"/>
-      <c r="J1006" s="6"/>
-      <c r="K1006" s="6"/>
-      <c r="L1006" s="6"/>
-      <c r="M1006" s="6"/>
-      <c r="N1006" s="6"/>
-      <c r="O1006" s="6"/>
-      <c r="P1006" s="6"/>
-      <c r="Q1006" s="6"/>
-      <c r="R1006" s="6"/>
-      <c r="S1006" s="6"/>
-      <c r="T1006" s="6"/>
-      <c r="U1006" s="6"/>
-      <c r="V1006" s="6"/>
-      <c r="W1006" s="6"/>
-      <c r="X1006" s="6"/>
-      <c r="Y1006" s="6"/>
-      <c r="Z1006" s="6"/>
-      <c r="AA1006" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -32934,24 +32657,20 @@
     <hyperlink ref="B67" r:id="rId64"/>
     <hyperlink ref="B68" r:id="rId65"/>
     <hyperlink ref="B69" r:id="rId66"/>
-    <hyperlink ref="B70" r:id="rId67"/>
-    <hyperlink ref="B71" r:id="rId68"/>
-    <hyperlink ref="B72" r:id="rId69"/>
-    <hyperlink ref="B73" r:id="rId70"/>
-    <hyperlink ref="B75" r:id="rId71"/>
-    <hyperlink ref="B76" r:id="rId72"/>
-    <hyperlink ref="B77" r:id="rId73"/>
-    <hyperlink ref="B80" r:id="rId74"/>
-    <hyperlink ref="B50" r:id="rId75"/>
-    <hyperlink ref="B74" r:id="rId76"/>
-    <hyperlink ref="B78" r:id="rId77"/>
-    <hyperlink ref="B79" r:id="rId78" display="https://demoqa.com/menu"/>
-    <hyperlink ref="B81" r:id="rId79"/>
-    <hyperlink ref="B82" r:id="rId80"/>
-    <hyperlink ref="B83" r:id="rId81"/>
-    <hyperlink ref="B84" r:id="rId82"/>
+    <hyperlink ref="B71" r:id="rId67"/>
+    <hyperlink ref="B72" r:id="rId68"/>
+    <hyperlink ref="B73" r:id="rId69"/>
+    <hyperlink ref="B76" r:id="rId70"/>
+    <hyperlink ref="B50" r:id="rId71"/>
+    <hyperlink ref="B70" r:id="rId72"/>
+    <hyperlink ref="B74" r:id="rId73"/>
+    <hyperlink ref="B75" r:id="rId74" display="https://demoqa.com/menu"/>
+    <hyperlink ref="B77" r:id="rId75"/>
+    <hyperlink ref="B78" r:id="rId76"/>
+    <hyperlink ref="B79" r:id="rId77"/>
+    <hyperlink ref="B80" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId83"/>
+  <pageSetup orientation="portrait" r:id="rId79"/>
 </worksheet>
 </file>
--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -865,9 +865,6 @@
     <t>https://jeevanpramaan.gov.in/</t>
   </si>
   <si>
-    <t>li[class='year'] i[class='fa fa-pencil']</t>
-  </si>
-  <si>
     <t>//li[@class='year'][1]/i[@class='fa fa-pencil']</t>
   </si>
   <si>
@@ -877,15 +874,9 @@
     <t>JEEVAN_PRAMAAN_03</t>
   </si>
   <si>
-    <t>ul[class='nav main-nav'] li:nth-of-type(4) a[class='scroll']</t>
-  </si>
-  <si>
     <t>//ul[@class='nav main-nav']/li[4]/a[@class='scroll']</t>
   </si>
   <si>
-    <t>ul[class='nav main-nav'] li a[class='scroll']</t>
-  </si>
-  <si>
     <t>//ul[@class='nav main-nav']/li/a[@class='scroll']</t>
   </si>
   <si>
@@ -898,15 +889,9 @@
     <t>JEEVAN_PRAMAAN_04</t>
   </si>
   <si>
-    <t>p[class='footer-text copyright']:nth-of-type(1) a:nth-of-type(1)</t>
-  </si>
-  <si>
     <t>//p[@class='footer-text copyright'][1]/a[1]</t>
   </si>
   <si>
-    <t>p[class='footer-text copyright'] a</t>
-  </si>
-  <si>
     <t>//p[@class='footer-text copyright']/a</t>
   </si>
   <si>
@@ -1421,6 +1406,21 @@
   </si>
   <si>
     <t>div[class*='col-lg-'] ul[class='list-item']&gt;li&gt;a</t>
+  </si>
+  <si>
+    <t>ul[class='nav main-nav']&gt;li:nth-of-type(4)&gt;a[class='scroll']</t>
+  </si>
+  <si>
+    <t>ul[class='nav main-nav']&gt;li&gt;a[class='scroll']</t>
+  </si>
+  <si>
+    <t>li[class='year'] &gt; i[class='fa fa-pencil']</t>
+  </si>
+  <si>
+    <t>p[class='footer-text copyright']:nth-of-type(1) &gt; a:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>p[class='footer-text copyright'] &gt; a</t>
   </si>
 </sst>
 </file>
@@ -1791,8 +1791,8 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1874,22 +1874,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -1925,22 +1925,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -1982,10 +1982,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>24</v>
@@ -2021,28 +2021,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -2078,16 +2078,16 @@
         <v>30</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>31</v>
@@ -2135,16 +2135,16 @@
         <v>38</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>39</v>
@@ -2174,28 +2174,28 @@
         <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2225,22 +2225,22 @@
         <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>44</v>
@@ -2288,10 +2288,10 @@
         <v>51</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>52</v>
@@ -2339,10 +2339,10 @@
         <v>51</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>58</v>
@@ -2384,22 +2384,22 @@
         <v>62</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>46</v>
@@ -2429,28 +2429,28 @@
         <v>34</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>46</v>
@@ -2492,10 +2492,10 @@
         <v>70</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>71</v>
@@ -2543,10 +2543,10 @@
         <v>77</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>78</v>
@@ -2585,7 +2585,7 @@
         <v>82</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>83</v>
@@ -2594,10 +2594,10 @@
         <v>84</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>85</v>
@@ -2633,28 +2633,28 @@
         <v>34</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>80</v>
@@ -2690,22 +2690,22 @@
         <v>90</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>91</v>
@@ -2741,16 +2741,16 @@
         <v>94</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>95</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>96</v>
@@ -2786,22 +2786,22 @@
         <v>34</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>99</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>100</v>
@@ -2843,22 +2843,22 @@
         <v>103</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>104</v>
@@ -2891,25 +2891,25 @@
         <v>106</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>107</v>
@@ -2939,22 +2939,22 @@
         <v>34</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>110</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>111</v>
@@ -2990,28 +2990,28 @@
         <v>34</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>114</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>115</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>107</v>
@@ -3041,22 +3041,22 @@
         <v>117</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>118</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>119</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>120</v>
@@ -3092,22 +3092,22 @@
         <v>117</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>123</v>
@@ -3143,22 +3143,22 @@
         <v>117</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>126</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>127</v>
@@ -3194,28 +3194,28 @@
         <v>117</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>130</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>131</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>107</v>
@@ -3245,28 +3245,28 @@
         <v>133</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>134</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>135</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>107</v>
@@ -3296,28 +3296,28 @@
         <v>137</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>107</v>
@@ -3347,22 +3347,22 @@
         <v>139</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>140</v>
@@ -3410,10 +3410,10 @@
         <v>147</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>148</v>
@@ -3455,16 +3455,16 @@
         <v>152</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>153</v>
@@ -3500,22 +3500,22 @@
         <v>143</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>156</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>157</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>158</v>
@@ -3563,10 +3563,10 @@
         <v>147</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>163</v>
@@ -3602,28 +3602,28 @@
         <v>166</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>107</v>
@@ -3659,16 +3659,16 @@
         <v>170</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>171</v>
@@ -3710,16 +3710,16 @@
         <v>175</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>176</v>
@@ -3767,10 +3767,10 @@
         <v>182</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>183</v>
@@ -3818,16 +3818,16 @@
         <v>190</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>107</v>
@@ -3857,22 +3857,22 @@
         <v>166</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>193</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>194</v>
@@ -3908,22 +3908,22 @@
         <v>166</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>198</v>
@@ -3965,22 +3965,22 @@
         <v>203</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>107</v>
@@ -4010,28 +4010,28 @@
         <v>205</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>107</v>
@@ -4067,22 +4067,22 @@
         <v>208</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>107</v>
@@ -4115,25 +4115,25 @@
         <v>208</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>107</v>
@@ -4169,22 +4169,22 @@
         <v>212</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>107</v>
@@ -4214,28 +4214,28 @@
         <v>207</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>214</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>107</v>
@@ -4265,24 +4265,24 @@
         <v>207</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>107</v>
@@ -4306,30 +4306,30 @@
     </row>
     <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A50" s="11" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -4367,16 +4367,16 @@
         <v>221</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>107</v>
@@ -4418,16 +4418,16 @@
         <v>226</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>107</v>
@@ -4469,10 +4469,10 @@
         <v>231</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>232</v>
@@ -4520,10 +4520,10 @@
         <v>238</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>239</v>
@@ -4532,7 +4532,7 @@
         <v>240</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -4571,10 +4571,10 @@
         <v>246</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>247</v>
@@ -4616,16 +4616,16 @@
         <v>252</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>253</v>
@@ -4673,10 +4673,10 @@
         <v>260</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>261</v>
@@ -4712,22 +4712,22 @@
         <v>256</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>264</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>265</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>266</v>
@@ -4763,22 +4763,22 @@
         <v>269</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>270</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>271</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>272</v>
@@ -4820,22 +4820,22 @@
         <v>276</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>249</v>
@@ -4871,22 +4871,22 @@
         <v>280</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>107</v>
@@ -4915,29 +4915,29 @@
       <c r="B62" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>285</v>
-      </c>
       <c r="G62" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>249</v>
@@ -4961,34 +4961,34 @@
     </row>
     <row r="63" spans="1:27" ht="52.8">
       <c r="A63" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="G63" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="J63" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>107</v>
@@ -5012,34 +5012,34 @@
     </row>
     <row r="64" spans="1:27" ht="52.8">
       <c r="A64" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="J64" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>107</v>
@@ -5063,34 +5063,34 @@
     </row>
     <row r="65" spans="1:27" ht="52.8">
       <c r="A65" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>282</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J65" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>107</v>
@@ -5114,34 +5114,34 @@
     </row>
     <row r="66" spans="1:27" ht="13.2">
       <c r="A66" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>107</v>
@@ -5165,34 +5165,34 @@
     </row>
     <row r="67" spans="1:27" ht="79.2">
       <c r="A67" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C67" s="5" t="s">
+      <c r="F67" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="J67" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="J67" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>107</v>
@@ -5216,34 +5216,34 @@
     </row>
     <row r="68" spans="1:27" ht="13.2">
       <c r="A68" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>107</v>
@@ -5267,34 +5267,34 @@
     </row>
     <row r="69" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A69" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>107</v>
@@ -5318,22 +5318,22 @@
     </row>
     <row r="70" spans="1:27" ht="106.2" thickBot="1">
       <c r="A70" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
@@ -5343,7 +5343,7 @@
         <v>107</v>
       </c>
       <c r="L70" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
@@ -5363,34 +5363,34 @@
     </row>
     <row r="71" spans="1:27" ht="118.8">
       <c r="A71" s="9" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>107</v>
@@ -5414,34 +5414,34 @@
     </row>
     <row r="72" spans="1:27" ht="39.6">
       <c r="A72" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="J72" s="9" t="s">
         <v>330</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="J72" s="9" t="s">
-        <v>335</v>
       </c>
       <c r="K72" s="5" t="s">
         <v>107</v>
@@ -5465,34 +5465,34 @@
     </row>
     <row r="73" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A73" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>107</v>
@@ -5516,36 +5516,36 @@
     </row>
     <row r="74" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A74" s="11" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K74" s="11" t="s">
         <v>107</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5565,36 +5565,36 @@
     </row>
     <row r="75" spans="1:27" ht="27" thickBot="1">
       <c r="A75" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="F75" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>379</v>
       </c>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="K75" s="11" t="s">
         <v>107</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
@@ -5614,34 +5614,34 @@
     </row>
     <row r="76" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A76" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="J76" s="9" t="s">
         <v>341</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="J76" s="9" t="s">
-        <v>346</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>107</v>
@@ -5665,36 +5665,36 @@
     </row>
     <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A77" s="11" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="K77" s="11" t="s">
         <v>107</v>
       </c>
       <c r="L77" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
@@ -5714,36 +5714,36 @@
     </row>
     <row r="78" spans="1:27" ht="93" thickBot="1">
       <c r="A78" s="11" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K78" s="11" t="s">
         <v>107</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5763,16 +5763,16 @@
     </row>
     <row r="79" spans="1:27" ht="27" thickBot="1">
       <c r="A79" s="11" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
@@ -5784,7 +5784,7 @@
         <v>249</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -5804,36 +5804,36 @@
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A80" s="11" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B80" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="F80" s="11" t="s">
         <v>388</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>393</v>
       </c>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="K80" s="11" t="s">
         <v>107</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="510">
   <si>
     <t>ID</t>
   </si>
@@ -1538,6 +1538,12 @@
   </si>
   <si>
     <t>p[class='footer-text copyright']:nth-of-type(1) &gt; a:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//button[@class='btn-close']</t>
+  </si>
+  <si>
+    <t>Iframe</t>
   </si>
 </sst>
 </file>
@@ -1908,8 +1914,8 @@
   <dimension ref="A1:AA1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4387,8 +4393,12 @@
       <c r="D49" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>385</v>
+      </c>
       <c r="G49" s="6" t="s">
         <v>385</v>
       </c>
@@ -4434,17 +4444,27 @@
       <c r="D50" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
+      <c r="E50" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>385</v>
+      </c>
       <c r="G50" s="11" t="s">
         <v>400</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
+      <c r="I50" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>509</v>
+      </c>
       <c r="L50" s="11" t="s">
         <v>402</v>
       </c>
@@ -5240,7 +5260,7 @@
         <v>315</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>315</v>
+        <v>508</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>385</v>
@@ -33141,29 +33161,29 @@
     <hyperlink ref="B64" r:id="rId61"/>
     <hyperlink ref="B65" r:id="rId62"/>
     <hyperlink ref="B66" r:id="rId63"/>
-    <hyperlink ref="B67" r:id="rId64"/>
-    <hyperlink ref="B68" r:id="rId65"/>
-    <hyperlink ref="B69" r:id="rId66"/>
-    <hyperlink ref="B70" r:id="rId67"/>
-    <hyperlink ref="B71" r:id="rId68"/>
-    <hyperlink ref="B72" r:id="rId69"/>
-    <hyperlink ref="B73" r:id="rId70"/>
-    <hyperlink ref="B75" r:id="rId71"/>
-    <hyperlink ref="B76" r:id="rId72"/>
-    <hyperlink ref="B77" r:id="rId73"/>
-    <hyperlink ref="B80" r:id="rId74"/>
-    <hyperlink ref="B50" r:id="rId75"/>
-    <hyperlink ref="B74" r:id="rId76"/>
-    <hyperlink ref="B78" r:id="rId77"/>
-    <hyperlink ref="B79" r:id="rId78" display="https://demoqa.com/menu"/>
-    <hyperlink ref="B81" r:id="rId79"/>
-    <hyperlink ref="B82" r:id="rId80"/>
-    <hyperlink ref="B83" r:id="rId81"/>
-    <hyperlink ref="B84" r:id="rId82"/>
-    <hyperlink ref="B85" r:id="rId83"/>
-    <hyperlink ref="B86" r:id="rId84"/>
-    <hyperlink ref="B87" r:id="rId85"/>
-    <hyperlink ref="B88" r:id="rId86"/>
+    <hyperlink ref="B68" r:id="rId64"/>
+    <hyperlink ref="B69" r:id="rId65"/>
+    <hyperlink ref="B70" r:id="rId66"/>
+    <hyperlink ref="B71" r:id="rId67"/>
+    <hyperlink ref="B72" r:id="rId68"/>
+    <hyperlink ref="B73" r:id="rId69"/>
+    <hyperlink ref="B75" r:id="rId70"/>
+    <hyperlink ref="B76" r:id="rId71"/>
+    <hyperlink ref="B77" r:id="rId72"/>
+    <hyperlink ref="B80" r:id="rId73"/>
+    <hyperlink ref="B50" r:id="rId74"/>
+    <hyperlink ref="B74" r:id="rId75"/>
+    <hyperlink ref="B78" r:id="rId76"/>
+    <hyperlink ref="B79" r:id="rId77" display="https://demoqa.com/menu"/>
+    <hyperlink ref="B81" r:id="rId78"/>
+    <hyperlink ref="B82" r:id="rId79"/>
+    <hyperlink ref="B83" r:id="rId80"/>
+    <hyperlink ref="B84" r:id="rId81"/>
+    <hyperlink ref="B85" r:id="rId82"/>
+    <hyperlink ref="B86" r:id="rId83"/>
+    <hyperlink ref="B87" r:id="rId84"/>
+    <hyperlink ref="B88" r:id="rId85"/>
+    <hyperlink ref="B67" r:id="rId86"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId87"/>

--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="492">
   <si>
     <t>ID</t>
   </si>
@@ -355,9 +355,6 @@
     <t>//strong[contains(text(), '22-Nov-2023 [10:42:14]')]</t>
   </si>
   <si>
-    <t>IRCTC_TC_23</t>
-  </si>
-  <si>
     <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//div[contains(@class, 'white-back')]/div[contains(@class, 'col-xs-')][1]</t>
   </si>
   <si>
@@ -1024,24 +1021,6 @@
     <t>//div[contains(text(), 'Do you like the site?')]</t>
   </si>
   <si>
-    <t>Freshers_Jobs_01</t>
-  </si>
-  <si>
-    <t>https://www.indgovtjobs.in/2015/01/fresher-jobs.html</t>
-  </si>
-  <si>
-    <t>//div[@class='post-body entry-content']/table[1]//td[@valign='top'][1]//b</t>
-  </si>
-  <si>
-    <t>//div[@class='post-body entry-content']/table//td[@valign='top']//b</t>
-  </si>
-  <si>
-    <t>b:contains(Job Name - Total Vacancies)</t>
-  </si>
-  <si>
-    <t>//b[contains(text(), 'Job Name - Total Vacancies')]</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -1147,21 +1126,6 @@
     <t>//a[contains(text(), 'Main Item 1')]</t>
   </si>
   <si>
-    <t>Freshers_Jobs_02</t>
-  </si>
-  <si>
-    <t>//h4/font[contains(@color, 'ff')]/font</t>
-  </si>
-  <si>
-    <t>font:contains(Fresher Jobs – FAQs:)</t>
-  </si>
-  <si>
-    <t>//font[contains(text(), 'Fresher Jobs – FAQs:')]</t>
-  </si>
-  <si>
-    <t>Freshers_Jobs_03</t>
-  </si>
-  <si>
     <t>Free_Jobs_Alert_01</t>
   </si>
   <si>
@@ -1288,36 +1252,6 @@
     <t>div[class*='col-lg-'] button[class='btn_Tab']&gt;span[class='footer_headings']</t>
   </si>
   <si>
-    <t>div[class='post-body entry-content'] &gt; table:nth-of-type(1) td[valign='top']:nth-of-type(1) b</t>
-  </si>
-  <si>
-    <t>div[class='post-body entry-content'] &gt; table td[valign='top'] b</t>
-  </si>
-  <si>
-    <t>h4 &gt; font[color*='ff'] &gt; font</t>
-  </si>
-  <si>
-    <t>//h4[4]/font[contains(@color, 'ff')]/font</t>
-  </si>
-  <si>
-    <t>div[id*='footer']:nth-of-type(1)&gt;div[class='footer-column section'] ul&gt;li:nth-of-type(1)&gt;a</t>
-  </si>
-  <si>
-    <t>//div[@id='footer-column-container']/div[contains(@id, 'footer')][1]//ul/li[1]/a</t>
-  </si>
-  <si>
-    <t>div[id*='footer']&gt;div[class='footer-column section'] ul&gt;li&gt;a</t>
-  </si>
-  <si>
-    <t>//div[@id='footer-column-container']/div[contains(@id, 'footer')]//ul/li/a</t>
-  </si>
-  <si>
-    <t>a:contains(KVS Recruitment 2024 Notification for 13000+ Teaching, Non Teaching Vacancies)</t>
-  </si>
-  <si>
-    <t>//a[contains(text(), 'KVS Recruitment 2024 Notification for 13000+ Teaching, Non Teaching Vacancies')]</t>
-  </si>
-  <si>
     <t>div[class*='gb-grid-column']:nth-of-type(1) ul&gt;li:nth-of-type(1)&gt;a</t>
   </si>
   <si>
@@ -1421,13 +1355,148 @@
   </si>
   <si>
     <t>p[class='footer-text copyright'] &gt; a</t>
+  </si>
+  <si>
+    <t>cross origin iframe yet not supported.</t>
+  </si>
+  <si>
+    <t>iframe[id='Disha-Bot']</t>
+  </si>
+  <si>
+    <t>//iframe[@id='Disha-Bot']</t>
+  </si>
+  <si>
+    <t>SHUBHAM</t>
+  </si>
+  <si>
+    <t>svg[class='sc-DJfgX jNGuMj']:nth-of-type(4)</t>
+  </si>
+  <si>
+    <t>//div[@class='sc-hJxCPi bPGCAB']//*[name()='svg'][@class='sc-DJfgX jNGuMj'][1]</t>
+  </si>
+  <si>
+    <t>svg[class='sc-DJfgX jNGuMj']</t>
+  </si>
+  <si>
+    <t>//div[@class='sc-hJxCPi bPGCAB']//*[name()='svg'][@class='sc-DJfgX jNGuMj']</t>
+  </si>
+  <si>
+    <t>JOY_BIRD_Iframe_07</t>
+  </si>
+  <si>
+    <t>https://joybird.com</t>
+  </si>
+  <si>
+    <t>IRCTC_TC__23</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_Iframe_24</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/frames</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>//html</t>
+  </si>
+  <si>
+    <t>div[id*='frame']:nth-of-type(2) &gt; iframe[id*='frame']</t>
+  </si>
+  <si>
+    <t>//div[@id='framesWrapper']/div[contains(@id, 'frame')][1]/iframe[contains(@id, 'frame')]</t>
+  </si>
+  <si>
+    <t>h1[id='sampleHeading']</t>
+  </si>
+  <si>
+    <t>//h1[@id='sampleHeading']</t>
+  </si>
+  <si>
+    <t>h1:contains(This is a sample page)</t>
+  </si>
+  <si>
+    <t>//h1[contains(text(), 'This is a sample page')]</t>
+  </si>
+  <si>
+    <t>div[class*='mt-'] &gt; iframe[id*='frame']</t>
+  </si>
+  <si>
+    <t>//div[contains(@id, 'frame')][contains(@class, 'mt-')]/iframe[contains(@id, 'frame')]</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/nestedframes</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>//body</t>
+  </si>
+  <si>
+    <t>//div[@id='framesWrapper']//iframe[contains(@id, 'frame')]</t>
+  </si>
+  <si>
+    <t>body:contains(Parent frame)</t>
+  </si>
+  <si>
+    <t>//body[contains(text(), 'Parent frame')]</t>
+  </si>
+  <si>
+    <t>Demo_QA_Iframe_06</t>
+  </si>
+  <si>
+    <t>Demo_QA_Iframe_07</t>
+  </si>
+  <si>
+    <t>Demo_QA_Iframe_08</t>
+  </si>
+  <si>
+    <t>Demo_QA_Iframe_09</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTML/Element/iframe</t>
+  </si>
+  <si>
+    <t>iframe[class*='inter']</t>
+  </si>
+  <si>
+    <t>//iframe[contains(@class, 'inter')]</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTML/Element/iframe#deprecated_attributes</t>
+  </si>
+  <si>
+    <t>iframe[id='frame_a_simple_iframe']</t>
+  </si>
+  <si>
+    <t>Developer_mozilla_Iframe_01</t>
+  </si>
+  <si>
+    <t>Developer_mozilla_Iframe_02</t>
+  </si>
+  <si>
+    <t>//iframe[@id='frame_a_simple_iframe']</t>
+  </si>
+  <si>
+    <t>https://www.k8oms.net/links/embed-url-iframe</t>
+  </si>
+  <si>
+    <t>div[data-code*='DOCTYPE'] &gt; iframe[title='Custom embed']</t>
+  </si>
+  <si>
+    <t>//div[contains(@data-code, 'DOCTYPE')]/iframe[@title='Custom embed']</t>
+  </si>
+  <si>
+    <t>k8oms_Iframe_01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1484,6 +1553,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1530,7 +1614,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1571,6 +1655,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1788,11 +1878,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1002"/>
+  <dimension ref="A1:AA1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1828,10 +1918,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1874,22 +1964,22 @@
         <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -1925,22 +2015,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
@@ -1982,10 +2072,10 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>24</v>
@@ -2021,28 +2111,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>15</v>
@@ -2078,16 +2168,16 @@
         <v>30</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>31</v>
@@ -2135,16 +2225,16 @@
         <v>38</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>39</v>
@@ -2174,28 +2264,28 @@
         <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -2225,22 +2315,22 @@
         <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>44</v>
@@ -2288,10 +2378,10 @@
         <v>51</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>52</v>
@@ -2339,10 +2429,10 @@
         <v>51</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>58</v>
@@ -2384,22 +2474,22 @@
         <v>62</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>46</v>
@@ -2429,28 +2519,28 @@
         <v>34</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>46</v>
@@ -2492,10 +2582,10 @@
         <v>70</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>71</v>
@@ -2543,10 +2633,10 @@
         <v>77</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>78</v>
@@ -2585,7 +2675,7 @@
         <v>82</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>83</v>
@@ -2594,10 +2684,10 @@
         <v>84</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>85</v>
@@ -2633,28 +2723,28 @@
         <v>34</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>80</v>
@@ -2690,22 +2780,22 @@
         <v>90</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>91</v>
@@ -2741,16 +2831,16 @@
         <v>94</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>95</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>96</v>
@@ -2786,22 +2876,22 @@
         <v>34</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>99</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>100</v>
@@ -2843,22 +2933,22 @@
         <v>103</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>104</v>
@@ -2891,25 +2981,25 @@
         <v>106</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>107</v>
@@ -2939,22 +3029,22 @@
         <v>34</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>110</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>111</v>
@@ -2982,36 +3072,36 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" ht="145.19999999999999">
-      <c r="A24" s="5" t="s">
-        <v>113</v>
+    <row r="24" spans="1:27" ht="145.80000000000001" thickBot="1">
+      <c r="A24" s="15" t="s">
+        <v>457</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="G24" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>107</v>
@@ -3033,87 +3123,83 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" ht="66">
-      <c r="A25" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
+    <row r="25" spans="1:27" ht="27" thickBot="1">
+      <c r="A25" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
     </row>
     <row r="26" spans="1:27" ht="66">
       <c r="A26" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>392</v>
-      </c>
       <c r="E26" s="9" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>394</v>
+        <v>118</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>107</v>
@@ -3137,85 +3223,85 @@
     </row>
     <row r="27" spans="1:27" ht="66">
       <c r="A27" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>126</v>
+        <v>380</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>128</v>
+        <v>335</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-    </row>
-    <row r="28" spans="1:27" ht="39.6">
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+    </row>
+    <row r="28" spans="1:27" ht="66">
       <c r="A28" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>130</v>
+        <v>385</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>417</v>
+        <v>335</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>342</v>
+        <v>126</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>342</v>
+        <v>127</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>107</v>
@@ -3237,36 +3323,36 @@
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
     </row>
-    <row r="29" spans="1:27" ht="26.4">
+    <row r="29" spans="1:27" ht="39.6">
       <c r="A29" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>134</v>
+        <v>337</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>346</v>
+        <v>405</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>107</v>
@@ -3288,138 +3374,138 @@
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
     </row>
-    <row r="30" spans="1:27" ht="13.2">
+    <row r="30" spans="1:27" ht="26.4">
       <c r="A30" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>398</v>
+        <v>131</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>338</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>342</v>
+        <v>133</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-    </row>
-    <row r="31" spans="1:27" ht="66">
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+    </row>
+    <row r="31" spans="1:27" ht="13.2">
       <c r="A31" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>350</v>
+        <v>135</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>141</v>
+        <v>335</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-    </row>
-    <row r="32" spans="1:27" ht="92.4">
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+    </row>
+    <row r="32" spans="1:27" ht="66">
       <c r="A32" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>343</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>107</v>
@@ -3441,36 +3527,36 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" ht="39.6">
+    <row r="33" spans="1:27" ht="92.4">
       <c r="A33" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>342</v>
+        <v>145</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>342</v>
+        <v>146</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>107</v>
@@ -3492,36 +3578,36 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" ht="66">
+    <row r="34" spans="1:27" ht="39.6">
       <c r="A34" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>351</v>
+        <v>150</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>157</v>
+        <v>335</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>159</v>
+        <v>335</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>107</v>
@@ -3543,36 +3629,36 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27" ht="92.4">
+    <row r="35" spans="1:27" ht="66">
       <c r="A35" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>161</v>
+        <v>344</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>147</v>
+        <v>345</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>164</v>
+        <v>335</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>107</v>
@@ -3594,36 +3680,36 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" ht="26.4">
-      <c r="A36" s="3" t="s">
-        <v>165</v>
+    <row r="36" spans="1:27" ht="92.4">
+      <c r="A36" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>353</v>
+        <v>142</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>342</v>
+        <v>145</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>342</v>
+        <v>146</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>342</v>
+        <v>163</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>107</v>
@@ -3645,36 +3731,36 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" ht="79.2">
+    <row r="37" spans="1:27" ht="26.4">
       <c r="A37" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>342</v>
+      <c r="E37" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>171</v>
+        <v>335</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>172</v>
+        <v>335</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>107</v>
@@ -3696,36 +3782,36 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" ht="66">
+    <row r="38" spans="1:27" ht="79.2">
       <c r="A38" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>342</v>
+        <v>169</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>107</v>
@@ -3747,36 +3833,36 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27" ht="26.4">
+    <row r="39" spans="1:27" ht="66">
       <c r="A39" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>181</v>
+        <v>335</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>182</v>
+        <v>335</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>107</v>
@@ -3798,36 +3884,36 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" ht="66">
+    <row r="40" spans="1:27" ht="26.4">
       <c r="A40" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>342</v>
+        <v>182</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>342</v>
+        <v>183</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>107</v>
@@ -3849,36 +3935,36 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" ht="39.6">
+    <row r="41" spans="1:27" ht="66">
       <c r="A41" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>193</v>
+        <v>185</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>194</v>
+        <v>335</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>195</v>
+        <v>335</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>107</v>
@@ -3900,36 +3986,36 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27" ht="105.6">
+    <row r="42" spans="1:27" ht="39.6">
       <c r="A42" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>197</v>
+        <v>390</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>342</v>
+        <v>192</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>107</v>
@@ -3951,36 +4037,36 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" ht="52.8">
+    <row r="43" spans="1:27" ht="105.6">
       <c r="A43" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>202</v>
+        <v>165</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>347</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>342</v>
+        <v>196</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>342</v>
+        <v>197</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>342</v>
+        <v>198</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>107</v>
@@ -4002,36 +4088,36 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" ht="26.4">
+    <row r="44" spans="1:27" ht="52.8">
       <c r="A44" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>401</v>
+        <v>200</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>107</v>
@@ -4055,34 +4141,34 @@
     </row>
     <row r="45" spans="1:27" ht="26.4">
       <c r="A45" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>389</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>107</v>
@@ -4104,36 +4190,36 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" ht="39.6">
+    <row r="46" spans="1:27" ht="26.4">
       <c r="A46" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="D46" s="5" t="s">
-        <v>404</v>
+        <v>207</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>107</v>
@@ -4157,34 +4243,34 @@
     </row>
     <row r="47" spans="1:27" ht="39.6">
       <c r="A47" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="D47" s="5" t="s">
-        <v>212</v>
+        <v>392</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>107</v>
@@ -4206,36 +4292,36 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" ht="118.8">
+    <row r="48" spans="1:27" ht="39.6">
       <c r="A48" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>408</v>
+        <v>210</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>412</v>
+        <v>211</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>409</v>
+        <v>335</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>410</v>
+        <v>335</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>411</v>
+        <v>335</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>107</v>
@@ -4257,32 +4343,36 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27" ht="66.599999999999994" thickBot="1">
+    <row r="49" spans="1:27" ht="118.8">
       <c r="A49" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+        <v>400</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="G49" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>107</v>
@@ -4305,180 +4395,170 @@
       <c r="AA49" s="5"/>
     </row>
     <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
-      <c r="A50" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
-      <c r="AA50" s="11"/>
-    </row>
-    <row r="51" spans="1:27" ht="79.2">
-      <c r="A51" s="3" t="s">
+      <c r="A50" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+    </row>
+    <row r="51" spans="1:27" ht="66.599999999999994" thickBot="1">
+      <c r="A51" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+    </row>
+    <row r="52" spans="1:27" ht="79.8" thickBot="1">
+      <c r="A52" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+    </row>
+    <row r="53" spans="1:27" ht="79.2">
+      <c r="A53" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
-    </row>
-    <row r="52" spans="1:27" ht="52.8">
-      <c r="A52" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
-    </row>
-    <row r="53" spans="1:27" ht="39.6">
-      <c r="A53" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="G53" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>232</v>
+        <v>335</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>233</v>
+        <v>335</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>107</v>
@@ -4500,39 +4580,39 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
     </row>
-    <row r="54" spans="1:27" ht="264">
+    <row r="54" spans="1:27" ht="52.8">
       <c r="A54" s="3" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>239</v>
+        <v>335</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>342</v>
+        <v>107</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -4551,141 +4631,141 @@
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
     </row>
-    <row r="55" spans="1:27" ht="158.4">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:27" ht="39.6">
+      <c r="A55" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+    </row>
+    <row r="56" spans="1:27" ht="264">
+      <c r="A56" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+    </row>
+    <row r="57" spans="1:27" ht="158.4">
+      <c r="A57" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="C57" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="G57" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I55" s="5" t="s">
+      <c r="J57" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="K57" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="9"/>
-      <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
-      <c r="Z55" s="9"/>
-      <c r="AA55" s="9"/>
-    </row>
-    <row r="56" spans="1:27" ht="158.4">
-      <c r="A56" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
-    </row>
-    <row r="57" spans="1:27" ht="26.4">
-      <c r="A57" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
@@ -4704,39 +4784,39 @@
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
     </row>
-    <row r="58" spans="1:27" ht="26.4">
+    <row r="58" spans="1:27" ht="158.4">
       <c r="A58" s="5" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>264</v>
+        <v>241</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>445</v>
+        <v>335</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
@@ -4755,39 +4835,39 @@
       <c r="Z58" s="9"/>
       <c r="AA58" s="9"/>
     </row>
-    <row r="59" spans="1:27" ht="52.8">
+    <row r="59" spans="1:27" ht="26.4">
       <c r="A59" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>271</v>
+        <v>254</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -4808,37 +4888,37 @@
     </row>
     <row r="60" spans="1:27" ht="26.4">
       <c r="A60" s="5" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>342</v>
+        <v>255</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>264</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>342</v>
+        <v>265</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>342</v>
+        <v>266</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -4857,39 +4937,39 @@
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
     </row>
-    <row r="61" spans="1:27" ht="26.4">
+    <row r="61" spans="1:27" ht="52.8">
       <c r="A61" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>280</v>
+        <v>267</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>342</v>
+        <v>425</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>342</v>
+        <v>270</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
@@ -4908,39 +4988,39 @@
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
     </row>
-    <row r="62" spans="1:27" ht="39.6">
+    <row r="62" spans="1:27" ht="26.4">
       <c r="A62" s="5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>284</v>
+        <v>268</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>342</v>
+        <v>335</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -4959,36 +5039,36 @@
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
     </row>
-    <row r="63" spans="1:27" ht="52.8">
+    <row r="63" spans="1:27" ht="26.4">
       <c r="A63" s="5" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>286</v>
+        <v>277</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>465</v>
+        <v>335</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>289</v>
+        <v>335</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>107</v>
@@ -5010,39 +5090,39 @@
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
     </row>
-    <row r="64" spans="1:27" ht="52.8">
+    <row r="64" spans="1:27" ht="39.6">
       <c r="A64" s="5" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>291</v>
-      </c>
       <c r="E64" s="9" t="s">
-        <v>468</v>
+        <v>407</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>294</v>
+        <v>335</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
@@ -5063,34 +5143,34 @@
     </row>
     <row r="65" spans="1:27" ht="52.8">
       <c r="A65" s="5" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>299</v>
+        <v>281</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>107</v>
@@ -5112,87 +5192,87 @@
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
     </row>
-    <row r="66" spans="1:27" ht="13.2">
-      <c r="A66" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>342</v>
+    <row r="66" spans="1:27" ht="52.8">
+      <c r="A66" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>291</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
-      <c r="AA66" s="6"/>
-    </row>
-    <row r="67" spans="1:27" ht="79.2">
-      <c r="A67" s="6" t="s">
-        <v>305</v>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="9"/>
+    </row>
+    <row r="67" spans="1:27" ht="52.8">
+      <c r="A67" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>107</v>
@@ -5215,35 +5295,35 @@
       <c r="AA67" s="9"/>
     </row>
     <row r="68" spans="1:27" ht="13.2">
-      <c r="A68" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B68" s="7" t="s">
+      <c r="A68" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="D68" s="3" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>107</v>
@@ -5265,36 +5345,36 @@
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
     </row>
-    <row r="69" spans="1:27" ht="66.599999999999994" thickBot="1">
+    <row r="69" spans="1:27" ht="79.2">
       <c r="A69" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>318</v>
+      <c r="D69" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>107</v>
@@ -5316,81 +5396,87 @@
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
     </row>
-    <row r="70" spans="1:27" ht="106.2" thickBot="1">
+    <row r="70" spans="1:27" ht="13.2">
       <c r="A70" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11" t="s">
+      <c r="D70" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="K70" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L70" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11"/>
-      <c r="V70" s="11"/>
-      <c r="W70" s="11"/>
-      <c r="X70" s="11"/>
-      <c r="Y70" s="11"/>
-      <c r="Z70" s="11"/>
-      <c r="AA70" s="11"/>
-    </row>
-    <row r="71" spans="1:27" ht="118.8">
-      <c r="A71" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>322</v>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="6"/>
+      <c r="AA70" s="6"/>
+    </row>
+    <row r="71" spans="1:27" ht="66.599999999999994" thickBot="1">
+      <c r="A71" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>437</v>
+        <v>316</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>439</v>
+        <v>317</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="J71" s="9" t="s">
-        <v>324</v>
+        <v>335</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>107</v>
@@ -5412,87 +5498,81 @@
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
     </row>
-    <row r="72" spans="1:27" ht="39.6">
-      <c r="A72" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="J72" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="K72" s="5" t="s">
+    <row r="72" spans="1:27" ht="106.2" thickBot="1">
+      <c r="A72" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="9"/>
-      <c r="Z72" s="9"/>
-      <c r="AA72" s="9"/>
-    </row>
-    <row r="73" spans="1:27" ht="40.200000000000003" thickBot="1">
-      <c r="A73" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B73" s="7" t="s">
+      <c r="L72" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="11"/>
+      <c r="AA72" s="11"/>
+    </row>
+    <row r="73" spans="1:27" ht="118.8">
+      <c r="A73" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I73" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>335</v>
+      <c r="J73" s="9" t="s">
+        <v>323</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>107</v>
@@ -5514,187 +5594,189 @@
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
     </row>
-    <row r="74" spans="1:27" ht="145.80000000000001" thickBot="1">
-      <c r="A74" s="11" t="s">
+    <row r="74" spans="1:27" ht="39.6">
+      <c r="A74" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
+      <c r="AA74" s="9"/>
+    </row>
+    <row r="75" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A75" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="9"/>
+    </row>
+    <row r="76" spans="1:27" ht="145.80000000000001" thickBot="1">
+      <c r="A76" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="11"/>
+      <c r="AA76" s="11"/>
+    </row>
+    <row r="77" spans="1:27" ht="27" thickBot="1">
+      <c r="A77" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="C77" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="C74" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="D74" s="11" t="s">
+      <c r="D77" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="E74" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="F74" s="11" t="s">
+      <c r="E77" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11" t="s">
+      <c r="F77" s="11" t="s">
         <v>367</v>
-      </c>
-      <c r="J74" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="K74" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L74" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
-      <c r="U74" s="11"/>
-      <c r="V74" s="11"/>
-      <c r="W74" s="11"/>
-      <c r="X74" s="11"/>
-      <c r="Y74" s="11"/>
-      <c r="Z74" s="11"/>
-      <c r="AA74" s="11"/>
-    </row>
-    <row r="75" spans="1:27" ht="27" thickBot="1">
-      <c r="A75" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="J75" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="K75" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L75" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
-      <c r="U75" s="11"/>
-      <c r="V75" s="11"/>
-      <c r="W75" s="11"/>
-      <c r="X75" s="11"/>
-      <c r="Y75" s="11"/>
-      <c r="Z75" s="11"/>
-      <c r="AA75" s="11"/>
-    </row>
-    <row r="76" spans="1:27" ht="66.599999999999994" thickBot="1">
-      <c r="A76" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="J76" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
-      <c r="Y76" s="9"/>
-      <c r="Z76" s="9"/>
-      <c r="AA76" s="9"/>
-    </row>
-    <row r="77" spans="1:27" ht="40.200000000000003" thickBot="1">
-      <c r="A77" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>378</v>
       </c>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="K77" s="11" t="s">
         <v>107</v>
       </c>
       <c r="L77" s="11" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
@@ -5712,39 +5794,41 @@
       <c r="Z77" s="11"/>
       <c r="AA77" s="11"/>
     </row>
-    <row r="78" spans="1:27" ht="93" thickBot="1">
+    <row r="78" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A78" s="11" t="s">
-        <v>381</v>
+        <v>476</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>337</v>
+        <v>459</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>430</v>
+        <v>335</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
+        <v>335</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>463</v>
+      </c>
       <c r="I78" s="11" t="s">
-        <v>432</v>
+        <v>335</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>433</v>
+        <v>335</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L78" s="11" t="s">
-        <v>362</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="L78" s="11"/>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
@@ -5761,31 +5845,41 @@
       <c r="Z78" s="11"/>
       <c r="AA78" s="11"/>
     </row>
-    <row r="79" spans="1:27" ht="27" thickBot="1">
+    <row r="79" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A79" s="11" t="s">
-        <v>382</v>
+        <v>477</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>383</v>
+        <v>459</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
+        <v>464</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>467</v>
+      </c>
       <c r="K79" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="L79" s="11" t="s">
-        <v>362</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="L79" s="11"/>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
@@ -5804,37 +5898,39 @@
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A80" s="11" t="s">
-        <v>386</v>
+        <v>478</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>383</v>
+        <v>459</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>387</v>
+        <v>465</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>435</v>
+        <v>335</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
+        <v>335</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>469</v>
+      </c>
       <c r="I80" s="11" t="s">
-        <v>389</v>
+        <v>466</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>390</v>
+        <v>467</v>
       </c>
       <c r="K80" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L80" s="11" t="s">
-        <v>362</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="L80" s="11"/>
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
@@ -5851,179 +5947,299 @@
       <c r="Z80" s="11"/>
       <c r="AA80" s="11"/>
     </row>
-    <row r="81" spans="1:27" ht="13.2">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="6"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="6"/>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
-      <c r="AA81" s="6"/>
-    </row>
-    <row r="82" spans="1:27" ht="13.2">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="6"/>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
-      <c r="AA82" s="6"/>
-    </row>
-    <row r="83" spans="1:27" ht="13.2">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
-      <c r="V83" s="6"/>
-      <c r="W83" s="6"/>
-      <c r="X83" s="6"/>
-      <c r="Y83" s="6"/>
-      <c r="Z83" s="6"/>
-      <c r="AA83" s="6"/>
-    </row>
-    <row r="84" spans="1:27" ht="13.2">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="6"/>
-      <c r="V84" s="6"/>
-      <c r="W84" s="6"/>
-      <c r="X84" s="6"/>
-      <c r="Y84" s="6"/>
-      <c r="Z84" s="6"/>
-      <c r="AA84" s="6"/>
-    </row>
-    <row r="85" spans="1:27" ht="13.2">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="6"/>
-      <c r="V85" s="6"/>
-      <c r="W85" s="6"/>
-      <c r="X85" s="6"/>
-      <c r="Y85" s="6"/>
-      <c r="Z85" s="6"/>
-      <c r="AA85" s="6"/>
-    </row>
-    <row r="86" spans="1:27" ht="13.2">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-      <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
-      <c r="Z86" s="6"/>
-      <c r="AA86" s="6"/>
+    <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A81" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="11"/>
+      <c r="AA81" s="11"/>
+    </row>
+    <row r="82" spans="1:27" ht="27" thickBot="1">
+      <c r="A82" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="11"/>
+      <c r="W82" s="11"/>
+      <c r="X82" s="11"/>
+      <c r="Y82" s="11"/>
+      <c r="Z82" s="11"/>
+      <c r="AA82" s="11"/>
+    </row>
+    <row r="83" spans="1:27" ht="66.599999999999994" thickBot="1">
+      <c r="A83" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="11"/>
+      <c r="V83" s="11"/>
+      <c r="W83" s="11"/>
+      <c r="X83" s="11"/>
+      <c r="Y83" s="11"/>
+      <c r="Z83" s="11"/>
+      <c r="AA83" s="11"/>
+    </row>
+    <row r="84" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A84" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
+      <c r="Y84" s="11"/>
+      <c r="Z84" s="11"/>
+      <c r="AA84" s="11"/>
+    </row>
+    <row r="85" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A85" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+      <c r="V85" s="11"/>
+      <c r="W85" s="11"/>
+      <c r="X85" s="11"/>
+      <c r="Y85" s="11"/>
+      <c r="Z85" s="11"/>
+      <c r="AA85" s="11"/>
+    </row>
+    <row r="86" spans="1:27" ht="66.599999999999994" thickBot="1">
+      <c r="A86" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="11"/>
+      <c r="AA86" s="11"/>
     </row>
     <row r="87" spans="1:27" ht="13.2">
       <c r="A87" s="6"/>
@@ -32589,6 +32805,93 @@
       <c r="Z1002" s="6"/>
       <c r="AA1002" s="6"/>
     </row>
+    <row r="1003" spans="1:27" ht="13.2">
+      <c r="A1003" s="6"/>
+      <c r="B1003" s="6"/>
+      <c r="C1003" s="6"/>
+      <c r="D1003" s="6"/>
+      <c r="E1003" s="6"/>
+      <c r="F1003" s="6"/>
+      <c r="G1003" s="6"/>
+      <c r="H1003" s="6"/>
+      <c r="I1003" s="6"/>
+      <c r="J1003" s="6"/>
+      <c r="K1003" s="6"/>
+      <c r="L1003" s="6"/>
+      <c r="M1003" s="6"/>
+      <c r="N1003" s="6"/>
+      <c r="O1003" s="6"/>
+      <c r="P1003" s="6"/>
+      <c r="Q1003" s="6"/>
+      <c r="R1003" s="6"/>
+      <c r="S1003" s="6"/>
+      <c r="T1003" s="6"/>
+      <c r="U1003" s="6"/>
+      <c r="V1003" s="6"/>
+      <c r="W1003" s="6"/>
+      <c r="X1003" s="6"/>
+      <c r="Y1003" s="6"/>
+      <c r="Z1003" s="6"/>
+      <c r="AA1003" s="6"/>
+    </row>
+    <row r="1004" spans="1:27" ht="13.2">
+      <c r="A1004" s="6"/>
+      <c r="B1004" s="6"/>
+      <c r="C1004" s="6"/>
+      <c r="D1004" s="6"/>
+      <c r="E1004" s="6"/>
+      <c r="F1004" s="6"/>
+      <c r="G1004" s="6"/>
+      <c r="H1004" s="6"/>
+      <c r="I1004" s="6"/>
+      <c r="J1004" s="6"/>
+      <c r="K1004" s="6"/>
+      <c r="L1004" s="6"/>
+      <c r="M1004" s="6"/>
+      <c r="N1004" s="6"/>
+      <c r="O1004" s="6"/>
+      <c r="P1004" s="6"/>
+      <c r="Q1004" s="6"/>
+      <c r="R1004" s="6"/>
+      <c r="S1004" s="6"/>
+      <c r="T1004" s="6"/>
+      <c r="U1004" s="6"/>
+      <c r="V1004" s="6"/>
+      <c r="W1004" s="6"/>
+      <c r="X1004" s="6"/>
+      <c r="Y1004" s="6"/>
+      <c r="Z1004" s="6"/>
+      <c r="AA1004" s="6"/>
+    </row>
+    <row r="1005" spans="1:27" ht="13.2">
+      <c r="A1005" s="6"/>
+      <c r="B1005" s="6"/>
+      <c r="C1005" s="6"/>
+      <c r="D1005" s="6"/>
+      <c r="E1005" s="6"/>
+      <c r="F1005" s="6"/>
+      <c r="G1005" s="6"/>
+      <c r="H1005" s="6"/>
+      <c r="I1005" s="6"/>
+      <c r="J1005" s="6"/>
+      <c r="K1005" s="6"/>
+      <c r="L1005" s="6"/>
+      <c r="M1005" s="6"/>
+      <c r="N1005" s="6"/>
+      <c r="O1005" s="6"/>
+      <c r="P1005" s="6"/>
+      <c r="Q1005" s="6"/>
+      <c r="R1005" s="6"/>
+      <c r="S1005" s="6"/>
+      <c r="T1005" s="6"/>
+      <c r="U1005" s="6"/>
+      <c r="V1005" s="6"/>
+      <c r="W1005" s="6"/>
+      <c r="X1005" s="6"/>
+      <c r="Y1005" s="6"/>
+      <c r="Z1005" s="6"/>
+      <c r="AA1005" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -32613,64 +32916,70 @@
     <hyperlink ref="B21" r:id="rId20"/>
     <hyperlink ref="B22" r:id="rId21"/>
     <hyperlink ref="B24" r:id="rId22"/>
-    <hyperlink ref="B25" r:id="rId23"/>
-    <hyperlink ref="B26" r:id="rId24"/>
-    <hyperlink ref="B27" r:id="rId25"/>
-    <hyperlink ref="B28" r:id="rId26"/>
-    <hyperlink ref="B29" r:id="rId27"/>
-    <hyperlink ref="B30" r:id="rId28"/>
-    <hyperlink ref="B31" r:id="rId29"/>
-    <hyperlink ref="B32" r:id="rId30"/>
-    <hyperlink ref="B33" r:id="rId31"/>
-    <hyperlink ref="B34" r:id="rId32"/>
-    <hyperlink ref="B35" r:id="rId33"/>
-    <hyperlink ref="B36" r:id="rId34"/>
-    <hyperlink ref="B37" r:id="rId35"/>
-    <hyperlink ref="B38" r:id="rId36"/>
-    <hyperlink ref="B39" r:id="rId37"/>
-    <hyperlink ref="B40" r:id="rId38"/>
-    <hyperlink ref="B41" r:id="rId39"/>
-    <hyperlink ref="B42" r:id="rId40"/>
-    <hyperlink ref="B43" r:id="rId41" location="!/"/>
-    <hyperlink ref="B44" r:id="rId42" location="!/createEmandate"/>
-    <hyperlink ref="B45" r:id="rId43"/>
-    <hyperlink ref="B46" r:id="rId44"/>
-    <hyperlink ref="B47" r:id="rId45"/>
-    <hyperlink ref="B48" r:id="rId46"/>
-    <hyperlink ref="B49" r:id="rId47"/>
-    <hyperlink ref="B51" r:id="rId48"/>
-    <hyperlink ref="B52" r:id="rId49"/>
-    <hyperlink ref="B53" r:id="rId50"/>
-    <hyperlink ref="B54" r:id="rId51"/>
-    <hyperlink ref="B55" r:id="rId52" location="SanitationMethods"/>
-    <hyperlink ref="B56" r:id="rId53" location="SanitationMethods"/>
-    <hyperlink ref="B57" r:id="rId54"/>
-    <hyperlink ref="B58" r:id="rId55"/>
-    <hyperlink ref="B59" r:id="rId56"/>
-    <hyperlink ref="B60" r:id="rId57"/>
-    <hyperlink ref="B61" r:id="rId58"/>
-    <hyperlink ref="B62" r:id="rId59"/>
-    <hyperlink ref="B63" r:id="rId60"/>
-    <hyperlink ref="B64" r:id="rId61"/>
-    <hyperlink ref="B65" r:id="rId62"/>
-    <hyperlink ref="B66" r:id="rId63"/>
-    <hyperlink ref="B67" r:id="rId64"/>
-    <hyperlink ref="B68" r:id="rId65"/>
-    <hyperlink ref="B69" r:id="rId66"/>
-    <hyperlink ref="B71" r:id="rId67"/>
-    <hyperlink ref="B72" r:id="rId68"/>
-    <hyperlink ref="B73" r:id="rId69"/>
-    <hyperlink ref="B76" r:id="rId70"/>
-    <hyperlink ref="B50" r:id="rId71"/>
-    <hyperlink ref="B70" r:id="rId72"/>
-    <hyperlink ref="B74" r:id="rId73"/>
-    <hyperlink ref="B75" r:id="rId74" display="https://demoqa.com/menu"/>
-    <hyperlink ref="B77" r:id="rId75"/>
-    <hyperlink ref="B78" r:id="rId76"/>
-    <hyperlink ref="B79" r:id="rId77"/>
-    <hyperlink ref="B80" r:id="rId78"/>
+    <hyperlink ref="B26" r:id="rId23"/>
+    <hyperlink ref="B27" r:id="rId24"/>
+    <hyperlink ref="B28" r:id="rId25"/>
+    <hyperlink ref="B29" r:id="rId26"/>
+    <hyperlink ref="B30" r:id="rId27"/>
+    <hyperlink ref="B31" r:id="rId28"/>
+    <hyperlink ref="B32" r:id="rId29"/>
+    <hyperlink ref="B33" r:id="rId30"/>
+    <hyperlink ref="B34" r:id="rId31"/>
+    <hyperlink ref="B35" r:id="rId32"/>
+    <hyperlink ref="B36" r:id="rId33"/>
+    <hyperlink ref="B37" r:id="rId34"/>
+    <hyperlink ref="B38" r:id="rId35"/>
+    <hyperlink ref="B39" r:id="rId36"/>
+    <hyperlink ref="B40" r:id="rId37"/>
+    <hyperlink ref="B41" r:id="rId38"/>
+    <hyperlink ref="B42" r:id="rId39"/>
+    <hyperlink ref="B43" r:id="rId40"/>
+    <hyperlink ref="B44" r:id="rId41" location="!/"/>
+    <hyperlink ref="B45" r:id="rId42" location="!/createEmandate"/>
+    <hyperlink ref="B46" r:id="rId43"/>
+    <hyperlink ref="B47" r:id="rId44"/>
+    <hyperlink ref="B48" r:id="rId45"/>
+    <hyperlink ref="B49" r:id="rId46"/>
+    <hyperlink ref="B50" r:id="rId47"/>
+    <hyperlink ref="B53" r:id="rId48"/>
+    <hyperlink ref="B54" r:id="rId49"/>
+    <hyperlink ref="B55" r:id="rId50"/>
+    <hyperlink ref="B56" r:id="rId51"/>
+    <hyperlink ref="B57" r:id="rId52" location="SanitationMethods"/>
+    <hyperlink ref="B58" r:id="rId53" location="SanitationMethods"/>
+    <hyperlink ref="B59" r:id="rId54"/>
+    <hyperlink ref="B60" r:id="rId55"/>
+    <hyperlink ref="B61" r:id="rId56"/>
+    <hyperlink ref="B62" r:id="rId57"/>
+    <hyperlink ref="B63" r:id="rId58"/>
+    <hyperlink ref="B64" r:id="rId59"/>
+    <hyperlink ref="B65" r:id="rId60"/>
+    <hyperlink ref="B66" r:id="rId61"/>
+    <hyperlink ref="B67" r:id="rId62"/>
+    <hyperlink ref="B68" r:id="rId63"/>
+    <hyperlink ref="B69" r:id="rId64"/>
+    <hyperlink ref="B70" r:id="rId65"/>
+    <hyperlink ref="B71" r:id="rId66"/>
+    <hyperlink ref="B73" r:id="rId67"/>
+    <hyperlink ref="B74" r:id="rId68"/>
+    <hyperlink ref="B75" r:id="rId69"/>
+    <hyperlink ref="B51" r:id="rId70"/>
+    <hyperlink ref="B72" r:id="rId71"/>
+    <hyperlink ref="B76" r:id="rId72"/>
+    <hyperlink ref="B77" r:id="rId73" display="https://demoqa.com/menu"/>
+    <hyperlink ref="B82" r:id="rId74"/>
+    <hyperlink ref="B83" r:id="rId75"/>
+    <hyperlink ref="B25" r:id="rId76"/>
+    <hyperlink ref="B52" r:id="rId77"/>
+    <hyperlink ref="B78" r:id="rId78"/>
+    <hyperlink ref="B79" r:id="rId79"/>
+    <hyperlink ref="B80" r:id="rId80"/>
+    <hyperlink ref="B81" r:id="rId81"/>
+    <hyperlink ref="B84" r:id="rId82"/>
+    <hyperlink ref="B85" r:id="rId83" location="deprecated_attributes" display="deprecated_attributes"/>
+    <hyperlink ref="B86" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId79"/>
+  <pageSetup orientation="portrait" r:id="rId85"/>
 </worksheet>
 </file>
--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="132" yWindow="540" windowWidth="22716" windowHeight="10788"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="504">
   <si>
     <t>ID</t>
   </si>
@@ -1493,12 +1493,45 @@
   </si>
   <si>
     <t>div[class*='col-md-']&gt;div[class='ctg_content'] h4</t>
+  </si>
+  <si>
+    <t>//iframe[contains(@name, 'a-hvkbvntdosw')]</t>
+  </si>
+  <si>
+    <t>iframe[name*='a-hvkbvntdosw']</t>
+  </si>
+  <si>
+    <t>https://www.abhivyaktigarbamahotsav.com/abhivyakti-garba-contact.php</t>
+  </si>
+  <si>
+    <t>ABHI_VYAKTI_Iframe_05</t>
+  </si>
+  <si>
+    <t>https://academy.tricentis.com/path/automation-specialist-for-tricentis-tosca</t>
+  </si>
+  <si>
+    <t>iframe[name*='f']</t>
+  </si>
+  <si>
+    <t>//iframe[contains(@name, 'f')]</t>
+  </si>
+  <si>
+    <t>iframe[id*='twitter-widget-']</t>
+  </si>
+  <si>
+    <t>//iframe[contains(@id, 'twitter-widget-')]</t>
+  </si>
+  <si>
+    <t>Iframe_Tosca_01</t>
+  </si>
+  <si>
+    <t>Iframe_Tosca_02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11">
     <font>
       <sz val="10"/>
@@ -1572,7 +1605,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1583,6 +1616,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1617,7 +1656,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1665,6 +1704,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1877,20 +1926,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="51" customWidth="1"/>
     <col min="2" max="2" width="39.77734375" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" customWidth="1"/>
@@ -4686,7 +4735,7 @@
       <c r="AA55" s="5"/>
     </row>
     <row r="56" spans="1:27" ht="264">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="17" t="s">
         <v>233</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -4736,39 +4785,39 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
     </row>
-    <row r="57" spans="1:27" ht="158.4">
-      <c r="A57" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G57" s="6" t="s">
+    <row r="57" spans="1:27" ht="39.6">
+      <c r="A57" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="E57" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="F57" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="I57" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>248</v>
+      <c r="G57" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
@@ -4789,22 +4838,22 @@
     </row>
     <row r="58" spans="1:27" ht="158.4">
       <c r="A58" s="5" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>241</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>333</v>
+        <v>243</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>333</v>
@@ -4813,10 +4862,10 @@
         <v>333</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>248</v>
@@ -4838,24 +4887,24 @@
       <c r="Z58" s="9"/>
       <c r="AA58" s="9"/>
     </row>
-    <row r="59" spans="1:27" ht="26.4">
+    <row r="59" spans="1:27" ht="158.4">
       <c r="A59" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>333</v>
@@ -4864,13 +4913,13 @@
         <v>333</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -4891,22 +4940,22 @@
     </row>
     <row r="60" spans="1:27" ht="26.4">
       <c r="A60" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>264</v>
+      <c r="C60" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>333</v>
@@ -4915,10 +4964,10 @@
         <v>333</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>107</v>
@@ -4940,24 +4989,24 @@
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
     </row>
-    <row r="61" spans="1:27" ht="52.8">
+    <row r="61" spans="1:27" ht="26.4">
       <c r="A61" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>268</v>
+        <v>262</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>333</v>
@@ -4966,13 +5015,13 @@
         <v>333</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
@@ -4991,24 +5040,24 @@
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
     </row>
-    <row r="62" spans="1:27" ht="26.4">
+    <row r="62" spans="1:27" ht="52.8">
       <c r="A62" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B62" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B62" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>333</v>
+      <c r="C62" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>270</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>333</v>
@@ -5017,10 +5066,10 @@
         <v>333</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>333</v>
+        <v>271</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>248</v>
@@ -5044,21 +5093,21 @@
     </row>
     <row r="63" spans="1:27" ht="26.4">
       <c r="A63" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E63" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="5" t="s">
         <v>333</v>
       </c>
       <c r="G63" s="6" t="s">
@@ -5067,14 +5116,14 @@
       <c r="H63" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="I63" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="J63" s="9" t="s">
+      <c r="J63" s="5" t="s">
         <v>333</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
@@ -5093,24 +5142,24 @@
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
     </row>
-    <row r="64" spans="1:27" ht="39.6">
+    <row r="64" spans="1:27" ht="26.4">
       <c r="A64" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>405</v>
+        <v>333</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>333</v>
@@ -5125,7 +5174,7 @@
         <v>333</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
@@ -5144,24 +5193,24 @@
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
     </row>
-    <row r="65" spans="1:27" ht="52.8">
+    <row r="65" spans="1:27" ht="39.6">
       <c r="A65" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>281</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>333</v>
@@ -5169,14 +5218,14 @@
       <c r="H65" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I65" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>288</v>
+      <c r="I65" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
@@ -5197,22 +5246,22 @@
     </row>
     <row r="66" spans="1:27" ht="52.8">
       <c r="A66" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>281</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>333</v>
@@ -5221,10 +5270,10 @@
         <v>333</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>107</v>
@@ -5248,22 +5297,22 @@
     </row>
     <row r="67" spans="1:27" ht="52.8">
       <c r="A67" s="5" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>298</v>
+      <c r="C67" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>291</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>333</v>
@@ -5272,10 +5321,10 @@
         <v>333</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>107</v>
@@ -5297,24 +5346,24 @@
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
     </row>
-    <row r="68" spans="1:27" ht="13.2">
-      <c r="A68" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>333</v>
+    <row r="68" spans="1:27" ht="52.8">
+      <c r="A68" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>333</v>
@@ -5322,50 +5371,50 @@
       <c r="H68" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I68" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>333</v>
+      <c r="I68" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="6"/>
-      <c r="AA68" s="6"/>
-    </row>
-    <row r="69" spans="1:27" ht="79.2">
-      <c r="A69" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B69" s="7" t="s">
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+    </row>
+    <row r="69" spans="1:27" ht="13.2">
+      <c r="A69" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>308</v>
+      <c r="C69" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>333</v>
@@ -5373,50 +5422,50 @@
       <c r="H69" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I69" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>310</v>
+      <c r="I69" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-      <c r="AA69" s="9"/>
-    </row>
-    <row r="70" spans="1:27" ht="13.2">
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
+      <c r="AA69" s="6"/>
+    </row>
+    <row r="70" spans="1:27" ht="79.2">
       <c r="A70" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>333</v>
+      <c r="C70" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>308</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>333</v>
@@ -5424,50 +5473,50 @@
       <c r="H70" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I70" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>333</v>
+      <c r="I70" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
-      <c r="AA70" s="6"/>
-    </row>
-    <row r="71" spans="1:27" ht="66.599999999999994" thickBot="1">
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
+    </row>
+    <row r="71" spans="1:27" ht="13.2">
       <c r="A71" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>315</v>
+      <c r="C71" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>333</v>
@@ -5475,146 +5524,146 @@
       <c r="H71" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I71" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>317</v>
+      <c r="I71" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
-      <c r="Z71" s="9"/>
-      <c r="AA71" s="9"/>
-    </row>
-    <row r="72" spans="1:27" ht="106.2" thickBot="1">
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
+      <c r="AA71" s="6"/>
+    </row>
+    <row r="72" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A72" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
+      <c r="AA72" s="9"/>
+    </row>
+    <row r="73" spans="1:27" ht="106.2" thickBot="1">
+      <c r="A73" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B73" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D73" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E73" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F73" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11" t="s">
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="L72" s="11" t="s">
+      <c r="L73" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="11"/>
-      <c r="X72" s="11"/>
-      <c r="Y72" s="11"/>
-      <c r="Z72" s="11"/>
-      <c r="AA72" s="11"/>
-    </row>
-    <row r="73" spans="1:27" ht="118.8">
-      <c r="A73" s="9" t="s">
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="11"/>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="11"/>
+      <c r="AA73" s="11"/>
+    </row>
+    <row r="74" spans="1:27" ht="118.8">
+      <c r="A74" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B74" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D74" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E74" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F74" s="9" t="s">
         <v>415</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="J73" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="9"/>
-      <c r="Y73" s="9"/>
-      <c r="Z73" s="9"/>
-      <c r="AA73" s="9"/>
-    </row>
-    <row r="74" spans="1:27" ht="39.6">
-      <c r="A74" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>325</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>333</v>
@@ -5623,10 +5672,10 @@
         <v>333</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>107</v>
@@ -5648,24 +5697,24 @@
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
     </row>
-    <row r="75" spans="1:27" ht="40.200000000000003" thickBot="1">
+    <row r="75" spans="1:27" ht="39.6">
       <c r="A75" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>333</v>
+        <v>416</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>333</v>
@@ -5673,11 +5722,11 @@
       <c r="H75" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I75" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>332</v>
+      <c r="I75" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>107</v>
@@ -5699,81 +5748,83 @@
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
     </row>
-    <row r="76" spans="1:27" ht="145.80000000000001" thickBot="1">
-      <c r="A76" s="11" t="s">
+    <row r="76" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A76" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
+    </row>
+    <row r="77" spans="1:27" ht="145.80000000000001" thickBot="1">
+      <c r="A77" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B77" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D77" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E77" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="F77" s="11" t="s">
         <v>357</v>
-      </c>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="J76" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="K76" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L76" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
-      <c r="U76" s="11"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="11"/>
-      <c r="X76" s="11"/>
-      <c r="Y76" s="11"/>
-      <c r="Z76" s="11"/>
-      <c r="AA76" s="11"/>
-    </row>
-    <row r="77" spans="1:27" ht="27" thickBot="1">
-      <c r="A77" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>365</v>
       </c>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="K77" s="11" t="s">
         <v>107</v>
@@ -5797,41 +5848,39 @@
       <c r="Z77" s="11"/>
       <c r="AA77" s="11"/>
     </row>
-    <row r="78" spans="1:27" ht="66.599999999999994" thickBot="1">
+    <row r="78" spans="1:27" ht="27" thickBot="1">
       <c r="A78" s="11" t="s">
-        <v>474</v>
+        <v>360</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>457</v>
+        <v>361</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>458</v>
+        <v>362</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>459</v>
+        <v>363</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>461</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
       <c r="I78" s="11" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L78" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>353</v>
+      </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
@@ -5850,16 +5899,16 @@
     </row>
     <row r="79" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A79" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>457</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>333</v>
@@ -5874,10 +5923,10 @@
         <v>461</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>464</v>
+        <v>333</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>465</v>
+        <v>333</v>
       </c>
       <c r="K79" s="11" t="s">
         <v>46</v>
@@ -5901,7 +5950,7 @@
     </row>
     <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A80" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>457</v>
@@ -5919,10 +5968,10 @@
         <v>333</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="I80" s="11" t="s">
         <v>464</v>
@@ -5950,18 +5999,18 @@
       <c r="Z80" s="11"/>
       <c r="AA80" s="11"/>
     </row>
-    <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
+    <row r="81" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A81" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>333</v>
@@ -5970,16 +6019,16 @@
         <v>333</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="K81" s="11" t="s">
         <v>46</v>
@@ -6001,31 +6050,41 @@
       <c r="Z81" s="11"/>
       <c r="AA81" s="11"/>
     </row>
-    <row r="82" spans="1:27" ht="27" thickBot="1">
+    <row r="82" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A82" s="11" t="s">
-        <v>368</v>
+        <v>477</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>369</v>
+        <v>468</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
+        <v>469</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>473</v>
+      </c>
       <c r="K82" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="L82" s="11" t="s">
-        <v>353</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="L82" s="11"/>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
@@ -6042,35 +6101,27 @@
       <c r="Z82" s="11"/>
       <c r="AA82" s="11"/>
     </row>
-    <row r="83" spans="1:27" ht="66.599999999999994" thickBot="1">
+    <row r="83" spans="1:27" ht="27" thickBot="1">
       <c r="A83" s="11" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>369</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>374</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
-      <c r="I83" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="J83" s="11" t="s">
-        <v>376</v>
-      </c>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
       <c r="K83" s="11" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="L83" s="11" t="s">
         <v>353</v>
@@ -6091,41 +6142,39 @@
       <c r="Z83" s="11"/>
       <c r="AA83" s="11"/>
     </row>
-    <row r="84" spans="1:27" ht="40.200000000000003" thickBot="1">
+    <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A84" s="11" t="s">
-        <v>483</v>
+        <v>372</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>478</v>
+        <v>369</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>445</v>
+        <v>373</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>480</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
       <c r="I84" s="11" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L84" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>353</v>
+      </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
       <c r="O84" s="11"/>
@@ -6144,10 +6193,10 @@
     </row>
     <row r="85" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A85" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>445</v>
@@ -6162,10 +6211,10 @@
         <v>333</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="I85" s="11" t="s">
         <v>333</v>
@@ -6193,12 +6242,12 @@
       <c r="Z85" s="11"/>
       <c r="AA85" s="11"/>
     </row>
-    <row r="86" spans="1:27" ht="66.599999999999994" thickBot="1">
+    <row r="86" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A86" s="11" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>445</v>
@@ -6213,10 +6262,10 @@
         <v>333</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I86" s="11" t="s">
         <v>333</v>
@@ -6244,47 +6293,91 @@
       <c r="Z86" s="11"/>
       <c r="AA86" s="11"/>
     </row>
-    <row r="87" spans="1:27" ht="13.2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="6"/>
-      <c r="W87" s="6"/>
-      <c r="X87" s="6"/>
-      <c r="Y87" s="6"/>
-      <c r="Z87" s="6"/>
-      <c r="AA87" s="6"/>
-    </row>
-    <row r="88" spans="1:27" ht="13.2">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
+    <row r="87" spans="1:27" ht="66.599999999999994" thickBot="1">
+      <c r="A87" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="11"/>
+      <c r="AA87" s="11"/>
+    </row>
+    <row r="88" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A88" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
@@ -6302,18 +6395,40 @@
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
     </row>
-    <row r="89" spans="1:27" ht="13.2">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
+    <row r="89" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A89" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
@@ -32948,41 +33063,44 @@
     <hyperlink ref="B54" r:id="rId49"/>
     <hyperlink ref="B55" r:id="rId50"/>
     <hyperlink ref="B56" r:id="rId51"/>
-    <hyperlink ref="B57" r:id="rId52" location="SanitationMethods"/>
-    <hyperlink ref="B58" r:id="rId53" location="SanitationMethods"/>
-    <hyperlink ref="B59" r:id="rId54"/>
-    <hyperlink ref="B60" r:id="rId55"/>
-    <hyperlink ref="B61" r:id="rId56"/>
-    <hyperlink ref="B62" r:id="rId57"/>
-    <hyperlink ref="B63" r:id="rId58"/>
-    <hyperlink ref="B64" r:id="rId59"/>
-    <hyperlink ref="B65" r:id="rId60"/>
-    <hyperlink ref="B66" r:id="rId61"/>
-    <hyperlink ref="B67" r:id="rId62"/>
-    <hyperlink ref="B68" r:id="rId63"/>
-    <hyperlink ref="B69" r:id="rId64"/>
-    <hyperlink ref="B70" r:id="rId65"/>
-    <hyperlink ref="B71" r:id="rId66"/>
-    <hyperlink ref="B73" r:id="rId67"/>
-    <hyperlink ref="B74" r:id="rId68"/>
-    <hyperlink ref="B75" r:id="rId69"/>
+    <hyperlink ref="B58" r:id="rId52" location="SanitationMethods"/>
+    <hyperlink ref="B59" r:id="rId53" location="SanitationMethods"/>
+    <hyperlink ref="B60" r:id="rId54"/>
+    <hyperlink ref="B61" r:id="rId55"/>
+    <hyperlink ref="B62" r:id="rId56"/>
+    <hyperlink ref="B63" r:id="rId57"/>
+    <hyperlink ref="B64" r:id="rId58"/>
+    <hyperlink ref="B65" r:id="rId59"/>
+    <hyperlink ref="B66" r:id="rId60"/>
+    <hyperlink ref="B67" r:id="rId61"/>
+    <hyperlink ref="B68" r:id="rId62"/>
+    <hyperlink ref="B69" r:id="rId63"/>
+    <hyperlink ref="B70" r:id="rId64"/>
+    <hyperlink ref="B71" r:id="rId65"/>
+    <hyperlink ref="B72" r:id="rId66"/>
+    <hyperlink ref="B74" r:id="rId67"/>
+    <hyperlink ref="B75" r:id="rId68"/>
+    <hyperlink ref="B76" r:id="rId69"/>
     <hyperlink ref="B51" r:id="rId70"/>
-    <hyperlink ref="B72" r:id="rId71"/>
-    <hyperlink ref="B76" r:id="rId72"/>
-    <hyperlink ref="B77" r:id="rId73" display="https://demoqa.com/menu"/>
-    <hyperlink ref="B82" r:id="rId74"/>
-    <hyperlink ref="B83" r:id="rId75"/>
+    <hyperlink ref="B73" r:id="rId71"/>
+    <hyperlink ref="B77" r:id="rId72"/>
+    <hyperlink ref="B78" r:id="rId73" display="https://demoqa.com/menu"/>
+    <hyperlink ref="B83" r:id="rId74"/>
+    <hyperlink ref="B84" r:id="rId75"/>
     <hyperlink ref="B25" r:id="rId76"/>
     <hyperlink ref="B52" r:id="rId77"/>
-    <hyperlink ref="B78" r:id="rId78"/>
-    <hyperlink ref="B79" r:id="rId79"/>
-    <hyperlink ref="B80" r:id="rId80"/>
-    <hyperlink ref="B81" r:id="rId81"/>
-    <hyperlink ref="B84" r:id="rId82"/>
-    <hyperlink ref="B85" r:id="rId83" location="deprecated_attributes" display="deprecated_attributes"/>
-    <hyperlink ref="B86" r:id="rId84"/>
+    <hyperlink ref="B79" r:id="rId78"/>
+    <hyperlink ref="B80" r:id="rId79"/>
+    <hyperlink ref="B81" r:id="rId80"/>
+    <hyperlink ref="B82" r:id="rId81"/>
+    <hyperlink ref="B85" r:id="rId82"/>
+    <hyperlink ref="B86" r:id="rId83" location="deprecated_attributes" display="deprecated_attributes"/>
+    <hyperlink ref="B87" r:id="rId84"/>
+    <hyperlink ref="B57" r:id="rId85"/>
+    <hyperlink ref="B88" r:id="rId86"/>
+    <hyperlink ref="B89" r:id="rId87"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId85"/>
+  <pageSetup orientation="portrait" r:id="rId88"/>
 </worksheet>
 </file>
--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="542">
   <si>
     <t>ID</t>
   </si>
@@ -1526,6 +1526,120 @@
   </si>
   <si>
     <t>Iframe_Tosca_02</t>
+  </si>
+  <si>
+    <t>indiapost_TC_01</t>
+  </si>
+  <si>
+    <t>https://www.indiapost.gov.in/vas/Pages/IndiaPostHome.aspx</t>
+  </si>
+  <si>
+    <t>img[id='india-post-logo']</t>
+  </si>
+  <si>
+    <t>//img[@id='india-post-logo']</t>
+  </si>
+  <si>
+    <t>indiapost_TC_02</t>
+  </si>
+  <si>
+    <t>img[id='emblem-of-india-logo']</t>
+  </si>
+  <si>
+    <t>//img[@id='emblem-of-india-logo']</t>
+  </si>
+  <si>
+    <t>left click</t>
+  </si>
+  <si>
+    <t>indiapost_TC_03</t>
+  </si>
+  <si>
+    <t>img[alt*='Web']</t>
+  </si>
+  <si>
+    <t>//img[contains(@alt, 'Web')]</t>
+  </si>
+  <si>
+    <t>indiapost_TC_04</t>
+  </si>
+  <si>
+    <t>img[id='feature-box-item-image/']</t>
+  </si>
+  <si>
+    <t>//img[@id='feature-box-item-image/']</t>
+  </si>
+  <si>
+    <t>indiapost_TC_05</t>
+  </si>
+  <si>
+    <t>label[class='control-label radio-inline']:nth-of-type(3) &gt; input[id*='ctl']</t>
+  </si>
+  <si>
+    <t>//label[@class='control-label radio-inline'][2]/input[contains(@id, 'ctl')]</t>
+  </si>
+  <si>
+    <t>label[class='control-label radio-inline'] &gt; input[id*='ctl']</t>
+  </si>
+  <si>
+    <t>//label[@class='control-label radio-inline']/input[contains(@id, 'ctl')]</t>
+  </si>
+  <si>
+    <t>indiapost_TC_06</t>
+  </si>
+  <si>
+    <t>input[aria-label='Enter a valid complaint number']</t>
+  </si>
+  <si>
+    <t>//input[@aria-label='Enter a valid complaint number']</t>
+  </si>
+  <si>
+    <t>indiapost_TC_07</t>
+  </si>
+  <si>
+    <t>img[id*='ctl']</t>
+  </si>
+  <si>
+    <t>//img[contains(@id, 'ctl')]</t>
+  </si>
+  <si>
+    <t>indiapost_TC_08</t>
+  </si>
+  <si>
+    <t>input[class*='btn']</t>
+  </si>
+  <si>
+    <t>//input[contains(@class, 'btn')]</t>
+  </si>
+  <si>
+    <t>indiapost_TC_09</t>
+  </si>
+  <si>
+    <t>div[id='feature-box-item-helpline'] &gt; h4:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//div[@id='feature-box-item-helpline']/h4[1]</t>
+  </si>
+  <si>
+    <t>div[id='feature-box-item-helpline'] &gt; h4</t>
+  </si>
+  <si>
+    <t>//div[@id='feature-box-item-helpline']/h4</t>
+  </si>
+  <si>
+    <t>h4:contains(Toll Free Enquiry Helpline:)</t>
+  </si>
+  <si>
+    <t>//h4[contains(text(), 'Toll Free Enquiry Helpline:')]</t>
+  </si>
+  <si>
+    <t>indiapost_TC_10</t>
+  </si>
+  <si>
+    <t>img[alt='Calculate Postage']</t>
+  </si>
+  <si>
+    <t>//img[@alt='Calculate Postage']</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1770,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1714,6 +1828,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1934,7 +2051,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
+      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1942,13 +2059,13 @@
     <col min="1" max="1" width="51" customWidth="1"/>
     <col min="2" max="2" width="39.77734375" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="18.88671875" customWidth="1"/>
     <col min="8" max="8" width="19.21875" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="41.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="13.8">
@@ -2002,7 +2119,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="79.2">
+    <row r="2" spans="1:27" ht="52.8">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -2053,7 +2170,7 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="79.2">
+    <row r="3" spans="1:27" ht="52.8">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -2104,7 +2221,7 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
     </row>
-    <row r="4" spans="1:27" ht="92.4">
+    <row r="4" spans="1:27" ht="82.8">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -2155,7 +2272,7 @@
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
     </row>
-    <row r="5" spans="1:27" ht="79.2">
+    <row r="5" spans="1:27" ht="52.8">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -2206,7 +2323,7 @@
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
     </row>
-    <row r="6" spans="1:27" ht="39.6">
+    <row r="6" spans="1:27" ht="26.4">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -2257,7 +2374,7 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:27" ht="158.4">
+    <row r="7" spans="1:27" ht="105.6">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2308,7 +2425,7 @@
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
     </row>
-    <row r="8" spans="1:27" ht="79.2">
+    <row r="8" spans="1:27" ht="52.8">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
@@ -2359,7 +2476,7 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27" ht="158.4">
+    <row r="9" spans="1:27" ht="118.8">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
@@ -2410,7 +2527,7 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
     </row>
-    <row r="10" spans="1:27" ht="105.6">
+    <row r="10" spans="1:27" ht="39.6">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -2461,7 +2578,7 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
     </row>
-    <row r="11" spans="1:27" ht="105.6">
+    <row r="11" spans="1:27" ht="52.8">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -2512,7 +2629,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:27" ht="39.6">
+    <row r="12" spans="1:27" ht="26.4">
       <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
@@ -2563,7 +2680,7 @@
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
     </row>
-    <row r="13" spans="1:27" ht="105.6">
+    <row r="13" spans="1:27" ht="92.4">
       <c r="A13" s="5" t="s">
         <v>63</v>
       </c>
@@ -2614,7 +2731,7 @@
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
     </row>
-    <row r="14" spans="1:27" ht="118.8">
+    <row r="14" spans="1:27" ht="92.4">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -2665,7 +2782,7 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
     </row>
-    <row r="15" spans="1:27" ht="158.4">
+    <row r="15" spans="1:27" ht="118.8">
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
@@ -2716,7 +2833,7 @@
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
     </row>
-    <row r="16" spans="1:27" ht="105.6">
+    <row r="16" spans="1:27" ht="92.4">
       <c r="A16" s="5" t="s">
         <v>81</v>
       </c>
@@ -2767,7 +2884,7 @@
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
     </row>
-    <row r="17" spans="1:27" ht="132">
+    <row r="17" spans="1:27" ht="105.6">
       <c r="A17" s="5" t="s">
         <v>87</v>
       </c>
@@ -2818,7 +2935,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" ht="105.6">
+    <row r="18" spans="1:27" ht="52.8">
       <c r="A18" s="5" t="s">
         <v>88</v>
       </c>
@@ -2869,7 +2986,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" ht="145.19999999999999">
+    <row r="19" spans="1:27" ht="118.8">
       <c r="A19" s="5" t="s">
         <v>92</v>
       </c>
@@ -2920,7 +3037,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" ht="92.4">
+    <row r="20" spans="1:27" ht="79.2">
       <c r="A20" s="5" t="s">
         <v>98</v>
       </c>
@@ -2971,7 +3088,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" ht="39.6">
+    <row r="21" spans="1:27" ht="26.4">
       <c r="A21" s="5" t="s">
         <v>102</v>
       </c>
@@ -3022,7 +3139,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" ht="52.8">
+    <row r="22" spans="1:27" ht="26.4">
       <c r="A22" s="5" t="s">
         <v>105</v>
       </c>
@@ -3073,7 +3190,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" ht="52.8">
+    <row r="23" spans="1:27" ht="39.6">
       <c r="A23" s="5" t="s">
         <v>108</v>
       </c>
@@ -3124,7 +3241,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" ht="145.80000000000001" thickBot="1">
+    <row r="24" spans="1:27" ht="119.4" thickBot="1">
       <c r="A24" s="15" t="s">
         <v>455</v>
       </c>
@@ -3222,7 +3339,7 @@
       <c r="Z25" s="11"/>
       <c r="AA25" s="11"/>
     </row>
-    <row r="26" spans="1:27" ht="66">
+    <row r="26" spans="1:27" ht="39.6">
       <c r="A26" s="5" t="s">
         <v>115</v>
       </c>
@@ -3273,7 +3390,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" ht="66">
+    <row r="27" spans="1:27" ht="52.8">
       <c r="A27" s="5" t="s">
         <v>121</v>
       </c>
@@ -3324,7 +3441,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" ht="66">
+    <row r="28" spans="1:27" ht="52.8">
       <c r="A28" s="5" t="s">
         <v>124</v>
       </c>
@@ -3375,7 +3492,7 @@
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
     </row>
-    <row r="29" spans="1:27" ht="39.6">
+    <row r="29" spans="1:27" ht="26.4">
       <c r="A29" s="5" t="s">
         <v>128</v>
       </c>
@@ -3528,7 +3645,7 @@
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
     </row>
-    <row r="32" spans="1:27" ht="66">
+    <row r="32" spans="1:27" ht="52.8">
       <c r="A32" s="5" t="s">
         <v>137</v>
       </c>
@@ -3579,7 +3696,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" ht="92.4">
+    <row r="33" spans="1:27" ht="79.2">
       <c r="A33" s="5" t="s">
         <v>141</v>
       </c>
@@ -3732,7 +3849,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" ht="92.4">
+    <row r="36" spans="1:27" ht="79.2">
       <c r="A36" s="5" t="s">
         <v>159</v>
       </c>
@@ -3783,7 +3900,7 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" ht="26.4">
+    <row r="37" spans="1:27" ht="13.2">
       <c r="A37" s="3" t="s">
         <v>164</v>
       </c>
@@ -3885,7 +4002,7 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27" ht="66">
+    <row r="39" spans="1:27" ht="39.6">
       <c r="A39" s="3" t="s">
         <v>172</v>
       </c>
@@ -3987,7 +4104,7 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" ht="66">
+    <row r="41" spans="1:27" ht="52.8">
       <c r="A41" s="3" t="s">
         <v>184</v>
       </c>
@@ -4140,7 +4257,7 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" ht="52.8">
+    <row r="44" spans="1:27" ht="39.6">
       <c r="A44" s="3" t="s">
         <v>199</v>
       </c>
@@ -4242,7 +4359,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" ht="26.4">
+    <row r="46" spans="1:27" ht="13.2">
       <c r="A46" s="3" t="s">
         <v>205</v>
       </c>
@@ -4293,7 +4410,7 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" ht="39.6">
+    <row r="47" spans="1:27" ht="13.2">
       <c r="A47" s="3" t="s">
         <v>208</v>
       </c>
@@ -4344,7 +4461,7 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" ht="39.6">
+    <row r="48" spans="1:27" ht="26.4">
       <c r="A48" s="3" t="s">
         <v>209</v>
       </c>
@@ -4395,7 +4512,7 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27" ht="118.8">
+    <row r="49" spans="1:27" ht="92.4">
       <c r="A49" s="3" t="s">
         <v>212</v>
       </c>
@@ -4446,7 +4563,7 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
+    <row r="50" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A50" s="3" t="s">
         <v>214</v>
       </c>
@@ -4493,7 +4610,7 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
     </row>
-    <row r="51" spans="1:27" ht="66.599999999999994" thickBot="1">
+    <row r="51" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A51" s="11" t="s">
         <v>346</v>
       </c>
@@ -4536,7 +4653,7 @@
       <c r="Z51" s="11"/>
       <c r="AA51" s="11"/>
     </row>
-    <row r="52" spans="1:27" ht="79.8" thickBot="1">
+    <row r="52" spans="1:27" ht="40.200000000000003" thickBot="1">
       <c r="A52" s="11" t="s">
         <v>453</v>
       </c>
@@ -4581,7 +4698,7 @@
       <c r="Z52" s="11"/>
       <c r="AA52" s="11"/>
     </row>
-    <row r="53" spans="1:27" ht="79.2">
+    <row r="53" spans="1:27" ht="52.8">
       <c r="A53" s="3" t="s">
         <v>215</v>
       </c>
@@ -4785,7 +4902,7 @@
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
     </row>
-    <row r="57" spans="1:27" ht="39.6">
+    <row r="57" spans="1:27" ht="26.4">
       <c r="A57" s="17" t="s">
         <v>496</v>
       </c>
@@ -5142,7 +5259,7 @@
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
     </row>
-    <row r="64" spans="1:27" ht="26.4">
+    <row r="64" spans="1:27" ht="13.2">
       <c r="A64" s="5" t="s">
         <v>276</v>
       </c>
@@ -5448,7 +5565,7 @@
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
     </row>
-    <row r="70" spans="1:27" ht="79.2">
+    <row r="70" spans="1:27" ht="52.8">
       <c r="A70" s="6" t="s">
         <v>304</v>
       </c>
@@ -5550,7 +5667,7 @@
       <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
     </row>
-    <row r="72" spans="1:27" ht="66.599999999999994" thickBot="1">
+    <row r="72" spans="1:27" ht="53.4" thickBot="1">
       <c r="A72" s="6" t="s">
         <v>306</v>
       </c>
@@ -5601,7 +5718,7 @@
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
     </row>
-    <row r="73" spans="1:27" ht="106.2" thickBot="1">
+    <row r="73" spans="1:27" ht="93" thickBot="1">
       <c r="A73" s="6" t="s">
         <v>311</v>
       </c>
@@ -5646,7 +5763,7 @@
       <c r="Z73" s="11"/>
       <c r="AA73" s="11"/>
     </row>
-    <row r="74" spans="1:27" ht="118.8">
+    <row r="74" spans="1:27" ht="105.6">
       <c r="A74" s="9" t="s">
         <v>318</v>
       </c>
@@ -5799,7 +5916,7 @@
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
     </row>
-    <row r="77" spans="1:27" ht="145.80000000000001" thickBot="1">
+    <row r="77" spans="1:27" ht="119.4" thickBot="1">
       <c r="A77" s="11" t="s">
         <v>354</v>
       </c>
@@ -6101,7 +6218,7 @@
       <c r="Z82" s="11"/>
       <c r="AA82" s="11"/>
     </row>
-    <row r="83" spans="1:27" ht="27" thickBot="1">
+    <row r="83" spans="1:27" ht="13.8" thickBot="1">
       <c r="A83" s="11" t="s">
         <v>368</v>
       </c>
@@ -6446,18 +6563,40 @@
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
     </row>
-    <row r="90" spans="1:27" ht="13.2">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
+    <row r="90" spans="1:27" ht="27" thickBot="1">
+      <c r="A90" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
@@ -6475,18 +6614,40 @@
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
     </row>
-    <row r="91" spans="1:27" ht="13.2">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
+    <row r="91" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A91" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>511</v>
+      </c>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
@@ -6504,18 +6665,40 @@
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
     </row>
-    <row r="92" spans="1:27" ht="13.2">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
+    <row r="92" spans="1:27" ht="27" thickBot="1">
+      <c r="A92" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>511</v>
+      </c>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
@@ -6533,18 +6716,40 @@
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
     </row>
-    <row r="93" spans="1:27" ht="13.2">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
+    <row r="93" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A93" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>511</v>
+      </c>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
@@ -6562,18 +6767,40 @@
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
     </row>
-    <row r="94" spans="1:27" ht="13.2">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
+    <row r="94" spans="1:27" ht="79.8" thickBot="1">
+      <c r="A94" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>511</v>
+      </c>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
@@ -6591,18 +6818,40 @@
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
     </row>
-    <row r="95" spans="1:27" ht="13.2">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
+    <row r="95" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A95" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>511</v>
+      </c>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
@@ -6620,18 +6869,40 @@
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
     </row>
-    <row r="96" spans="1:27" ht="13.2">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
+    <row r="96" spans="1:27" ht="27" thickBot="1">
+      <c r="A96" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>511</v>
+      </c>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
@@ -6649,18 +6920,28 @@
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
     </row>
-    <row r="97" spans="1:27" ht="13.2">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
+    <row r="97" spans="1:27" ht="27" thickBot="1">
+      <c r="A97" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11" t="s">
+        <v>511</v>
+      </c>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
@@ -6678,18 +6959,36 @@
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
     </row>
-    <row r="98" spans="1:27" ht="13.2">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
+    <row r="98" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A98" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J98" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>511</v>
+      </c>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
@@ -6707,18 +7006,40 @@
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
     </row>
-    <row r="99" spans="1:27" ht="13.2">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
+    <row r="99" spans="1:27" ht="27" thickBot="1">
+      <c r="A99" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>511</v>
+      </c>
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
@@ -33099,8 +33420,18 @@
     <hyperlink ref="B57" r:id="rId85"/>
     <hyperlink ref="B88" r:id="rId86"/>
     <hyperlink ref="B89" r:id="rId87"/>
+    <hyperlink ref="B90" r:id="rId88"/>
+    <hyperlink ref="B91" r:id="rId89"/>
+    <hyperlink ref="B92" r:id="rId90"/>
+    <hyperlink ref="B93" r:id="rId91"/>
+    <hyperlink ref="B94" r:id="rId92"/>
+    <hyperlink ref="B95" r:id="rId93"/>
+    <hyperlink ref="B96" r:id="rId94"/>
+    <hyperlink ref="B97" r:id="rId95"/>
+    <hyperlink ref="B98" r:id="rId96"/>
+    <hyperlink ref="B99" r:id="rId97"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId88"/>
+  <pageSetup orientation="portrait" r:id="rId98"/>
 </worksheet>
 </file>
--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="535">
   <si>
     <t>ID</t>
   </si>
@@ -1363,12 +1363,6 @@
     <t>SHUBHAM</t>
   </si>
   <si>
-    <t>svg[class='sc-DJfgX jNGuMj']:nth-of-type(4)</t>
-  </si>
-  <si>
-    <t>//div[@class='sc-hJxCPi bPGCAB']//*[name()='svg'][@class='sc-DJfgX jNGuMj'][1]</t>
-  </si>
-  <si>
     <t>svg[class='sc-DJfgX jNGuMj']</t>
   </si>
   <si>
@@ -1493,6 +1487,138 @@
   </si>
   <si>
     <t>div[class*='col-md-']&gt;div[class='ctg_content'] h4</t>
+  </si>
+  <si>
+    <t>svg[class='sc-DJfgX jNGuMj']:nth-of-type(4) &gt; path[d*='M']:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//*[name()='svg'][@class='sc-DJfgX jNGuMj']//*[name()='path'][contains(@d, 'M')][1]</t>
+  </si>
+  <si>
+    <t>iframe[id='avo-debugger']</t>
+  </si>
+  <si>
+    <t>//iframe[@id='avo-debugger']</t>
+  </si>
+  <si>
+    <t>Nayansi</t>
+  </si>
+  <si>
+    <t>JOY_BIRD_Iframe_08</t>
+  </si>
+  <si>
+    <t>a[aria-label='Menu Holiday']</t>
+  </si>
+  <si>
+    <t>//a[@aria-label='Menu Holiday']</t>
+  </si>
+  <si>
+    <t>a:contains(HOLIDAYS)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'HOLIDAYS')]</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_25</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_26</t>
+  </si>
+  <si>
+    <t>a[aria-label='Sub Menu of Holiday, Tourist Trains. Having sub menu'] &gt; span[class='list_text']</t>
+  </si>
+  <si>
+    <t>//a[@aria-label='Sub Menu of Holiday, Tourist Trains. Having sub menu']/span[@class='list_text']</t>
+  </si>
+  <si>
+    <t>span:contains(Tourist Trains)</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(), 'Tourist Trains')])[1]</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_27</t>
+  </si>
+  <si>
+    <t>li[class='menu-list header-icon-menu']:nth-of-type(7) li:nth-of-type(1)&gt;ul[class='child-drop']&gt;li:nth-of-type(1) span[class='list_text']</t>
+  </si>
+  <si>
+    <t>//li[@class='menu-list header-icon-menu'][5]//li[1]/ul[@class='child-drop']/li[1]//span[@class='list_text']</t>
+  </si>
+  <si>
+    <t>li[class='menu-list header-icon-menu'] li&gt;ul[class='child-drop']&gt;li span[class='list_text']</t>
+  </si>
+  <si>
+    <t>//li[@class='menu-list header-icon-menu']//li/ul[@class='child-drop']/li//span[@class='list_text']</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_28</t>
+  </si>
+  <si>
+    <t>li[aria-label='LADIES']</t>
+  </si>
+  <si>
+    <t>//li[@aria-label='LADIES']</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_12</t>
+  </si>
+  <si>
+    <t>li[aria-haspopup='true']:nth-of-type(4) &gt; ul[class='sub-menu show-menu']&gt;li[id*='menu-item-']:nth-of-type(1)&gt;a</t>
+  </si>
+  <si>
+    <t>//ul[@class='sub-menu show-menu']//ul[@class='sub-menu show-menu']/li[contains(@id, 'menu-item-')][1]/a[contains(@tabindex, '0')]</t>
+  </si>
+  <si>
+    <t>li[aria-haspopup='true'] &gt; ul[class='sub-menu show-menu']&gt;li[id*='menu-item-']&gt;a</t>
+  </si>
+  <si>
+    <t>//ul[@class='sub-menu show-menu']//ul[@class='sub-menu show-menu']/li[contains(@id, 'menu-item-')]/a[contains(@tabindex, '0')]</t>
+  </si>
+  <si>
+    <t>a:contains(Collectorate)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Collectorate')]</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/automation-practice-form</t>
+  </si>
+  <si>
+    <t>Demo_QA_10</t>
+  </si>
+  <si>
+    <t>div[class='custom-control custom-radio custom-control-inline']:nth-of-type(2) &gt; input[id*='gender-radio-']</t>
+  </si>
+  <si>
+    <t>//div[@class='custom-control custom-radio custom-control-inline'][2]/input[contains(@id, 'gender-radio-')]</t>
+  </si>
+  <si>
+    <t>div[class='custom-control custom-radio custom-control-inline'] &gt; input[id*='gender-radio-']</t>
+  </si>
+  <si>
+    <t>//div[@class='custom-control custom-radio custom-control-inline']/input[contains(@id, 'gender-radio-')]</t>
+  </si>
+  <si>
+    <t>Demo_QA_11</t>
+  </si>
+  <si>
+    <t>div[class='custom-control custom-checkbox custom-control-inline']:nth-of-type(2) &gt; label[for*='hobbies-checkbox-']</t>
+  </si>
+  <si>
+    <t>//div[@class='custom-control custom-checkbox custom-control-inline'][2]/label[contains(@for, 'hobbies-checkbox-')]</t>
+  </si>
+  <si>
+    <t>div[class='custom-control custom-checkbox custom-control-inline'] &gt; label[for*='hobbies-checkbox-']</t>
+  </si>
+  <si>
+    <t>//div[@class='custom-control custom-checkbox custom-control-inline']/label[contains(@for, 'hobbies-checkbox-')]</t>
+  </si>
+  <si>
+    <t>label:contains(Reading)</t>
+  </si>
+  <si>
+    <t>//label[contains(text(), 'Reading')]</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1743,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1664,6 +1790,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1881,11 +2010,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1005"/>
+  <dimension ref="A1:AA1013"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I69" sqref="I69"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3077,7 +3206,7 @@
     </row>
     <row r="24" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A24" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>34</v>
@@ -3128,7 +3257,7 @@
     </row>
     <row r="25" spans="1:27" ht="27" thickBot="1">
       <c r="A25" s="15" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>12</v>
@@ -3173,228 +3302,188 @@
       <c r="Z25" s="11"/>
       <c r="AA25" s="11"/>
     </row>
-    <row r="26" spans="1:27" ht="66">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:27" ht="27" thickBot="1">
+      <c r="A26" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+    </row>
+    <row r="27" spans="1:27" ht="66.599999999999994" thickBot="1">
+      <c r="A27" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+    </row>
+    <row r="28" spans="1:27" ht="79.8" thickBot="1">
+      <c r="A28" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+    </row>
+    <row r="29" spans="1:27" ht="13.8" thickBot="1">
+      <c r="A29" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+    </row>
+    <row r="30" spans="1:27" ht="66">
+      <c r="A30" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C30" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F30" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-    </row>
-    <row r="27" spans="1:27" ht="66">
-      <c r="A27" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-    </row>
-    <row r="28" spans="1:27" ht="66">
-      <c r="A28" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-    </row>
-    <row r="29" spans="1:27" ht="39.6">
-      <c r="A29" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-    </row>
-    <row r="30" spans="1:27" ht="26.4">
-      <c r="A30" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>333</v>
@@ -3402,50 +3491,50 @@
       <c r="H30" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>333</v>
+      <c r="I30" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-    </row>
-    <row r="31" spans="1:27" ht="13.2">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="1:27" ht="66">
       <c r="A31" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>333</v>
+        <v>121</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>380</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>333</v>
@@ -3453,50 +3542,50 @@
       <c r="H31" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>333</v>
+      <c r="I31" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
     </row>
     <row r="32" spans="1:27" ht="66">
       <c r="A32" s="5" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>333</v>
@@ -3504,50 +3593,50 @@
       <c r="H32" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>140</v>
+      <c r="I32" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-    </row>
-    <row r="33" spans="1:27" ht="92.4">
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+    </row>
+    <row r="33" spans="1:27" ht="39.6">
       <c r="A33" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>143</v>
+        <v>116</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>146</v>
+        <v>129</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>333</v>
@@ -3555,50 +3644,50 @@
       <c r="H33" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>148</v>
+      <c r="I33" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-    </row>
-    <row r="34" spans="1:27" ht="39.6">
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+    </row>
+    <row r="34" spans="1:27" ht="26.4">
       <c r="A34" s="5" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>333</v>
+        <v>132</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>333</v>
@@ -3606,50 +3695,50 @@
       <c r="H34" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>153</v>
+      <c r="I34" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-    </row>
-    <row r="35" spans="1:27" ht="66">
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+    </row>
+    <row r="35" spans="1:27" ht="13.2">
       <c r="A35" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>156</v>
+        <v>135</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>333</v>
@@ -3657,50 +3746,50 @@
       <c r="H35" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I35" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>158</v>
+      <c r="I35" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-    </row>
-    <row r="36" spans="1:27" ht="92.4">
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+    </row>
+    <row r="36" spans="1:27" ht="66">
       <c r="A36" s="5" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>333</v>
@@ -3709,10 +3798,10 @@
         <v>333</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>107</v>
@@ -3734,24 +3823,24 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" ht="26.4">
-      <c r="A37" s="3" t="s">
-        <v>164</v>
+    <row r="37" spans="1:27" ht="92.4">
+      <c r="A37" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>344</v>
+        <v>142</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>333</v>
+        <v>145</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>333</v>
+        <v>146</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>333</v>
@@ -3760,10 +3849,10 @@
         <v>333</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>333</v>
+        <v>147</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>333</v>
+        <v>148</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>107</v>
@@ -3785,23 +3874,23 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" ht="79.2">
-      <c r="A38" s="3" t="s">
-        <v>167</v>
+    <row r="38" spans="1:27" ht="39.6">
+      <c r="A38" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="5" t="s">
         <v>333</v>
       </c>
       <c r="G38" s="6" t="s">
@@ -3811,10 +3900,10 @@
         <v>333</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>107</v>
@@ -3837,23 +3926,23 @@
       <c r="AA38" s="5"/>
     </row>
     <row r="39" spans="1:27" ht="66">
-      <c r="A39" s="3" t="s">
-        <v>172</v>
+      <c r="A39" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>173</v>
+        <v>342</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>333</v>
+        <v>343</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>333</v>
@@ -3861,11 +3950,11 @@
       <c r="H39" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>176</v>
+      <c r="I39" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>107</v>
@@ -3887,24 +3976,24 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" ht="26.4">
-      <c r="A40" s="3" t="s">
-        <v>177</v>
+    <row r="40" spans="1:27" ht="92.4">
+      <c r="A40" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>333</v>
@@ -3913,10 +4002,10 @@
         <v>333</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>107</v>
@@ -3938,24 +4027,24 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" ht="66">
-      <c r="A41" s="3" t="s">
-        <v>184</v>
+    <row r="41" spans="1:27" ht="145.19999999999999">
+      <c r="A41" s="9" t="s">
+        <v>515</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>189</v>
+        <v>142</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>519</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>333</v>
@@ -3963,50 +4052,50 @@
       <c r="H41" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="K41" s="5" t="s">
+      <c r="I41" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="K41" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-    </row>
-    <row r="42" spans="1:27" ht="39.6">
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+    </row>
+    <row r="42" spans="1:27" ht="26.4">
       <c r="A42" s="3" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>165</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>192</v>
+        <v>344</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>333</v>
@@ -4015,10 +4104,10 @@
         <v>333</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>193</v>
+        <v>333</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>107</v>
@@ -4040,18 +4129,18 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" ht="105.6">
+    <row r="43" spans="1:27" ht="79.2">
       <c r="A43" s="3" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>345</v>
+      <c r="C43" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>333</v>
@@ -4066,10 +4155,10 @@
         <v>333</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>107</v>
@@ -4091,18 +4180,18 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" ht="52.8">
+    <row r="44" spans="1:27" ht="66">
       <c r="A44" s="3" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>333</v>
@@ -4117,10 +4206,10 @@
         <v>333</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>333</v>
+        <v>175</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>333</v>
+        <v>176</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>107</v>
@@ -4144,22 +4233,22 @@
     </row>
     <row r="45" spans="1:27" ht="26.4">
       <c r="A45" s="3" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>387</v>
+        <v>165</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>333</v>
+        <v>180</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>333</v>
+        <v>181</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>333</v>
@@ -4168,10 +4257,10 @@
         <v>333</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>333</v>
+        <v>182</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>333</v>
+        <v>183</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>107</v>
@@ -4193,24 +4282,24 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" ht="26.4">
+    <row r="46" spans="1:27" ht="66">
       <c r="A46" s="3" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>333</v>
+        <v>188</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>333</v>
+        <v>189</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>333</v>
@@ -4246,22 +4335,22 @@
     </row>
     <row r="47" spans="1:27" ht="39.6">
       <c r="A47" s="3" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>333</v>
+        <v>165</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>333</v>
@@ -4270,10 +4359,10 @@
         <v>333</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>333</v>
+        <v>193</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>107</v>
@@ -4295,23 +4384,23 @@
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" ht="39.6">
+    <row r="48" spans="1:27" ht="105.6">
       <c r="A48" s="3" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>210</v>
+        <v>165</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E48" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="9" t="s">
         <v>333</v>
       </c>
       <c r="G48" s="6" t="s">
@@ -4321,10 +4410,10 @@
         <v>333</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>333</v>
+        <v>197</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>333</v>
+        <v>198</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>107</v>
@@ -4346,24 +4435,24 @@
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="1:27" ht="118.8">
+    <row r="49" spans="1:27" ht="52.8">
       <c r="A49" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>394</v>
+        <v>201</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>398</v>
+        <v>202</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>395</v>
+        <v>333</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>213</v>
+        <v>333</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>333</v>
@@ -4372,10 +4461,10 @@
         <v>333</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>396</v>
+        <v>333</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>107</v>
@@ -4397,21 +4486,25 @@
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:27" ht="66.599999999999994" thickBot="1">
+    <row r="50" spans="1:27" ht="26.4">
       <c r="A50" s="3" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+        <v>204</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>333</v>
+      </c>
       <c r="G50" s="6" t="s">
         <v>333</v>
       </c>
@@ -4419,10 +4512,10 @@
         <v>333</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>393</v>
+        <v>333</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="K50" s="5" t="s">
         <v>107</v>
@@ -4444,112 +4537,126 @@
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
     </row>
-    <row r="51" spans="1:27" ht="66.599999999999994" thickBot="1">
-      <c r="A51" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="11"/>
-    </row>
-    <row r="52" spans="1:27" ht="79.8" thickBot="1">
-      <c r="A52" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
-      <c r="AA52" s="11"/>
-    </row>
-    <row r="53" spans="1:27" ht="79.2">
+    <row r="51" spans="1:27" ht="26.4">
+      <c r="A51" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+    </row>
+    <row r="52" spans="1:27" ht="39.6">
+      <c r="A52" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+    </row>
+    <row r="53" spans="1:27" ht="39.6">
       <c r="A53" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>219</v>
+        <v>333</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>220</v>
+        <v>333</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>333</v>
@@ -4583,24 +4690,24 @@
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
     </row>
-    <row r="54" spans="1:27" ht="52.8">
+    <row r="54" spans="1:27" ht="118.8">
       <c r="A54" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>222</v>
+        <v>394</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>223</v>
+        <v>398</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>224</v>
+        <v>395</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>333</v>
@@ -4609,10 +4716,10 @@
         <v>333</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>333</v>
+        <v>396</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>333</v>
+        <v>397</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>107</v>
@@ -4634,25 +4741,21 @@
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
     </row>
-    <row r="55" spans="1:27" ht="39.6">
+    <row r="55" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A55" s="3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>227</v>
+        <v>391</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>230</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
       <c r="G55" s="6" t="s">
         <v>333</v>
       </c>
@@ -4660,10 +4763,10 @@
         <v>333</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>231</v>
+        <v>393</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>232</v>
+        <v>399</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>107</v>
@@ -4685,177 +4788,165 @@
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
     </row>
-    <row r="56" spans="1:27" ht="264">
-      <c r="A56" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B56" s="7" t="s">
+    <row r="56" spans="1:27" ht="66.599999999999994" thickBot="1">
+      <c r="A56" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+    </row>
+    <row r="57" spans="1:27" ht="93" thickBot="1">
+      <c r="A57" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+    </row>
+    <row r="58" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A58" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+    </row>
+    <row r="59" spans="1:27" ht="79.2">
+      <c r="A59" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-      <c r="AA56" s="5"/>
-    </row>
-    <row r="57" spans="1:27" ht="158.4">
-      <c r="A57" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-      <c r="AA57" s="9"/>
-    </row>
-    <row r="58" spans="1:27" ht="158.4">
-      <c r="A58" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="9"/>
-      <c r="AA58" s="9"/>
-    </row>
-    <row r="59" spans="1:27" ht="26.4">
-      <c r="A59" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="C59" s="5" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>333</v>
@@ -4864,49 +4955,49 @@
         <v>333</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>260</v>
+        <v>333</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>261</v>
+        <v>333</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-      <c r="AA59" s="9"/>
-    </row>
-    <row r="60" spans="1:27" ht="26.4">
-      <c r="A60" s="5" t="s">
-        <v>262</v>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+    </row>
+    <row r="60" spans="1:27" ht="52.8">
+      <c r="A60" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>264</v>
+        <v>216</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>333</v>
@@ -4915,49 +5006,49 @@
         <v>333</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>266</v>
+        <v>333</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="9"/>
-      <c r="Z60" s="9"/>
-      <c r="AA60" s="9"/>
-    </row>
-    <row r="61" spans="1:27" ht="52.8">
-      <c r="A61" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>270</v>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+    </row>
+    <row r="61" spans="1:27" ht="39.6">
+      <c r="A61" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>333</v>
@@ -4966,49 +5057,49 @@
         <v>333</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
-      <c r="AA61" s="9"/>
-    </row>
-    <row r="62" spans="1:27" ht="26.4">
-      <c r="A62" s="5" t="s">
-        <v>273</v>
+        <v>107</v>
+      </c>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+    </row>
+    <row r="62" spans="1:27" ht="264">
+      <c r="A62" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>333</v>
+        <v>236</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>333</v>
@@ -5017,49 +5108,49 @@
         <v>333</v>
       </c>
       <c r="I62" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K62" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="J62" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
-      <c r="AA62" s="9"/>
-    </row>
-    <row r="63" spans="1:27" ht="26.4">
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+    </row>
+    <row r="63" spans="1:27" ht="158.4">
       <c r="A63" s="5" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>333</v>
+        <v>243</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>333</v>
@@ -5067,14 +5158,14 @@
       <c r="H63" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>333</v>
+      <c r="I63" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
@@ -5093,24 +5184,24 @@
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
     </row>
-    <row r="64" spans="1:27" ht="39.6">
+    <row r="64" spans="1:27" ht="158.4">
       <c r="A64" s="5" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>282</v>
+        <v>241</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>405</v>
+        <v>333</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>333</v>
@@ -5118,11 +5209,11 @@
       <c r="H64" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I64" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>333</v>
+      <c r="I64" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>248</v>
@@ -5144,24 +5235,24 @@
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
     </row>
-    <row r="65" spans="1:27" ht="52.8">
+    <row r="65" spans="1:27" ht="26.4">
       <c r="A65" s="5" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>286</v>
+        <v>255</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>333</v>
@@ -5170,10 +5261,10 @@
         <v>333</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>107</v>
@@ -5195,24 +5286,24 @@
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
     </row>
-    <row r="66" spans="1:27" ht="52.8">
+    <row r="66" spans="1:27" ht="26.4">
       <c r="A66" s="5" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>333</v>
@@ -5221,10 +5312,10 @@
         <v>333</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>107</v>
@@ -5248,22 +5339,22 @@
     </row>
     <row r="67" spans="1:27" ht="52.8">
       <c r="A67" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>298</v>
+        <v>267</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>270</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>333</v>
@@ -5272,13 +5363,13 @@
         <v>333</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
@@ -5297,23 +5388,23 @@
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
     </row>
-    <row r="68" spans="1:27" ht="13.2">
-      <c r="A68" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="E68" s="6" t="s">
+    <row r="68" spans="1:27" ht="26.4">
+      <c r="A68" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="5" t="s">
         <v>333</v>
       </c>
       <c r="G68" s="6" t="s">
@@ -5322,50 +5413,50 @@
       <c r="H68" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="I68" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="J68" s="6" t="s">
+      <c r="J68" s="5" t="s">
         <v>333</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="6"/>
-      <c r="AA68" s="6"/>
-    </row>
-    <row r="69" spans="1:27" ht="79.2">
-      <c r="A69" s="6" t="s">
-        <v>304</v>
+        <v>248</v>
+      </c>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+    </row>
+    <row r="69" spans="1:27" ht="26.4">
+      <c r="A69" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>307</v>
+        <v>277</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>492</v>
+        <v>333</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>333</v>
@@ -5374,10 +5465,10 @@
         <v>333</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>310</v>
+        <v>333</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>107</v>
@@ -5399,24 +5490,24 @@
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
     </row>
-    <row r="70" spans="1:27" ht="13.2">
-      <c r="A70" s="6" t="s">
-        <v>305</v>
+    <row r="70" spans="1:27" ht="39.6">
+      <c r="A70" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>333</v>
+        <v>281</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>333</v>
@@ -5424,50 +5515,50 @@
       <c r="H70" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I70" s="6" t="s">
+      <c r="I70" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="J70" s="6" t="s">
+      <c r="J70" s="9" t="s">
         <v>333</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
-      <c r="AA70" s="6"/>
-    </row>
-    <row r="71" spans="1:27" ht="66.599999999999994" thickBot="1">
-      <c r="A71" s="6" t="s">
-        <v>306</v>
+        <v>248</v>
+      </c>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
+    </row>
+    <row r="71" spans="1:27" ht="52.8">
+      <c r="A71" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>333</v>
@@ -5476,10 +5567,10 @@
         <v>333</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>107</v>
@@ -5501,69 +5592,75 @@
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
     </row>
-    <row r="72" spans="1:27" ht="106.2" thickBot="1">
-      <c r="A72" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11" t="s">
+    <row r="72" spans="1:27" ht="52.8">
+      <c r="A72" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="K72" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L72" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="11"/>
-      <c r="X72" s="11"/>
-      <c r="Y72" s="11"/>
-      <c r="Z72" s="11"/>
-      <c r="AA72" s="11"/>
-    </row>
-    <row r="73" spans="1:27" ht="118.8">
-      <c r="A73" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>415</v>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
+      <c r="AA72" s="9"/>
+    </row>
+    <row r="73" spans="1:27" ht="52.8">
+      <c r="A73" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>333</v>
@@ -5571,11 +5668,11 @@
       <c r="H73" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I73" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="J73" s="9" t="s">
-        <v>321</v>
+      <c r="I73" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="K73" s="5" t="s">
         <v>107</v>
@@ -5597,24 +5694,24 @@
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
     </row>
-    <row r="74" spans="1:27" ht="39.6">
-      <c r="A74" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>325</v>
+    <row r="74" spans="1:27" ht="13.2">
+      <c r="A74" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>333</v>
@@ -5622,50 +5719,50 @@
       <c r="H74" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I74" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>327</v>
+      <c r="I74" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
-      <c r="Y74" s="9"/>
-      <c r="Z74" s="9"/>
-      <c r="AA74" s="9"/>
-    </row>
-    <row r="75" spans="1:27" ht="40.200000000000003" thickBot="1">
-      <c r="A75" s="5" t="s">
-        <v>328</v>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+      <c r="AA74" s="6"/>
+    </row>
+    <row r="75" spans="1:27" ht="79.2">
+      <c r="A75" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>333</v>
+        <v>489</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>308</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>333</v>
@@ -5673,11 +5770,11 @@
       <c r="H75" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="I75" s="5" t="s">
-        <v>331</v>
+      <c r="I75" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>107</v>
@@ -5699,139 +5796,137 @@
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
     </row>
-    <row r="76" spans="1:27" ht="145.80000000000001" thickBot="1">
-      <c r="A76" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="J76" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="K76" s="11" t="s">
+    <row r="76" spans="1:27" ht="13.2">
+      <c r="A76" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="K76" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L76" s="11" t="s">
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
+      <c r="AA76" s="6"/>
+    </row>
+    <row r="77" spans="1:27" ht="66.599999999999994" thickBot="1">
+      <c r="A77" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+    </row>
+    <row r="78" spans="1:27" ht="106.2" thickBot="1">
+      <c r="A78" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L78" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
-      <c r="U76" s="11"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="11"/>
-      <c r="X76" s="11"/>
-      <c r="Y76" s="11"/>
-      <c r="Z76" s="11"/>
-      <c r="AA76" s="11"/>
-    </row>
-    <row r="77" spans="1:27" ht="27" thickBot="1">
-      <c r="A77" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="J77" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="K77" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L77" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="11"/>
-      <c r="X77" s="11"/>
-      <c r="Y77" s="11"/>
-      <c r="Z77" s="11"/>
-      <c r="AA77" s="11"/>
-    </row>
-    <row r="78" spans="1:27" ht="66.599999999999994" thickBot="1">
-      <c r="A78" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="J78" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="K78" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L78" s="11"/>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
@@ -5848,180 +5943,188 @@
       <c r="Z78" s="11"/>
       <c r="AA78" s="11"/>
     </row>
-    <row r="79" spans="1:27" ht="66.599999999999994" thickBot="1">
-      <c r="A79" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="E79" s="11" t="s">
+    <row r="79" spans="1:27" ht="118.8">
+      <c r="A79" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="H79" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="G79" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="J79" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="K79" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="11"/>
-      <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11"/>
-      <c r="U79" s="11"/>
-      <c r="V79" s="11"/>
-      <c r="W79" s="11"/>
-      <c r="X79" s="11"/>
-      <c r="Y79" s="11"/>
-      <c r="Z79" s="11"/>
-      <c r="AA79" s="11"/>
-    </row>
-    <row r="80" spans="1:27" ht="66.599999999999994" thickBot="1">
-      <c r="A80" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="E80" s="11" t="s">
+      <c r="I79" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="9"/>
+      <c r="AA79" s="9"/>
+    </row>
+    <row r="80" spans="1:27" ht="39.6">
+      <c r="A80" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="H80" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="G80" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="J80" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="K80" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="11"/>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11"/>
-      <c r="U80" s="11"/>
-      <c r="V80" s="11"/>
-      <c r="W80" s="11"/>
-      <c r="X80" s="11"/>
-      <c r="Y80" s="11"/>
-      <c r="Z80" s="11"/>
-      <c r="AA80" s="11"/>
+      <c r="I80" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+      <c r="Y80" s="9"/>
+      <c r="Z80" s="9"/>
+      <c r="AA80" s="9"/>
     </row>
     <row r="81" spans="1:27" ht="40.200000000000003" thickBot="1">
-      <c r="A81" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="E81" s="11" t="s">
+      <c r="A81" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="G81" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="J81" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="K81" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="11"/>
-      <c r="R81" s="11"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
-      <c r="U81" s="11"/>
-      <c r="V81" s="11"/>
-      <c r="W81" s="11"/>
-      <c r="X81" s="11"/>
-      <c r="Y81" s="11"/>
-      <c r="Z81" s="11"/>
-      <c r="AA81" s="11"/>
-    </row>
-    <row r="82" spans="1:27" ht="27" thickBot="1">
+      <c r="G81" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
+      <c r="AA81" s="9"/>
+    </row>
+    <row r="82" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A82" s="11" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
+        <v>418</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>357</v>
+      </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
+      <c r="I82" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>359</v>
+      </c>
       <c r="K82" s="11" t="s">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="L82" s="11" t="s">
         <v>353</v>
@@ -6042,32 +6145,32 @@
       <c r="Z82" s="11"/>
       <c r="AA82" s="11"/>
     </row>
-    <row r="83" spans="1:27" ht="66.599999999999994" thickBot="1">
+    <row r="83" spans="1:27" ht="27" thickBot="1">
       <c r="A83" s="11" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="K83" s="11" t="s">
         <v>107</v>
@@ -6091,18 +6194,18 @@
       <c r="Z83" s="11"/>
       <c r="AA83" s="11"/>
     </row>
-    <row r="84" spans="1:27" ht="40.200000000000003" thickBot="1">
+    <row r="84" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A84" s="11" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>333</v>
@@ -6111,10 +6214,10 @@
         <v>333</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="I84" s="11" t="s">
         <v>333</v>
@@ -6142,18 +6245,18 @@
       <c r="Z84" s="11"/>
       <c r="AA84" s="11"/>
     </row>
-    <row r="85" spans="1:27" ht="40.200000000000003" thickBot="1">
+    <row r="85" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A85" s="11" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>333</v>
@@ -6162,16 +6265,16 @@
         <v>333</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>333</v>
+        <v>462</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>333</v>
+        <v>463</v>
       </c>
       <c r="K85" s="11" t="s">
         <v>46</v>
@@ -6195,16 +6298,16 @@
     </row>
     <row r="86" spans="1:27" ht="66.599999999999994" thickBot="1">
       <c r="A86" s="11" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>333</v>
@@ -6213,16 +6316,16 @@
         <v>333</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>333</v>
+        <v>462</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>333</v>
+        <v>463</v>
       </c>
       <c r="K86" s="11" t="s">
         <v>46</v>
@@ -6244,237 +6347,397 @@
       <c r="Z86" s="11"/>
       <c r="AA86" s="11"/>
     </row>
-    <row r="87" spans="1:27" ht="13.2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="6"/>
-      <c r="W87" s="6"/>
-      <c r="X87" s="6"/>
-      <c r="Y87" s="6"/>
-      <c r="Z87" s="6"/>
-      <c r="AA87" s="6"/>
-    </row>
-    <row r="88" spans="1:27" ht="13.2">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
-      <c r="U88" s="6"/>
-      <c r="V88" s="6"/>
-      <c r="W88" s="6"/>
-      <c r="X88" s="6"/>
-      <c r="Y88" s="6"/>
-      <c r="Z88" s="6"/>
-      <c r="AA88" s="6"/>
-    </row>
-    <row r="89" spans="1:27" ht="13.2">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
-      <c r="T89" s="6"/>
-      <c r="U89" s="6"/>
-      <c r="V89" s="6"/>
-      <c r="W89" s="6"/>
-      <c r="X89" s="6"/>
-      <c r="Y89" s="6"/>
-      <c r="Z89" s="6"/>
-      <c r="AA89" s="6"/>
-    </row>
-    <row r="90" spans="1:27" ht="13.2">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
-      <c r="U90" s="6"/>
-      <c r="V90" s="6"/>
-      <c r="W90" s="6"/>
-      <c r="X90" s="6"/>
-      <c r="Y90" s="6"/>
-      <c r="Z90" s="6"/>
-      <c r="AA90" s="6"/>
-    </row>
-    <row r="91" spans="1:27" ht="13.2">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
-      <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
-      <c r="U91" s="6"/>
-      <c r="V91" s="6"/>
-      <c r="W91" s="6"/>
-      <c r="X91" s="6"/>
-      <c r="Y91" s="6"/>
-      <c r="Z91" s="6"/>
-      <c r="AA91" s="6"/>
-    </row>
-    <row r="92" spans="1:27" ht="13.2">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
-      <c r="U92" s="6"/>
-      <c r="V92" s="6"/>
-      <c r="W92" s="6"/>
-      <c r="X92" s="6"/>
-      <c r="Y92" s="6"/>
-      <c r="Z92" s="6"/>
-      <c r="AA92" s="6"/>
-    </row>
-    <row r="93" spans="1:27" ht="13.2">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
-      <c r="U93" s="6"/>
-      <c r="V93" s="6"/>
-      <c r="W93" s="6"/>
-      <c r="X93" s="6"/>
-      <c r="Y93" s="6"/>
-      <c r="Z93" s="6"/>
-      <c r="AA93" s="6"/>
-    </row>
-    <row r="94" spans="1:27" ht="13.2">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
-      <c r="U94" s="6"/>
-      <c r="V94" s="6"/>
-      <c r="W94" s="6"/>
-      <c r="X94" s="6"/>
-      <c r="Y94" s="6"/>
-      <c r="Z94" s="6"/>
-      <c r="AA94" s="6"/>
+    <row r="87" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A87" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="11"/>
+      <c r="AA87" s="11"/>
+    </row>
+    <row r="88" spans="1:27" ht="106.2" thickBot="1">
+      <c r="A88" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="11"/>
+      <c r="W88" s="11"/>
+      <c r="X88" s="11"/>
+      <c r="Y88" s="11"/>
+      <c r="Z88" s="11"/>
+      <c r="AA88" s="11"/>
+    </row>
+    <row r="89" spans="1:27" ht="119.4" thickBot="1">
+      <c r="A89" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="11"/>
+      <c r="S89" s="11"/>
+      <c r="T89" s="11"/>
+      <c r="U89" s="11"/>
+      <c r="V89" s="11"/>
+      <c r="W89" s="11"/>
+      <c r="X89" s="11"/>
+      <c r="Y89" s="11"/>
+      <c r="Z89" s="11"/>
+      <c r="AA89" s="11"/>
+    </row>
+    <row r="90" spans="1:27" ht="27" thickBot="1">
+      <c r="A90" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+      <c r="S90" s="11"/>
+      <c r="T90" s="11"/>
+      <c r="U90" s="11"/>
+      <c r="V90" s="11"/>
+      <c r="W90" s="11"/>
+      <c r="X90" s="11"/>
+      <c r="Y90" s="11"/>
+      <c r="Z90" s="11"/>
+      <c r="AA90" s="11"/>
+    </row>
+    <row r="91" spans="1:27" ht="66.599999999999994" thickBot="1">
+      <c r="A91" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="11"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+      <c r="T91" s="11"/>
+      <c r="U91" s="11"/>
+      <c r="V91" s="11"/>
+      <c r="W91" s="11"/>
+      <c r="X91" s="11"/>
+      <c r="Y91" s="11"/>
+      <c r="Z91" s="11"/>
+      <c r="AA91" s="11"/>
+    </row>
+    <row r="92" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A92" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="11"/>
+      <c r="V92" s="11"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="11"/>
+      <c r="Y92" s="11"/>
+      <c r="Z92" s="11"/>
+      <c r="AA92" s="11"/>
+    </row>
+    <row r="93" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A93" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="11"/>
+      <c r="U93" s="11"/>
+      <c r="V93" s="11"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="11"/>
+      <c r="Y93" s="11"/>
+      <c r="Z93" s="11"/>
+      <c r="AA93" s="11"/>
+    </row>
+    <row r="94" spans="1:27" ht="66.599999999999994" thickBot="1">
+      <c r="A94" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="11"/>
+      <c r="U94" s="11"/>
+      <c r="V94" s="11"/>
+      <c r="W94" s="11"/>
+      <c r="X94" s="11"/>
+      <c r="Y94" s="11"/>
+      <c r="Z94" s="11"/>
+      <c r="AA94" s="11"/>
     </row>
     <row r="95" spans="1:27" ht="13.2">
       <c r="A95" s="6"/>
@@ -32895,6 +33158,238 @@
       <c r="Z1005" s="6"/>
       <c r="AA1005" s="6"/>
     </row>
+    <row r="1006" spans="1:27" ht="13.2">
+      <c r="A1006" s="6"/>
+      <c r="B1006" s="6"/>
+      <c r="C1006" s="6"/>
+      <c r="D1006" s="6"/>
+      <c r="E1006" s="6"/>
+      <c r="F1006" s="6"/>
+      <c r="G1006" s="6"/>
+      <c r="H1006" s="6"/>
+      <c r="I1006" s="6"/>
+      <c r="J1006" s="6"/>
+      <c r="K1006" s="6"/>
+      <c r="L1006" s="6"/>
+      <c r="M1006" s="6"/>
+      <c r="N1006" s="6"/>
+      <c r="O1006" s="6"/>
+      <c r="P1006" s="6"/>
+      <c r="Q1006" s="6"/>
+      <c r="R1006" s="6"/>
+      <c r="S1006" s="6"/>
+      <c r="T1006" s="6"/>
+      <c r="U1006" s="6"/>
+      <c r="V1006" s="6"/>
+      <c r="W1006" s="6"/>
+      <c r="X1006" s="6"/>
+      <c r="Y1006" s="6"/>
+      <c r="Z1006" s="6"/>
+      <c r="AA1006" s="6"/>
+    </row>
+    <row r="1007" spans="1:27" ht="13.2">
+      <c r="A1007" s="6"/>
+      <c r="B1007" s="6"/>
+      <c r="C1007" s="6"/>
+      <c r="D1007" s="6"/>
+      <c r="E1007" s="6"/>
+      <c r="F1007" s="6"/>
+      <c r="G1007" s="6"/>
+      <c r="H1007" s="6"/>
+      <c r="I1007" s="6"/>
+      <c r="J1007" s="6"/>
+      <c r="K1007" s="6"/>
+      <c r="L1007" s="6"/>
+      <c r="M1007" s="6"/>
+      <c r="N1007" s="6"/>
+      <c r="O1007" s="6"/>
+      <c r="P1007" s="6"/>
+      <c r="Q1007" s="6"/>
+      <c r="R1007" s="6"/>
+      <c r="S1007" s="6"/>
+      <c r="T1007" s="6"/>
+      <c r="U1007" s="6"/>
+      <c r="V1007" s="6"/>
+      <c r="W1007" s="6"/>
+      <c r="X1007" s="6"/>
+      <c r="Y1007" s="6"/>
+      <c r="Z1007" s="6"/>
+      <c r="AA1007" s="6"/>
+    </row>
+    <row r="1008" spans="1:27" ht="13.2">
+      <c r="A1008" s="6"/>
+      <c r="B1008" s="6"/>
+      <c r="C1008" s="6"/>
+      <c r="D1008" s="6"/>
+      <c r="E1008" s="6"/>
+      <c r="F1008" s="6"/>
+      <c r="G1008" s="6"/>
+      <c r="H1008" s="6"/>
+      <c r="I1008" s="6"/>
+      <c r="J1008" s="6"/>
+      <c r="K1008" s="6"/>
+      <c r="L1008" s="6"/>
+      <c r="M1008" s="6"/>
+      <c r="N1008" s="6"/>
+      <c r="O1008" s="6"/>
+      <c r="P1008" s="6"/>
+      <c r="Q1008" s="6"/>
+      <c r="R1008" s="6"/>
+      <c r="S1008" s="6"/>
+      <c r="T1008" s="6"/>
+      <c r="U1008" s="6"/>
+      <c r="V1008" s="6"/>
+      <c r="W1008" s="6"/>
+      <c r="X1008" s="6"/>
+      <c r="Y1008" s="6"/>
+      <c r="Z1008" s="6"/>
+      <c r="AA1008" s="6"/>
+    </row>
+    <row r="1009" spans="1:27" ht="13.2">
+      <c r="A1009" s="6"/>
+      <c r="B1009" s="6"/>
+      <c r="C1009" s="6"/>
+      <c r="D1009" s="6"/>
+      <c r="E1009" s="6"/>
+      <c r="F1009" s="6"/>
+      <c r="G1009" s="6"/>
+      <c r="H1009" s="6"/>
+      <c r="I1009" s="6"/>
+      <c r="J1009" s="6"/>
+      <c r="K1009" s="6"/>
+      <c r="L1009" s="6"/>
+      <c r="M1009" s="6"/>
+      <c r="N1009" s="6"/>
+      <c r="O1009" s="6"/>
+      <c r="P1009" s="6"/>
+      <c r="Q1009" s="6"/>
+      <c r="R1009" s="6"/>
+      <c r="S1009" s="6"/>
+      <c r="T1009" s="6"/>
+      <c r="U1009" s="6"/>
+      <c r="V1009" s="6"/>
+      <c r="W1009" s="6"/>
+      <c r="X1009" s="6"/>
+      <c r="Y1009" s="6"/>
+      <c r="Z1009" s="6"/>
+      <c r="AA1009" s="6"/>
+    </row>
+    <row r="1010" spans="1:27" ht="13.2">
+      <c r="A1010" s="6"/>
+      <c r="B1010" s="6"/>
+      <c r="C1010" s="6"/>
+      <c r="D1010" s="6"/>
+      <c r="E1010" s="6"/>
+      <c r="F1010" s="6"/>
+      <c r="G1010" s="6"/>
+      <c r="H1010" s="6"/>
+      <c r="I1010" s="6"/>
+      <c r="J1010" s="6"/>
+      <c r="K1010" s="6"/>
+      <c r="L1010" s="6"/>
+      <c r="M1010" s="6"/>
+      <c r="N1010" s="6"/>
+      <c r="O1010" s="6"/>
+      <c r="P1010" s="6"/>
+      <c r="Q1010" s="6"/>
+      <c r="R1010" s="6"/>
+      <c r="S1010" s="6"/>
+      <c r="T1010" s="6"/>
+      <c r="U1010" s="6"/>
+      <c r="V1010" s="6"/>
+      <c r="W1010" s="6"/>
+      <c r="X1010" s="6"/>
+      <c r="Y1010" s="6"/>
+      <c r="Z1010" s="6"/>
+      <c r="AA1010" s="6"/>
+    </row>
+    <row r="1011" spans="1:27" ht="13.2">
+      <c r="A1011" s="6"/>
+      <c r="B1011" s="6"/>
+      <c r="C1011" s="6"/>
+      <c r="D1011" s="6"/>
+      <c r="E1011" s="6"/>
+      <c r="F1011" s="6"/>
+      <c r="G1011" s="6"/>
+      <c r="H1011" s="6"/>
+      <c r="I1011" s="6"/>
+      <c r="J1011" s="6"/>
+      <c r="K1011" s="6"/>
+      <c r="L1011" s="6"/>
+      <c r="M1011" s="6"/>
+      <c r="N1011" s="6"/>
+      <c r="O1011" s="6"/>
+      <c r="P1011" s="6"/>
+      <c r="Q1011" s="6"/>
+      <c r="R1011" s="6"/>
+      <c r="S1011" s="6"/>
+      <c r="T1011" s="6"/>
+      <c r="U1011" s="6"/>
+      <c r="V1011" s="6"/>
+      <c r="W1011" s="6"/>
+      <c r="X1011" s="6"/>
+      <c r="Y1011" s="6"/>
+      <c r="Z1011" s="6"/>
+      <c r="AA1011" s="6"/>
+    </row>
+    <row r="1012" spans="1:27" ht="13.2">
+      <c r="A1012" s="6"/>
+      <c r="B1012" s="6"/>
+      <c r="C1012" s="6"/>
+      <c r="D1012" s="6"/>
+      <c r="E1012" s="6"/>
+      <c r="F1012" s="6"/>
+      <c r="G1012" s="6"/>
+      <c r="H1012" s="6"/>
+      <c r="I1012" s="6"/>
+      <c r="J1012" s="6"/>
+      <c r="K1012" s="6"/>
+      <c r="L1012" s="6"/>
+      <c r="M1012" s="6"/>
+      <c r="N1012" s="6"/>
+      <c r="O1012" s="6"/>
+      <c r="P1012" s="6"/>
+      <c r="Q1012" s="6"/>
+      <c r="R1012" s="6"/>
+      <c r="S1012" s="6"/>
+      <c r="T1012" s="6"/>
+      <c r="U1012" s="6"/>
+      <c r="V1012" s="6"/>
+      <c r="W1012" s="6"/>
+      <c r="X1012" s="6"/>
+      <c r="Y1012" s="6"/>
+      <c r="Z1012" s="6"/>
+      <c r="AA1012" s="6"/>
+    </row>
+    <row r="1013" spans="1:27" ht="13.2">
+      <c r="A1013" s="6"/>
+      <c r="B1013" s="6"/>
+      <c r="C1013" s="6"/>
+      <c r="D1013" s="6"/>
+      <c r="E1013" s="6"/>
+      <c r="F1013" s="6"/>
+      <c r="G1013" s="6"/>
+      <c r="H1013" s="6"/>
+      <c r="I1013" s="6"/>
+      <c r="J1013" s="6"/>
+      <c r="K1013" s="6"/>
+      <c r="L1013" s="6"/>
+      <c r="M1013" s="6"/>
+      <c r="N1013" s="6"/>
+      <c r="O1013" s="6"/>
+      <c r="P1013" s="6"/>
+      <c r="Q1013" s="6"/>
+      <c r="R1013" s="6"/>
+      <c r="S1013" s="6"/>
+      <c r="T1013" s="6"/>
+      <c r="U1013" s="6"/>
+      <c r="V1013" s="6"/>
+      <c r="W1013" s="6"/>
+      <c r="X1013" s="6"/>
+      <c r="Y1013" s="6"/>
+      <c r="Z1013" s="6"/>
+      <c r="AA1013" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -32919,70 +33414,78 @@
     <hyperlink ref="B21" r:id="rId20"/>
     <hyperlink ref="B22" r:id="rId21"/>
     <hyperlink ref="B24" r:id="rId22"/>
-    <hyperlink ref="B26" r:id="rId23"/>
-    <hyperlink ref="B27" r:id="rId24"/>
-    <hyperlink ref="B28" r:id="rId25"/>
-    <hyperlink ref="B29" r:id="rId26"/>
-    <hyperlink ref="B30" r:id="rId27"/>
-    <hyperlink ref="B31" r:id="rId28"/>
-    <hyperlink ref="B32" r:id="rId29"/>
-    <hyperlink ref="B33" r:id="rId30"/>
-    <hyperlink ref="B34" r:id="rId31"/>
-    <hyperlink ref="B35" r:id="rId32"/>
-    <hyperlink ref="B36" r:id="rId33"/>
-    <hyperlink ref="B37" r:id="rId34"/>
-    <hyperlink ref="B38" r:id="rId35"/>
-    <hyperlink ref="B39" r:id="rId36"/>
-    <hyperlink ref="B40" r:id="rId37"/>
-    <hyperlink ref="B41" r:id="rId38"/>
-    <hyperlink ref="B42" r:id="rId39"/>
-    <hyperlink ref="B43" r:id="rId40"/>
-    <hyperlink ref="B44" r:id="rId41" location="!/"/>
-    <hyperlink ref="B45" r:id="rId42" location="!/createEmandate"/>
-    <hyperlink ref="B46" r:id="rId43"/>
-    <hyperlink ref="B47" r:id="rId44"/>
-    <hyperlink ref="B48" r:id="rId45"/>
-    <hyperlink ref="B49" r:id="rId46"/>
-    <hyperlink ref="B50" r:id="rId47"/>
-    <hyperlink ref="B53" r:id="rId48"/>
-    <hyperlink ref="B54" r:id="rId49"/>
-    <hyperlink ref="B55" r:id="rId50"/>
-    <hyperlink ref="B56" r:id="rId51"/>
-    <hyperlink ref="B57" r:id="rId52" location="SanitationMethods"/>
-    <hyperlink ref="B58" r:id="rId53" location="SanitationMethods"/>
-    <hyperlink ref="B59" r:id="rId54"/>
-    <hyperlink ref="B60" r:id="rId55"/>
-    <hyperlink ref="B61" r:id="rId56"/>
-    <hyperlink ref="B62" r:id="rId57"/>
-    <hyperlink ref="B63" r:id="rId58"/>
-    <hyperlink ref="B64" r:id="rId59"/>
-    <hyperlink ref="B65" r:id="rId60"/>
-    <hyperlink ref="B66" r:id="rId61"/>
-    <hyperlink ref="B67" r:id="rId62"/>
-    <hyperlink ref="B68" r:id="rId63"/>
-    <hyperlink ref="B69" r:id="rId64"/>
-    <hyperlink ref="B70" r:id="rId65"/>
-    <hyperlink ref="B71" r:id="rId66"/>
-    <hyperlink ref="B73" r:id="rId67"/>
-    <hyperlink ref="B74" r:id="rId68"/>
-    <hyperlink ref="B75" r:id="rId69"/>
-    <hyperlink ref="B51" r:id="rId70"/>
-    <hyperlink ref="B72" r:id="rId71"/>
-    <hyperlink ref="B76" r:id="rId72"/>
-    <hyperlink ref="B77" r:id="rId73" display="https://demoqa.com/menu"/>
-    <hyperlink ref="B82" r:id="rId74"/>
-    <hyperlink ref="B83" r:id="rId75"/>
+    <hyperlink ref="B30" r:id="rId23"/>
+    <hyperlink ref="B31" r:id="rId24"/>
+    <hyperlink ref="B32" r:id="rId25"/>
+    <hyperlink ref="B33" r:id="rId26"/>
+    <hyperlink ref="B34" r:id="rId27"/>
+    <hyperlink ref="B35" r:id="rId28"/>
+    <hyperlink ref="B36" r:id="rId29"/>
+    <hyperlink ref="B37" r:id="rId30"/>
+    <hyperlink ref="B38" r:id="rId31"/>
+    <hyperlink ref="B39" r:id="rId32"/>
+    <hyperlink ref="B40" r:id="rId33"/>
+    <hyperlink ref="B42" r:id="rId34"/>
+    <hyperlink ref="B43" r:id="rId35"/>
+    <hyperlink ref="B44" r:id="rId36"/>
+    <hyperlink ref="B45" r:id="rId37"/>
+    <hyperlink ref="B46" r:id="rId38"/>
+    <hyperlink ref="B47" r:id="rId39"/>
+    <hyperlink ref="B48" r:id="rId40"/>
+    <hyperlink ref="B49" r:id="rId41" location="!/"/>
+    <hyperlink ref="B50" r:id="rId42" location="!/createEmandate"/>
+    <hyperlink ref="B51" r:id="rId43"/>
+    <hyperlink ref="B52" r:id="rId44"/>
+    <hyperlink ref="B53" r:id="rId45"/>
+    <hyperlink ref="B54" r:id="rId46"/>
+    <hyperlink ref="B55" r:id="rId47"/>
+    <hyperlink ref="B59" r:id="rId48"/>
+    <hyperlink ref="B60" r:id="rId49"/>
+    <hyperlink ref="B61" r:id="rId50"/>
+    <hyperlink ref="B62" r:id="rId51"/>
+    <hyperlink ref="B63" r:id="rId52" location="SanitationMethods"/>
+    <hyperlink ref="B64" r:id="rId53" location="SanitationMethods"/>
+    <hyperlink ref="B65" r:id="rId54"/>
+    <hyperlink ref="B66" r:id="rId55"/>
+    <hyperlink ref="B67" r:id="rId56"/>
+    <hyperlink ref="B68" r:id="rId57"/>
+    <hyperlink ref="B69" r:id="rId58"/>
+    <hyperlink ref="B70" r:id="rId59"/>
+    <hyperlink ref="B71" r:id="rId60"/>
+    <hyperlink ref="B72" r:id="rId61"/>
+    <hyperlink ref="B73" r:id="rId62"/>
+    <hyperlink ref="B74" r:id="rId63"/>
+    <hyperlink ref="B75" r:id="rId64"/>
+    <hyperlink ref="B76" r:id="rId65"/>
+    <hyperlink ref="B77" r:id="rId66"/>
+    <hyperlink ref="B79" r:id="rId67"/>
+    <hyperlink ref="B80" r:id="rId68"/>
+    <hyperlink ref="B81" r:id="rId69"/>
+    <hyperlink ref="B56" r:id="rId70"/>
+    <hyperlink ref="B78" r:id="rId71"/>
+    <hyperlink ref="B82" r:id="rId72"/>
+    <hyperlink ref="B83" r:id="rId73" display="https://demoqa.com/menu"/>
+    <hyperlink ref="B90" r:id="rId74"/>
+    <hyperlink ref="B91" r:id="rId75"/>
     <hyperlink ref="B25" r:id="rId76"/>
-    <hyperlink ref="B52" r:id="rId77"/>
-    <hyperlink ref="B78" r:id="rId78"/>
-    <hyperlink ref="B79" r:id="rId79"/>
-    <hyperlink ref="B80" r:id="rId80"/>
-    <hyperlink ref="B81" r:id="rId81"/>
-    <hyperlink ref="B84" r:id="rId82"/>
-    <hyperlink ref="B85" r:id="rId83" location="deprecated_attributes" display="deprecated_attributes"/>
-    <hyperlink ref="B86" r:id="rId84"/>
+    <hyperlink ref="B57" r:id="rId77"/>
+    <hyperlink ref="B84" r:id="rId78"/>
+    <hyperlink ref="B85" r:id="rId79"/>
+    <hyperlink ref="B86" r:id="rId80"/>
+    <hyperlink ref="B87" r:id="rId81"/>
+    <hyperlink ref="B92" r:id="rId82"/>
+    <hyperlink ref="B93" r:id="rId83" location="deprecated_attributes" display="deprecated_attributes"/>
+    <hyperlink ref="B94" r:id="rId84"/>
+    <hyperlink ref="B58" r:id="rId85"/>
+    <hyperlink ref="B26" r:id="rId86"/>
+    <hyperlink ref="B27" r:id="rId87"/>
+    <hyperlink ref="B28" r:id="rId88"/>
+    <hyperlink ref="B29" r:id="rId89"/>
+    <hyperlink ref="B41" r:id="rId90"/>
+    <hyperlink ref="B88" r:id="rId91"/>
+    <hyperlink ref="B89" r:id="rId92"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId85"/>
+  <pageSetup orientation="portrait" r:id="rId93"/>
 </worksheet>
 </file>
--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="542">
   <si>
     <t>ID</t>
   </si>
@@ -1619,6 +1619,27 @@
   </si>
   <si>
     <t>//label[contains(text(), 'Reading')]</t>
+  </si>
+  <si>
+    <t>https://academy.tricentis.com/path/automation-specialist-for-tricentis-tosca</t>
+  </si>
+  <si>
+    <t>iframe[name*='f']</t>
+  </si>
+  <si>
+    <t>//iframe[contains(@name, 'f')]</t>
+  </si>
+  <si>
+    <t>iframe[id*='twitter-widget-']</t>
+  </si>
+  <si>
+    <t>//iframe[contains(@id, 'twitter-widget-')]</t>
+  </si>
+  <si>
+    <t>Iframe_Tosca_01</t>
+  </si>
+  <si>
+    <t>Iframe_Tosca_02</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1719,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1709,6 +1730,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1743,7 +1770,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1792,6 +1819,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2013,8 +2043,8 @@
   <dimension ref="A1:AA1013"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6739,63 +6769,111 @@
       <c r="Z94" s="11"/>
       <c r="AA94" s="11"/>
     </row>
-    <row r="95" spans="1:27" ht="13.2">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
-      <c r="U95" s="6"/>
-      <c r="V95" s="6"/>
-      <c r="W95" s="6"/>
-      <c r="X95" s="6"/>
-      <c r="Y95" s="6"/>
-      <c r="Z95" s="6"/>
-      <c r="AA95" s="6"/>
-    </row>
-    <row r="96" spans="1:27" ht="13.2">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
-      <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
-      <c r="U96" s="6"/>
-      <c r="V96" s="6"/>
-      <c r="W96" s="6"/>
-      <c r="X96" s="6"/>
-      <c r="Y96" s="6"/>
-      <c r="Z96" s="6"/>
-      <c r="AA96" s="6"/>
+    <row r="95" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A95" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
+      <c r="T95" s="11"/>
+      <c r="U95" s="11"/>
+      <c r="V95" s="11"/>
+      <c r="W95" s="11"/>
+      <c r="X95" s="11"/>
+      <c r="Y95" s="11"/>
+      <c r="Z95" s="11"/>
+      <c r="AA95" s="11"/>
+    </row>
+    <row r="96" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A96" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
+      <c r="R96" s="11"/>
+      <c r="S96" s="11"/>
+      <c r="T96" s="11"/>
+      <c r="U96" s="11"/>
+      <c r="V96" s="11"/>
+      <c r="W96" s="11"/>
+      <c r="X96" s="11"/>
+      <c r="Y96" s="11"/>
+      <c r="Z96" s="11"/>
+      <c r="AA96" s="11"/>
     </row>
     <row r="97" spans="1:27" ht="13.2">
       <c r="A97" s="6"/>
@@ -33484,8 +33562,10 @@
     <hyperlink ref="B41" r:id="rId90"/>
     <hyperlink ref="B88" r:id="rId91"/>
     <hyperlink ref="B89" r:id="rId92"/>
+    <hyperlink ref="B95" r:id="rId93"/>
+    <hyperlink ref="B96" r:id="rId94"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId93"/>
+  <pageSetup orientation="portrait" r:id="rId95"/>
 </worksheet>
 </file>
--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="132" yWindow="540" windowWidth="22716" windowHeight="10788"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="531">
   <si>
     <t>ID</t>
   </si>
@@ -1493,12 +1493,126 @@
   </si>
   <si>
     <t>div[class*='col-md-']&gt;div[class='ctg_content'] h4</t>
+  </si>
+  <si>
+    <t>indiapost_TC_01</t>
+  </si>
+  <si>
+    <t>https://www.indiapost.gov.in/vas/Pages/IndiaPostHome.aspx</t>
+  </si>
+  <si>
+    <t>img[id='india-post-logo']</t>
+  </si>
+  <si>
+    <t>//img[@id='india-post-logo']</t>
+  </si>
+  <si>
+    <t>indiapost_TC_02</t>
+  </si>
+  <si>
+    <t>img[id='emblem-of-india-logo']</t>
+  </si>
+  <si>
+    <t>//img[@id='emblem-of-india-logo']</t>
+  </si>
+  <si>
+    <t>left click</t>
+  </si>
+  <si>
+    <t>indiapost_TC_03</t>
+  </si>
+  <si>
+    <t>img[alt*='Web']</t>
+  </si>
+  <si>
+    <t>//img[contains(@alt, 'Web')]</t>
+  </si>
+  <si>
+    <t>indiapost_TC_04</t>
+  </si>
+  <si>
+    <t>img[id='feature-box-item-image/']</t>
+  </si>
+  <si>
+    <t>//img[@id='feature-box-item-image/']</t>
+  </si>
+  <si>
+    <t>indiapost_TC_05</t>
+  </si>
+  <si>
+    <t>label[class='control-label radio-inline']:nth-of-type(3) &gt; input[id*='ctl']</t>
+  </si>
+  <si>
+    <t>//label[@class='control-label radio-inline'][2]/input[contains(@id, 'ctl')]</t>
+  </si>
+  <si>
+    <t>label[class='control-label radio-inline'] &gt; input[id*='ctl']</t>
+  </si>
+  <si>
+    <t>//label[@class='control-label radio-inline']/input[contains(@id, 'ctl')]</t>
+  </si>
+  <si>
+    <t>indiapost_TC_06</t>
+  </si>
+  <si>
+    <t>indiapost_TC_07</t>
+  </si>
+  <si>
+    <t>img[id*='ctl']</t>
+  </si>
+  <si>
+    <t>//img[contains(@id, 'ctl')]</t>
+  </si>
+  <si>
+    <t>indiapost_TC_08</t>
+  </si>
+  <si>
+    <t>input[class*='btn']</t>
+  </si>
+  <si>
+    <t>//input[contains(@class, 'btn')]</t>
+  </si>
+  <si>
+    <t>indiapost_TC_09</t>
+  </si>
+  <si>
+    <t>div[id='feature-box-item-helpline'] &gt; h4:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//div[@id='feature-box-item-helpline']/h4[1]</t>
+  </si>
+  <si>
+    <t>div[id='feature-box-item-helpline'] &gt; h4</t>
+  </si>
+  <si>
+    <t>//div[@id='feature-box-item-helpline']/h4</t>
+  </si>
+  <si>
+    <t>h4:contains(Toll Free Enquiry Helpline:)</t>
+  </si>
+  <si>
+    <t>//h4[contains(text(), 'Toll Free Enquiry Helpline:')]</t>
+  </si>
+  <si>
+    <t>indiapost_TC_10</t>
+  </si>
+  <si>
+    <t>img[alt='Calculate Postage']</t>
+  </si>
+  <si>
+    <t>//img[@alt='Calculate Postage']</t>
+  </si>
+  <si>
+    <t>input[aria-label='Enter a valid consignment number']</t>
+  </si>
+  <si>
+    <t>//input[@aria-label='Enter a valid consignment number']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11">
     <font>
       <sz val="10"/>
@@ -1572,7 +1686,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1583,6 +1697,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1617,7 +1737,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1664,6 +1784,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1877,15 +2006,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1899,7 +2028,7 @@
     <col min="7" max="7" width="18.88671875" customWidth="1"/>
     <col min="8" max="8" width="19.21875" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="13.8">
@@ -3581,7 +3710,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" ht="39.6">
+    <row r="34" spans="1:27" ht="26.4">
       <c r="A34" s="5" t="s">
         <v>149</v>
       </c>
@@ -3785,7 +3914,7 @@
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" ht="79.2">
+    <row r="38" spans="1:27" ht="66">
       <c r="A38" s="3" t="s">
         <v>167</v>
       </c>
@@ -4040,7 +4169,7 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" ht="105.6">
+    <row r="43" spans="1:27" ht="92.4">
       <c r="A43" s="3" t="s">
         <v>195</v>
       </c>
@@ -4685,7 +4814,7 @@
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
     </row>
-    <row r="56" spans="1:27" ht="264">
+    <row r="56" spans="1:27" ht="250.8">
       <c r="A56" s="3" t="s">
         <v>233</v>
       </c>
@@ -5648,7 +5777,7 @@
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
     </row>
-    <row r="75" spans="1:27" ht="40.200000000000003" thickBot="1">
+    <row r="75" spans="1:27" ht="27" thickBot="1">
       <c r="A75" s="5" t="s">
         <v>328</v>
       </c>
@@ -6244,18 +6373,40 @@
       <c r="Z86" s="11"/>
       <c r="AA86" s="11"/>
     </row>
-    <row r="87" spans="1:27" ht="13.2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
+    <row r="87" spans="1:27" ht="27" thickBot="1">
+      <c r="A87" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
@@ -6273,18 +6424,40 @@
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
     </row>
-    <row r="88" spans="1:27" ht="13.2">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
+    <row r="88" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A88" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>500</v>
+      </c>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
@@ -6302,18 +6475,40 @@
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
     </row>
-    <row r="89" spans="1:27" ht="13.2">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
+    <row r="89" spans="1:27" ht="27" thickBot="1">
+      <c r="A89" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>500</v>
+      </c>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
@@ -6331,18 +6526,40 @@
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
     </row>
-    <row r="90" spans="1:27" ht="13.2">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
+    <row r="90" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A90" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>500</v>
+      </c>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
@@ -6360,18 +6577,40 @@
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
     </row>
-    <row r="91" spans="1:27" ht="13.2">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
+    <row r="91" spans="1:27" ht="79.8" thickBot="1">
+      <c r="A91" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>500</v>
+      </c>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
@@ -6389,18 +6628,40 @@
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
     </row>
-    <row r="92" spans="1:27" ht="13.2">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
+    <row r="92" spans="1:27" ht="66.599999999999994" thickBot="1">
+      <c r="A92" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>500</v>
+      </c>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
@@ -6418,18 +6679,28 @@
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
     </row>
-    <row r="93" spans="1:27" ht="13.2">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
+    <row r="93" spans="1:27" ht="27" thickBot="1">
+      <c r="A93" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
@@ -6447,18 +6718,28 @@
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
     </row>
-    <row r="94" spans="1:27" ht="13.2">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
+    <row r="94" spans="1:27" ht="27" thickBot="1">
+      <c r="A94" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
@@ -6476,18 +6757,36 @@
       <c r="Z94" s="6"/>
       <c r="AA94" s="6"/>
     </row>
-    <row r="95" spans="1:27" ht="13.2">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
+    <row r="95" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A95" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F95" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="J95" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
@@ -6505,18 +6804,40 @@
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
     </row>
-    <row r="96" spans="1:27" ht="13.2">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
+    <row r="96" spans="1:27" ht="40.200000000000003" thickBot="1">
+      <c r="A96" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
@@ -32981,8 +33302,18 @@
     <hyperlink ref="B84" r:id="rId82"/>
     <hyperlink ref="B85" r:id="rId83" location="deprecated_attributes" display="deprecated_attributes"/>
     <hyperlink ref="B86" r:id="rId84"/>
+    <hyperlink ref="B87" r:id="rId85"/>
+    <hyperlink ref="B88" r:id="rId86"/>
+    <hyperlink ref="B89" r:id="rId87"/>
+    <hyperlink ref="B90" r:id="rId88"/>
+    <hyperlink ref="B91" r:id="rId89"/>
+    <hyperlink ref="B92" r:id="rId90"/>
+    <hyperlink ref="B93" r:id="rId91"/>
+    <hyperlink ref="B94" r:id="rId92"/>
+    <hyperlink ref="B95" r:id="rId93"/>
+    <hyperlink ref="B96" r:id="rId94"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId85"/>
+  <pageSetup orientation="portrait" r:id="rId95"/>
 </worksheet>
 </file>
--- a/src/main/resources/FML_LocatorSheet.xlsx
+++ b/src/main/resources/FML_LocatorSheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="540" windowWidth="22716" windowHeight="10788"/>
+    <workbookView xWindow="132" yWindow="540" windowWidth="22716" windowHeight="10788" tabRatio="251"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,1605 +14,1698 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="562">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>UniqueLocatorCSS</t>
+  </si>
+  <si>
+    <t>UniqueLocatorXpath</t>
+  </si>
+  <si>
+    <t>WithoutIndexCSS</t>
+  </si>
+  <si>
+    <t>WithoutIndexXpath</t>
+  </si>
+  <si>
+    <t>IframeLocatorCSS</t>
+  </si>
+  <si>
+    <t>IframeLocatorXpath</t>
+  </si>
+  <si>
+    <t>TextLocatorCSS</t>
+  </si>
+  <si>
+    <t>TextLocatorXpath</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_01</t>
+  </si>
+  <si>
+    <t>https://www.irctc.co.in/nget/train-search</t>
+  </si>
+  <si>
+    <t>p-autocomplete[id='origin'] input[aria-autocomplete='list']</t>
+  </si>
+  <si>
+    <t>//p-autocomplete[@id='origin']//input[@aria-autocomplete='list']</t>
+  </si>
+  <si>
+    <t>RightClick</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_02</t>
+  </si>
+  <si>
+    <t>p-autocomplete[id='destination'] input[aria-autocomplete='list']</t>
+  </si>
+  <si>
+    <t>//p-autocomplete[@id='destination']//input[@aria-autocomplete='list']</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_03</t>
+  </si>
+  <si>
+    <t>p-dropdownitem[class*='ng-tns-c']:nth-of-type(3) span[class='ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>//p-dropdownitem[contains(@class, 'ng-tns-c')][3]//span[@class='ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>p-dropdownitem[class*='ng-tns-c'] span[class='ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>//p-dropdownitem[contains(@class, 'ng-tns-c')]//span[@class='ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>span:contains(AC First Class (1A))</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'AC First Class (1A)')]</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_04</t>
+  </si>
+  <si>
+    <t>//p-dropdown[@id='journeyQuota']/div[contains(@class, 'ng-tns-c')]</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_05</t>
+  </si>
+  <si>
+    <t>button[class='search_btn train_Search']</t>
+  </si>
+  <si>
+    <t>//button[@class='search_btn train_Search']</t>
+  </si>
+  <si>
+    <t>button:contains(Search)</t>
+  </si>
+  <si>
+    <t>//button[contains(text(), 'Search')]</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_06</t>
+  </si>
+  <si>
+    <t>https://www.irctc.co.in/nget/booking/train-list</t>
+  </si>
+  <si>
+    <t>div[class*='level']:nth-of-type(2) div[class*='col-lg-']:nth-of-type(2) input[aria-autocomplete='list']</t>
+  </si>
+  <si>
+    <t>//app-train-list[@class='ng-star-inserted']/div[contains(@class, 'level')]//div[contains(@class, 'col-lg-')][2]//input[@aria-autocomplete='list']</t>
+  </si>
+  <si>
+    <t>div[class*='level'] div[class*='col-lg-'] input[aria-autocomplete='list']</t>
+  </si>
+  <si>
+    <t>//app-train-list[@class='ng-star-inserted']/div[contains(@class, 'level')]//div[contains(@class, 'col-lg-')]//input[@aria-autocomplete='list']</t>
+  </si>
+  <si>
+    <t>For first click only after refresing the site</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_07</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_08</t>
+  </si>
+  <si>
+    <t>//form[@class='ng-pristine ng-valid ng-touched']//div[contains(@class, 'col-lg-')][4]//div[contains(@class, 'ui-dropdown-label-co')]/span[contains(@class, 'ng-tns-c')]</t>
+  </si>
+  <si>
+    <t>//form[@class='ng-pristine ng-valid ng-touched']//div[contains(@class, 'col-lg-')]//div[contains(@class, 'ui-dropdown-label-co')]/span[contains(@class, 'ng-tns-c')]</t>
+  </si>
+  <si>
+    <t>span:contains(All Classes)</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(), 'All Classes')])[1]</t>
+  </si>
+  <si>
+    <t>Right click</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_09</t>
+  </si>
+  <si>
+    <t>div[class*='level']:nth-of-type(2) label[for='dateSpecific']</t>
+  </si>
+  <si>
+    <t>//app-train-list[@class='ng-star-inserted']/div[contains(@class, 'level')]//label[@for='dateSpecific']</t>
+  </si>
+  <si>
+    <t>div[class*='level'] label[for='dateSpecific']</t>
+  </si>
+  <si>
+    <t>XPATH already unique</t>
+  </si>
+  <si>
+    <t>label:contains(Flexible With Date)</t>
+  </si>
+  <si>
+    <t>(//label[contains(text(), 'Flexible With Date')])[1]</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_10</t>
+  </si>
+  <si>
+    <t>div[class*='level']:nth-of-type(2) label[for='concessionBooking']</t>
+  </si>
+  <si>
+    <t>//app-train-list[@class='ng-star-inserted']/div[contains(@class, 'level')]//label[@for='concessionBooking']</t>
+  </si>
+  <si>
+    <t>div[class*='level'] label[for='concessionBooking']</t>
+  </si>
+  <si>
+    <t>label:contains(Person With Disability Concession)</t>
+  </si>
+  <si>
+    <t>(//label[contains(text(), 'Person With Disability Concession')])[1]</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_11</t>
+  </si>
+  <si>
+    <t>div[class='hidden-xs'] strong</t>
+  </si>
+  <si>
+    <t>//div[@class='hidden-xs']//strong</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_12</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']:nth-of-type(1) div[class*='form-group'] span[class*='col-xs-'] span</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//span[@class='pull-left hidden-xs']</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//span[@class='pull-left hidden-xs']</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_13</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//span[contains(@class, 'col-xs-')]/span</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted'] div[class*='form-group'] span[class*='col-xs-'] span</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//span[contains(@class, 'col-xs-')]/span</t>
+  </si>
+  <si>
+    <t>span:contains(03:10)</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(), '03:10')])[1]</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_14</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']:nth-of-type(1) button[class='btnDefault disable-book train_Search ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//button[@class='btnDefault disable-book train_Search ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted'] button[class='btnDefault disable-book train_Search ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//button[@class='btnDefault disable-book train_Search ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>button:contains(Book Now)</t>
+  </si>
+  <si>
+    <t>(//button[contains(text(), 'Book Now')])[1]</t>
+  </si>
+  <si>
+    <t>Right CLick</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_15</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']:nth-of-type(6) table td[class='ng-star-inserted']:nth-of-type(1) div[class*='col-xs-']</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted'] table td[class='ng-star-inserted'] div[class*='col-xs-']</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted']//table//td[@class='ng-star-inserted']//div[contains(@class, 'col-xs-')]</t>
+  </si>
+  <si>
+    <t>div:contains(Refresh)</t>
+  </si>
+  <si>
+    <t>(//div[contains(text(), 'Refresh')])[1]</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_16</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_17</t>
+  </si>
+  <si>
+    <t>p-slider[class='ng-untouched ng-valid ng-dirty'] span[class*='ui-slider-range']</t>
+  </si>
+  <si>
+    <t>//p-slider[@class='ng-untouched ng-valid ng-dirty']//span[contains(@class, 'ui-slider-range')]</t>
+  </si>
+  <si>
+    <t>For first left  click only after refresing the site</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_18</t>
+  </si>
+  <si>
+    <t>div[class='border-all ng-star-inserted'] p-panel[class*='ng-tns-c'] table[class*='ng-tns-c'] span[class='t-t-O']</t>
+  </si>
+  <si>
+    <t>//div[@class='border-all ng-star-inserted']//p-panel[contains(@class, 'ng-tns-c')][2]//table[contains(@class, 'ng-tns-c')]//span[@class='t-t-O']</t>
+  </si>
+  <si>
+    <t>//div[@class='border-all ng-star-inserted']//p-panel[contains(@class, 'ng-tns-c')]//table[contains(@class, 'ng-tns-c')]//span[@class='t-t-O']</t>
+  </si>
+  <si>
+    <t>span:contains(OTHER)</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(), 'OTHER')])[1]</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_19</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-lg-')]//button[@class='btn_Tab']/span[@class='footer_headings']</t>
+  </si>
+  <si>
+    <t>span:contains(IRCTC eWallet)</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(), 'IRCTC eWallet')])[7]</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_20</t>
+  </si>
+  <si>
+    <t>Right-click to locate dynamic behavior</t>
+  </si>
+  <si>
+    <t>first click</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_21</t>
+  </si>
+  <si>
+    <t>span[class='fa fa-angle-up ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>Right Click</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_22</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'row')][1]/span/strong</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'row')]/span/strong</t>
+  </si>
+  <si>
+    <t>strong:contains(22-Nov-2023 [10:42:14])</t>
+  </si>
+  <si>
+    <t>//strong[contains(text(), '22-Nov-2023 [10:42:14]')]</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//div[contains(@class, 'white-back')]/div[contains(@class, 'col-xs-')][1]</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//div[contains(@class, 'white-back')]/div[contains(@class, 'col-xs-')]</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_01</t>
+  </si>
+  <si>
+    <t>https://indore.nic.in/en/</t>
+  </si>
+  <si>
+    <t>//ul[@id='menu-header-en']/li[@aria-haspopup='true'][1]/a</t>
+  </si>
+  <si>
+    <t>//ul[@id='menu-header-en']/li[@aria-haspopup='true']/a</t>
+  </si>
+  <si>
+    <t>a:contains(About District)</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(), 'About District')])[1]</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_02</t>
+  </si>
+  <si>
+    <t>a:contains(Website Policies)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Website Policies')]</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_03</t>
+  </si>
+  <si>
+    <t>//a[@title='Election Commission Of India']/div[@class='list-text']</t>
+  </si>
+  <si>
+    <t>div:contains(Election Commission Of India)</t>
+  </si>
+  <si>
+    <t>//div[contains(text(), 'Election Commission Of India')]</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_04</t>
+  </si>
+  <si>
+    <t>//div[@class='copyRightsText']/p[2]</t>
+  </si>
+  <si>
+    <t>//div[@class='copyRightsText']/p</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_05</t>
+  </si>
+  <si>
+    <t>https://indore.nic.in/en/agriculture/</t>
+  </si>
+  <si>
+    <t>//tr[1]/td[@data-th='OFFICER']</t>
+  </si>
+  <si>
+    <t>//tr/td[@data-th='OFFICER']</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_06</t>
+  </si>
+  <si>
+    <t>https://indore.nic.in/en/services/</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_07</t>
+  </si>
+  <si>
+    <t>https://indore.nic.in/en/document-category/master-plan-20-21/</t>
+  </si>
+  <si>
+    <t>span:contains(Master Plan 20-21- Studies and Analysis Part – 3)</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'Master Plan 20-21- Studies and Analysis Part – 3')]</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_08</t>
+  </si>
+  <si>
+    <t>https://indore.nic.in/en/std-pin-codes/</t>
+  </si>
+  <si>
+    <t>table[class*='table']:nth-of-type(1) th[scope='col']:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//div[contains(@id, 'post-')]/table[contains(@class, 'table')][1]//th[@scope='col'][1]</t>
+  </si>
+  <si>
+    <t>table[class*='table'] th[scope='col']</t>
+  </si>
+  <si>
+    <t>//div[contains(@id, 'post-')]/table[contains(@class, 'table')]//th[@scope='col']</t>
+  </si>
+  <si>
+    <t>th:contains(Name)</t>
+  </si>
+  <si>
+    <t>//th[contains(text(), 'Name')]</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_09</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>//h1</t>
+  </si>
+  <si>
+    <t>h1:contains(STD &amp; PIN Codes)</t>
+  </si>
+  <si>
+    <t>//h1[contains(text(), 'STD &amp; PIN Codes')]</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_10</t>
+  </si>
+  <si>
+    <t>//div[contains(@id, 'post-')]/p[2]</t>
+  </si>
+  <si>
+    <t>//div[contains(@id, 'post-')]/p</t>
+  </si>
+  <si>
+    <t>p:contains(POST OFFICE-Head Office: Indore G.P.O.Madhya Pradesh)</t>
+  </si>
+  <si>
+    <t>//p[contains(text(), 'POST OFFICE-Head Office: Indore G.P.O.Madhya Pradesh')]</t>
+  </si>
+  <si>
+    <t>INDORE_NIC_11</t>
+  </si>
+  <si>
+    <t>table[class*='table']:nth-of-type(2) th[scope='col']:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//div[contains(@id, 'post-')]/table[contains(@class, 'table')][2]//th[@scope='col'][1]</t>
+  </si>
+  <si>
+    <t>th:contains(POST OFFICE)</t>
+  </si>
+  <si>
+    <t>//th[contains(text(), 'POST OFFICE')]</t>
+  </si>
+  <si>
+    <t>YONO_SBI_01</t>
+  </si>
+  <si>
+    <t>https://yonobusiness.sbi/</t>
+  </si>
+  <si>
+    <t>//a[@rel='external']/img</t>
+  </si>
+  <si>
+    <t>YONO_SBI_02</t>
+  </si>
+  <si>
+    <t>div[class*='mt-md-']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'mt-md-')]</t>
+  </si>
+  <si>
+    <t>div:contains(An integrated banking solution which can be accessed across devices,)</t>
+  </si>
+  <si>
+    <t>//div[contains(text(), 'An integrated banking solution which can be accessed across devices,')]</t>
+  </si>
+  <si>
+    <t>YONO_SBI_03</t>
+  </si>
+  <si>
+    <t>a[class='btn yn-btn btn-yono-homepage login-btn']</t>
+  </si>
+  <si>
+    <t>//a[@class='btn yn-btn btn-yono-homepage login-btn']</t>
+  </si>
+  <si>
+    <t>a:contains(Login)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Login')]</t>
+  </si>
+  <si>
+    <t>YONO_SBI_04</t>
+  </si>
+  <si>
+    <t>a[class*='btn']:nth-of-type(2)</t>
+  </si>
+  <si>
+    <t>//a[contains(@class, 'btn')][2]</t>
+  </si>
+  <si>
+    <t>a[class*='btn']</t>
+  </si>
+  <si>
+    <t>//a[contains(@class, 'btn')]</t>
+  </si>
+  <si>
+    <t>a:contains(REGISTER)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'REGISTER')]</t>
+  </si>
+  <si>
+    <t>YONO_SBI_05</t>
+  </si>
+  <si>
+    <t>https://yonobusiness.sbi/preonboard/landing/registration</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-']:nth-of-type(1) img[class='onb-img']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-md-')][1]//img[@class='onb-img']</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-'] img[class='onb-img']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-md-')]//img[@class='onb-img']</t>
+  </si>
+  <si>
+    <t>YONO_SBI_06</t>
+  </si>
+  <si>
+    <t>//li[1]/a[@routerlinkactive='active']</t>
+  </si>
+  <si>
+    <t>//li/a[@routerlinkactive='active']</t>
+  </si>
+  <si>
+    <t>a:contains(Privacy Statement)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Privacy Statement')]</t>
+  </si>
+  <si>
+    <t>YONO_SBI_07</t>
+  </si>
+  <si>
+    <t>//div[@class='float-right hidden-xs']/p</t>
+  </si>
+  <si>
+    <t>p:contains(Site best viewed at (1366 * 768)+ resolution in Microsoft Edge 79+, Mozilla 96+, Google Chrome 97+)</t>
+  </si>
+  <si>
+    <t>//p[contains(text(), 'Site best viewed at (1366 * 768)+ resolution in Microsoft Edge 79+, Mozilla 96+, Google Chrome 97+')]</t>
+  </si>
+  <si>
+    <t>YONO_SBI_08</t>
+  </si>
+  <si>
+    <t>https://newcmp.sbi/Emandates/#!/</t>
+  </si>
+  <si>
+    <t>a[class='create-mandate create-emandate']</t>
+  </si>
+  <si>
+    <t>//a[@class='create-mandate create-emandate']</t>
+  </si>
+  <si>
+    <t>YONO_SBI_09</t>
+  </si>
+  <si>
+    <t>https://newcmp.sbi/Emandates/#!/createEmandate</t>
+  </si>
+  <si>
+    <t>JOY_BIRD_01</t>
+  </si>
+  <si>
+    <t>https://consumer.dev.nest.joybird.com/</t>
+  </si>
+  <si>
+    <t>svg[title='Search']</t>
+  </si>
+  <si>
+    <t>JOY_BIRD_02</t>
+  </si>
+  <si>
+    <t>JOY_BIRD_03</t>
+  </si>
+  <si>
+    <t>svg[class*='relative']</t>
+  </si>
+  <si>
+    <t>//*[name()='svg'][contains(@class, 'relative')]</t>
+  </si>
+  <si>
+    <t>JOY_BIRD_04</t>
+  </si>
+  <si>
+    <t>//div[@data-xc='DesktopTopNav']/ul[contains(@class, 'flex-row')]/li[contains(@class, 'items-center')]//span</t>
+  </si>
+  <si>
+    <t>JOY_BIRD_05</t>
+  </si>
+  <si>
+    <t>ABHI_VYAKTI_01</t>
+  </si>
+  <si>
+    <t>https://www.abhivyaktigarbamahotsav.com/</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-']:nth-of-type(3) div[class='video_icon'] img</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-md-')][2]//div[@class='video_icon']//img</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-'] div[class='video_icon'] img</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-md-')]//div[@class='video_icon']//img</t>
+  </si>
+  <si>
+    <t>ABHI_VYAKTI_02</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-']:nth-of-type(1) div[class='box-border']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-lg-')][1]/div[@class='box-border']</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-'] div[class='box-border']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-lg-')]/div[@class='box-border']</t>
+  </si>
+  <si>
+    <t>ABHI_VYAKTI_03</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-']:nth-of-type(4)&gt;a:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-md-')][4]/a[1]</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-']&gt;a</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-md-')]/a</t>
+  </si>
+  <si>
+    <t>a:contains(Privacy Policy)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Privacy Policy')]</t>
+  </si>
+  <si>
+    <t>ABHI_VYAKTI_04</t>
+  </si>
+  <si>
+    <t>div[id='workshops']:nth-of-type(5) p</t>
+  </si>
+  <si>
+    <t>//div[@id='workshops'][1]//p</t>
+  </si>
+  <si>
+    <t>div[id='workshops'] p</t>
+  </si>
+  <si>
+    <t>//div[@id='workshops']//p</t>
+  </si>
+  <si>
+    <t>p:contains(Navratri celebrations all across India, especially in the states of Gujarat are a sight to behold. Through Abhivyakti Garba Mahotsav, Garba festival has gone global covering states of Madhya Pradesh and Rajasthan. Bhopal, Indore and Jaipur are the cities that gets coloured with the vibrant shades of Garba.)</t>
+  </si>
+  <si>
+    <t>//p[contains(text(), 'Navratri celebrations all across India, especially in the states of Gujarat are a sight to behold. Through Abhivyakti Garba Mahotsav, Garba festival has gone global covering states of Madhya Pradesh and Rajasthan. Bhopal, Indore and Jaipur are the cities that gets coloured with the vibrant shades of Garba.')]</t>
+  </si>
+  <si>
+    <t>APOLLO_HOSPITAL_01</t>
+  </si>
+  <si>
+    <t>https://www.apollohospitals.com/indoreapolloconsultleads/?utm_source=paid&amp;utm_medium=cpc&amp;utm_campaign=12302623805&amp;utm_adgroup=120477017191&amp;utm_match_type=b&amp;network=g&amp;ad=547283151982&amp;utm_device=c&amp;utm_term=apollo%20hospital&amp;utm_gclid=CjwKCAjwyNSoBhA9EiwA5aYlb9cudAr0osMrZ-YS7dv5fzoecLoWsyfIRLQ5KgISpscMec5SGd28fxoC4n8QAvD_BwE&amp;gad=1&amp;gclid=CjwKCAjwyNSoBhA9EiwA5aYlb9cudAr0osMrZ-YS7dv5fzoecLoWsyfIRLQ5KgISpscMec5SGd28fxoC4n8QAvD_BwE#SanitationMethods</t>
+  </si>
+  <si>
+    <t>div[class*='col-sm-']:nth-of-type(1) div[class='covid-safe-wrap'] h5[class='acr-txt']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-sm-')][1]/div[@class='covid-safe-wrap']//h5[@class='acr-txt']</t>
+  </si>
+  <si>
+    <t>div[class*='col-sm-'] div[class='covid-safe-wrap'] h5[class='acr-txt']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-sm-')]/div[@class='covid-safe-wrap']//h5[@class='acr-txt']</t>
+  </si>
+  <si>
+    <t>h5:contains(Extra Sanitation Methods)</t>
+  </si>
+  <si>
+    <t>//h5[contains(text(), 'Extra Sanitation Methods')]</t>
+  </si>
+  <si>
+    <t>left Click</t>
+  </si>
+  <si>
+    <t>APOLLO_HOSPITAL_02</t>
+  </si>
+  <si>
+    <t>section[id='Cardiology'] h2</t>
+  </si>
+  <si>
+    <t>//section[@id='Cardiology']//h2</t>
+  </si>
+  <si>
+    <t>h2:contains(Cardiology)</t>
+  </si>
+  <si>
+    <t>//h2[contains(text(), 'Cardiology')]</t>
+  </si>
+  <si>
+    <t>EPFO_01</t>
+  </si>
+  <si>
+    <t>https://www.epfindia.gov.in/site_en/EODB.php</t>
+  </si>
+  <si>
+    <t>span[class='nor_letter']:nth-of-type(2)</t>
+  </si>
+  <si>
+    <t>//span[@class='nor_letter'][1]</t>
+  </si>
+  <si>
+    <t>span[class='nor_letter']</t>
+  </si>
+  <si>
+    <t>//span[@class='nor_letter']</t>
+  </si>
+  <si>
+    <t>span:contains(ase)</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'ase')]</t>
+  </si>
+  <si>
+    <t>EPFO_02</t>
+  </si>
+  <si>
+    <t>//div[@id='footer_link']/a[1]</t>
+  </si>
+  <si>
+    <t>//div[@id='footer_link']/a</t>
+  </si>
+  <si>
+    <t>a:contains(Home)</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(), 'Home')])[2]</t>
+  </si>
+  <si>
+    <t>EPFO_03</t>
+  </si>
+  <si>
+    <t>https://www.epfindia.gov.in/site_en/International_workers.php</t>
+  </si>
+  <si>
+    <t>//div[@class='iternl_wrkr']/span[@class='nor_letter'][1]</t>
+  </si>
+  <si>
+    <t>//div[@class='iternl_wrkr']/span[@class='nor_letter']</t>
+  </si>
+  <si>
+    <t>span:contains(PERATING)</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'PERATING')]</t>
+  </si>
+  <si>
+    <t>EPFO_04</t>
+  </si>
+  <si>
+    <t>span[id='copyrt']</t>
+  </si>
+  <si>
+    <t>//span[@id='copyrt']</t>
+  </si>
+  <si>
+    <t>JEEVAN_PRAMAAN_01</t>
+  </si>
+  <si>
+    <t>https://jeevanpramaan.gov.in/locator</t>
+  </si>
+  <si>
+    <t>img[alt='Logo']</t>
+  </si>
+  <si>
+    <t>//img[@alt='Logo']</t>
+  </si>
+  <si>
+    <t>JEEVAN_PRAMAAN_02</t>
+  </si>
+  <si>
+    <t>https://jeevanpramaan.gov.in/</t>
+  </si>
+  <si>
+    <t>//li[@class='year'][1]/i[@class='fa fa-pencil']</t>
+  </si>
+  <si>
+    <t>//li[@class='year']/i[@class='fa fa-pencil']</t>
+  </si>
+  <si>
+    <t>JEEVAN_PRAMAAN_03</t>
+  </si>
+  <si>
+    <t>//ul[@class='nav main-nav']/li[4]/a[@class='scroll']</t>
+  </si>
+  <si>
+    <t>//ul[@class='nav main-nav']/li/a[@class='scroll']</t>
+  </si>
+  <si>
+    <t>a:contains(Locate a Centre)</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(), 'Locate a Centre')])[1]</t>
+  </si>
+  <si>
+    <t>JEEVAN_PRAMAAN_04</t>
+  </si>
+  <si>
+    <t>//p[@class='footer-text copyright'][1]/a[1]</t>
+  </si>
+  <si>
+    <t>//p[@class='footer-text copyright']/a</t>
+  </si>
+  <si>
+    <t>a:contains(Help)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Help')]</t>
+  </si>
+  <si>
+    <t>JEEVAN_PRAMAAN_05</t>
+  </si>
+  <si>
+    <t>p[class='footer-text copyright']:nth-of-type(4)</t>
+  </si>
+  <si>
+    <t>//p[@class='footer-text copyright'][4]</t>
+  </si>
+  <si>
+    <t>p[class='footer-text copyright']</t>
+  </si>
+  <si>
+    <t>//p[@class='footer-text copyright']</t>
+  </si>
+  <si>
+    <t>p:contains(Last reviewed and updated on 31st Oct, 2023)</t>
+  </si>
+  <si>
+    <t>//p[contains(text(), 'Last reviewed and updated on 31st Oct, 2023')]</t>
+  </si>
+  <si>
+    <t>UITRGPV_AC_01</t>
+  </si>
+  <si>
+    <t>https://www.uitrgpv.ac.in/</t>
+  </si>
+  <si>
+    <t>button[class='btn-close']</t>
+  </si>
+  <si>
+    <t>UITRGPV_AC_02</t>
+  </si>
+  <si>
+    <t>UITRGPV_AC_03</t>
+  </si>
+  <si>
+    <t>UITRGPV_AC_04</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-md-')][1]/div[@class='ctg_content']//h4</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-md-')]/div[@class='ctg_content']//h4</t>
+  </si>
+  <si>
+    <t>h4:contains(Miscellaneous)</t>
+  </si>
+  <si>
+    <t>//h4[contains(text(), 'Miscellaneous')]</t>
+  </si>
+  <si>
+    <t>UITRGPV_AC_05</t>
+  </si>
+  <si>
+    <t>a[class='overlay-link play-now ripple']</t>
+  </si>
+  <si>
+    <t>//a[@class='overlay-link play-now ripple']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-lg-')][2]//ul[@class='list-item']/li[1]/a</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-lg-')]//ul[@class='list-item']/li/a</t>
+  </si>
+  <si>
+    <t>a:contains(Photo Gallery)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Photo Gallery')]</t>
+  </si>
+  <si>
+    <t>Demo_QA_01</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/radio-button</t>
+  </si>
+  <si>
+    <t>span:contains(Text Box)</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'Text Box')]</t>
+  </si>
+  <si>
+    <t>Demo_QA_02</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'card')][3]//h5</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'card')]//h5</t>
+  </si>
+  <si>
+    <t>h5:contains(Alerts, Frame &amp; Windows)</t>
+  </si>
+  <si>
+    <t>//h5[contains(text(), 'Alerts, Frame &amp; Windows')]</t>
+  </si>
+  <si>
+    <t>Demo_QA_03</t>
+  </si>
+  <si>
+    <t>div[class*='mb-']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'mb-')]</t>
+  </si>
+  <si>
+    <t>div:contains(Do you like the site?)</t>
+  </si>
+  <si>
+    <t>//div[contains(text(), 'Do you like the site?')]</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']:nth-of-type(1)&gt;div[class*='form-group']:nth-of-type(1) div[class*='white-back']:nth-of-type(3)&gt;div[class*='col-xs-']:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>div[class='copyRightsText'] &gt; p:nth-of-type(2)</t>
+  </si>
+  <si>
+    <t>tr:nth-of-type(1) &gt; td[data-th='OFFICER']</t>
+  </si>
+  <si>
+    <t>tr &gt; td[data-th='OFFICER']</t>
+  </si>
+  <si>
+    <t>tr:nth-of-type(1) &gt; td[data-th*='Title'] &gt; span[class='bt-content']</t>
+  </si>
+  <si>
+    <t>//tr[1]/td[contains(@data-th, 'Title')]/span[@class='bt-content']</t>
+  </si>
+  <si>
+    <t>tr &gt; td[data-th*='Title'] &gt; span[class='bt-content']</t>
+  </si>
+  <si>
+    <t>//tr/td[contains(@data-th, 'Title')]/span[@class='bt-content']</t>
+  </si>
+  <si>
+    <t>div[id*='post-'] &gt; p:nth-of-type(2)</t>
+  </si>
+  <si>
+    <t>div[id*='post-'] &gt; p</t>
+  </si>
+  <si>
+    <t>a[rel='external'] &gt; img</t>
+  </si>
+  <si>
+    <t>div[class='float-right hidden-xs'] &gt; p</t>
+  </si>
+  <si>
+    <t>JOY_BIRD_06</t>
+  </si>
+  <si>
+    <t>https://joybird.com/</t>
+  </si>
+  <si>
+    <t>iframe[scrolling='no']</t>
+  </si>
+  <si>
+    <t>//iframe[@scrolling='no']</t>
+  </si>
+  <si>
+    <t>Shubham</t>
+  </si>
+  <si>
+    <t>//footer//div[contains(@class, 'col-lg-')][1]//ul[@class='list-item']/i[@class='la la-angle-right'][1]</t>
+  </si>
+  <si>
+    <t>//footer//div[contains(@class, 'col-lg-')]//ul[@class='list-item']/i[@class='la la-angle-right']</t>
+  </si>
+  <si>
+    <t>kapil</t>
+  </si>
+  <si>
+    <t>Demo_QA_04</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/select-menu</t>
+  </si>
+  <si>
+    <t>//div[@class='row'][2]/div[contains(@class, 'col-md-')]/div[contains(@class, 'css-')]/div[contains(@class, 'css-')][1]/div[contains(@class, 'css-')][1]</t>
+  </si>
+  <si>
+    <t>//div[@class='row']/div[contains(@class, 'col-md-')]/div[contains(@class, 'css-')]/div[contains(@class, 'css-')]/div[contains(@class, 'css-')]</t>
+  </si>
+  <si>
+    <t>div:contains(Select...)</t>
+  </si>
+  <si>
+    <t>//div[contains(text(), 'Select...')]</t>
+  </si>
+  <si>
+    <t>Demo_QA_05</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/menu#</t>
+  </si>
+  <si>
+    <t>ul[id='nav']&gt;li:nth-of-type(1)&gt;a</t>
+  </si>
+  <si>
+    <t>//ul[@id='nav']/li[1]/a</t>
+  </si>
+  <si>
+    <t>ul[id='nav']&gt;li&gt;a</t>
+  </si>
+  <si>
+    <t>//ul[@id='nav']/li/a</t>
+  </si>
+  <si>
+    <t>a:contains(Main Item 1)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Main Item 1')]</t>
+  </si>
+  <si>
+    <t>Free_Jobs_Alert_01</t>
+  </si>
+  <si>
+    <t>https://www.freejobalert.com/government-jobs/</t>
+  </si>
+  <si>
+    <t>input[id*='gsc-i-id']</t>
+  </si>
+  <si>
+    <t>//input[contains(@id, 'gsc-i-id')]</t>
+  </si>
+  <si>
+    <t>Free_Jobs_Alert_02</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'gb-grid-column')][1]//ul/li[1]/a</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'gb-grid-column')]//ul/li/a</t>
+  </si>
+  <si>
+    <t>a:contains(Latest Notifications)</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(), 'Latest Notifications')])[2]</t>
+  </si>
+  <si>
+    <t>ul[id='menu-footer-en']&gt;li[id*='menu-item-']:nth-of-type(1)&gt;a</t>
+  </si>
+  <si>
+    <t>//ul[@id='menu-footer-en']/li[contains(@id, 'menu-item-')][1]/a</t>
+  </si>
+  <si>
+    <t>ul[id='menu-footer-en']&gt;li[id*='menu-item-']&gt;a</t>
+  </si>
+  <si>
+    <t>//ul[@id='menu-footer-en']/li[contains(@id, 'menu-item-')]/a</t>
+  </si>
+  <si>
+    <t>li[aria-haspopup='true']:nth-of-type(2) &gt; a</t>
+  </si>
+  <si>
+    <t>li[aria-haspopup='true'] &gt; a</t>
+  </si>
+  <si>
+    <t>a[title='Election Commission Of India'] &gt; div[class='list-text']</t>
+  </si>
+  <si>
+    <t>a[title='New Tap Connection'] span[class*='icon-supply']</t>
+  </si>
+  <si>
+    <t>//a[@title='New Tap Connection']//span[contains(@class, 'icon-supply')]</t>
+  </si>
+  <si>
+    <t>input[id='captchaAnswer']</t>
+  </si>
+  <si>
+    <t>//input[@id='captchaAnswer']</t>
+  </si>
+  <si>
+    <t>li:nth-of-type(1) &gt; a[routerlinkactive='active']</t>
+  </si>
+  <si>
+    <t>li &gt; a[routerlinkactive='active']</t>
+  </si>
+  <si>
+    <t>//*[name()='svg'][@title='Search']</t>
+  </si>
+  <si>
+    <t>a[data-xc='living-room'] &gt; span[class*='items-center']</t>
+  </si>
+  <si>
+    <t>//a[@data-xc='living-room']/span[contains(@class, 'items-center')]</t>
+  </si>
+  <si>
+    <t>span:contains(Living Room)</t>
+  </si>
+  <si>
+    <t>ul[class*='flex-row']:nth-of-type(1)&gt;li[class*='items-center']:nth-of-type(2) span</t>
+  </si>
+  <si>
+    <t>ul[class*='flex-row']&gt;li[class*='items-center'] span</t>
+  </si>
+  <si>
+    <t>span:contains(Showrooms)</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'Showrooms')]</t>
+  </si>
+  <si>
+    <t>//div[@data-xc='DesktopTopNav']/ul[contains(@class, 'flex-row')][1]/li[contains(@class, 'items-center')][2]//span</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(), 'Living Room')])[1]</t>
+  </si>
+  <si>
+    <t>//button[contains(@class, 'group')][5]/span[contains(@class, 'leading-')]</t>
+  </si>
+  <si>
+    <t>button[class*='group']:nth-of-type(5) &gt; span[class*='leading-']</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']&gt;div[class*='form-group'] div[class*='white-back']&gt;div[class*='col-xs-']</t>
+  </si>
+  <si>
+    <t>div[class='copyRightsText'] &gt; p</t>
+  </si>
+  <si>
+    <t>div[class*='row'] &gt; span &gt; strong</t>
+  </si>
+  <si>
+    <t>CSS already unique</t>
+  </si>
+  <si>
+    <t>//span[@class='fa fa-angle-up ng-star-inserted']</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-']:nth-of-type(3) button[class='btn_Tab']:nth-of-type(1)&gt;span[class='footer_headings']</t>
+  </si>
+  <si>
+    <t>//div[contains(@class, 'col-lg-')][3]//button[@class='btn_Tab'][1]/span[@class='footer_headings']</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-'] button[class='btn_Tab']&gt;span[class='footer_headings']</t>
+  </si>
+  <si>
+    <t>div[class*='gb-grid-column']:nth-of-type(1) ul&gt;li:nth-of-type(1)&gt;a</t>
+  </si>
+  <si>
+    <t>div[class*='gb-grid-column'] ul&gt;li&gt;a</t>
+  </si>
+  <si>
+    <t>div[class='element-list collapse show'] &gt; ul[class='menu-list']&gt;li[id*='item-']:nth-of-type(1)&gt;span[class='text']</t>
+  </si>
+  <si>
+    <t>//div[@class='element-list collapse show']/ul[@class='menu-list']/li[contains(@id, 'item-')][1]/span[@class='text']</t>
+  </si>
+  <si>
+    <t>div[class='element-list collapse show'] &gt; ul[class='menu-list']&gt;li[id*='item-']&gt;span[class='text']</t>
+  </si>
+  <si>
+    <t>//div[@class='element-list collapse show']/ul[@class='menu-list']/li[contains(@id, 'item-')]/span[@class='text']</t>
+  </si>
+  <si>
+    <t>div[class*='card']:nth-of-type(3)&gt;div h5</t>
+  </si>
+  <si>
+    <t>div[class*='card']&gt;div h5</t>
+  </si>
+  <si>
+    <t>div[class='row'] &gt; div[class*='col-md-'] &gt; div[class*='css-'] &gt; div[class*='css-']:nth-of-type(1) &gt; div[class*='css-']:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>div[class='row'] &gt; div[class*='col-md-'] &gt; div[class*='css-'] &gt; div[class*='css-'] &gt; div[class*='css-']</t>
+  </si>
+  <si>
+    <t>div[id='footer_link'] &gt; a:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>div[id='footer_link'] &gt; a</t>
+  </si>
+  <si>
+    <t>div[class='iternl_wrkr'] &gt; span[class='nor_letter']:nth-of-type(2)</t>
+  </si>
+  <si>
+    <t>div[class='iternl_wrkr'] &gt; span[class='nor_letter']</t>
+  </si>
+  <si>
+    <t>p-dropdown[id='journeyQuota'] &gt; div[class*='ng-tns-c']</t>
+  </si>
+  <si>
+    <t>form[class='ng-pristine ng-valid ng-touched'] i[class='fa fa-map-marker']</t>
+  </si>
+  <si>
+    <t>//form[@class='ng-pristine ng-valid ng-touched']//i[@class='fa fa-map-marker']</t>
+  </si>
+  <si>
+    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-']:nth-of-type(4) div[class*='ui-dropdown-label-co']</t>
+  </si>
+  <si>
+    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-'] div[class*='ui-dropdown-label-co']</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']:nth-of-type(1)&gt;div[class*='form-group']:nth-of-type(1) span[class='pull-left hidden-xs']</t>
+  </si>
+  <si>
+    <t>div[class='ng-star-inserted']&gt;div[class*='form-group'] span[class='pull-left hidden-xs']</t>
+  </si>
+  <si>
+    <t>//div[@class='ng-star-inserted'][6]//table//td[@class='ng-star-inserted'][1]//div[contains(@class, 'col-xs-')]</t>
+  </si>
+  <si>
+    <t>div[class='border-all ng-star-inserted'] div[class='sliderDiv ng-star-inserted']:nth-of-type(2) span[class*='ui-slider-range']</t>
+  </si>
+  <si>
+    <t>//div[@class='border-all ng-star-inserted']//div[@class='sliderDiv ng-star-inserted'][1]//span[contains(@class, 'ui-slider-range')]</t>
+  </si>
+  <si>
+    <t>div[class='border-all ng-star-inserted'] div[class='sliderDiv ng-star-inserted'] span[class*='ui-slider-range']</t>
+  </si>
+  <si>
+    <t>//div[@class='border-all ng-star-inserted']//div[@class='sliderDiv ng-star-inserted']//span[contains(@class, 'ui-slider-range')]</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-']:nth-of-type(1)&gt;div[class='footer_col'] ul[class='list-item']&gt;i[class='la la-angle-right']:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-']&gt;div[class='footer_col'] ul[class='list-item']&gt;i[class='la la-angle-right']</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-']:nth-of-type(2) ul[class='list-item']&gt;li:nth-of-type(1)&gt;a</t>
+  </si>
+  <si>
+    <t>div[class*='col-lg-'] ul[class='list-item']&gt;li&gt;a</t>
+  </si>
+  <si>
+    <t>ul[class='nav main-nav']&gt;li:nth-of-type(4)&gt;a[class='scroll']</t>
+  </si>
+  <si>
+    <t>ul[class='nav main-nav']&gt;li&gt;a[class='scroll']</t>
+  </si>
+  <si>
+    <t>li[class='year'] &gt; i[class='fa fa-pencil']</t>
+  </si>
+  <si>
+    <t>p[class='footer-text copyright']:nth-of-type(1) &gt; a:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>p[class='footer-text copyright'] &gt; a</t>
+  </si>
+  <si>
+    <t>cross origin iframe yet not supported.</t>
+  </si>
+  <si>
+    <t>iframe[id='Disha-Bot']</t>
+  </si>
+  <si>
+    <t>//iframe[@id='Disha-Bot']</t>
+  </si>
+  <si>
+    <t>SHUBHAM</t>
+  </si>
+  <si>
+    <t>svg[class='sc-DJfgX jNGuMj']:nth-of-type(4)</t>
+  </si>
+  <si>
+    <t>//div[@class='sc-hJxCPi bPGCAB']//*[name()='svg'][@class='sc-DJfgX jNGuMj'][1]</t>
+  </si>
+  <si>
+    <t>svg[class='sc-DJfgX jNGuMj']</t>
+  </si>
+  <si>
+    <t>//div[@class='sc-hJxCPi bPGCAB']//*[name()='svg'][@class='sc-DJfgX jNGuMj']</t>
+  </si>
+  <si>
+    <t>JOY_BIRD_Iframe_07</t>
+  </si>
+  <si>
+    <t>https://joybird.com</t>
+  </si>
+  <si>
+    <t>IRCTC_TC__23</t>
+  </si>
+  <si>
+    <t>IRCTC_TC_Iframe_24</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/frames</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>//html</t>
+  </si>
+  <si>
+    <t>div[id*='frame']:nth-of-type(2) &gt; iframe[id*='frame']</t>
+  </si>
+  <si>
+    <t>//div[@id='framesWrapper']/div[contains(@id, 'frame')][1]/iframe[contains(@id, 'frame')]</t>
+  </si>
+  <si>
+    <t>h1[id='sampleHeading']</t>
+  </si>
+  <si>
+    <t>//h1[@id='sampleHeading']</t>
+  </si>
+  <si>
+    <t>h1:contains(This is a sample page)</t>
+  </si>
+  <si>
+    <t>//h1[contains(text(), 'This is a sample page')]</t>
+  </si>
+  <si>
+    <t>div[class*='mt-'] &gt; iframe[id*='frame']</t>
+  </si>
+  <si>
+    <t>//div[contains(@id, 'frame')][contains(@class, 'mt-')]/iframe[contains(@id, 'frame')]</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/nestedframes</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>//body</t>
+  </si>
+  <si>
+    <t>//div[@id='framesWrapper']//iframe[contains(@id, 'frame')]</t>
+  </si>
+  <si>
+    <t>body:contains(Parent frame)</t>
+  </si>
+  <si>
+    <t>//body[contains(text(), 'Parent frame')]</t>
+  </si>
+  <si>
+    <t>Demo_QA_Iframe_06</t>
+  </si>
+  <si>
+    <t>Demo_QA_Iframe_07</t>
+  </si>
+  <si>
+    <t>Demo_QA_Iframe_08</t>
+  </si>
+  <si>
+    <t>Demo_QA_Iframe_09</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTML/Element/iframe</t>
+  </si>
+  <si>
+    <t>iframe[class*='inter']</t>
+  </si>
+  <si>
+    <t>//iframe[contains(@class, 'inter')]</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/HTML/Element/iframe#deprecated_attributes</t>
+  </si>
+  <si>
+    <t>iframe[id='frame_a_simple_iframe']</t>
+  </si>
+  <si>
+    <t>Developer_mozilla_Iframe_01</t>
+  </si>
+  <si>
+    <t>Developer_mozilla_Iframe_02</t>
+  </si>
+  <si>
+    <t>//iframe[@id='frame_a_simple_iframe']</t>
+  </si>
+  <si>
+    <t>https://www.k8oms.net/links/embed-url-iframe</t>
+  </si>
+  <si>
+    <t>div[data-code*='DOCTYPE'] &gt; iframe[title='Custom embed']</t>
+  </si>
+  <si>
+    <t>//div[contains(@data-code, 'DOCTYPE')]/iframe[@title='Custom embed']</t>
+  </si>
+  <si>
+    <t>k8oms_Iframe_01</t>
+  </si>
+  <si>
+    <t>//button[@class='btn-close']</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-']:nth-of-type(1)&gt;div[class='ctg_content'] h4</t>
+  </si>
+  <si>
+    <t>div[class*='col-md-']&gt;div[class='ctg_content'] h4</t>
+  </si>
+  <si>
+    <t>indiapost_TC_01</t>
+  </si>
+  <si>
+    <t>https://www.indiapost.gov.in/vas/Pages/IndiaPostHome.aspx</t>
+  </si>
+  <si>
+    <t>img[id='india-post-logo']</t>
+  </si>
+  <si>
+    <t>//img[@id='india-post-logo']</t>
+  </si>
+  <si>
+    <t>indiapost_TC_02</t>
+  </si>
+  <si>
+    <t>img[id='emblem-of-india-logo']</t>
+  </si>
+  <si>
+    <t>//img[@id='emblem-of-india-logo']</t>
+  </si>
+  <si>
+    <t>left click</t>
+  </si>
+  <si>
+    <t>indiapost_TC_03</t>
+  </si>
+  <si>
+    <t>img[alt*='Web']</t>
+  </si>
+  <si>
+    <t>//img[contains(@alt, 'Web')]</t>
+  </si>
+  <si>
+    <t>indiapost_TC_04</t>
+  </si>
+  <si>
+    <t>img[id='feature-box-item-image/']</t>
+  </si>
+  <si>
+    <t>//img[@id='feature-box-item-image/']</t>
+  </si>
+  <si>
+    <t>indiapost_TC_05</t>
+  </si>
+  <si>
+    <t>label[class='control-label radio-inline']:nth-of-type(3) &gt; input[id*='ctl']</t>
+  </si>
+  <si>
+    <t>//label[@class='control-label radio-inline'][2]/input[contains(@id, 'ctl')]</t>
+  </si>
+  <si>
+    <t>label[class='control-label radio-inline'] &gt; input[id*='ctl']</t>
+  </si>
+  <si>
+    <t>//label[@class='control-label radio-inline']/input[contains(@id, 'ctl')]</t>
+  </si>
+  <si>
+    <t>indiapost_TC_06</t>
+  </si>
+  <si>
+    <t>indiapost_TC_07</t>
+  </si>
+  <si>
+    <t>img[id*='ctl']</t>
+  </si>
+  <si>
+    <t>//img[contains(@id, 'ctl')]</t>
+  </si>
+  <si>
+    <t>indiapost_TC_08</t>
+  </si>
+  <si>
+    <t>input[class*='btn']</t>
+  </si>
+  <si>
+    <t>//input[contains(@class, 'btn')]</t>
+  </si>
+  <si>
+    <t>indiapost_TC_09</t>
+  </si>
+  <si>
+    <t>div[id='feature-box-item-helpline'] &gt; h4:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//div[@id='feature-box-item-helpline']/h4[1]</t>
+  </si>
+  <si>
+    <t>div[id='feature-box-item-helpline'] &gt; h4</t>
+  </si>
+  <si>
+    <t>//div[@id='feature-box-item-helpline']/h4</t>
+  </si>
+  <si>
+    <t>h4:contains(Toll Free Enquiry Helpline:)</t>
+  </si>
+  <si>
+    <t>//h4[contains(text(), 'Toll Free Enquiry Helpline:')]</t>
+  </si>
+  <si>
+    <t>indiapost_TC_10</t>
+  </si>
+  <si>
+    <t>img[alt='Calculate Postage']</t>
+  </si>
+  <si>
+    <t>//img[@alt='Calculate Postage']</t>
+  </si>
+  <si>
+    <t>input[aria-label='Enter a valid consignment number']</t>
+  </si>
+  <si>
+    <t>//input[@aria-label='Enter a valid consignment number']</t>
+  </si>
+  <si>
+    <t>https://athome.medline.com/en/</t>
+  </si>
+  <si>
+    <t>Medline_01</t>
+  </si>
+  <si>
+    <t>input[id='search']</t>
+  </si>
+  <si>
+    <t>//input[@id='search']</t>
+  </si>
+  <si>
+    <t>span[x-text='product_sku']</t>
+  </si>
+  <si>
+    <t>//span[@x-text='product_sku']</t>
+  </si>
+  <si>
+    <t>Medline_02</t>
+  </si>
+  <si>
+    <t>https://pharmeasy.in/</t>
+  </si>
+  <si>
+    <t>Pharm_Easy_01</t>
+  </si>
+  <si>
+    <t>div[class='c-IkEYc c-IkEYc-idhSfxX-css'] &gt; div[class*='c-PJLV'] &gt; div[class*='c-PJLV'] &gt; span[class*='c-kkmdlQ']</t>
+  </si>
+  <si>
+    <t>//div[@class='c-IkEYc c-IkEYc-idhSfxX-css']/div[contains(@class, 'c-PJLV')]/div[contains(@class, 'c-PJLV')][1]/span[contains(@class, 'c-kkmdlQ')]</t>
+  </si>
+  <si>
+    <t>//div[@class='c-IkEYc c-IkEYc-idhSfxX-css']/div[contains(@class, 'c-PJLV')]/div[contains(@class, 'c-PJLV')]/span[contains(@class, 'c-kkmdlQ')]</t>
+  </si>
+  <si>
+    <t>span:contains(What are you looking for?)</t>
+  </si>
+  <si>
+    <t>//span[contains(text(), 'What are you looking for?')]</t>
+  </si>
+  <si>
     <t>URL</t>
   </si>
   <si>
-    <t>UniqueLocatorCSS</t>
-  </si>
-  <si>
-    <t>UniqueLocatorXpath</t>
-  </si>
-  <si>
-    <t>WithoutIndexCSS</t>
-  </si>
-  <si>
-    <t>WithoutIndexXpath</t>
-  </si>
-  <si>
-    <t>IframeLocatorCSS</t>
-  </si>
-  <si>
-    <t>IframeLocatorXpath</t>
-  </si>
-  <si>
-    <t>TextLocatorCSS</t>
-  </si>
-  <si>
-    <t>TextLocatorXpath</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_01</t>
-  </si>
-  <si>
-    <t>https://www.irctc.co.in/nget/train-search</t>
-  </si>
-  <si>
-    <t>p-autocomplete[id='origin'] input[aria-autocomplete='list']</t>
-  </si>
-  <si>
-    <t>//p-autocomplete[@id='origin']//input[@aria-autocomplete='list']</t>
-  </si>
-  <si>
-    <t>RightClick</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_02</t>
-  </si>
-  <si>
-    <t>p-autocomplete[id='destination'] input[aria-autocomplete='list']</t>
-  </si>
-  <si>
-    <t>//p-autocomplete[@id='destination']//input[@aria-autocomplete='list']</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_03</t>
-  </si>
-  <si>
-    <t>p-dropdownitem[class*='ng-tns-c']:nth-of-type(3) span[class='ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>//p-dropdownitem[contains(@class, 'ng-tns-c')][3]//span[@class='ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>p-dropdownitem[class*='ng-tns-c'] span[class='ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>//p-dropdownitem[contains(@class, 'ng-tns-c')]//span[@class='ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>span:contains(AC First Class (1A))</t>
-  </si>
-  <si>
-    <t>//span[contains(text(), 'AC First Class (1A)')]</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_04</t>
-  </si>
-  <si>
-    <t>//p-dropdown[@id='journeyQuota']/div[contains(@class, 'ng-tns-c')]</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_05</t>
-  </si>
-  <si>
-    <t>button[class='search_btn train_Search']</t>
-  </si>
-  <si>
-    <t>//button[@class='search_btn train_Search']</t>
-  </si>
-  <si>
-    <t>button:contains(Search)</t>
-  </si>
-  <si>
-    <t>//button[contains(text(), 'Search')]</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_06</t>
-  </si>
-  <si>
-    <t>https://www.irctc.co.in/nget/booking/train-list</t>
-  </si>
-  <si>
-    <t>div[class*='level']:nth-of-type(2) div[class*='col-lg-']:nth-of-type(2) input[aria-autocomplete='list']</t>
-  </si>
-  <si>
-    <t>//app-train-list[@class='ng-star-inserted']/div[contains(@class, 'level')]//div[contains(@class, 'col-lg-')][2]//input[@aria-autocomplete='list']</t>
-  </si>
-  <si>
-    <t>div[class*='level'] div[class*='col-lg-'] input[aria-autocomplete='list']</t>
-  </si>
-  <si>
-    <t>//app-train-list[@class='ng-star-inserted']/div[contains(@class, 'level')]//div[contains(@class, 'col-lg-')]//input[@aria-autocomplete='list']</t>
-  </si>
-  <si>
-    <t>For first click only after refresing the site</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_07</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_08</t>
-  </si>
-  <si>
-    <t>//form[@class='ng-pristine ng-valid ng-touched']//div[contains(@class, 'col-lg-')][4]//div[contains(@class, 'ui-dropdown-label-co')]/span[contains(@class, 'ng-tns-c')]</t>
-  </si>
-  <si>
-    <t>//form[@class='ng-pristine ng-valid ng-touched']//div[contains(@class, 'col-lg-')]//div[contains(@class, 'ui-dropdown-label-co')]/span[contains(@class, 'ng-tns-c')]</t>
-  </si>
-  <si>
-    <t>span:contains(All Classes)</t>
-  </si>
-  <si>
-    <t>(//span[contains(text(), 'All Classes')])[1]</t>
-  </si>
-  <si>
-    <t>Right click</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_09</t>
-  </si>
-  <si>
-    <t>div[class*='level']:nth-of-type(2) label[for='dateSpecific']</t>
-  </si>
-  <si>
-    <t>//app-train-list[@class='ng-star-inserted']/div[contains(@class, 'level')]//label[@for='dateSpecific']</t>
-  </si>
-  <si>
-    <t>div[class*='level'] label[for='dateSpecific']</t>
-  </si>
-  <si>
-    <t>XPATH already unique</t>
-  </si>
-  <si>
-    <t>label:contains(Flexible With Date)</t>
-  </si>
-  <si>
-    <t>(//label[contains(text(), 'Flexible With Date')])[1]</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_10</t>
-  </si>
-  <si>
-    <t>div[class*='level']:nth-of-type(2) label[for='concessionBooking']</t>
-  </si>
-  <si>
-    <t>//app-train-list[@class='ng-star-inserted']/div[contains(@class, 'level')]//label[@for='concessionBooking']</t>
-  </si>
-  <si>
-    <t>div[class*='level'] label[for='concessionBooking']</t>
-  </si>
-  <si>
-    <t>label:contains(Person With Disability Concession)</t>
-  </si>
-  <si>
-    <t>(//label[contains(text(), 'Person With Disability Concession')])[1]</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_11</t>
-  </si>
-  <si>
-    <t>div[class='hidden-xs'] strong</t>
-  </si>
-  <si>
-    <t>//div[@class='hidden-xs']//strong</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_12</t>
-  </si>
-  <si>
-    <t>div[class='ng-star-inserted']:nth-of-type(1) div[class*='form-group'] span[class*='col-xs-'] span</t>
-  </si>
-  <si>
-    <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//span[@class='pull-left hidden-xs']</t>
-  </si>
-  <si>
-    <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//span[@class='pull-left hidden-xs']</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_13</t>
-  </si>
-  <si>
-    <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//span[contains(@class, 'col-xs-')]/span</t>
-  </si>
-  <si>
-    <t>div[class='ng-star-inserted'] div[class*='form-group'] span[class*='col-xs-'] span</t>
-  </si>
-  <si>
-    <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//span[contains(@class, 'col-xs-')]/span</t>
-  </si>
-  <si>
-    <t>span:contains(03:10)</t>
-  </si>
-  <si>
-    <t>(//span[contains(text(), '03:10')])[1]</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_14</t>
-  </si>
-  <si>
-    <t>div[class='ng-star-inserted']:nth-of-type(1) button[class='btnDefault disable-book train_Search ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//button[@class='btnDefault disable-book train_Search ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>div[class='ng-star-inserted'] button[class='btnDefault disable-book train_Search ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//button[@class='btnDefault disable-book train_Search ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>button:contains(Book Now)</t>
-  </si>
-  <si>
-    <t>(//button[contains(text(), 'Book Now')])[1]</t>
-  </si>
-  <si>
-    <t>Right CLick</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_15</t>
-  </si>
-  <si>
-    <t>div[class='ng-star-inserted']:nth-of-type(6) table td[class='ng-star-inserted']:nth-of-type(1) div[class*='col-xs-']</t>
-  </si>
-  <si>
-    <t>div[class='ng-star-inserted'] table td[class='ng-star-inserted'] div[class*='col-xs-']</t>
-  </si>
-  <si>
-    <t>//div[@class='ng-star-inserted']//table//td[@class='ng-star-inserted']//div[contains(@class, 'col-xs-')]</t>
-  </si>
-  <si>
-    <t>div:contains(Refresh)</t>
-  </si>
-  <si>
-    <t>(//div[contains(text(), 'Refresh')])[1]</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_16</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_17</t>
-  </si>
-  <si>
-    <t>p-slider[class='ng-untouched ng-valid ng-dirty'] span[class*='ui-slider-range']</t>
-  </si>
-  <si>
-    <t>//p-slider[@class='ng-untouched ng-valid ng-dirty']//span[contains(@class, 'ui-slider-range')]</t>
-  </si>
-  <si>
-    <t>For first left  click only after refresing the site</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_18</t>
-  </si>
-  <si>
-    <t>div[class='border-all ng-star-inserted'] p-panel[class*='ng-tns-c'] table[class*='ng-tns-c'] span[class='t-t-O']</t>
-  </si>
-  <si>
-    <t>//div[@class='border-all ng-star-inserted']//p-panel[contains(@class, 'ng-tns-c')][2]//table[contains(@class, 'ng-tns-c')]//span[@class='t-t-O']</t>
-  </si>
-  <si>
-    <t>//div[@class='border-all ng-star-inserted']//p-panel[contains(@class, 'ng-tns-c')]//table[contains(@class, 'ng-tns-c')]//span[@class='t-t-O']</t>
-  </si>
-  <si>
-    <t>span:contains(OTHER)</t>
-  </si>
-  <si>
-    <t>(//span[contains(text(), 'OTHER')])[1]</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_19</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-lg-')]//button[@class='btn_Tab']/span[@class='footer_headings']</t>
-  </si>
-  <si>
-    <t>span:contains(IRCTC eWallet)</t>
-  </si>
-  <si>
-    <t>(//span[contains(text(), 'IRCTC eWallet')])[7]</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_20</t>
-  </si>
-  <si>
-    <t>Right-click to locate dynamic behavior</t>
-  </si>
-  <si>
-    <t>first click</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_21</t>
-  </si>
-  <si>
-    <t>span[class='fa fa-angle-up ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>Right Click</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_22</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'row')][1]/span/strong</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'row')]/span/strong</t>
-  </si>
-  <si>
-    <t>strong:contains(22-Nov-2023 [10:42:14])</t>
-  </si>
-  <si>
-    <t>//strong[contains(text(), '22-Nov-2023 [10:42:14]')]</t>
-  </si>
-  <si>
-    <t>//div[@class='ng-star-inserted'][1]/div[contains(@class, 'form-group')][1]//div[contains(@class, 'white-back')]/div[contains(@class, 'col-xs-')][1]</t>
-  </si>
-  <si>
-    <t>//div[@class='ng-star-inserted']/div[contains(@class, 'form-group')]//div[contains(@class, 'white-back')]/div[contains(@class, 'col-xs-')]</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_01</t>
-  </si>
-  <si>
-    <t>https://indore.nic.in/en/</t>
-  </si>
-  <si>
-    <t>//ul[@id='menu-header-en']/li[@aria-haspopup='true'][1]/a</t>
-  </si>
-  <si>
-    <t>//ul[@id='menu-header-en']/li[@aria-haspopup='true']/a</t>
-  </si>
-  <si>
-    <t>a:contains(About District)</t>
-  </si>
-  <si>
-    <t>(//a[contains(text(), 'About District')])[1]</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_02</t>
-  </si>
-  <si>
-    <t>a:contains(Website Policies)</t>
-  </si>
-  <si>
-    <t>//a[contains(text(), 'Website Policies')]</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_03</t>
-  </si>
-  <si>
-    <t>//a[@title='Election Commission Of India']/div[@class='list-text']</t>
-  </si>
-  <si>
-    <t>div:contains(Election Commission Of India)</t>
-  </si>
-  <si>
-    <t>//div[contains(text(), 'Election Commission Of India')]</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_04</t>
-  </si>
-  <si>
-    <t>//div[@class='copyRightsText']/p[2]</t>
-  </si>
-  <si>
-    <t>//div[@class='copyRightsText']/p</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_05</t>
-  </si>
-  <si>
-    <t>https://indore.nic.in/en/agriculture/</t>
-  </si>
-  <si>
-    <t>//tr[1]/td[@data-th='OFFICER']</t>
-  </si>
-  <si>
-    <t>//tr/td[@data-th='OFFICER']</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_06</t>
-  </si>
-  <si>
-    <t>https://indore.nic.in/en/services/</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_07</t>
-  </si>
-  <si>
-    <t>https://indore.nic.in/en/document-category/master-plan-20-21/</t>
-  </si>
-  <si>
-    <t>span:contains(Master Plan 20-21- Studies and Analysis Part – 3)</t>
-  </si>
-  <si>
-    <t>//span[contains(text(), 'Master Plan 20-21- Studies and Analysis Part – 3')]</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_08</t>
-  </si>
-  <si>
-    <t>https://indore.nic.in/en/std-pin-codes/</t>
-  </si>
-  <si>
-    <t>table[class*='table']:nth-of-type(1) th[scope='col']:nth-of-type(1)</t>
-  </si>
-  <si>
-    <t>//div[contains(@id, 'post-')]/table[contains(@class, 'table')][1]//th[@scope='col'][1]</t>
-  </si>
-  <si>
-    <t>table[class*='table'] th[scope='col']</t>
-  </si>
-  <si>
-    <t>//div[contains(@id, 'post-')]/table[contains(@class, 'table')]//th[@scope='col']</t>
-  </si>
-  <si>
-    <t>th:contains(Name)</t>
-  </si>
-  <si>
-    <t>//th[contains(text(), 'Name')]</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_09</t>
-  </si>
-  <si>
-    <t>h1</t>
-  </si>
-  <si>
-    <t>//h1</t>
-  </si>
-  <si>
-    <t>h1:contains(STD &amp; PIN Codes)</t>
-  </si>
-  <si>
-    <t>//h1[contains(text(), 'STD &amp; PIN Codes')]</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_10</t>
-  </si>
-  <si>
-    <t>//div[contains(@id, 'post-')]/p[2]</t>
-  </si>
-  <si>
-    <t>//div[contains(@id, 'post-')]/p</t>
-  </si>
-  <si>
-    <t>p:contains(POST OFFICE-Head Office: Indore G.P.O.Madhya Pradesh)</t>
-  </si>
-  <si>
-    <t>//p[contains(text(), 'POST OFFICE-Head Office: Indore G.P.O.Madhya Pradesh')]</t>
-  </si>
-  <si>
-    <t>INDORE_NIC_11</t>
-  </si>
-  <si>
-    <t>table[class*='table']:nth-of-type(2) th[scope='col']:nth-of-type(1)</t>
-  </si>
-  <si>
-    <t>//div[contains(@id, 'post-')]/table[contains(@class, 'table')][2]//th[@scope='col'][1]</t>
-  </si>
-  <si>
-    <t>th:contains(POST OFFICE)</t>
-  </si>
-  <si>
-    <t>//th[contains(text(), 'POST OFFICE')]</t>
-  </si>
-  <si>
-    <t>YONO_SBI_01</t>
-  </si>
-  <si>
-    <t>https://yonobusiness.sbi/</t>
-  </si>
-  <si>
-    <t>//a[@rel='external']/img</t>
-  </si>
-  <si>
-    <t>YONO_SBI_02</t>
-  </si>
-  <si>
-    <t>div[class*='mt-md-']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'mt-md-')]</t>
-  </si>
-  <si>
-    <t>div:contains(An integrated banking solution which can be accessed across devices,)</t>
-  </si>
-  <si>
-    <t>//div[contains(text(), 'An integrated banking solution which can be accessed across devices,')]</t>
-  </si>
-  <si>
-    <t>YONO_SBI_03</t>
-  </si>
-  <si>
-    <t>a[class='btn yn-btn btn-yono-homepage login-btn']</t>
-  </si>
-  <si>
-    <t>//a[@class='btn yn-btn btn-yono-homepage login-btn']</t>
-  </si>
-  <si>
-    <t>a:contains(Login)</t>
-  </si>
-  <si>
-    <t>//a[contains(text(), 'Login')]</t>
-  </si>
-  <si>
-    <t>YONO_SBI_04</t>
-  </si>
-  <si>
-    <t>a[class*='btn']:nth-of-type(2)</t>
-  </si>
-  <si>
-    <t>//a[contains(@class, 'btn')][2]</t>
-  </si>
-  <si>
-    <t>a[class*='btn']</t>
-  </si>
-  <si>
-    <t>//a[contains(@class, 'btn')]</t>
-  </si>
-  <si>
-    <t>a:contains(REGISTER)</t>
-  </si>
-  <si>
-    <t>//a[contains(text(), 'REGISTER')]</t>
-  </si>
-  <si>
-    <t>YONO_SBI_05</t>
-  </si>
-  <si>
-    <t>https://yonobusiness.sbi/preonboard/landing/registration</t>
-  </si>
-  <si>
-    <t>div[class*='col-md-']:nth-of-type(1) img[class='onb-img']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-md-')][1]//img[@class='onb-img']</t>
-  </si>
-  <si>
-    <t>div[class*='col-md-'] img[class='onb-img']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-md-')]//img[@class='onb-img']</t>
-  </si>
-  <si>
-    <t>YONO_SBI_06</t>
-  </si>
-  <si>
-    <t>//li[1]/a[@routerlinkactive='active']</t>
-  </si>
-  <si>
-    <t>//li/a[@routerlinkactive='active']</t>
-  </si>
-  <si>
-    <t>a:contains(Privacy Statement)</t>
-  </si>
-  <si>
-    <t>//a[contains(text(), 'Privacy Statement')]</t>
-  </si>
-  <si>
-    <t>YONO_SBI_07</t>
-  </si>
-  <si>
-    <t>//div[@class='float-right hidden-xs']/p</t>
-  </si>
-  <si>
-    <t>p:contains(Site best viewed at (1366 * 768)+ resolution in Microsoft Edge 79+, Mozilla 96+, Google Chrome 97+)</t>
-  </si>
-  <si>
-    <t>//p[contains(text(), 'Site best viewed at (1366 * 768)+ resolution in Microsoft Edge 79+, Mozilla 96+, Google Chrome 97+')]</t>
-  </si>
-  <si>
-    <t>YONO_SBI_08</t>
-  </si>
-  <si>
-    <t>https://newcmp.sbi/Emandates/#!/</t>
-  </si>
-  <si>
-    <t>a[class='create-mandate create-emandate']</t>
-  </si>
-  <si>
-    <t>//a[@class='create-mandate create-emandate']</t>
-  </si>
-  <si>
-    <t>YONO_SBI_09</t>
-  </si>
-  <si>
-    <t>https://newcmp.sbi/Emandates/#!/createEmandate</t>
-  </si>
-  <si>
-    <t>JOY_BIRD_01</t>
-  </si>
-  <si>
-    <t>https://consumer.dev.nest.joybird.com/</t>
-  </si>
-  <si>
-    <t>svg[title='Search']</t>
-  </si>
-  <si>
-    <t>JOY_BIRD_02</t>
-  </si>
-  <si>
-    <t>JOY_BIRD_03</t>
-  </si>
-  <si>
-    <t>svg[class*='relative']</t>
-  </si>
-  <si>
-    <t>//*[name()='svg'][contains(@class, 'relative')]</t>
-  </si>
-  <si>
-    <t>JOY_BIRD_04</t>
-  </si>
-  <si>
-    <t>//div[@data-xc='DesktopTopNav']/ul[contains(@class, 'flex-row')]/li[contains(@class, 'items-center')]//span</t>
-  </si>
-  <si>
-    <t>JOY_BIRD_05</t>
-  </si>
-  <si>
-    <t>ABHI_VYAKTI_01</t>
-  </si>
-  <si>
-    <t>https://www.abhivyaktigarbamahotsav.com/</t>
-  </si>
-  <si>
-    <t>div[class*='col-md-']:nth-of-type(3) div[class='video_icon'] img</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-md-')][2]//div[@class='video_icon']//img</t>
-  </si>
-  <si>
-    <t>div[class*='col-md-'] div[class='video_icon'] img</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-md-')]//div[@class='video_icon']//img</t>
-  </si>
-  <si>
-    <t>ABHI_VYAKTI_02</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-']:nth-of-type(1) div[class='box-border']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-lg-')][1]/div[@class='box-border']</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-'] div[class='box-border']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-lg-')]/div[@class='box-border']</t>
-  </si>
-  <si>
-    <t>ABHI_VYAKTI_03</t>
-  </si>
-  <si>
-    <t>div[class*='col-md-']:nth-of-type(4)&gt;a:nth-of-type(1)</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-md-')][4]/a[1]</t>
-  </si>
-  <si>
-    <t>div[class*='col-md-']&gt;a</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-md-')]/a</t>
-  </si>
-  <si>
-    <t>a:contains(Privacy Policy)</t>
-  </si>
-  <si>
-    <t>//a[contains(text(), 'Privacy Policy')]</t>
-  </si>
-  <si>
-    <t>ABHI_VYAKTI_04</t>
-  </si>
-  <si>
-    <t>div[id='workshops']:nth-of-type(5) p</t>
-  </si>
-  <si>
-    <t>//div[@id='workshops'][1]//p</t>
-  </si>
-  <si>
-    <t>div[id='workshops'] p</t>
-  </si>
-  <si>
-    <t>//div[@id='workshops']//p</t>
-  </si>
-  <si>
-    <t>p:contains(Navratri celebrations all across India, especially in the states of Gujarat are a sight to behold. Through Abhivyakti Garba Mahotsav, Garba festival has gone global covering states of Madhya Pradesh and Rajasthan. Bhopal, Indore and Jaipur are the cities that gets coloured with the vibrant shades of Garba.)</t>
-  </si>
-  <si>
-    <t>//p[contains(text(), 'Navratri celebrations all across India, especially in the states of Gujarat are a sight to behold. Through Abhivyakti Garba Mahotsav, Garba festival has gone global covering states of Madhya Pradesh and Rajasthan. Bhopal, Indore and Jaipur are the cities that gets coloured with the vibrant shades of Garba.')]</t>
-  </si>
-  <si>
-    <t>APOLLO_HOSPITAL_01</t>
-  </si>
-  <si>
-    <t>https://www.apollohospitals.com/indoreapolloconsultleads/?utm_source=paid&amp;utm_medium=cpc&amp;utm_campaign=12302623805&amp;utm_adgroup=120477017191&amp;utm_match_type=b&amp;network=g&amp;ad=547283151982&amp;utm_device=c&amp;utm_term=apollo%20hospital&amp;utm_gclid=CjwKCAjwyNSoBhA9EiwA5aYlb9cudAr0osMrZ-YS7dv5fzoecLoWsyfIRLQ5KgISpscMec5SGd28fxoC4n8QAvD_BwE&amp;gad=1&amp;gclid=CjwKCAjwyNSoBhA9EiwA5aYlb9cudAr0osMrZ-YS7dv5fzoecLoWsyfIRLQ5KgISpscMec5SGd28fxoC4n8QAvD_BwE#SanitationMethods</t>
-  </si>
-  <si>
-    <t>div[class*='col-sm-']:nth-of-type(1) div[class='covid-safe-wrap'] h5[class='acr-txt']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-sm-')][1]/div[@class='covid-safe-wrap']//h5[@class='acr-txt']</t>
-  </si>
-  <si>
-    <t>div[class*='col-sm-'] div[class='covid-safe-wrap'] h5[class='acr-txt']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-sm-')]/div[@class='covid-safe-wrap']//h5[@class='acr-txt']</t>
-  </si>
-  <si>
-    <t>h5:contains(Extra Sanitation Methods)</t>
-  </si>
-  <si>
-    <t>//h5[contains(text(), 'Extra Sanitation Methods')]</t>
-  </si>
-  <si>
-    <t>left Click</t>
-  </si>
-  <si>
-    <t>APOLLO_HOSPITAL_02</t>
-  </si>
-  <si>
-    <t>section[id='Cardiology'] h2</t>
-  </si>
-  <si>
-    <t>//section[@id='Cardiology']//h2</t>
-  </si>
-  <si>
-    <t>h2:contains(Cardiology)</t>
-  </si>
-  <si>
-    <t>//h2[contains(text(), 'Cardiology')]</t>
-  </si>
-  <si>
-    <t>EPFO_01</t>
-  </si>
-  <si>
-    <t>https://www.epfindia.gov.in/site_en/EODB.php</t>
-  </si>
-  <si>
-    <t>span[class='nor_letter']:nth-of-type(2)</t>
-  </si>
-  <si>
-    <t>//span[@class='nor_letter'][1]</t>
-  </si>
-  <si>
-    <t>span[class='nor_letter']</t>
-  </si>
-  <si>
-    <t>//span[@class='nor_letter']</t>
-  </si>
-  <si>
-    <t>span:contains(ase)</t>
-  </si>
-  <si>
-    <t>//span[contains(text(), 'ase')]</t>
-  </si>
-  <si>
-    <t>EPFO_02</t>
-  </si>
-  <si>
-    <t>//div[@id='footer_link']/a[1]</t>
-  </si>
-  <si>
-    <t>//div[@id='footer_link']/a</t>
-  </si>
-  <si>
-    <t>a:contains(Home)</t>
-  </si>
-  <si>
-    <t>(//a[contains(text(), 'Home')])[2]</t>
-  </si>
-  <si>
-    <t>EPFO_03</t>
-  </si>
-  <si>
-    <t>https://www.epfindia.gov.in/site_en/International_workers.php</t>
-  </si>
-  <si>
-    <t>//div[@class='iternl_wrkr']/span[@class='nor_letter'][1]</t>
-  </si>
-  <si>
-    <t>//div[@class='iternl_wrkr']/span[@class='nor_letter']</t>
-  </si>
-  <si>
-    <t>span:contains(PERATING)</t>
-  </si>
-  <si>
-    <t>//span[contains(text(), 'PERATING')]</t>
-  </si>
-  <si>
-    <t>EPFO_04</t>
-  </si>
-  <si>
-    <t>span[id='copyrt']</t>
-  </si>
-  <si>
-    <t>//span[@id='copyrt']</t>
-  </si>
-  <si>
-    <t>JEEVAN_PRAMAAN_01</t>
-  </si>
-  <si>
-    <t>https://jeevanpramaan.gov.in/locator</t>
-  </si>
-  <si>
-    <t>img[alt='Logo']</t>
-  </si>
-  <si>
-    <t>//img[@alt='Logo']</t>
-  </si>
-  <si>
-    <t>JEEVAN_PRAMAAN_02</t>
-  </si>
-  <si>
-    <t>https://jeevanpramaan.gov.in/</t>
-  </si>
-  <si>
-    <t>//li[@class='year'][1]/i[@class='fa fa-pencil']</t>
-  </si>
-  <si>
-    <t>//li[@class='year']/i[@class='fa fa-pencil']</t>
-  </si>
-  <si>
-    <t>JEEVAN_PRAMAAN_03</t>
-  </si>
-  <si>
-    <t>//ul[@class='nav main-nav']/li[4]/a[@class='scroll']</t>
-  </si>
-  <si>
-    <t>//ul[@class='nav main-nav']/li/a[@class='scroll']</t>
-  </si>
-  <si>
-    <t>a:contains(Locate a Centre)</t>
-  </si>
-  <si>
-    <t>(//a[contains(text(), 'Locate a Centre')])[1]</t>
-  </si>
-  <si>
-    <t>JEEVAN_PRAMAAN_04</t>
-  </si>
-  <si>
-    <t>//p[@class='footer-text copyright'][1]/a[1]</t>
-  </si>
-  <si>
-    <t>//p[@class='footer-text copyright']/a</t>
-  </si>
-  <si>
-    <t>a:contains(Help)</t>
-  </si>
-  <si>
-    <t>//a[contains(text(), 'Help')]</t>
-  </si>
-  <si>
-    <t>JEEVAN_PRAMAAN_05</t>
-  </si>
-  <si>
-    <t>p[class='footer-text copyright']:nth-of-type(4)</t>
-  </si>
-  <si>
-    <t>//p[@class='footer-text copyright'][4]</t>
-  </si>
-  <si>
-    <t>p[class='footer-text copyright']</t>
-  </si>
-  <si>
-    <t>//p[@class='footer-text copyright']</t>
-  </si>
-  <si>
-    <t>p:contains(Last reviewed and updated on 31st Oct, 2023)</t>
-  </si>
-  <si>
-    <t>//p[contains(text(), 'Last reviewed and updated on 31st Oct, 2023')]</t>
-  </si>
-  <si>
-    <t>UITRGPV_AC_01</t>
-  </si>
-  <si>
-    <t>https://www.uitrgpv.ac.in/</t>
-  </si>
-  <si>
-    <t>button[class='btn-close']</t>
-  </si>
-  <si>
-    <t>UITRGPV_AC_02</t>
-  </si>
-  <si>
-    <t>UITRGPV_AC_03</t>
-  </si>
-  <si>
-    <t>UITRGPV_AC_04</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-md-')][1]/div[@class='ctg_content']//h4</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-md-')]/div[@class='ctg_content']//h4</t>
-  </si>
-  <si>
-    <t>h4:contains(Miscellaneous)</t>
-  </si>
-  <si>
-    <t>//h4[contains(text(), 'Miscellaneous')]</t>
-  </si>
-  <si>
-    <t>UITRGPV_AC_05</t>
-  </si>
-  <si>
-    <t>a[class='overlay-link play-now ripple']</t>
-  </si>
-  <si>
-    <t>//a[@class='overlay-link play-now ripple']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-lg-')][2]//ul[@class='list-item']/li[1]/a</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-lg-')]//ul[@class='list-item']/li/a</t>
-  </si>
-  <si>
-    <t>a:contains(Photo Gallery)</t>
-  </si>
-  <si>
-    <t>//a[contains(text(), 'Photo Gallery')]</t>
-  </si>
-  <si>
-    <t>Demo_QA_01</t>
-  </si>
-  <si>
-    <t>https://demoqa.com/radio-button</t>
-  </si>
-  <si>
-    <t>span:contains(Text Box)</t>
-  </si>
-  <si>
-    <t>//span[contains(text(), 'Text Box')]</t>
-  </si>
-  <si>
-    <t>Demo_QA_02</t>
-  </si>
-  <si>
-    <t>https://demoqa.com/</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'card')][3]//h5</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'card')]//h5</t>
-  </si>
-  <si>
-    <t>h5:contains(Alerts, Frame &amp; Windows)</t>
-  </si>
-  <si>
-    <t>//h5[contains(text(), 'Alerts, Frame &amp; Windows')]</t>
-  </si>
-  <si>
-    <t>Demo_QA_03</t>
-  </si>
-  <si>
-    <t>div[class*='mb-']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'mb-')]</t>
-  </si>
-  <si>
-    <t>div:contains(Do you like the site?)</t>
-  </si>
-  <si>
-    <t>//div[contains(text(), 'Do you like the site?')]</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>div[class='ng-star-inserted']:nth-of-type(1)&gt;div[class*='form-group']:nth-of-type(1) div[class*='white-back']:nth-of-type(3)&gt;div[class*='col-xs-']:nth-of-type(1)</t>
-  </si>
-  <si>
-    <t>div[class='copyRightsText'] &gt; p:nth-of-type(2)</t>
-  </si>
-  <si>
-    <t>tr:nth-of-type(1) &gt; td[data-th='OFFICER']</t>
-  </si>
-  <si>
-    <t>tr &gt; td[data-th='OFFICER']</t>
-  </si>
-  <si>
-    <t>tr:nth-of-type(1) &gt; td[data-th*='Title'] &gt; span[class='bt-content']</t>
-  </si>
-  <si>
-    <t>//tr[1]/td[contains(@data-th, 'Title')]/span[@class='bt-content']</t>
-  </si>
-  <si>
-    <t>tr &gt; td[data-th*='Title'] &gt; span[class='bt-content']</t>
-  </si>
-  <si>
-    <t>//tr/td[contains(@data-th, 'Title')]/span[@class='bt-content']</t>
-  </si>
-  <si>
-    <t>div[id*='post-'] &gt; p:nth-of-type(2)</t>
-  </si>
-  <si>
-    <t>div[id*='post-'] &gt; p</t>
-  </si>
-  <si>
-    <t>a[rel='external'] &gt; img</t>
-  </si>
-  <si>
-    <t>div[class='float-right hidden-xs'] &gt; p</t>
-  </si>
-  <si>
-    <t>JOY_BIRD_06</t>
-  </si>
-  <si>
-    <t>https://joybird.com/</t>
-  </si>
-  <si>
-    <t>iframe[scrolling='no']</t>
-  </si>
-  <si>
-    <t>//iframe[@scrolling='no']</t>
-  </si>
-  <si>
-    <t>Shubham</t>
-  </si>
-  <si>
-    <t>//footer//div[contains(@class, 'col-lg-')][1]//ul[@class='list-item']/i[@class='la la-angle-right'][1]</t>
-  </si>
-  <si>
-    <t>//footer//div[contains(@class, 'col-lg-')]//ul[@class='list-item']/i[@class='la la-angle-right']</t>
-  </si>
-  <si>
-    <t>kapil</t>
-  </si>
-  <si>
-    <t>Demo_QA_04</t>
-  </si>
-  <si>
-    <t>https://demoqa.com/select-menu</t>
-  </si>
-  <si>
-    <t>//div[@class='row'][2]/div[contains(@class, 'col-md-')]/div[contains(@class, 'css-')]/div[contains(@class, 'css-')][1]/div[contains(@class, 'css-')][1]</t>
-  </si>
-  <si>
-    <t>//div[@class='row']/div[contains(@class, 'col-md-')]/div[contains(@class, 'css-')]/div[contains(@class, 'css-')]/div[contains(@class, 'css-')]</t>
-  </si>
-  <si>
-    <t>div:contains(Select...)</t>
-  </si>
-  <si>
-    <t>//div[contains(text(), 'Select...')]</t>
-  </si>
-  <si>
-    <t>Demo_QA_05</t>
-  </si>
-  <si>
-    <t>https://demoqa.com/menu#</t>
-  </si>
-  <si>
-    <t>ul[id='nav']&gt;li:nth-of-type(1)&gt;a</t>
-  </si>
-  <si>
-    <t>//ul[@id='nav']/li[1]/a</t>
-  </si>
-  <si>
-    <t>ul[id='nav']&gt;li&gt;a</t>
-  </si>
-  <si>
-    <t>//ul[@id='nav']/li/a</t>
-  </si>
-  <si>
-    <t>a:contains(Main Item 1)</t>
-  </si>
-  <si>
-    <t>//a[contains(text(), 'Main Item 1')]</t>
-  </si>
-  <si>
-    <t>Free_Jobs_Alert_01</t>
-  </si>
-  <si>
-    <t>https://www.freejobalert.com/government-jobs/</t>
-  </si>
-  <si>
-    <t>input[id*='gsc-i-id']</t>
-  </si>
-  <si>
-    <t>//input[contains(@id, 'gsc-i-id')]</t>
-  </si>
-  <si>
-    <t>Free_Jobs_Alert_02</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'gb-grid-column')][1]//ul/li[1]/a</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'gb-grid-column')]//ul/li/a</t>
-  </si>
-  <si>
-    <t>a:contains(Latest Notifications)</t>
-  </si>
-  <si>
-    <t>(//a[contains(text(), 'Latest Notifications')])[2]</t>
-  </si>
-  <si>
-    <t>ul[id='menu-footer-en']&gt;li[id*='menu-item-']:nth-of-type(1)&gt;a</t>
-  </si>
-  <si>
-    <t>//ul[@id='menu-footer-en']/li[contains(@id, 'menu-item-')][1]/a</t>
-  </si>
-  <si>
-    <t>ul[id='menu-footer-en']&gt;li[id*='menu-item-']&gt;a</t>
-  </si>
-  <si>
-    <t>//ul[@id='menu-footer-en']/li[contains(@id, 'menu-item-')]/a</t>
-  </si>
-  <si>
-    <t>li[aria-haspopup='true']:nth-of-type(2) &gt; a</t>
-  </si>
-  <si>
-    <t>li[aria-haspopup='true'] &gt; a</t>
-  </si>
-  <si>
-    <t>a[title='Election Commission Of India'] &gt; div[class='list-text']</t>
-  </si>
-  <si>
-    <t>a[title='New Tap Connection'] span[class*='icon-supply']</t>
-  </si>
-  <si>
-    <t>//a[@title='New Tap Connection']//span[contains(@class, 'icon-supply')]</t>
-  </si>
-  <si>
-    <t>input[id='captchaAnswer']</t>
-  </si>
-  <si>
-    <t>//input[@id='captchaAnswer']</t>
-  </si>
-  <si>
-    <t>li:nth-of-type(1) &gt; a[routerlinkactive='active']</t>
-  </si>
-  <si>
-    <t>li &gt; a[routerlinkactive='active']</t>
-  </si>
-  <si>
-    <t>//*[name()='svg'][@title='Search']</t>
-  </si>
-  <si>
-    <t>a[data-xc='living-room'] &gt; span[class*='items-center']</t>
-  </si>
-  <si>
-    <t>//a[@data-xc='living-room']/span[contains(@class, 'items-center')]</t>
-  </si>
-  <si>
-    <t>span:contains(Living Room)</t>
-  </si>
-  <si>
-    <t>ul[class*='flex-row']:nth-of-type(1)&gt;li[class*='items-center']:nth-of-type(2) span</t>
-  </si>
-  <si>
-    <t>ul[class*='flex-row']&gt;li[class*='items-center'] span</t>
-  </si>
-  <si>
-    <t>span:contains(Showrooms)</t>
-  </si>
-  <si>
-    <t>//span[contains(text(), 'Showrooms')]</t>
-  </si>
-  <si>
-    <t>//div[@data-xc='DesktopTopNav']/ul[contains(@class, 'flex-row')][1]/li[contains(@class, 'items-center')][2]//span</t>
-  </si>
-  <si>
-    <t>(//span[contains(text(), 'Living Room')])[1]</t>
-  </si>
-  <si>
-    <t>//button[contains(@class, 'group')][5]/span[contains(@class, 'leading-')]</t>
-  </si>
-  <si>
-    <t>button[class*='group']:nth-of-type(5) &gt; span[class*='leading-']</t>
-  </si>
-  <si>
-    <t>div[class='ng-star-inserted']&gt;div[class*='form-group'] div[class*='white-back']&gt;div[class*='col-xs-']</t>
-  </si>
-  <si>
-    <t>div[class='copyRightsText'] &gt; p</t>
-  </si>
-  <si>
-    <t>div[class*='row'] &gt; span &gt; strong</t>
-  </si>
-  <si>
-    <t>CSS already unique</t>
-  </si>
-  <si>
-    <t>//span[@class='fa fa-angle-up ng-star-inserted']</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-']:nth-of-type(3) button[class='btn_Tab']:nth-of-type(1)&gt;span[class='footer_headings']</t>
-  </si>
-  <si>
-    <t>//div[contains(@class, 'col-lg-')][3]//button[@class='btn_Tab'][1]/span[@class='footer_headings']</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-'] button[class='btn_Tab']&gt;span[class='footer_headings']</t>
-  </si>
-  <si>
-    <t>div[class*='gb-grid-column']:nth-of-type(1) ul&gt;li:nth-of-type(1)&gt;a</t>
-  </si>
-  <si>
-    <t>div[class*='gb-grid-column'] ul&gt;li&gt;a</t>
-  </si>
-  <si>
-    <t>div[class='element-list collapse show'] &gt; ul[class='menu-list']&gt;li[id*='item-']:nth-of-type(1)&gt;span[class='text']</t>
-  </si>
-  <si>
-    <t>//div[@class='element-list collapse show']/ul[@class='menu-list']/li[contains(@id, 'item-')][1]/span[@class='text']</t>
-  </si>
-  <si>
-    <t>div[class='element-list collapse show'] &gt; ul[class='menu-list']&gt;li[id*='item-']&gt;span[class='text']</t>
-  </si>
-  <si>
-    <t>//div[@class='element-list collapse show']/ul[@class='menu-list']/li[contains(@id, 'item-')]/span[@class='text']</t>
-  </si>
-  <si>
-    <t>div[class*='card']:nth-of-type(3)&gt;div h5</t>
-  </si>
-  <si>
-    <t>div[class*='card']&gt;div h5</t>
-  </si>
-  <si>
-    <t>div[class='row'] &gt; div[class*='col-md-'] &gt; div[class*='css-'] &gt; div[class*='css-']:nth-of-type(1) &gt; div[class*='css-']:nth-of-type(1)</t>
-  </si>
-  <si>
-    <t>div[class='row'] &gt; div[class*='col-md-'] &gt; div[class*='css-'] &gt; div[class*='css-'] &gt; div[class*='css-']</t>
-  </si>
-  <si>
-    <t>div[id='footer_link'] &gt; a:nth-of-type(1)</t>
-  </si>
-  <si>
-    <t>div[id='footer_link'] &gt; a</t>
-  </si>
-  <si>
-    <t>div[class='iternl_wrkr'] &gt; span[class='nor_letter']:nth-of-type(2)</t>
-  </si>
-  <si>
-    <t>div[class='iternl_wrkr'] &gt; span[class='nor_letter']</t>
-  </si>
-  <si>
-    <t>p-dropdown[id='journeyQuota'] &gt; div[class*='ng-tns-c']</t>
-  </si>
-  <si>
-    <t>form[class='ng-pristine ng-valid ng-touched'] i[class='fa fa-map-marker']</t>
-  </si>
-  <si>
-    <t>//form[@class='ng-pristine ng-valid ng-touched']//i[@class='fa fa-map-marker']</t>
-  </si>
-  <si>
-    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-']:nth-of-type(4) div[class*='ui-dropdown-label-co']</t>
-  </si>
-  <si>
-    <t>form[class='ng-pristine ng-valid ng-touched'] div[class*='col-lg-'] div[class*='ui-dropdown-label-co']</t>
-  </si>
-  <si>
-    <t>div[class='ng-star-inserted']:nth-of-type(1)&gt;div[class*='form-group']:nth-of-type(1) span[class='pull-left hidden-xs']</t>
-  </si>
-  <si>
-    <t>div[class='ng-star-inserted']&gt;div[class*='form-group'] span[class='pull-left hidden-xs']</t>
-  </si>
-  <si>
-    <t>//div[@class='ng-star-inserted'][6]//table//td[@class='ng-star-inserted'][1]//div[contains(@class, 'col-xs-')]</t>
-  </si>
-  <si>
-    <t>div[class='border-all ng-star-inserted'] div[class='sliderDiv ng-star-inserted']:nth-of-type(2) span[class*='ui-slider-range']</t>
-  </si>
-  <si>
-    <t>//div[@class='border-all ng-star-inserted']//div[@class='sliderDiv ng-star-inserted'][1]//span[contains(@class, 'ui-slider-range')]</t>
-  </si>
-  <si>
-    <t>div[class='border-all ng-star-inserted'] div[class='sliderDiv ng-star-inserted'] span[class*='ui-slider-range']</t>
-  </si>
-  <si>
-    <t>//div[@class='border-all ng-star-inserted']//div[@class='sliderDiv ng-star-inserted']//span[contains(@class, 'ui-slider-range')]</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-']:nth-of-type(1)&gt;div[class='footer_col'] ul[class='list-item']&gt;i[class='la la-angle-right']:nth-of-type(1)</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-']&gt;div[class='footer_col'] ul[class='list-item']&gt;i[class='la la-angle-right']</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-']:nth-of-type(2) ul[class='list-item']&gt;li:nth-of-type(1)&gt;a</t>
-  </si>
-  <si>
-    <t>div[class*='col-lg-'] ul[class='list-item']&gt;li&gt;a</t>
-  </si>
-  <si>
-    <t>ul[class='nav main-nav']&gt;li:nth-of-type(4)&gt;a[class='scroll']</t>
-  </si>
-  <si>
-    <t>ul[class='nav main-nav']&gt;li&gt;a[class='scroll']</t>
-  </si>
-  <si>
-    <t>li[class='year'] &gt; i[class='fa fa-pencil']</t>
-  </si>
-  <si>
-    <t>p[class='footer-text copyright']:nth-of-type(1) &gt; a:nth-of-type(1)</t>
-  </si>
-  <si>
-    <t>p[class='footer-text copyright'] &gt; a</t>
-  </si>
-  <si>
-    <t>cross origin iframe yet not supported.</t>
-  </si>
-  <si>
-    <t>iframe[id='Disha-Bot']</t>
-  </si>
-  <si>
-    <t>//iframe[@id='Disha-Bot']</t>
-  </si>
-  <si>
-    <t>SHUBHAM</t>
-  </si>
-  <si>
-    <t>svg[class='sc-DJfgX jNGuMj']:nth-of-type(4)</t>
-  </si>
-  <si>
-    <t>//div[@class='sc-hJxCPi bPGCAB']//*[name()='svg'][@class='sc-DJfgX jNGuMj'][1]</t>
-  </si>
-  <si>
-    <t>svg[class='sc-DJfgX jNGuMj']</t>
-  </si>
-  <si>
-    <t>//div[@class='sc-hJxCPi bPGCAB']//*[name()='svg'][@class='sc-DJfgX jNGuMj']</t>
-  </si>
-  <si>
-    <t>JOY_BIRD_Iframe_07</t>
-  </si>
-  <si>
-    <t>https://joybird.com</t>
-  </si>
-  <si>
-    <t>IRCTC_TC__23</t>
-  </si>
-  <si>
-    <t>IRCTC_TC_Iframe_24</t>
-  </si>
-  <si>
-    <t>https://demoqa.com/frames</t>
-  </si>
-  <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>//html</t>
-  </si>
-  <si>
-    <t>div[id*='frame']:nth-of-type(2) &gt; iframe[id*='frame']</t>
-  </si>
-  <si>
-    <t>//div[@id='framesWrapper']/div[contains(@id, 'frame')][1]/iframe[contains(@id, 'frame')]</t>
-  </si>
-  <si>
-    <t>h1[id='sampleHeading']</t>
-  </si>
-  <si>
-    <t>//h1[@id='sampleHeading']</t>
-  </si>
-  <si>
-    <t>h1:contains(This is a sample page)</t>
-  </si>
-  <si>
-    <t>//h1[contains(text(), 'This is a sample page')]</t>
-  </si>
-  <si>
-    <t>div[class*='mt-'] &gt; iframe[id*='frame']</t>
-  </si>
-  <si>
-    <t>//div[contains(@id, 'frame')][contains(@class, 'mt-')]/iframe[contains(@id, 'frame')]</t>
-  </si>
-  <si>
-    <t>https://demoqa.com/nestedframes</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>//body</t>
-  </si>
-  <si>
-    <t>//div[@id='framesWrapper']//iframe[contains(@id, 'frame')]</t>
-  </si>
-  <si>
-    <t>body:contains(Parent frame)</t>
-  </si>
-  <si>
-    <t>//body[contains(text(), 'Parent frame')]</t>
-  </si>
-  <si>
-    <t>Demo_QA_Iframe_06</t>
-  </si>
-  <si>
-    <t>Demo_QA_Iframe_07</t>
-  </si>
-  <si>
-    <t>Demo_QA_Iframe_08</t>
-  </si>
-  <si>
-    <t>Demo_QA_Iframe_09</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/en-US/docs/Web/HTML/Element/iframe</t>
-  </si>
-  <si>
-    <t>iframe[class*='inter']</t>
-  </si>
-  <si>
-    <t>//iframe[contains(@class, 'inter')]</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/en-US/docs/Web/HTML/Element/iframe#deprecated_attributes</t>
-  </si>
-  <si>
-    <t>iframe[id='frame_a_simple_iframe']</t>
-  </si>
-  <si>
-    <t>Developer_mozilla_Iframe_01</t>
-  </si>
-  <si>
-    <t>Developer_mozilla_Iframe_02</t>
-  </si>
-  <si>
-    <t>//iframe[@id='frame_a_simple_iframe']</t>
-  </si>
-  <si>
-    <t>https://www.k8oms.net/links/embed-url-iframe</t>
-  </si>
-  <si>
-    <t>div[data-code*='DOCTYPE'] &gt; iframe[title='Custom embed']</t>
-  </si>
-  <si>
-    <t>//div[contains(@data-code, 'DOCTYPE')]/iframe[@title='Custom embed']</t>
-  </si>
-  <si>
-    <t>k8oms_Iframe_01</t>
-  </si>
-  <si>
-    <t>//button[@class='btn-close']</t>
-  </si>
-  <si>
-    <t>div[class*='col-md-']:nth-of-type(1)&gt;div[class='ctg_content'] h4</t>
-  </si>
-  <si>
-    <t>div[class*='col-md-']&gt;div[class='ctg_content'] h4</t>
-  </si>
-  <si>
-    <t>indiapost_TC_01</t>
-  </si>
-  <si>
-    <t>https://www.indiapost.gov.in/vas/Pages/IndiaPostHome.aspx</t>
-  </si>
-  <si>
-    <t>img[id='india-post-logo']</t>
-  </si>
-  <si>
-    <t>//img[@id='india-post-logo']</t>
-  </si>
-  <si>
-    <t>indiapost_TC_02</t>
-  </si>
-  <si>
-    <t>img[id='emblem-of-india-logo']</t>
-  </si>
-  <si>
-    <t>//img[@id='emblem-of-india-logo']</t>
-  </si>
-  <si>
-    <t>left click</t>
-  </si>
-  <si>
-    <t>indiapost_TC_03</t>
-  </si>
-  <si>
-    <t>img[alt*='Web']</t>
-  </si>
-  <si>
-    <t>//img[contains(@alt, 'Web')]</t>
-  </si>
-  <si>
-    <t>indiapost_TC_04</t>
-  </si>
-  <si>
-    <t>img[id='feature-box-item-image/']</t>
-  </si>
-  <si>
-    <t>//img[@id='feature-box-item-image/']</t>
-  </si>
-  <si>
-    <t>indiapost_TC_05</t>
-  </si>
-  <si>
-    <t>label[class='control-label radio-inline']:nth-of-type(3) &gt; input[id*='ctl']</t>
-  </si>
-  <si>
-    <t>//label[@class='control-label radio-inline'][2]/input[contains(@id, 'ctl')]</t>
-  </si>
-  <si>
-    <t>label[class='control-label radio-inline'] &gt; input[id*='ctl']</t>
-  </si>
-  <si>
-    <t>//label[@class='control-label radio-inline']/input[contains(@id, 'ctl')]</t>
-  </si>
-  <si>
-    <t>indiapost_TC_06</t>
-  </si>
-  <si>
-    <t>indiapost_TC_07</t>
-  </si>
-  <si>
-    <t>img[id*='ctl']</t>
-  </si>
-  <si>
-    <t>//img[contains(@id, 'ctl')]</t>
-  </si>
-  <si>
-    <t>indiapost_TC_08</t>
-  </si>
-  <si>
-    <t>input[class*='btn']</t>
-  </si>
-  <si>
-    <t>//input[contains(@class, 'btn')]</t>
-  </si>
-  <si>
-    <t>indiapost_TC_09</t>
-  </si>
-  <si>
-    <t>div[id='feature-box-item-helpline'] &gt; h4:nth-of-type(1)</t>
-  </si>
-  <si>
-    <t>//div[@id='feature-box-item-helpline']/h4[1]</t>
-  </si>
-  <si>
-    <t>div[id='feature-box-item-helpline'] &gt; h4</t>
-  </si>
-  <si>
-    <t>//div[@id='feature-box-item-helpline']/h4</t>
-  </si>
-  <si>
-    <t>h4:contains(Toll Free Enquiry Helpline:)</t>
-  </si>
-  <si>
-    <t>//h4[contains(text(), 'Toll Free Enquiry Helpline:')]</t>
-  </si>
-  <si>
-    <t>indiapost_TC_10</t>
-  </si>
-  <si>
-    <t>img[alt='Calculate Postage']</t>
-  </si>
-  <si>
-    <t>//img[@alt='Calculate Postage']</t>
-  </si>
-  <si>
-    <t>input[aria-label='Enter a valid consignment number']</t>
-  </si>
-  <si>
-    <t>//input[@aria-label='Enter a valid consignment number']</t>
+    <t>div[class='c-PJLV c-bXbWpx c-bXbWpx-icOztnM-css'] &gt; div[class*='c-PJLV']:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//div[@class='c-PJLV c-bXbWpx c-bXbWpx-icOztnM-css']/div[contains(@class, 'c-PJLV')][1]</t>
+  </si>
+  <si>
+    <t>div[class='c-PJLV c-bXbWpx c-bXbWpx-icOztnM-css'] &gt; div[class*='c-PJLV']</t>
+  </si>
+  <si>
+    <t>//div[@class='c-PJLV c-bXbWpx c-bXbWpx-icOztnM-css']/div[contains(@class, 'c-PJLV')]</t>
+  </si>
+  <si>
+    <t>Pharm_Easy_02</t>
+  </si>
+  <si>
+    <t>div[id*='discoverOfferings-']:nth-of-type(1) span[class*='c-kkmdlQ']:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>//div[contains(@id, 'discoverOfferings-')][1]//span[contains(@class, 'c-kkmdlQ')][1]</t>
+  </si>
+  <si>
+    <t>div[id*='discoverOfferings-'] span[class*='c-kkmdlQ']</t>
+  </si>
+  <si>
+    <t>//div[contains(@id, 'discoverOfferings-')]//span[contains(@class, 'c-kkmdlQ')]</t>
+  </si>
+  <si>
+    <t>span:contains(Medicine)</t>
+  </si>
+  <si>
+    <t>(//span[contains(text(), 'Medicine')])[10]</t>
+  </si>
+  <si>
+    <t>Pharm_Easy_03</t>
+  </si>
+  <si>
+    <t>Pharm_Easy_04</t>
+  </si>
+  <si>
+    <t>h1[class='OrderMedicine_lhsHeader__ZvTts']</t>
+  </si>
+  <si>
+    <t>//h1[@class='OrderMedicine_lhsHeader__ZvTts']</t>
+  </si>
+  <si>
+    <t>h1:contains(Order Medicines Online)</t>
+  </si>
+  <si>
+    <t>(//h1[contains(text(), 'Order Medicines Online')])[1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="11">
     <font>
       <sz val="10"/>
@@ -2006,15 +2099,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2035,35 +2128,35 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -2084,37 +2177,37 @@
     </row>
     <row r="2" spans="1:27" ht="79.2">
       <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -2135,37 +2228,37 @@
     </row>
     <row r="3" spans="1:27" ht="79.2">
       <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -2186,37 +2279,37 @@
     </row>
     <row r="4" spans="1:27" ht="92.4">
       <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="K4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -2237,37 +2330,37 @@
     </row>
     <row r="5" spans="1:27" ht="79.2">
       <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -2288,37 +2381,37 @@
     </row>
     <row r="6" spans="1:27" ht="39.6">
       <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -2339,37 +2432,37 @@
     </row>
     <row r="7" spans="1:27" ht="158.4">
       <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -2390,37 +2483,37 @@
     </row>
     <row r="8" spans="1:27" ht="79.2">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>426</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -2441,37 +2534,37 @@
     </row>
     <row r="9" spans="1:27" ht="158.4">
       <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -2492,37 +2585,37 @@
     </row>
     <row r="10" spans="1:27" ht="105.6">
       <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="J10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="K10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -2543,37 +2636,37 @@
     </row>
     <row r="11" spans="1:27" ht="105.6">
       <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="K11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -2594,37 +2687,37 @@
     </row>
     <row r="12" spans="1:27" ht="39.6">
       <c r="A12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -2645,37 +2738,37 @@
     </row>
     <row r="13" spans="1:27" ht="105.6">
       <c r="A13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -2696,37 +2789,37 @@
     </row>
     <row r="14" spans="1:27" ht="118.8">
       <c r="A14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="K14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -2747,37 +2840,37 @@
     </row>
     <row r="15" spans="1:27" ht="158.4">
       <c r="A15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I15" s="9" t="s">
+      <c r="J15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="K15" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -2798,37 +2891,37 @@
     </row>
     <row r="16" spans="1:27" ht="105.6">
       <c r="A16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="J16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="K16" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -2849,37 +2942,37 @@
     </row>
     <row r="17" spans="1:27" ht="132">
       <c r="A17" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>435</v>
-      </c>
       <c r="G17" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -2900,37 +2993,37 @@
     </row>
     <row r="18" spans="1:27" ht="105.6">
       <c r="A18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -2951,37 +3044,37 @@
     </row>
     <row r="19" spans="1:27" ht="145.19999999999999">
       <c r="A19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="K19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -3002,37 +3095,37 @@
     </row>
     <row r="20" spans="1:27" ht="92.4">
       <c r="A20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="K20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -3053,37 +3146,37 @@
     </row>
     <row r="21" spans="1:27" ht="39.6">
       <c r="A21" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -3104,37 +3197,37 @@
     </row>
     <row r="22" spans="1:27" ht="52.8">
       <c r="A22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -3155,37 +3248,37 @@
     </row>
     <row r="23" spans="1:27" ht="52.8">
       <c r="A23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="G23" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="K23" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -3206,37 +3299,37 @@
     </row>
     <row r="24" spans="1:27" ht="145.80000000000001" thickBot="1">
       <c r="A24" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="G24" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -3257,34 +3350,34 @@
     </row>
     <row r="25" spans="1:27" ht="27" thickBot="1">
       <c r="A25" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>446</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>447</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -3304,37 +3397,37 @@
     </row>
     <row r="26" spans="1:27" ht="66">
       <c r="A26" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="G26" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="K26" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -3355,37 +3448,37 @@
     </row>
     <row r="27" spans="1:27" ht="66">
       <c r="A27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I27" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="K27" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -3406,37 +3499,37 @@
     </row>
     <row r="28" spans="1:27" ht="66">
       <c r="A28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I28" s="9" t="s">
+      <c r="J28" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="K28" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
@@ -3457,37 +3550,37 @@
     </row>
     <row r="29" spans="1:27" ht="39.6">
       <c r="A29" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="G29" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -3508,37 +3601,37 @@
     </row>
     <row r="30" spans="1:27" ht="26.4">
       <c r="A30" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="C30" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="F30" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>134</v>
-      </c>
       <c r="G30" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
@@ -3559,37 +3652,37 @@
     </row>
     <row r="31" spans="1:27" ht="13.2">
       <c r="A31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="C31" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="E31" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -3610,37 +3703,37 @@
     </row>
     <row r="32" spans="1:27" ht="66">
       <c r="A32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I32" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="K32" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -3661,37 +3754,37 @@
     </row>
     <row r="33" spans="1:27" ht="92.4">
       <c r="A33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I33" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="K33" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -3712,37 +3805,37 @@
     </row>
     <row r="34" spans="1:27" ht="26.4">
       <c r="A34" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I34" s="5" t="s">
+      <c r="J34" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="J34" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="K34" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -3763,37 +3856,37 @@
     </row>
     <row r="35" spans="1:27" ht="66">
       <c r="A35" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="F35" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="F35" s="9" t="s">
+      <c r="G35" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I35" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I35" s="9" t="s">
+      <c r="J35" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="J35" s="9" t="s">
-        <v>158</v>
-      </c>
       <c r="K35" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -3814,37 +3907,37 @@
     </row>
     <row r="36" spans="1:27" ht="92.4">
       <c r="A36" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I36" s="5" t="s">
+      <c r="J36" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="J36" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="K36" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -3865,37 +3958,37 @@
     </row>
     <row r="37" spans="1:27" ht="26.4">
       <c r="A37" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="E37" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -3916,37 +4009,37 @@
     </row>
     <row r="38" spans="1:27" ht="66">
       <c r="A38" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I38" s="5" t="s">
+      <c r="J38" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="J38" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="K38" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -3967,37 +4060,37 @@
     </row>
     <row r="39" spans="1:27" ht="66">
       <c r="A39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="I39" s="5" t="s">
+      <c r="J39" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J39" s="5" t="s">
-   